--- a/edge_research/dataout/18mpip.xlsx
+++ b/edge_research/dataout/18mpip.xlsx
@@ -482,7 +482,7 @@
         <v>1.35494</v>
       </c>
       <c r="C2">
-        <v>31.49999999999986</v>
+        <v>31.5</v>
       </c>
       <c r="D2">
         <v>1.35809</v>
@@ -491,7 +491,7 @@
         <v>43102.45763888889</v>
       </c>
       <c r="F2">
-        <v>-2.900000000001235</v>
+        <v>-2.9</v>
       </c>
       <c r="G2">
         <v>1.35465</v>
@@ -503,7 +503,7 @@
         <v>1.35583</v>
       </c>
       <c r="J2">
-        <v>22.60000000000151</v>
+        <v>22.6</v>
       </c>
       <c r="K2">
         <v>1.35809</v>
@@ -512,7 +512,7 @@
         <v>43102.45763888889</v>
       </c>
       <c r="M2">
-        <v>-11.79999999999959</v>
+        <v>-11.8</v>
       </c>
       <c r="N2">
         <v>1.35465</v>
@@ -529,7 +529,7 @@
         <v>1.34995</v>
       </c>
       <c r="C3">
-        <v>15.10000000000122</v>
+        <v>15.1</v>
       </c>
       <c r="D3">
         <v>1.35146</v>
@@ -550,7 +550,7 @@
         <v>1.35106</v>
       </c>
       <c r="J3">
-        <v>4.00000000000178</v>
+        <v>4</v>
       </c>
       <c r="K3">
         <v>1.35146</v>
@@ -559,7 +559,7 @@
         <v>43103.45625</v>
       </c>
       <c r="M3">
-        <v>-11.09999999999944</v>
+        <v>-11.1</v>
       </c>
       <c r="N3">
         <v>1.34995</v>
@@ -576,7 +576,7 @@
         <v>1.35534</v>
       </c>
       <c r="C4">
-        <v>2.99999999999967</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1.35564</v>
@@ -585,7 +585,7 @@
         <v>43104.43819444445</v>
       </c>
       <c r="F4">
-        <v>-3.40000000000007</v>
+        <v>-3.4</v>
       </c>
       <c r="G4">
         <v>1.355</v>
@@ -597,7 +597,7 @@
         <v>1.3556</v>
       </c>
       <c r="J4">
-        <v>0.4000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="K4">
         <v>1.35564</v>
@@ -606,7 +606,7 @@
         <v>43104.43819444445</v>
       </c>
       <c r="M4">
-        <v>-5.999999999999339</v>
+        <v>-6</v>
       </c>
       <c r="N4">
         <v>1.355</v>
@@ -623,7 +623,7 @@
         <v>1.35622</v>
       </c>
       <c r="C5">
-        <v>2.000000000002</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1.35642</v>
@@ -632,7 +632,7 @@
         <v>43105.43958333333</v>
       </c>
       <c r="F5">
-        <v>-10.49999999999995</v>
+        <v>-10.5</v>
       </c>
       <c r="G5">
         <v>1.35517</v>
@@ -644,7 +644,7 @@
         <v>1.35534</v>
       </c>
       <c r="J5">
-        <v>10.80000000000192</v>
+        <v>10.8</v>
       </c>
       <c r="K5">
         <v>1.35642</v>
@@ -653,7 +653,7 @@
         <v>43105.43958333333</v>
       </c>
       <c r="M5">
-        <v>-1.700000000000035</v>
+        <v>-1.7</v>
       </c>
       <c r="N5">
         <v>1.35517</v>
@@ -670,7 +670,7 @@
         <v>1.35537</v>
       </c>
       <c r="C6">
-        <v>27.30000000000121</v>
+        <v>27.3</v>
       </c>
       <c r="D6">
         <v>1.3581</v>
@@ -679,7 +679,7 @@
         <v>43108.45902777778</v>
       </c>
       <c r="F6">
-        <v>-3.100000000000325</v>
+        <v>-3.1</v>
       </c>
       <c r="G6">
         <v>1.35506</v>
@@ -691,7 +691,7 @@
         <v>1.35578</v>
       </c>
       <c r="J6">
-        <v>23.200000000001</v>
+        <v>23.2</v>
       </c>
       <c r="K6">
         <v>1.3581</v>
@@ -700,7 +700,7 @@
         <v>43108.45902777778</v>
       </c>
       <c r="M6">
-        <v>-7.200000000000539</v>
+        <v>-7.2</v>
       </c>
       <c r="N6">
         <v>1.35506</v>
@@ -717,7 +717,7 @@
         <v>1.35157</v>
       </c>
       <c r="C7">
-        <v>12.19999999999777</v>
+        <v>12.2</v>
       </c>
       <c r="D7">
         <v>1.35279</v>
@@ -726,7 +726,7 @@
         <v>43109.45486111111</v>
       </c>
       <c r="F7">
-        <v>-4.900000000003235</v>
+        <v>-4.9</v>
       </c>
       <c r="G7">
         <v>1.35108</v>
@@ -738,7 +738,7 @@
         <v>1.35209</v>
       </c>
       <c r="J7">
-        <v>6.999999999999229</v>
+        <v>7</v>
       </c>
       <c r="K7">
         <v>1.35279</v>
@@ -747,7 +747,7 @@
         <v>43109.45486111111</v>
       </c>
       <c r="M7">
-        <v>-10.10000000000177</v>
+        <v>-10.1</v>
       </c>
       <c r="N7">
         <v>1.35108</v>
@@ -764,7 +764,7 @@
         <v>1.35315</v>
       </c>
       <c r="C8">
-        <v>1.99999999999978</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>1.35335</v>
@@ -773,7 +773,7 @@
         <v>43110.43958333333</v>
       </c>
       <c r="F8">
-        <v>-9.100000000001884</v>
+        <v>-9.1</v>
       </c>
       <c r="G8">
         <v>1.35224</v>
@@ -785,7 +785,7 @@
         <v>1.35238</v>
       </c>
       <c r="J8">
-        <v>9.700000000001374</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K8">
         <v>1.35335</v>
@@ -794,7 +794,7 @@
         <v>43110.43958333333</v>
       </c>
       <c r="M8">
-        <v>-1.40000000000029</v>
+        <v>-1.4</v>
       </c>
       <c r="N8">
         <v>1.35224</v>
@@ -811,7 +811,7 @@
         <v>1.35334</v>
       </c>
       <c r="C9">
-        <v>9.799999999999809</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D9">
         <v>1.35432</v>
@@ -832,7 +832,7 @@
         <v>1.35394</v>
       </c>
       <c r="J9">
-        <v>3.80000000000047</v>
+        <v>3.8</v>
       </c>
       <c r="K9">
         <v>1.35432</v>
@@ -841,7 +841,7 @@
         <v>43111.44652777778</v>
       </c>
       <c r="M9">
-        <v>-5.999999999999339</v>
+        <v>-6</v>
       </c>
       <c r="N9">
         <v>1.35334</v>
@@ -858,7 +858,7 @@
         <v>1.36733</v>
       </c>
       <c r="C10">
-        <v>15.80000000000137</v>
+        <v>15.8</v>
       </c>
       <c r="D10">
         <v>1.36891</v>
@@ -867,7 +867,7 @@
         <v>43112.45902777778</v>
       </c>
       <c r="F10">
-        <v>-1.500000000000945</v>
+        <v>-1.5</v>
       </c>
       <c r="G10">
         <v>1.36718</v>
@@ -879,7 +879,7 @@
         <v>1.36773</v>
       </c>
       <c r="J10">
-        <v>11.80000000000181</v>
+        <v>11.8</v>
       </c>
       <c r="K10">
         <v>1.36891</v>
@@ -888,7 +888,7 @@
         <v>43112.45902777778</v>
       </c>
       <c r="M10">
-        <v>-5.500000000000504</v>
+        <v>-5.5</v>
       </c>
       <c r="N10">
         <v>1.36718</v>
@@ -905,7 +905,7 @@
         <v>1.37839</v>
       </c>
       <c r="C11">
-        <v>22.59999999999929</v>
+        <v>22.6</v>
       </c>
       <c r="D11">
         <v>1.38065</v>
@@ -914,7 +914,7 @@
         <v>43115.45902777778</v>
       </c>
       <c r="F11">
-        <v>-4.100000000000215</v>
+        <v>-4.1</v>
       </c>
       <c r="G11">
         <v>1.37798</v>
@@ -926,7 +926,7 @@
         <v>1.37951</v>
       </c>
       <c r="J11">
-        <v>11.39999999999919</v>
+        <v>11.4</v>
       </c>
       <c r="K11">
         <v>1.38065</v>
@@ -935,7 +935,7 @@
         <v>43115.45902777778</v>
       </c>
       <c r="M11">
-        <v>-15.30000000000031</v>
+        <v>-15.3</v>
       </c>
       <c r="N11">
         <v>1.37798</v>
@@ -952,7 +952,7 @@
         <v>1.37637</v>
       </c>
       <c r="C12">
-        <v>10.29999999999864</v>
+        <v>10.3</v>
       </c>
       <c r="D12">
         <v>1.3774</v>
@@ -973,7 +973,7 @@
         <v>1.37731</v>
       </c>
       <c r="J12">
-        <v>0.8999999999992347</v>
+        <v>0.9</v>
       </c>
       <c r="K12">
         <v>1.3774</v>
@@ -982,7 +982,7 @@
         <v>43116.45</v>
       </c>
       <c r="M12">
-        <v>-9.399999999999409</v>
+        <v>-9.4</v>
       </c>
       <c r="N12">
         <v>1.37637</v>
@@ -999,7 +999,7 @@
         <v>1.38047</v>
       </c>
       <c r="C13">
-        <v>30.69999999999906</v>
+        <v>30.7</v>
       </c>
       <c r="D13">
         <v>1.38354</v>
@@ -1008,7 +1008,7 @@
         <v>43117.45902777778</v>
       </c>
       <c r="F13">
-        <v>-5.500000000000504</v>
+        <v>-5.5</v>
       </c>
       <c r="G13">
         <v>1.37992</v>
@@ -1020,7 +1020,7 @@
         <v>1.38062</v>
       </c>
       <c r="J13">
-        <v>29.19999999999812</v>
+        <v>29.2</v>
       </c>
       <c r="K13">
         <v>1.38354</v>
@@ -1029,7 +1029,7 @@
         <v>43117.45902777778</v>
       </c>
       <c r="M13">
-        <v>-7.00000000000145</v>
+        <v>-7</v>
       </c>
       <c r="N13">
         <v>1.37992</v>
@@ -1046,7 +1046,7 @@
         <v>1.38751</v>
       </c>
       <c r="C14">
-        <v>17.19999999999944</v>
+        <v>17.2</v>
       </c>
       <c r="D14">
         <v>1.38923</v>
@@ -1055,7 +1055,7 @@
         <v>43118.45694444444</v>
       </c>
       <c r="F14">
-        <v>-9.999999999998899</v>
+        <v>-10</v>
       </c>
       <c r="G14">
         <v>1.38651</v>
@@ -1067,7 +1067,7 @@
         <v>1.38694</v>
       </c>
       <c r="J14">
-        <v>22.89999999999903</v>
+        <v>22.9</v>
       </c>
       <c r="K14">
         <v>1.38923</v>
@@ -1076,7 +1076,7 @@
         <v>43118.45694444444</v>
       </c>
       <c r="M14">
-        <v>-4.299999999999304</v>
+        <v>-4.3</v>
       </c>
       <c r="N14">
         <v>1.38651</v>
@@ -1093,7 +1093,7 @@
         <v>1.3864</v>
       </c>
       <c r="C15">
-        <v>4.399999999999959</v>
+        <v>4.4</v>
       </c>
       <c r="D15">
         <v>1.38684</v>
@@ -1102,7 +1102,7 @@
         <v>43119.44722222222</v>
       </c>
       <c r="F15">
-        <v>-21.80000000000071</v>
+        <v>-21.8</v>
       </c>
       <c r="G15">
         <v>1.38422</v>
@@ -1114,7 +1114,7 @@
         <v>1.38664</v>
       </c>
       <c r="J15">
-        <v>2.000000000002</v>
+        <v>2</v>
       </c>
       <c r="K15">
         <v>1.38684</v>
@@ -1123,7 +1123,7 @@
         <v>43119.44722222222</v>
       </c>
       <c r="M15">
-        <v>-24.19999999999867</v>
+        <v>-24.2</v>
       </c>
       <c r="N15">
         <v>1.38422</v>
@@ -1140,7 +1140,7 @@
         <v>1.39386</v>
       </c>
       <c r="C16">
-        <v>29.29999999999877</v>
+        <v>29.3</v>
       </c>
       <c r="D16">
         <v>1.39679</v>
@@ -1161,7 +1161,7 @@
         <v>1.39594</v>
       </c>
       <c r="J16">
-        <v>8.500000000000174</v>
+        <v>8.5</v>
       </c>
       <c r="K16">
         <v>1.39679</v>
@@ -1170,7 +1170,7 @@
         <v>43122.45833333334</v>
       </c>
       <c r="M16">
-        <v>-20.7999999999986</v>
+        <v>-20.8</v>
       </c>
       <c r="N16">
         <v>1.39386</v>
@@ -1187,7 +1187,7 @@
         <v>1.40138</v>
       </c>
       <c r="C17">
-        <v>9.800000000002029</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D17">
         <v>1.40236</v>
@@ -1196,7 +1196,7 @@
         <v>43123.44583333333</v>
       </c>
       <c r="F17">
-        <v>-5.299999999999194</v>
+        <v>-5.3</v>
       </c>
       <c r="G17">
         <v>1.40085</v>
@@ -1208,7 +1208,7 @@
         <v>1.40173</v>
       </c>
       <c r="J17">
-        <v>6.300000000001305</v>
+        <v>6.3</v>
       </c>
       <c r="K17">
         <v>1.40236</v>
@@ -1217,7 +1217,7 @@
         <v>43123.44583333333</v>
       </c>
       <c r="M17">
-        <v>-8.799999999999919</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="N17">
         <v>1.40085</v>
@@ -1234,7 +1234,7 @@
         <v>1.42149</v>
       </c>
       <c r="C18">
-        <v>22.99999999999969</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>1.42379</v>
@@ -1243,7 +1243,7 @@
         <v>43124.45069444444</v>
       </c>
       <c r="F18">
-        <v>-2.899999999999014</v>
+        <v>-2.9</v>
       </c>
       <c r="G18">
         <v>1.4212</v>
@@ -1255,7 +1255,7 @@
         <v>1.42257</v>
       </c>
       <c r="J18">
-        <v>12.19999999999777</v>
+        <v>12.2</v>
       </c>
       <c r="K18">
         <v>1.42379</v>
@@ -1264,7 +1264,7 @@
         <v>43124.45069444444</v>
       </c>
       <c r="M18">
-        <v>-13.70000000000093</v>
+        <v>-13.7</v>
       </c>
       <c r="N18">
         <v>1.4212</v>
@@ -1281,7 +1281,7 @@
         <v>1.43019</v>
       </c>
       <c r="C19">
-        <v>4.199999999998649</v>
+        <v>4.2</v>
       </c>
       <c r="D19">
         <v>1.43061</v>
@@ -1290,7 +1290,7 @@
         <v>43125.45902777778</v>
       </c>
       <c r="F19">
-        <v>-17.40000000000075</v>
+        <v>-17.4</v>
       </c>
       <c r="G19">
         <v>1.42845</v>
@@ -1302,7 +1302,7 @@
         <v>1.42946</v>
       </c>
       <c r="J19">
-        <v>11.49999999999984</v>
+        <v>11.5</v>
       </c>
       <c r="K19">
         <v>1.43061</v>
@@ -1311,7 +1311,7 @@
         <v>43125.45902777778</v>
       </c>
       <c r="M19">
-        <v>-10.09999999999955</v>
+        <v>-10.1</v>
       </c>
       <c r="N19">
         <v>1.42845</v>
@@ -1328,7 +1328,7 @@
         <v>1.41631</v>
       </c>
       <c r="C20">
-        <v>27.39999999999965</v>
+        <v>27.4</v>
       </c>
       <c r="D20">
         <v>1.41905</v>
@@ -1337,7 +1337,7 @@
         <v>43126.44722222222</v>
       </c>
       <c r="F20">
-        <v>-7.699999999999374</v>
+        <v>-7.7</v>
       </c>
       <c r="G20">
         <v>1.41554</v>
@@ -1349,7 +1349,7 @@
         <v>1.41887</v>
       </c>
       <c r="J20">
-        <v>1.799999999998469</v>
+        <v>1.8</v>
       </c>
       <c r="K20">
         <v>1.41905</v>
@@ -1358,7 +1358,7 @@
         <v>43126.44722222222</v>
       </c>
       <c r="M20">
-        <v>-33.30000000000055</v>
+        <v>-33.3</v>
       </c>
       <c r="N20">
         <v>1.41554</v>
@@ -1375,7 +1375,7 @@
         <v>1.40836</v>
       </c>
       <c r="C21">
-        <v>6.699999999999484</v>
+        <v>6.7</v>
       </c>
       <c r="D21">
         <v>1.40903</v>
@@ -1384,7 +1384,7 @@
         <v>43129.44097222222</v>
       </c>
       <c r="F21">
-        <v>-23.6000000000014</v>
+        <v>-23.6</v>
       </c>
       <c r="G21">
         <v>1.406</v>
@@ -1396,7 +1396,7 @@
         <v>1.40749</v>
       </c>
       <c r="J21">
-        <v>15.40000000000097</v>
+        <v>15.4</v>
       </c>
       <c r="K21">
         <v>1.40903</v>
@@ -1405,7 +1405,7 @@
         <v>43129.44097222222</v>
       </c>
       <c r="M21">
-        <v>-14.89999999999991</v>
+        <v>-14.9</v>
       </c>
       <c r="N21">
         <v>1.406</v>
@@ -1422,7 +1422,7 @@
         <v>1.41265</v>
       </c>
       <c r="C22">
-        <v>14.10000000000133</v>
+        <v>14.1</v>
       </c>
       <c r="D22">
         <v>1.41406</v>
@@ -1431,7 +1431,7 @@
         <v>43130.45347222222</v>
       </c>
       <c r="F22">
-        <v>-14.49999999999951</v>
+        <v>-14.5</v>
       </c>
       <c r="G22">
         <v>1.4112</v>
@@ -1443,7 +1443,7 @@
         <v>1.41234</v>
       </c>
       <c r="J22">
-        <v>17.20000000000166</v>
+        <v>17.2</v>
       </c>
       <c r="K22">
         <v>1.41406</v>
@@ -1452,7 +1452,7 @@
         <v>43130.45347222222</v>
       </c>
       <c r="M22">
-        <v>-11.39999999999919</v>
+        <v>-11.4</v>
       </c>
       <c r="N22">
         <v>1.4112</v>
@@ -1469,7 +1469,7 @@
         <v>1.41962</v>
       </c>
       <c r="C23">
-        <v>32.99999999999859</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>1.42292</v>
@@ -1478,7 +1478,7 @@
         <v>43131.45972222222</v>
       </c>
       <c r="F23">
-        <v>-17.20000000000166</v>
+        <v>-17.2</v>
       </c>
       <c r="G23">
         <v>1.4179</v>
@@ -1490,7 +1490,7 @@
         <v>1.41923</v>
       </c>
       <c r="J23">
-        <v>36.89999999999971</v>
+        <v>36.9</v>
       </c>
       <c r="K23">
         <v>1.42292</v>
@@ -1499,7 +1499,7 @@
         <v>43131.45972222222</v>
       </c>
       <c r="M23">
-        <v>-13.30000000000053</v>
+        <v>-13.3</v>
       </c>
       <c r="N23">
         <v>1.4179</v>
@@ -1516,7 +1516,7 @@
         <v>1.42203</v>
       </c>
       <c r="C24">
-        <v>29.20000000000034</v>
+        <v>29.2</v>
       </c>
       <c r="D24">
         <v>1.42495</v>
@@ -1537,7 +1537,7 @@
         <v>1.42439</v>
       </c>
       <c r="J24">
-        <v>5.599999999998939</v>
+        <v>5.6</v>
       </c>
       <c r="K24">
         <v>1.42495</v>
@@ -1546,7 +1546,7 @@
         <v>43132.45625</v>
       </c>
       <c r="M24">
-        <v>-23.6000000000014</v>
+        <v>-23.6</v>
       </c>
       <c r="N24">
         <v>1.42203</v>
@@ -1572,7 +1572,7 @@
         <v>43133.4375</v>
       </c>
       <c r="F25">
-        <v>-26.00000000000158</v>
+        <v>-26</v>
       </c>
       <c r="G25">
         <v>1.41031</v>
@@ -1584,7 +1584,7 @@
         <v>1.41115</v>
       </c>
       <c r="J25">
-        <v>17.60000000000206</v>
+        <v>17.6</v>
       </c>
       <c r="K25">
         <v>1.41291</v>
@@ -1593,7 +1593,7 @@
         <v>43133.4375</v>
       </c>
       <c r="M25">
-        <v>-8.399999999999519</v>
+        <v>-8.4</v>
       </c>
       <c r="N25">
         <v>1.41031</v>
@@ -1610,7 +1610,7 @@
         <v>1.40236</v>
       </c>
       <c r="C26">
-        <v>4.999999999999449</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>1.40286</v>
@@ -1619,7 +1619,7 @@
         <v>43136.44305555556</v>
       </c>
       <c r="F26">
-        <v>-10.60000000000061</v>
+        <v>-10.6</v>
       </c>
       <c r="G26">
         <v>1.4013</v>
@@ -1631,7 +1631,7 @@
         <v>1.40211</v>
       </c>
       <c r="J26">
-        <v>7.500000000000284</v>
+        <v>7.5</v>
       </c>
       <c r="K26">
         <v>1.40286</v>
@@ -1640,7 +1640,7 @@
         <v>43136.44305555556</v>
       </c>
       <c r="M26">
-        <v>-8.099999999999774</v>
+        <v>-8.1</v>
       </c>
       <c r="N26">
         <v>1.4013</v>
@@ -1657,7 +1657,7 @@
         <v>1.38596</v>
       </c>
       <c r="C27">
-        <v>53.19999999999769</v>
+        <v>53.2</v>
       </c>
       <c r="D27">
         <v>1.39128</v>
@@ -1666,7 +1666,7 @@
         <v>43137.45972222222</v>
       </c>
       <c r="F27">
-        <v>-2.899999999999014</v>
+        <v>-2.9</v>
       </c>
       <c r="G27">
         <v>1.38567</v>
@@ -1678,7 +1678,7 @@
         <v>1.38764</v>
       </c>
       <c r="J27">
-        <v>36.39999999999866</v>
+        <v>36.4</v>
       </c>
       <c r="K27">
         <v>1.39128</v>
@@ -1687,7 +1687,7 @@
         <v>43137.45972222222</v>
       </c>
       <c r="M27">
-        <v>-19.69999999999805</v>
+        <v>-19.7</v>
       </c>
       <c r="N27">
         <v>1.38567</v>
@@ -1704,7 +1704,7 @@
         <v>1.39057</v>
       </c>
       <c r="C28">
-        <v>12.39999999999908</v>
+        <v>12.4</v>
       </c>
       <c r="D28">
         <v>1.39181</v>
@@ -1713,7 +1713,7 @@
         <v>43138.44375</v>
       </c>
       <c r="F28">
-        <v>-23.40000000000231</v>
+        <v>-23.4</v>
       </c>
       <c r="G28">
         <v>1.38823</v>
@@ -1725,7 +1725,7 @@
         <v>1.39112</v>
       </c>
       <c r="J28">
-        <v>6.899999999998574</v>
+        <v>6.9</v>
       </c>
       <c r="K28">
         <v>1.39181</v>
@@ -1734,7 +1734,7 @@
         <v>43138.44375</v>
       </c>
       <c r="M28">
-        <v>-28.90000000000281</v>
+        <v>-28.9</v>
       </c>
       <c r="N28">
         <v>1.38823</v>
@@ -1751,7 +1751,7 @@
         <v>1.40125</v>
       </c>
       <c r="C29">
-        <v>19.59999999999962</v>
+        <v>19.6</v>
       </c>
       <c r="D29">
         <v>1.40321</v>
@@ -1760,7 +1760,7 @@
         <v>43139.44930555556</v>
       </c>
       <c r="F29">
-        <v>-17.60000000000206</v>
+        <v>-17.6</v>
       </c>
       <c r="G29">
         <v>1.39949</v>
@@ -1772,7 +1772,7 @@
         <v>1.40231</v>
       </c>
       <c r="J29">
-        <v>9.000000000001229</v>
+        <v>9</v>
       </c>
       <c r="K29">
         <v>1.40321</v>
@@ -1781,7 +1781,7 @@
         <v>43139.44930555556</v>
       </c>
       <c r="M29">
-        <v>-28.20000000000045</v>
+        <v>-28.2</v>
       </c>
       <c r="N29">
         <v>1.39949</v>
@@ -1798,7 +1798,7 @@
         <v>1.3801</v>
       </c>
       <c r="C30">
-        <v>20.70000000000016</v>
+        <v>20.7</v>
       </c>
       <c r="D30">
         <v>1.38217</v>
@@ -1807,7 +1807,7 @@
         <v>43140.45625</v>
       </c>
       <c r="F30">
-        <v>-14.00000000000068</v>
+        <v>-14</v>
       </c>
       <c r="G30">
         <v>1.3787</v>
@@ -1819,7 +1819,7 @@
         <v>1.38041</v>
       </c>
       <c r="J30">
-        <v>17.59999999999984</v>
+        <v>17.6</v>
       </c>
       <c r="K30">
         <v>1.38217</v>
@@ -1828,7 +1828,7 @@
         <v>43140.45625</v>
       </c>
       <c r="M30">
-        <v>-17.100000000001</v>
+        <v>-17.1</v>
       </c>
       <c r="N30">
         <v>1.3787</v>
@@ -1845,7 +1845,7 @@
         <v>1.38067</v>
       </c>
       <c r="C31">
-        <v>10.49999999999995</v>
+        <v>10.5</v>
       </c>
       <c r="D31">
         <v>1.38172</v>
@@ -1854,7 +1854,7 @@
         <v>43143.45625</v>
       </c>
       <c r="F31">
-        <v>-3.100000000000325</v>
+        <v>-3.1</v>
       </c>
       <c r="G31">
         <v>1.38036</v>
@@ -1866,7 +1866,7 @@
         <v>1.38036</v>
       </c>
       <c r="J31">
-        <v>13.60000000000028</v>
+        <v>13.6</v>
       </c>
       <c r="K31">
         <v>1.38172</v>
@@ -1892,7 +1892,7 @@
         <v>1.38937</v>
       </c>
       <c r="C32">
-        <v>7.900000000000684</v>
+        <v>7.9</v>
       </c>
       <c r="D32">
         <v>1.39016</v>
@@ -1901,7 +1901,7 @@
         <v>43144.44444444445</v>
       </c>
       <c r="F32">
-        <v>-17.30000000000009</v>
+        <v>-17.3</v>
       </c>
       <c r="G32">
         <v>1.38764</v>
@@ -1913,7 +1913,7 @@
         <v>1.38953</v>
       </c>
       <c r="J32">
-        <v>6.300000000001305</v>
+        <v>6.3</v>
       </c>
       <c r="K32">
         <v>1.39016</v>
@@ -1922,7 +1922,7 @@
         <v>43144.44444444445</v>
       </c>
       <c r="M32">
-        <v>-18.89999999999947</v>
+        <v>-18.9</v>
       </c>
       <c r="N32">
         <v>1.38764</v>
@@ -1939,7 +1939,7 @@
         <v>1.38952</v>
       </c>
       <c r="C33">
-        <v>70.69999999999909</v>
+        <v>70.7</v>
       </c>
       <c r="D33">
         <v>1.39659</v>
@@ -1960,7 +1960,7 @@
         <v>1.39353</v>
       </c>
       <c r="J33">
-        <v>30.60000000000063</v>
+        <v>30.6</v>
       </c>
       <c r="K33">
         <v>1.39659</v>
@@ -1969,7 +1969,7 @@
         <v>43145.45694444444</v>
       </c>
       <c r="M33">
-        <v>-40.09999999999847</v>
+        <v>-40.1</v>
       </c>
       <c r="N33">
         <v>1.38952</v>
@@ -1995,7 +1995,7 @@
         <v>43146.4375</v>
       </c>
       <c r="F34">
-        <v>-17.40000000000075</v>
+        <v>-17.4</v>
       </c>
       <c r="G34">
         <v>1.40483</v>
@@ -2007,7 +2007,7 @@
         <v>1.40524</v>
       </c>
       <c r="J34">
-        <v>13.30000000000053</v>
+        <v>13.3</v>
       </c>
       <c r="K34">
         <v>1.40657</v>
@@ -2016,7 +2016,7 @@
         <v>43146.4375</v>
       </c>
       <c r="M34">
-        <v>-4.100000000000215</v>
+        <v>-4.1</v>
       </c>
       <c r="N34">
         <v>1.40483</v>
@@ -2033,7 +2033,7 @@
         <v>1.40462</v>
       </c>
       <c r="C35">
-        <v>13.50000000000184</v>
+        <v>13.5</v>
       </c>
       <c r="D35">
         <v>1.40597</v>
@@ -2042,7 +2042,7 @@
         <v>43147.45486111111</v>
       </c>
       <c r="F35">
-        <v>-13.19999999999988</v>
+        <v>-13.2</v>
       </c>
       <c r="G35">
         <v>1.4033</v>
@@ -2054,7 +2054,7 @@
         <v>1.40481</v>
       </c>
       <c r="J35">
-        <v>11.6000000000005</v>
+        <v>11.6</v>
       </c>
       <c r="K35">
         <v>1.40597</v>
@@ -2063,7 +2063,7 @@
         <v>43147.45486111111</v>
       </c>
       <c r="M35">
-        <v>-15.10000000000122</v>
+        <v>-15.1</v>
       </c>
       <c r="N35">
         <v>1.4033</v>
@@ -2080,7 +2080,7 @@
         <v>1.39815</v>
       </c>
       <c r="C36">
-        <v>13.09999999999922</v>
+        <v>13.1</v>
       </c>
       <c r="D36">
         <v>1.39946</v>
@@ -2089,7 +2089,7 @@
         <v>43150.45625</v>
       </c>
       <c r="F36">
-        <v>-6.200000000000649</v>
+        <v>-6.2</v>
       </c>
       <c r="G36">
         <v>1.39753</v>
@@ -2101,7 +2101,7 @@
         <v>1.39782</v>
       </c>
       <c r="J36">
-        <v>16.39999999999864</v>
+        <v>16.4</v>
       </c>
       <c r="K36">
         <v>1.39946</v>
@@ -2110,7 +2110,7 @@
         <v>43150.45625</v>
       </c>
       <c r="M36">
-        <v>-2.900000000001235</v>
+        <v>-2.9</v>
       </c>
       <c r="N36">
         <v>1.39753</v>
@@ -2127,7 +2127,7 @@
         <v>1.39886</v>
       </c>
       <c r="C37">
-        <v>18.19999999999933</v>
+        <v>18.2</v>
       </c>
       <c r="D37">
         <v>1.40068</v>
@@ -2136,7 +2136,7 @@
         <v>43151.45972222222</v>
       </c>
       <c r="F37">
-        <v>-2.899999999999014</v>
+        <v>-2.9</v>
       </c>
       <c r="G37">
         <v>1.39857</v>
@@ -2148,7 +2148,7 @@
         <v>1.39931</v>
       </c>
       <c r="J37">
-        <v>13.69999999999871</v>
+        <v>13.7</v>
       </c>
       <c r="K37">
         <v>1.40068</v>
@@ -2157,7 +2157,7 @@
         <v>43151.45972222222</v>
       </c>
       <c r="M37">
-        <v>-7.399999999999629</v>
+        <v>-7.4</v>
       </c>
       <c r="N37">
         <v>1.39857</v>
@@ -2174,7 +2174,7 @@
         <v>1.39713</v>
       </c>
       <c r="C38">
-        <v>9.200000000000319</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D38">
         <v>1.39805</v>
@@ -2183,7 +2183,7 @@
         <v>43152.45972222222</v>
       </c>
       <c r="F38">
-        <v>-7.299999999998974</v>
+        <v>-7.3</v>
       </c>
       <c r="G38">
         <v>1.3964</v>
@@ -2195,7 +2195,7 @@
         <v>1.39681</v>
       </c>
       <c r="J38">
-        <v>12.39999999999908</v>
+        <v>12.4</v>
       </c>
       <c r="K38">
         <v>1.39805</v>
@@ -2204,7 +2204,7 @@
         <v>43152.45972222222</v>
       </c>
       <c r="M38">
-        <v>-4.100000000000215</v>
+        <v>-4.1</v>
       </c>
       <c r="N38">
         <v>1.3964</v>
@@ -2221,7 +2221,7 @@
         <v>1.39413</v>
       </c>
       <c r="C39">
-        <v>10.20000000000021</v>
+        <v>10.2</v>
       </c>
       <c r="D39">
         <v>1.39515</v>
@@ -2230,7 +2230,7 @@
         <v>43153.44027777778</v>
       </c>
       <c r="F39">
-        <v>-15.8999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="G39">
         <v>1.39254</v>
@@ -2242,7 +2242,7 @@
         <v>1.39377</v>
       </c>
       <c r="J39">
-        <v>13.79999999999715</v>
+        <v>13.8</v>
       </c>
       <c r="K39">
         <v>1.39515</v>
@@ -2251,7 +2251,7 @@
         <v>43153.44027777778</v>
       </c>
       <c r="M39">
-        <v>-12.30000000000286</v>
+        <v>-12.3</v>
       </c>
       <c r="N39">
         <v>1.39254</v>
@@ -2268,7 +2268,7 @@
         <v>1.39908</v>
       </c>
       <c r="C40">
-        <v>13.40000000000119</v>
+        <v>13.4</v>
       </c>
       <c r="D40">
         <v>1.40042</v>
@@ -2277,7 +2277,7 @@
         <v>43154.44305555556</v>
       </c>
       <c r="F40">
-        <v>-19.49999999999896</v>
+        <v>-19.5</v>
       </c>
       <c r="G40">
         <v>1.39713</v>
@@ -2289,7 +2289,7 @@
         <v>1.40007</v>
       </c>
       <c r="J40">
-        <v>3.499999999998504</v>
+        <v>3.5</v>
       </c>
       <c r="K40">
         <v>1.40042</v>
@@ -2298,7 +2298,7 @@
         <v>43154.44305555556</v>
       </c>
       <c r="M40">
-        <v>-29.40000000000165</v>
+        <v>-29.4</v>
       </c>
       <c r="N40">
         <v>1.39713</v>
@@ -2315,7 +2315,7 @@
         <v>1.39488</v>
       </c>
       <c r="C41">
-        <v>1.900000000001345</v>
+        <v>1.9</v>
       </c>
       <c r="D41">
         <v>1.39507</v>
@@ -2324,7 +2324,7 @@
         <v>43157.43888888889</v>
       </c>
       <c r="F41">
-        <v>-16.29999999999798</v>
+        <v>-16.3</v>
       </c>
       <c r="G41">
         <v>1.39325</v>
@@ -2336,7 +2336,7 @@
         <v>1.39447</v>
       </c>
       <c r="J41">
-        <v>5.999999999999339</v>
+        <v>6</v>
       </c>
       <c r="K41">
         <v>1.39507</v>
@@ -2345,7 +2345,7 @@
         <v>43157.43888888889</v>
       </c>
       <c r="M41">
-        <v>-12.19999999999999</v>
+        <v>-12.2</v>
       </c>
       <c r="N41">
         <v>1.39325</v>
@@ -2371,7 +2371,7 @@
         <v>43158.4375</v>
       </c>
       <c r="F42">
-        <v>-43.80000000000051</v>
+        <v>-43.8</v>
       </c>
       <c r="G42">
         <v>1.38602</v>
@@ -2383,7 +2383,7 @@
         <v>1.38717</v>
       </c>
       <c r="J42">
-        <v>32.30000000000067</v>
+        <v>32.3</v>
       </c>
       <c r="K42">
         <v>1.3904</v>
@@ -2392,7 +2392,7 @@
         <v>43158.4375</v>
       </c>
       <c r="M42">
-        <v>-11.49999999999984</v>
+        <v>-11.5</v>
       </c>
       <c r="N42">
         <v>1.38602</v>
@@ -2418,7 +2418,7 @@
         <v>43159.4375</v>
       </c>
       <c r="F43">
-        <v>-17.00000000000035</v>
+        <v>-17</v>
       </c>
       <c r="G43">
         <v>1.37749</v>
@@ -2430,7 +2430,7 @@
         <v>1.37829</v>
       </c>
       <c r="J43">
-        <v>8.999999999999009</v>
+        <v>9</v>
       </c>
       <c r="K43">
         <v>1.37919</v>
@@ -2439,7 +2439,7 @@
         <v>43159.4375</v>
       </c>
       <c r="M43">
-        <v>-8.000000000001339</v>
+        <v>-8</v>
       </c>
       <c r="N43">
         <v>1.37749</v>
@@ -2456,7 +2456,7 @@
         <v>1.37298</v>
       </c>
       <c r="C44">
-        <v>29.70000000000139</v>
+        <v>29.7</v>
       </c>
       <c r="D44">
         <v>1.37595</v>
@@ -2465,7 +2465,7 @@
         <v>43160.44583333333</v>
       </c>
       <c r="F44">
-        <v>-9.799999999997588</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="G44">
         <v>1.372</v>
@@ -2477,7 +2477,7 @@
         <v>1.37493</v>
       </c>
       <c r="J44">
-        <v>10.20000000000021</v>
+        <v>10.2</v>
       </c>
       <c r="K44">
         <v>1.37595</v>
@@ -2486,7 +2486,7 @@
         <v>43160.44583333333</v>
       </c>
       <c r="M44">
-        <v>-29.29999999999877</v>
+        <v>-29.3</v>
       </c>
       <c r="N44">
         <v>1.372</v>
@@ -2503,7 +2503,7 @@
         <v>1.37769</v>
       </c>
       <c r="C45">
-        <v>12.70000000000104</v>
+        <v>12.7</v>
       </c>
       <c r="D45">
         <v>1.37896</v>
@@ -2512,7 +2512,7 @@
         <v>43161.43958333333</v>
       </c>
       <c r="F45">
-        <v>-11.09999999999944</v>
+        <v>-11.1</v>
       </c>
       <c r="G45">
         <v>1.37658</v>
@@ -2524,7 +2524,7 @@
         <v>1.37739</v>
       </c>
       <c r="J45">
-        <v>15.70000000000071</v>
+        <v>15.7</v>
       </c>
       <c r="K45">
         <v>1.37896</v>
@@ -2533,7 +2533,7 @@
         <v>43161.43958333333</v>
       </c>
       <c r="M45">
-        <v>-8.099999999999774</v>
+        <v>-8.1</v>
       </c>
       <c r="N45">
         <v>1.37658</v>
@@ -2550,7 +2550,7 @@
         <v>1.38146</v>
       </c>
       <c r="C46">
-        <v>32.60000000000041</v>
+        <v>32.6</v>
       </c>
       <c r="D46">
         <v>1.38472</v>
@@ -2559,7 +2559,7 @@
         <v>43164.44305555556</v>
       </c>
       <c r="F46">
-        <v>-2.40000000000018</v>
+        <v>-2.4</v>
       </c>
       <c r="G46">
         <v>1.38122</v>
@@ -2571,7 +2571,7 @@
         <v>1.38419</v>
       </c>
       <c r="J46">
-        <v>5.300000000001415</v>
+        <v>5.3</v>
       </c>
       <c r="K46">
         <v>1.38472</v>
@@ -2580,7 +2580,7 @@
         <v>43164.44305555556</v>
       </c>
       <c r="M46">
-        <v>-29.69999999999917</v>
+        <v>-29.7</v>
       </c>
       <c r="N46">
         <v>1.38122</v>
@@ -2597,7 +2597,7 @@
         <v>1.38924</v>
       </c>
       <c r="C47">
-        <v>5.800000000000249</v>
+        <v>5.8</v>
       </c>
       <c r="D47">
         <v>1.38982</v>
@@ -2606,7 +2606,7 @@
         <v>43165.44930555556</v>
       </c>
       <c r="F47">
-        <v>-10.3999999999993</v>
+        <v>-10.4</v>
       </c>
       <c r="G47">
         <v>1.3882</v>
@@ -2618,7 +2618,7 @@
         <v>1.38962</v>
       </c>
       <c r="J47">
-        <v>1.99999999999978</v>
+        <v>2</v>
       </c>
       <c r="K47">
         <v>1.38982</v>
@@ -2627,7 +2627,7 @@
         <v>43165.44930555556</v>
       </c>
       <c r="M47">
-        <v>-14.19999999999977</v>
+        <v>-14.2</v>
       </c>
       <c r="N47">
         <v>1.3882</v>
@@ -2644,7 +2644,7 @@
         <v>1.387</v>
       </c>
       <c r="C48">
-        <v>27.20000000000056</v>
+        <v>27.2</v>
       </c>
       <c r="D48">
         <v>1.38972</v>
@@ -2665,7 +2665,7 @@
         <v>1.38797</v>
       </c>
       <c r="J48">
-        <v>17.49999999999918</v>
+        <v>17.5</v>
       </c>
       <c r="K48">
         <v>1.38972</v>
@@ -2674,7 +2674,7 @@
         <v>43166.45625</v>
       </c>
       <c r="M48">
-        <v>-9.700000000001374</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="N48">
         <v>1.387</v>
@@ -2700,7 +2700,7 @@
         <v>43167.4375</v>
       </c>
       <c r="F49">
-        <v>-33.00000000000081</v>
+        <v>-33</v>
       </c>
       <c r="G49">
         <v>1.38257</v>
@@ -2712,7 +2712,7 @@
         <v>1.38372</v>
       </c>
       <c r="J49">
-        <v>21.50000000000096</v>
+        <v>21.5</v>
       </c>
       <c r="K49">
         <v>1.38587</v>
@@ -2721,7 +2721,7 @@
         <v>43167.4375</v>
       </c>
       <c r="M49">
-        <v>-11.49999999999984</v>
+        <v>-11.5</v>
       </c>
       <c r="N49">
         <v>1.38257</v>
@@ -2738,7 +2738,7 @@
         <v>1.38778</v>
       </c>
       <c r="C50">
-        <v>6.999999999999229</v>
+        <v>7</v>
       </c>
       <c r="D50">
         <v>1.38848</v>
@@ -2747,7 +2747,7 @@
         <v>43168.44097222222</v>
       </c>
       <c r="F50">
-        <v>-12.50000000000195</v>
+        <v>-12.5</v>
       </c>
       <c r="G50">
         <v>1.38653</v>
@@ -2759,7 +2759,7 @@
         <v>1.3871</v>
       </c>
       <c r="J50">
-        <v>13.79999999999937</v>
+        <v>13.8</v>
       </c>
       <c r="K50">
         <v>1.38848</v>
@@ -2768,7 +2768,7 @@
         <v>43168.44097222222</v>
       </c>
       <c r="M50">
-        <v>-5.700000000001815</v>
+        <v>-5.7</v>
       </c>
       <c r="N50">
         <v>1.38653</v>
@@ -2785,7 +2785,7 @@
         <v>1.38809</v>
       </c>
       <c r="C51">
-        <v>15.19999999999966</v>
+        <v>15.2</v>
       </c>
       <c r="D51">
         <v>1.38961</v>
@@ -2806,7 +2806,7 @@
         <v>1.38879</v>
       </c>
       <c r="J51">
-        <v>8.200000000000429</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K51">
         <v>1.38961</v>
@@ -2815,7 +2815,7 @@
         <v>43171.45972222222</v>
       </c>
       <c r="M51">
-        <v>-6.999999999999229</v>
+        <v>-7</v>
       </c>
       <c r="N51">
         <v>1.38809</v>
@@ -2832,7 +2832,7 @@
         <v>1.39521</v>
       </c>
       <c r="C52">
-        <v>18.29999999999998</v>
+        <v>18.3</v>
       </c>
       <c r="D52">
         <v>1.39704</v>
@@ -2841,7 +2841,7 @@
         <v>43172.45902777778</v>
       </c>
       <c r="F52">
-        <v>-0.6000000000017103</v>
+        <v>-0.6</v>
       </c>
       <c r="G52">
         <v>1.39515</v>
@@ -2853,7 +2853,7 @@
         <v>1.39554</v>
       </c>
       <c r="J52">
-        <v>15.00000000000057</v>
+        <v>15</v>
       </c>
       <c r="K52">
         <v>1.39704</v>
@@ -2862,7 +2862,7 @@
         <v>43172.45902777778</v>
       </c>
       <c r="M52">
-        <v>-3.900000000001125</v>
+        <v>-3.9</v>
       </c>
       <c r="N52">
         <v>1.39515</v>
@@ -2879,7 +2879,7 @@
         <v>1.3959</v>
       </c>
       <c r="C53">
-        <v>6.700000000001705</v>
+        <v>6.7</v>
       </c>
       <c r="D53">
         <v>1.39657</v>
@@ -2888,7 +2888,7 @@
         <v>43173.45902777778</v>
       </c>
       <c r="F53">
-        <v>-2.799999999998359</v>
+        <v>-2.8</v>
       </c>
       <c r="G53">
         <v>1.39562</v>
@@ -2900,7 +2900,7 @@
         <v>1.39645</v>
       </c>
       <c r="J53">
-        <v>1.2000000000012</v>
+        <v>1.2</v>
       </c>
       <c r="K53">
         <v>1.39657</v>
@@ -2909,7 +2909,7 @@
         <v>43173.45902777778</v>
       </c>
       <c r="M53">
-        <v>-8.299999999998864</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="N53">
         <v>1.39562</v>
@@ -2926,7 +2926,7 @@
         <v>1.39707</v>
       </c>
       <c r="C54">
-        <v>15.40000000000097</v>
+        <v>15.4</v>
       </c>
       <c r="D54">
         <v>1.39861</v>
@@ -2935,7 +2935,7 @@
         <v>43174.44722222222</v>
       </c>
       <c r="F54">
-        <v>-1.2000000000012</v>
+        <v>-1.2</v>
       </c>
       <c r="G54">
         <v>1.39695</v>
@@ -2947,7 +2947,7 @@
         <v>1.3982</v>
       </c>
       <c r="J54">
-        <v>4.100000000000215</v>
+        <v>4.1</v>
       </c>
       <c r="K54">
         <v>1.39861</v>
@@ -2956,7 +2956,7 @@
         <v>43174.44722222222</v>
       </c>
       <c r="M54">
-        <v>-12.50000000000195</v>
+        <v>-12.5</v>
       </c>
       <c r="N54">
         <v>1.39695</v>
@@ -2973,7 +2973,7 @@
         <v>1.39282</v>
       </c>
       <c r="C55">
-        <v>5.899999999998684</v>
+        <v>5.9</v>
       </c>
       <c r="D55">
         <v>1.39341</v>
@@ -2982,7 +2982,7 @@
         <v>43175.44097222222</v>
       </c>
       <c r="F55">
-        <v>-33.70000000000095</v>
+        <v>-33.7</v>
       </c>
       <c r="G55">
         <v>1.38945</v>
@@ -2994,7 +2994,7 @@
         <v>1.3915</v>
       </c>
       <c r="J55">
-        <v>19.10000000000078</v>
+        <v>19.1</v>
       </c>
       <c r="K55">
         <v>1.39341</v>
@@ -3003,7 +3003,7 @@
         <v>43175.44097222222</v>
       </c>
       <c r="M55">
-        <v>-20.49999999999885</v>
+        <v>-20.5</v>
       </c>
       <c r="N55">
         <v>1.38945</v>
@@ -3020,7 +3020,7 @@
         <v>1.4045</v>
       </c>
       <c r="C56">
-        <v>7.699999999999374</v>
+        <v>7.7</v>
       </c>
       <c r="D56">
         <v>1.40527</v>
@@ -3029,7 +3029,7 @@
         <v>43178.44305555556</v>
       </c>
       <c r="F56">
-        <v>-11.79999999999959</v>
+        <v>-11.8</v>
       </c>
       <c r="G56">
         <v>1.40332</v>
@@ -3041,7 +3041,7 @@
         <v>1.40457</v>
       </c>
       <c r="J56">
-        <v>6.999999999999229</v>
+        <v>7</v>
       </c>
       <c r="K56">
         <v>1.40527</v>
@@ -3050,7 +3050,7 @@
         <v>43178.44305555556</v>
       </c>
       <c r="M56">
-        <v>-12.49999999999973</v>
+        <v>-12.5</v>
       </c>
       <c r="N56">
         <v>1.40332</v>
@@ -3067,7 +3067,7 @@
         <v>1.39942</v>
       </c>
       <c r="C57">
-        <v>16.00000000000046</v>
+        <v>16</v>
       </c>
       <c r="D57">
         <v>1.40102</v>
@@ -3088,7 +3088,7 @@
         <v>1.39966</v>
       </c>
       <c r="J57">
-        <v>13.60000000000028</v>
+        <v>13.6</v>
       </c>
       <c r="K57">
         <v>1.40102</v>
@@ -3097,7 +3097,7 @@
         <v>43179.45833333334</v>
       </c>
       <c r="M57">
-        <v>-2.40000000000018</v>
+        <v>-2.4</v>
       </c>
       <c r="N57">
         <v>1.39942</v>
@@ -3114,7 +3114,7 @@
         <v>1.40705</v>
       </c>
       <c r="C58">
-        <v>4.80000000000036</v>
+        <v>4.8</v>
       </c>
       <c r="D58">
         <v>1.40753</v>
@@ -3123,7 +3123,7 @@
         <v>43180.43819444445</v>
       </c>
       <c r="F58">
-        <v>-3.599999999999159</v>
+        <v>-3.6</v>
       </c>
       <c r="G58">
         <v>1.40669</v>
@@ -3135,7 +3135,7 @@
         <v>1.40687</v>
       </c>
       <c r="J58">
-        <v>6.599999999998829</v>
+        <v>6.6</v>
       </c>
       <c r="K58">
         <v>1.40753</v>
@@ -3144,7 +3144,7 @@
         <v>43180.43819444445</v>
       </c>
       <c r="M58">
-        <v>-1.80000000000069</v>
+        <v>-1.8</v>
       </c>
       <c r="N58">
         <v>1.40669</v>
@@ -3161,7 +3161,7 @@
         <v>1.41157</v>
       </c>
       <c r="C59">
-        <v>2.40000000000018</v>
+        <v>2.4</v>
       </c>
       <c r="D59">
         <v>1.41181</v>
@@ -3170,7 +3170,7 @@
         <v>43181.43819444445</v>
       </c>
       <c r="F59">
-        <v>-20.49999999999885</v>
+        <v>-20.5</v>
       </c>
       <c r="G59">
         <v>1.40952</v>
@@ -3182,7 +3182,7 @@
         <v>1.41103</v>
       </c>
       <c r="J59">
-        <v>7.800000000000029</v>
+        <v>7.8</v>
       </c>
       <c r="K59">
         <v>1.41181</v>
@@ -3191,7 +3191,7 @@
         <v>43181.43819444445</v>
       </c>
       <c r="M59">
-        <v>-15.099999999999</v>
+        <v>-15.1</v>
       </c>
       <c r="N59">
         <v>1.40952</v>
@@ -3208,7 +3208,7 @@
         <v>1.41601</v>
       </c>
       <c r="C60">
-        <v>10.10000000000177</v>
+        <v>10.1</v>
       </c>
       <c r="D60">
         <v>1.41702</v>
@@ -3217,7 +3217,7 @@
         <v>43182.44375</v>
       </c>
       <c r="F60">
-        <v>-2.899999999999014</v>
+        <v>-2.9</v>
       </c>
       <c r="G60">
         <v>1.41572</v>
@@ -3229,7 +3229,7 @@
         <v>1.41669</v>
       </c>
       <c r="J60">
-        <v>3.300000000001635</v>
+        <v>3.3</v>
       </c>
       <c r="K60">
         <v>1.41702</v>
@@ -3238,7 +3238,7 @@
         <v>43182.44375</v>
       </c>
       <c r="M60">
-        <v>-9.699999999999154</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="N60">
         <v>1.41572</v>
@@ -3255,7 +3255,7 @@
         <v>1.41991</v>
       </c>
       <c r="C61">
-        <v>31.29999999999855</v>
+        <v>31.3</v>
       </c>
       <c r="D61">
         <v>1.42304</v>
@@ -3276,7 +3276,7 @@
         <v>1.42174</v>
       </c>
       <c r="J61">
-        <v>12.99999999999857</v>
+        <v>13</v>
       </c>
       <c r="K61">
         <v>1.42304</v>
@@ -3285,7 +3285,7 @@
         <v>43185.45277777778</v>
       </c>
       <c r="M61">
-        <v>-18.29999999999998</v>
+        <v>-18.3</v>
       </c>
       <c r="N61">
         <v>1.41991</v>
@@ -3302,7 +3302,7 @@
         <v>1.41473</v>
       </c>
       <c r="C62">
-        <v>11.6000000000005</v>
+        <v>11.6</v>
       </c>
       <c r="D62">
         <v>1.41589</v>
@@ -3311,7 +3311,7 @@
         <v>43186.44375</v>
       </c>
       <c r="F62">
-        <v>-6.999999999999229</v>
+        <v>-7</v>
       </c>
       <c r="G62">
         <v>1.41403</v>
@@ -3323,7 +3323,7 @@
         <v>1.41526</v>
       </c>
       <c r="J62">
-        <v>6.299999999999084</v>
+        <v>6.3</v>
       </c>
       <c r="K62">
         <v>1.41589</v>
@@ -3332,7 +3332,7 @@
         <v>43186.44375</v>
       </c>
       <c r="M62">
-        <v>-12.30000000000064</v>
+        <v>-12.3</v>
       </c>
       <c r="N62">
         <v>1.41403</v>
@@ -3349,7 +3349,7 @@
         <v>1.40955</v>
       </c>
       <c r="C63">
-        <v>13.99999999999846</v>
+        <v>14</v>
       </c>
       <c r="D63">
         <v>1.41095</v>
@@ -3358,7 +3358,7 @@
         <v>43187.45347222222</v>
       </c>
       <c r="F63">
-        <v>-0.1000000000006551</v>
+        <v>-0.1</v>
       </c>
       <c r="G63">
         <v>1.40954</v>
@@ -3370,7 +3370,7 @@
         <v>1.40975</v>
       </c>
       <c r="J63">
-        <v>11.99999999999868</v>
+        <v>12</v>
       </c>
       <c r="K63">
         <v>1.41095</v>
@@ -3379,7 +3379,7 @@
         <v>43187.45347222222</v>
       </c>
       <c r="M63">
-        <v>-2.100000000000435</v>
+        <v>-2.1</v>
       </c>
       <c r="N63">
         <v>1.40954</v>
@@ -3396,7 +3396,7 @@
         <v>1.40672</v>
       </c>
       <c r="C64">
-        <v>2.900000000001235</v>
+        <v>2.9</v>
       </c>
       <c r="D64">
         <v>1.40701</v>
@@ -3405,7 +3405,7 @@
         <v>43188.44375</v>
       </c>
       <c r="F64">
-        <v>-44.90000000000105</v>
+        <v>-44.9</v>
       </c>
       <c r="G64">
         <v>1.40223</v>
@@ -3417,7 +3417,7 @@
         <v>1.40523</v>
       </c>
       <c r="J64">
-        <v>17.80000000000115</v>
+        <v>17.8</v>
       </c>
       <c r="K64">
         <v>1.40701</v>
@@ -3426,7 +3426,7 @@
         <v>43188.44375</v>
       </c>
       <c r="M64">
-        <v>-30.00000000000114</v>
+        <v>-30</v>
       </c>
       <c r="N64">
         <v>1.40223</v>
@@ -3443,7 +3443,7 @@
         <v>1.40365</v>
       </c>
       <c r="C65">
-        <v>6.699999999999484</v>
+        <v>6.7</v>
       </c>
       <c r="D65">
         <v>1.40432</v>
@@ -3452,7 +3452,7 @@
         <v>43189.45138888889</v>
       </c>
       <c r="F65">
-        <v>-2.500000000000835</v>
+        <v>-2.5</v>
       </c>
       <c r="G65">
         <v>1.4034</v>
@@ -3464,7 +3464,7 @@
         <v>1.40388</v>
       </c>
       <c r="J65">
-        <v>4.399999999999959</v>
+        <v>4.4</v>
       </c>
       <c r="K65">
         <v>1.40432</v>
@@ -3473,7 +3473,7 @@
         <v>43189.45138888889</v>
       </c>
       <c r="M65">
-        <v>-4.80000000000036</v>
+        <v>-4.8</v>
       </c>
       <c r="N65">
         <v>1.4034</v>
@@ -3490,7 +3490,7 @@
         <v>1.40542</v>
       </c>
       <c r="C66">
-        <v>3.299999999999415</v>
+        <v>3.3</v>
       </c>
       <c r="D66">
         <v>1.40575</v>
@@ -3499,7 +3499,7 @@
         <v>43192.44444444445</v>
       </c>
       <c r="F66">
-        <v>-5.500000000000504</v>
+        <v>-5.5</v>
       </c>
       <c r="G66">
         <v>1.40487</v>
@@ -3511,7 +3511,7 @@
         <v>1.40536</v>
       </c>
       <c r="J66">
-        <v>3.900000000001125</v>
+        <v>3.9</v>
       </c>
       <c r="K66">
         <v>1.40575</v>
@@ -3520,7 +3520,7 @@
         <v>43192.44444444445</v>
       </c>
       <c r="M66">
-        <v>-4.899999999998794</v>
+        <v>-4.9</v>
       </c>
       <c r="N66">
         <v>1.40487</v>
@@ -3537,7 +3537,7 @@
         <v>1.40366</v>
       </c>
       <c r="C67">
-        <v>8.500000000000174</v>
+        <v>8.5</v>
       </c>
       <c r="D67">
         <v>1.40451</v>
@@ -3546,7 +3546,7 @@
         <v>43193.45902777778</v>
       </c>
       <c r="F67">
-        <v>-2.500000000000835</v>
+        <v>-2.5</v>
       </c>
       <c r="G67">
         <v>1.40341</v>
@@ -3558,7 +3558,7 @@
         <v>1.40366</v>
       </c>
       <c r="J67">
-        <v>8.500000000000174</v>
+        <v>8.5</v>
       </c>
       <c r="K67">
         <v>1.40451</v>
@@ -3567,7 +3567,7 @@
         <v>43193.45902777778</v>
       </c>
       <c r="M67">
-        <v>-2.500000000000835</v>
+        <v>-2.5</v>
       </c>
       <c r="N67">
         <v>1.40341</v>
@@ -3584,7 +3584,7 @@
         <v>1.40841</v>
       </c>
       <c r="C68">
-        <v>3.500000000000725</v>
+        <v>3.5</v>
       </c>
       <c r="D68">
         <v>1.40876</v>
@@ -3593,7 +3593,7 @@
         <v>43194.43888888889</v>
       </c>
       <c r="F68">
-        <v>-8.499999999997954</v>
+        <v>-8.5</v>
       </c>
       <c r="G68">
         <v>1.40756</v>
@@ -3605,7 +3605,7 @@
         <v>1.40781</v>
       </c>
       <c r="J68">
-        <v>9.500000000000064</v>
+        <v>9.5</v>
       </c>
       <c r="K68">
         <v>1.40876</v>
@@ -3614,7 +3614,7 @@
         <v>43194.43888888889</v>
       </c>
       <c r="M68">
-        <v>-2.499999999998614</v>
+        <v>-2.5</v>
       </c>
       <c r="N68">
         <v>1.40756</v>
@@ -3631,7 +3631,7 @@
         <v>1.40145</v>
       </c>
       <c r="C69">
-        <v>8.699999999999264</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D69">
         <v>1.40232</v>
@@ -3640,7 +3640,7 @@
         <v>43195.44097222222</v>
       </c>
       <c r="F69">
-        <v>-25.50000000000052</v>
+        <v>-25.5</v>
       </c>
       <c r="G69">
         <v>1.3989</v>
@@ -3652,7 +3652,7 @@
         <v>1.40127</v>
       </c>
       <c r="J69">
-        <v>10.49999999999995</v>
+        <v>10.5</v>
       </c>
       <c r="K69">
         <v>1.40232</v>
@@ -3661,7 +3661,7 @@
         <v>43195.44097222222</v>
       </c>
       <c r="M69">
-        <v>-23.69999999999983</v>
+        <v>-23.7</v>
       </c>
       <c r="N69">
         <v>1.3989</v>
@@ -3678,7 +3678,7 @@
         <v>1.40935</v>
       </c>
       <c r="C70">
-        <v>6.999999999999229</v>
+        <v>7</v>
       </c>
       <c r="D70">
         <v>1.41005</v>
@@ -3687,7 +3687,7 @@
         <v>43196.44722222222</v>
       </c>
       <c r="F70">
-        <v>-11.30000000000075</v>
+        <v>-11.3</v>
       </c>
       <c r="G70">
         <v>1.40822</v>
@@ -3699,7 +3699,7 @@
         <v>1.40964</v>
       </c>
       <c r="J70">
-        <v>4.100000000000215</v>
+        <v>4.1</v>
       </c>
       <c r="K70">
         <v>1.41005</v>
@@ -3708,7 +3708,7 @@
         <v>43196.44722222222</v>
       </c>
       <c r="M70">
-        <v>-14.19999999999977</v>
+        <v>-14.2</v>
       </c>
       <c r="N70">
         <v>1.40822</v>
@@ -3725,7 +3725,7 @@
         <v>1.4142</v>
       </c>
       <c r="C71">
-        <v>8.799999999999919</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D71">
         <v>1.41508</v>
@@ -3734,7 +3734,7 @@
         <v>43199.44166666667</v>
       </c>
       <c r="F71">
-        <v>-16.29999999999798</v>
+        <v>-16.3</v>
       </c>
       <c r="G71">
         <v>1.41257</v>
@@ -3746,7 +3746,7 @@
         <v>1.41449</v>
       </c>
       <c r="J71">
-        <v>5.899999999998684</v>
+        <v>5.9</v>
       </c>
       <c r="K71">
         <v>1.41508</v>
@@ -3755,7 +3755,7 @@
         <v>43199.44166666667</v>
       </c>
       <c r="M71">
-        <v>-19.19999999999922</v>
+        <v>-19.2</v>
       </c>
       <c r="N71">
         <v>1.41257</v>
@@ -3772,7 +3772,7 @@
         <v>1.41759</v>
       </c>
       <c r="C72">
-        <v>3.40000000000007</v>
+        <v>3.4</v>
       </c>
       <c r="D72">
         <v>1.41793</v>
@@ -3781,7 +3781,7 @@
         <v>43200.44652777778</v>
       </c>
       <c r="F72">
-        <v>-6.399999999999739</v>
+        <v>-6.4</v>
       </c>
       <c r="G72">
         <v>1.41695</v>
@@ -3793,7 +3793,7 @@
         <v>1.41768</v>
       </c>
       <c r="J72">
-        <v>2.500000000000835</v>
+        <v>2.5</v>
       </c>
       <c r="K72">
         <v>1.41793</v>
@@ -3802,7 +3802,7 @@
         <v>43200.44652777778</v>
       </c>
       <c r="M72">
-        <v>-7.299999999998974</v>
+        <v>-7.3</v>
       </c>
       <c r="N72">
         <v>1.41695</v>
@@ -3819,7 +3819,7 @@
         <v>1.42048</v>
       </c>
       <c r="C73">
-        <v>12.30000000000064</v>
+        <v>12.3</v>
       </c>
       <c r="D73">
         <v>1.42171</v>
@@ -3828,7 +3828,7 @@
         <v>43201.45208333333</v>
       </c>
       <c r="F73">
-        <v>-2.99999999999967</v>
+        <v>-3</v>
       </c>
       <c r="G73">
         <v>1.42018</v>
@@ -3840,7 +3840,7 @@
         <v>1.42121</v>
       </c>
       <c r="J73">
-        <v>4.999999999999449</v>
+        <v>5</v>
       </c>
       <c r="K73">
         <v>1.42171</v>
@@ -3849,7 +3849,7 @@
         <v>43201.45208333333</v>
       </c>
       <c r="M73">
-        <v>-10.30000000000086</v>
+        <v>-10.3</v>
       </c>
       <c r="N73">
         <v>1.42018</v>
@@ -3866,7 +3866,7 @@
         <v>1.42076</v>
       </c>
       <c r="C74">
-        <v>31.39999999999921</v>
+        <v>31.4</v>
       </c>
       <c r="D74">
         <v>1.4239</v>
@@ -3875,7 +3875,7 @@
         <v>43202.44722222222</v>
       </c>
       <c r="F74">
-        <v>-0.9999999999998899</v>
+        <v>-1</v>
       </c>
       <c r="G74">
         <v>1.42066</v>
@@ -3887,7 +3887,7 @@
         <v>1.42333</v>
       </c>
       <c r="J74">
-        <v>5.699999999999594</v>
+        <v>5.7</v>
       </c>
       <c r="K74">
         <v>1.4239</v>
@@ -3896,7 +3896,7 @@
         <v>43202.44722222222</v>
       </c>
       <c r="M74">
-        <v>-26.6999999999995</v>
+        <v>-26.7</v>
       </c>
       <c r="N74">
         <v>1.42066</v>
@@ -3913,7 +3913,7 @@
         <v>1.42528</v>
       </c>
       <c r="C75">
-        <v>2.60000000000149</v>
+        <v>2.6</v>
       </c>
       <c r="D75">
         <v>1.42554</v>
@@ -3922,7 +3922,7 @@
         <v>43203.45625</v>
       </c>
       <c r="F75">
-        <v>-11.39999999999919</v>
+        <v>-11.4</v>
       </c>
       <c r="G75">
         <v>1.42414</v>
@@ -3934,7 +3934,7 @@
         <v>1.42428</v>
       </c>
       <c r="J75">
-        <v>12.60000000000039</v>
+        <v>12.6</v>
       </c>
       <c r="K75">
         <v>1.42554</v>
@@ -3943,7 +3943,7 @@
         <v>43203.45625</v>
       </c>
       <c r="M75">
-        <v>-1.40000000000029</v>
+        <v>-1.4</v>
       </c>
       <c r="N75">
         <v>1.42414</v>
@@ -3960,7 +3960,7 @@
         <v>1.43187</v>
       </c>
       <c r="C76">
-        <v>14.30000000000042</v>
+        <v>14.3</v>
       </c>
       <c r="D76">
         <v>1.4333</v>
@@ -3969,7 +3969,7 @@
         <v>43206.45763888889</v>
       </c>
       <c r="F76">
-        <v>-5.499999999998284</v>
+        <v>-5.5</v>
       </c>
       <c r="G76">
         <v>1.43132</v>
@@ -3981,7 +3981,7 @@
         <v>1.43167</v>
       </c>
       <c r="J76">
-        <v>16.3000000000002</v>
+        <v>16.3</v>
       </c>
       <c r="K76">
         <v>1.4333</v>
@@ -3990,7 +3990,7 @@
         <v>43206.45763888889</v>
       </c>
       <c r="M76">
-        <v>-3.499999999998504</v>
+        <v>-3.5</v>
       </c>
       <c r="N76">
         <v>1.43132</v>
@@ -4007,7 +4007,7 @@
         <v>1.43095</v>
       </c>
       <c r="C77">
-        <v>11.49999999999984</v>
+        <v>11.5</v>
       </c>
       <c r="D77">
         <v>1.4321</v>
@@ -4016,7 +4016,7 @@
         <v>43207.45347222222</v>
       </c>
       <c r="F77">
-        <v>-4.399999999999959</v>
+        <v>-4.4</v>
       </c>
       <c r="G77">
         <v>1.43051</v>
@@ -4028,7 +4028,7 @@
         <v>1.43144</v>
       </c>
       <c r="J77">
-        <v>6.599999999998829</v>
+        <v>6.6</v>
       </c>
       <c r="K77">
         <v>1.4321</v>
@@ -4037,7 +4037,7 @@
         <v>43207.45347222222</v>
       </c>
       <c r="M77">
-        <v>-9.300000000000974</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="N77">
         <v>1.43051</v>
@@ -4054,7 +4054,7 @@
         <v>1.42303</v>
       </c>
       <c r="C78">
-        <v>14.09999999999911</v>
+        <v>14.1</v>
       </c>
       <c r="D78">
         <v>1.42444</v>
@@ -4063,7 +4063,7 @@
         <v>43208.44236111111</v>
       </c>
       <c r="F78">
-        <v>-2.80000000000058</v>
+        <v>-2.8</v>
       </c>
       <c r="G78">
         <v>1.42275</v>
@@ -4075,7 +4075,7 @@
         <v>1.42346</v>
       </c>
       <c r="J78">
-        <v>9.799999999999809</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K78">
         <v>1.42444</v>
@@ -4084,7 +4084,7 @@
         <v>43208.44236111111</v>
       </c>
       <c r="M78">
-        <v>-7.099999999999884</v>
+        <v>-7.1</v>
       </c>
       <c r="N78">
         <v>1.42275</v>
@@ -4110,7 +4110,7 @@
         <v>43209.4375</v>
       </c>
       <c r="F79">
-        <v>-11.6000000000005</v>
+        <v>-11.6</v>
       </c>
       <c r="G79">
         <v>1.42201</v>
@@ -4122,7 +4122,7 @@
         <v>1.42261</v>
       </c>
       <c r="J79">
-        <v>5.60000000000116</v>
+        <v>5.6</v>
       </c>
       <c r="K79">
         <v>1.42317</v>
@@ -4131,7 +4131,7 @@
         <v>43209.4375</v>
       </c>
       <c r="M79">
-        <v>-5.999999999999339</v>
+        <v>-6</v>
       </c>
       <c r="N79">
         <v>1.42201</v>
@@ -4148,7 +4148,7 @@
         <v>1.40203</v>
       </c>
       <c r="C80">
-        <v>5.20000000000076</v>
+        <v>5.2</v>
       </c>
       <c r="D80">
         <v>1.40255</v>
@@ -4157,7 +4157,7 @@
         <v>43210.44097222222</v>
       </c>
       <c r="F80">
-        <v>-5.899999999998684</v>
+        <v>-5.9</v>
       </c>
       <c r="G80">
         <v>1.40144</v>
@@ -4169,7 +4169,7 @@
         <v>1.40188</v>
       </c>
       <c r="J80">
-        <v>6.699999999999484</v>
+        <v>6.7</v>
       </c>
       <c r="K80">
         <v>1.40255</v>
@@ -4178,7 +4178,7 @@
         <v>43210.44097222222</v>
       </c>
       <c r="M80">
-        <v>-4.399999999999959</v>
+        <v>-4.4</v>
       </c>
       <c r="N80">
         <v>1.40144</v>
@@ -4195,7 +4195,7 @@
         <v>1.39549</v>
       </c>
       <c r="C81">
-        <v>6.600000000001049</v>
+        <v>6.6</v>
       </c>
       <c r="D81">
         <v>1.39615</v>
@@ -4204,7 +4204,7 @@
         <v>43213.44236111111</v>
       </c>
       <c r="F81">
-        <v>-12.39999999999908</v>
+        <v>-12.4</v>
       </c>
       <c r="G81">
         <v>1.39425</v>
@@ -4216,7 +4216,7 @@
         <v>1.39577</v>
       </c>
       <c r="J81">
-        <v>3.799999999998249</v>
+        <v>3.8</v>
       </c>
       <c r="K81">
         <v>1.39615</v>
@@ -4225,7 +4225,7 @@
         <v>43213.44236111111</v>
       </c>
       <c r="M81">
-        <v>-15.20000000000188</v>
+        <v>-15.2</v>
       </c>
       <c r="N81">
         <v>1.39425</v>
@@ -4242,7 +4242,7 @@
         <v>1.39644</v>
       </c>
       <c r="C82">
-        <v>10.30000000000086</v>
+        <v>10.3</v>
       </c>
       <c r="D82">
         <v>1.39747</v>
@@ -4251,7 +4251,7 @@
         <v>43214.45277777778</v>
       </c>
       <c r="F82">
-        <v>-4.499999999998394</v>
+        <v>-4.5</v>
       </c>
       <c r="G82">
         <v>1.39599</v>
@@ -4263,7 +4263,7 @@
         <v>1.39719</v>
       </c>
       <c r="J82">
-        <v>2.80000000000058</v>
+        <v>2.8</v>
       </c>
       <c r="K82">
         <v>1.39747</v>
@@ -4272,7 +4272,7 @@
         <v>43214.45277777778</v>
       </c>
       <c r="M82">
-        <v>-11.99999999999868</v>
+        <v>-12</v>
       </c>
       <c r="N82">
         <v>1.39599</v>
@@ -4289,7 +4289,7 @@
         <v>1.39298</v>
       </c>
       <c r="C83">
-        <v>7.80000000000225</v>
+        <v>7.8</v>
       </c>
       <c r="D83">
         <v>1.39376</v>
@@ -4298,7 +4298,7 @@
         <v>43215.45902777778</v>
       </c>
       <c r="F83">
-        <v>-4.899999999998794</v>
+        <v>-4.9</v>
       </c>
       <c r="G83">
         <v>1.39249</v>
@@ -4310,7 +4310,7 @@
         <v>1.39292</v>
       </c>
       <c r="J83">
-        <v>8.399999999999519</v>
+        <v>8.4</v>
       </c>
       <c r="K83">
         <v>1.39376</v>
@@ -4319,7 +4319,7 @@
         <v>43215.45902777778</v>
       </c>
       <c r="M83">
-        <v>-4.300000000001525</v>
+        <v>-4.3</v>
       </c>
       <c r="N83">
         <v>1.39249</v>
@@ -4345,7 +4345,7 @@
         <v>43216.4375</v>
       </c>
       <c r="F84">
-        <v>-28.90000000000059</v>
+        <v>-28.9</v>
       </c>
       <c r="G84">
         <v>1.39263</v>
@@ -4357,7 +4357,7 @@
         <v>1.3937</v>
       </c>
       <c r="J84">
-        <v>18.20000000000155</v>
+        <v>18.2</v>
       </c>
       <c r="K84">
         <v>1.39552</v>
@@ -4366,7 +4366,7 @@
         <v>43216.4375</v>
       </c>
       <c r="M84">
-        <v>-10.69999999999904</v>
+        <v>-10.7</v>
       </c>
       <c r="N84">
         <v>1.39263</v>
@@ -4383,7 +4383,7 @@
         <v>1.37781</v>
       </c>
       <c r="C85">
-        <v>28.50000000000019</v>
+        <v>28.5</v>
       </c>
       <c r="D85">
         <v>1.38066</v>
@@ -4404,7 +4404,7 @@
         <v>1.38001</v>
       </c>
       <c r="J85">
-        <v>6.500000000000394</v>
+        <v>6.5</v>
       </c>
       <c r="K85">
         <v>1.38066</v>
@@ -4413,7 +4413,7 @@
         <v>43217.44652777778</v>
       </c>
       <c r="M85">
-        <v>-21.9999999999998</v>
+        <v>-22</v>
       </c>
       <c r="N85">
         <v>1.37781</v>
@@ -4430,7 +4430,7 @@
         <v>1.37687</v>
       </c>
       <c r="C86">
-        <v>6.099999999999994</v>
+        <v>6.1</v>
       </c>
       <c r="D86">
         <v>1.37748</v>
@@ -4439,7 +4439,7 @@
         <v>43220.45694444444</v>
       </c>
       <c r="F86">
-        <v>-19.49999999999896</v>
+        <v>-19.5</v>
       </c>
       <c r="G86">
         <v>1.37492</v>
@@ -4451,7 +4451,7 @@
         <v>1.37664</v>
       </c>
       <c r="J86">
-        <v>8.400000000001739</v>
+        <v>8.4</v>
       </c>
       <c r="K86">
         <v>1.37748</v>
@@ -4460,7 +4460,7 @@
         <v>43220.45694444444</v>
       </c>
       <c r="M86">
-        <v>-17.19999999999722</v>
+        <v>-17.2</v>
       </c>
       <c r="N86">
         <v>1.37492</v>
@@ -4486,7 +4486,7 @@
         <v>43221.4375</v>
       </c>
       <c r="F87">
-        <v>-32.69999999999884</v>
+        <v>-32.7</v>
       </c>
       <c r="G87">
         <v>1.35906</v>
@@ -4498,7 +4498,7 @@
         <v>1.36048</v>
       </c>
       <c r="J87">
-        <v>18.49999999999907</v>
+        <v>18.5</v>
       </c>
       <c r="K87">
         <v>1.36233</v>
@@ -4507,7 +4507,7 @@
         <v>43221.4375</v>
       </c>
       <c r="M87">
-        <v>-14.19999999999977</v>
+        <v>-14.2</v>
       </c>
       <c r="N87">
         <v>1.35906</v>
@@ -4524,7 +4524,7 @@
         <v>1.36123</v>
       </c>
       <c r="C88">
-        <v>2.80000000000058</v>
+        <v>2.8</v>
       </c>
       <c r="D88">
         <v>1.36151</v>
@@ -4533,7 +4533,7 @@
         <v>43222.44027777778</v>
       </c>
       <c r="F88">
-        <v>-18.69999999999816</v>
+        <v>-18.7</v>
       </c>
       <c r="G88">
         <v>1.35936</v>
@@ -4545,7 +4545,7 @@
         <v>1.36051</v>
       </c>
       <c r="J88">
-        <v>9.999999999998899</v>
+        <v>10</v>
       </c>
       <c r="K88">
         <v>1.36151</v>
@@ -4554,7 +4554,7 @@
         <v>43222.44027777778</v>
       </c>
       <c r="M88">
-        <v>-11.49999999999984</v>
+        <v>-11.5</v>
       </c>
       <c r="N88">
         <v>1.35936</v>
@@ -4571,7 +4571,7 @@
         <v>1.35772</v>
       </c>
       <c r="C89">
-        <v>1.299999999999635</v>
+        <v>1.3</v>
       </c>
       <c r="D89">
         <v>1.35785</v>
@@ -4580,7 +4580,7 @@
         <v>43223.43888888889</v>
       </c>
       <c r="F89">
-        <v>-38.00000000000026</v>
+        <v>-38</v>
       </c>
       <c r="G89">
         <v>1.35392</v>
@@ -4592,7 +4592,7 @@
         <v>1.35575</v>
       </c>
       <c r="J89">
-        <v>20.99999999999991</v>
+        <v>21</v>
       </c>
       <c r="K89">
         <v>1.35785</v>
@@ -4601,7 +4601,7 @@
         <v>43223.43888888889</v>
       </c>
       <c r="M89">
-        <v>-18.29999999999998</v>
+        <v>-18.3</v>
       </c>
       <c r="N89">
         <v>1.35392</v>
@@ -4618,7 +4618,7 @@
         <v>1.35118</v>
       </c>
       <c r="C90">
-        <v>14.60000000000239</v>
+        <v>14.6</v>
       </c>
       <c r="D90">
         <v>1.35264</v>
@@ -4639,7 +4639,7 @@
         <v>1.35198</v>
       </c>
       <c r="J90">
-        <v>6.600000000001049</v>
+        <v>6.6</v>
       </c>
       <c r="K90">
         <v>1.35264</v>
@@ -4648,7 +4648,7 @@
         <v>43224.45</v>
       </c>
       <c r="M90">
-        <v>-8.000000000001339</v>
+        <v>-8</v>
       </c>
       <c r="N90">
         <v>1.35118</v>
@@ -4665,7 +4665,7 @@
         <v>1.35613</v>
       </c>
       <c r="C91">
-        <v>8.400000000001739</v>
+        <v>8.4</v>
       </c>
       <c r="D91">
         <v>1.35697</v>
@@ -4674,7 +4674,7 @@
         <v>43227.45972222222</v>
       </c>
       <c r="F91">
-        <v>-5.199999999998539</v>
+        <v>-5.2</v>
       </c>
       <c r="G91">
         <v>1.35561</v>
@@ -4686,7 +4686,7 @@
         <v>1.35621</v>
       </c>
       <c r="J91">
-        <v>7.599999999998719</v>
+        <v>7.6</v>
       </c>
       <c r="K91">
         <v>1.35697</v>
@@ -4695,7 +4695,7 @@
         <v>43227.45972222222</v>
       </c>
       <c r="M91">
-        <v>-6.00000000000156</v>
+        <v>-6</v>
       </c>
       <c r="N91">
         <v>1.35561</v>
@@ -4712,7 +4712,7 @@
         <v>1.34875</v>
       </c>
       <c r="C92">
-        <v>30.40000000000154</v>
+        <v>30.4</v>
       </c>
       <c r="D92">
         <v>1.35179</v>
@@ -4733,7 +4733,7 @@
         <v>1.35029</v>
       </c>
       <c r="J92">
-        <v>15.00000000000057</v>
+        <v>15</v>
       </c>
       <c r="K92">
         <v>1.35179</v>
@@ -4742,7 +4742,7 @@
         <v>43228.45763888889</v>
       </c>
       <c r="M92">
-        <v>-15.40000000000097</v>
+        <v>-15.4</v>
       </c>
       <c r="N92">
         <v>1.34875</v>
@@ -4759,7 +4759,7 @@
         <v>1.35762</v>
       </c>
       <c r="C93">
-        <v>5.599999999998939</v>
+        <v>5.6</v>
       </c>
       <c r="D93">
         <v>1.35818</v>
@@ -4768,7 +4768,7 @@
         <v>43229.44305555556</v>
       </c>
       <c r="F93">
-        <v>-6.099999999999994</v>
+        <v>-6.1</v>
       </c>
       <c r="G93">
         <v>1.35701</v>
@@ -4780,7 +4780,7 @@
         <v>1.35742</v>
       </c>
       <c r="J93">
-        <v>7.599999999998719</v>
+        <v>7.6</v>
       </c>
       <c r="K93">
         <v>1.35818</v>
@@ -4789,7 +4789,7 @@
         <v>43229.44305555556</v>
       </c>
       <c r="M93">
-        <v>-4.100000000000215</v>
+        <v>-4.1</v>
       </c>
       <c r="N93">
         <v>1.35701</v>
@@ -4806,7 +4806,7 @@
         <v>1.34723</v>
       </c>
       <c r="C94">
-        <v>11.6000000000005</v>
+        <v>11.6</v>
       </c>
       <c r="D94">
         <v>1.34839</v>
@@ -4815,7 +4815,7 @@
         <v>43230.44027777778</v>
       </c>
       <c r="F94">
-        <v>-12.29999999999842</v>
+        <v>-12.3</v>
       </c>
       <c r="G94">
         <v>1.346</v>
@@ -4827,7 +4827,7 @@
         <v>1.34704</v>
       </c>
       <c r="J94">
-        <v>13.49999999999962</v>
+        <v>13.5</v>
       </c>
       <c r="K94">
         <v>1.34839</v>
@@ -4836,7 +4836,7 @@
         <v>43230.44027777778</v>
       </c>
       <c r="M94">
-        <v>-10.3999999999993</v>
+        <v>-10.4</v>
       </c>
       <c r="N94">
         <v>1.346</v>
@@ -4853,7 +4853,7 @@
         <v>1.35671</v>
       </c>
       <c r="C95">
-        <v>0.1000000000006551</v>
+        <v>0.1</v>
       </c>
       <c r="D95">
         <v>1.35672</v>
@@ -4862,7 +4862,7 @@
         <v>43231.43958333333</v>
       </c>
       <c r="F95">
-        <v>-18.10000000000089</v>
+        <v>-18.1</v>
       </c>
       <c r="G95">
         <v>1.3549</v>
@@ -4874,7 +4874,7 @@
         <v>1.35525</v>
       </c>
       <c r="J95">
-        <v>14.70000000000082</v>
+        <v>14.7</v>
       </c>
       <c r="K95">
         <v>1.35672</v>
@@ -4883,7 +4883,7 @@
         <v>43231.43958333333</v>
       </c>
       <c r="M95">
-        <v>-3.500000000000725</v>
+        <v>-3.5</v>
       </c>
       <c r="N95">
         <v>1.3549</v>
@@ -4900,7 +4900,7 @@
         <v>1.35872</v>
       </c>
       <c r="C96">
-        <v>8.399999999999519</v>
+        <v>8.4</v>
       </c>
       <c r="D96">
         <v>1.35956</v>
@@ -4909,7 +4909,7 @@
         <v>43234.45694444444</v>
       </c>
       <c r="F96">
-        <v>-0.5000000000010552</v>
+        <v>-0.5</v>
       </c>
       <c r="G96">
         <v>1.35867</v>
@@ -4921,7 +4921,7 @@
         <v>1.35898</v>
       </c>
       <c r="J96">
-        <v>5.80000000000247</v>
+        <v>5.8</v>
       </c>
       <c r="K96">
         <v>1.35956</v>
@@ -4930,7 +4930,7 @@
         <v>43234.45694444444</v>
       </c>
       <c r="M96">
-        <v>-3.099999999998104</v>
+        <v>-3.1</v>
       </c>
       <c r="N96">
         <v>1.35867</v>
@@ -4947,7 +4947,7 @@
         <v>1.34777</v>
       </c>
       <c r="C97">
-        <v>20.3999999999982</v>
+        <v>20.4</v>
       </c>
       <c r="D97">
         <v>1.34981</v>
@@ -4956,7 +4956,7 @@
         <v>43235.45694444444</v>
       </c>
       <c r="F97">
-        <v>-3.60000000000138</v>
+        <v>-3.6</v>
       </c>
       <c r="G97">
         <v>1.34741</v>
@@ -4968,7 +4968,7 @@
         <v>1.34867</v>
       </c>
       <c r="J97">
-        <v>11.39999999999919</v>
+        <v>11.4</v>
       </c>
       <c r="K97">
         <v>1.34981</v>
@@ -4977,7 +4977,7 @@
         <v>43235.45694444444</v>
       </c>
       <c r="M97">
-        <v>-12.60000000000039</v>
+        <v>-12.6</v>
       </c>
       <c r="N97">
         <v>1.34741</v>
@@ -4994,7 +4994,7 @@
         <v>1.34873</v>
       </c>
       <c r="C98">
-        <v>7.900000000000684</v>
+        <v>7.9</v>
       </c>
       <c r="D98">
         <v>1.34952</v>
@@ -5003,7 +5003,7 @@
         <v>43236.44305555556</v>
       </c>
       <c r="F98">
-        <v>-6.399999999999739</v>
+        <v>-6.4</v>
       </c>
       <c r="G98">
         <v>1.34809</v>
@@ -5015,7 +5015,7 @@
         <v>1.34936</v>
       </c>
       <c r="J98">
-        <v>1.59999999999938</v>
+        <v>1.6</v>
       </c>
       <c r="K98">
         <v>1.34952</v>
@@ -5024,7 +5024,7 @@
         <v>43236.44305555556</v>
       </c>
       <c r="M98">
-        <v>-12.70000000000104</v>
+        <v>-12.7</v>
       </c>
       <c r="N98">
         <v>1.34809</v>
@@ -5041,7 +5041,7 @@
         <v>1.35044</v>
       </c>
       <c r="C99">
-        <v>9.600000000000719</v>
+        <v>9.6</v>
       </c>
       <c r="D99">
         <v>1.3514</v>
@@ -5050,7 +5050,7 @@
         <v>43237.44375</v>
       </c>
       <c r="F99">
-        <v>-6.699999999997264</v>
+        <v>-6.7</v>
       </c>
       <c r="G99">
         <v>1.34977</v>
@@ -5062,7 +5062,7 @@
         <v>1.3505</v>
       </c>
       <c r="J99">
-        <v>8.999999999999009</v>
+        <v>9</v>
       </c>
       <c r="K99">
         <v>1.3514</v>
@@ -5071,7 +5071,7 @@
         <v>43237.44375</v>
       </c>
       <c r="M99">
-        <v>-7.299999999998974</v>
+        <v>-7.3</v>
       </c>
       <c r="N99">
         <v>1.34977</v>
@@ -5088,7 +5088,7 @@
         <v>1.34704</v>
       </c>
       <c r="C100">
-        <v>9.600000000000719</v>
+        <v>9.6</v>
       </c>
       <c r="D100">
         <v>1.348</v>
@@ -5097,7 +5097,7 @@
         <v>43238.45347222222</v>
       </c>
       <c r="F100">
-        <v>-4.999999999999449</v>
+        <v>-5</v>
       </c>
       <c r="G100">
         <v>1.34654</v>
@@ -5109,7 +5109,7 @@
         <v>1.34715</v>
       </c>
       <c r="J100">
-        <v>8.500000000000174</v>
+        <v>8.5</v>
       </c>
       <c r="K100">
         <v>1.348</v>
@@ -5118,7 +5118,7 @@
         <v>43238.45347222222</v>
       </c>
       <c r="M100">
-        <v>-6.099999999999994</v>
+        <v>-6.1</v>
       </c>
       <c r="N100">
         <v>1.34654</v>
@@ -5135,7 +5135,7 @@
         <v>1.34147</v>
       </c>
       <c r="C101">
-        <v>11.49999999999984</v>
+        <v>11.5</v>
       </c>
       <c r="D101">
         <v>1.34262</v>
@@ -5144,7 +5144,7 @@
         <v>43241.44722222222</v>
       </c>
       <c r="F101">
-        <v>-9.100000000001884</v>
+        <v>-9.1</v>
       </c>
       <c r="G101">
         <v>1.34056</v>
@@ -5156,7 +5156,7 @@
         <v>1.34232</v>
       </c>
       <c r="J101">
-        <v>2.99999999999967</v>
+        <v>3</v>
       </c>
       <c r="K101">
         <v>1.34262</v>
@@ -5165,7 +5165,7 @@
         <v>43241.44722222222</v>
       </c>
       <c r="M101">
-        <v>-17.60000000000206</v>
+        <v>-17.6</v>
       </c>
       <c r="N101">
         <v>1.34056</v>
@@ -5182,7 +5182,7 @@
         <v>1.34367</v>
       </c>
       <c r="C102">
-        <v>4.299999999999304</v>
+        <v>4.3</v>
       </c>
       <c r="D102">
         <v>1.3441</v>
@@ -5191,7 +5191,7 @@
         <v>43242.44375</v>
       </c>
       <c r="F102">
-        <v>-22.50000000000085</v>
+        <v>-22.5</v>
       </c>
       <c r="G102">
         <v>1.34142</v>
@@ -5203,7 +5203,7 @@
         <v>1.34248</v>
       </c>
       <c r="J102">
-        <v>16.20000000000177</v>
+        <v>16.2</v>
       </c>
       <c r="K102">
         <v>1.3441</v>
@@ -5212,7 +5212,7 @@
         <v>43242.44375</v>
       </c>
       <c r="M102">
-        <v>-10.59999999999839</v>
+        <v>-10.6</v>
       </c>
       <c r="N102">
         <v>1.34142</v>
@@ -5229,7 +5229,7 @@
         <v>1.33571</v>
       </c>
       <c r="C103">
-        <v>1.40000000000029</v>
+        <v>1.4</v>
       </c>
       <c r="D103">
         <v>1.33585</v>
@@ -5238,7 +5238,7 @@
         <v>43243.44166666667</v>
       </c>
       <c r="F103">
-        <v>-18.89999999999947</v>
+        <v>-18.9</v>
       </c>
       <c r="G103">
         <v>1.33382</v>
@@ -5250,7 +5250,7 @@
         <v>1.33489</v>
       </c>
       <c r="J103">
-        <v>9.600000000000719</v>
+        <v>9.6</v>
       </c>
       <c r="K103">
         <v>1.33585</v>
@@ -5259,7 +5259,7 @@
         <v>43243.44166666667</v>
       </c>
       <c r="M103">
-        <v>-10.69999999999904</v>
+        <v>-10.7</v>
       </c>
       <c r="N103">
         <v>1.33382</v>
@@ -5276,7 +5276,7 @@
         <v>1.33878</v>
       </c>
       <c r="C104">
-        <v>0.8000000000008001</v>
+        <v>0.8</v>
       </c>
       <c r="D104">
         <v>1.33886</v>
@@ -5285,7 +5285,7 @@
         <v>43244.43819444445</v>
       </c>
       <c r="F104">
-        <v>-22.59999999999707</v>
+        <v>-22.6</v>
       </c>
       <c r="G104">
         <v>1.33652</v>
@@ -5297,7 +5297,7 @@
         <v>1.33804</v>
       </c>
       <c r="J104">
-        <v>8.200000000000429</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K104">
         <v>1.33886</v>
@@ -5306,7 +5306,7 @@
         <v>43244.43819444445</v>
       </c>
       <c r="M104">
-        <v>-15.19999999999744</v>
+        <v>-15.2</v>
       </c>
       <c r="N104">
         <v>1.33652</v>
@@ -5323,7 +5323,7 @@
         <v>1.33136</v>
       </c>
       <c r="C105">
-        <v>5.499999999998284</v>
+        <v>5.5</v>
       </c>
       <c r="D105">
         <v>1.33191</v>
@@ -5332,7 +5332,7 @@
         <v>43245.43819444445</v>
       </c>
       <c r="F105">
-        <v>-7.80000000000225</v>
+        <v>-7.8</v>
       </c>
       <c r="G105">
         <v>1.33058</v>
@@ -5344,7 +5344,7 @@
         <v>1.33102</v>
       </c>
       <c r="J105">
-        <v>8.899999999998354</v>
+        <v>8.9</v>
       </c>
       <c r="K105">
         <v>1.33191</v>
@@ -5353,7 +5353,7 @@
         <v>43245.43819444445</v>
       </c>
       <c r="M105">
-        <v>-4.40000000000218</v>
+        <v>-4.4</v>
       </c>
       <c r="N105">
         <v>1.33058</v>
@@ -5370,7 +5370,7 @@
         <v>1.33045</v>
       </c>
       <c r="C106">
-        <v>0.5000000000010552</v>
+        <v>0.5</v>
       </c>
       <c r="D106">
         <v>1.3305</v>
@@ -5379,7 +5379,7 @@
         <v>43248.43888888889</v>
       </c>
       <c r="F106">
-        <v>-7.599999999998719</v>
+        <v>-7.6</v>
       </c>
       <c r="G106">
         <v>1.32969</v>
@@ -5391,7 +5391,7 @@
         <v>1.32992</v>
       </c>
       <c r="J106">
-        <v>5.800000000000249</v>
+        <v>5.8</v>
       </c>
       <c r="K106">
         <v>1.3305</v>
@@ -5400,7 +5400,7 @@
         <v>43248.43888888889</v>
       </c>
       <c r="M106">
-        <v>-2.299999999999525</v>
+        <v>-2.3</v>
       </c>
       <c r="N106">
         <v>1.32969</v>
@@ -5417,7 +5417,7 @@
         <v>1.32822</v>
       </c>
       <c r="C107">
-        <v>10.3999999999993</v>
+        <v>10.4</v>
       </c>
       <c r="D107">
         <v>1.32926</v>
@@ -5426,7 +5426,7 @@
         <v>43249.45138888889</v>
       </c>
       <c r="F107">
-        <v>-14.00000000000068</v>
+        <v>-14</v>
       </c>
       <c r="G107">
         <v>1.32682</v>
@@ -5438,7 +5438,7 @@
         <v>1.32789</v>
       </c>
       <c r="J107">
-        <v>13.70000000000093</v>
+        <v>13.7</v>
       </c>
       <c r="K107">
         <v>1.32926</v>
@@ -5447,7 +5447,7 @@
         <v>43249.45138888889</v>
       </c>
       <c r="M107">
-        <v>-10.69999999999904</v>
+        <v>-10.7</v>
       </c>
       <c r="N107">
         <v>1.32682</v>
@@ -5464,7 +5464,7 @@
         <v>1.32829</v>
       </c>
       <c r="C108">
-        <v>0.2000000000013102</v>
+        <v>0.2</v>
       </c>
       <c r="D108">
         <v>1.32831</v>
@@ -5473,7 +5473,7 @@
         <v>43250.44375</v>
       </c>
       <c r="F108">
-        <v>-14.10000000000133</v>
+        <v>-14.1</v>
       </c>
       <c r="G108">
         <v>1.32688</v>
@@ -5485,7 +5485,7 @@
         <v>1.32794</v>
       </c>
       <c r="J108">
-        <v>3.700000000002035</v>
+        <v>3.7</v>
       </c>
       <c r="K108">
         <v>1.32831</v>
@@ -5494,7 +5494,7 @@
         <v>43250.44375</v>
       </c>
       <c r="M108">
-        <v>-10.60000000000061</v>
+        <v>-10.6</v>
       </c>
       <c r="N108">
         <v>1.32688</v>
@@ -5511,7 +5511,7 @@
         <v>1.3321</v>
       </c>
       <c r="C109">
-        <v>12.79999999999948</v>
+        <v>12.8</v>
       </c>
       <c r="D109">
         <v>1.33338</v>
@@ -5520,7 +5520,7 @@
         <v>43251.44375</v>
       </c>
       <c r="F109">
-        <v>-21.50000000000096</v>
+        <v>-21.5</v>
       </c>
       <c r="G109">
         <v>1.32995</v>
@@ -5532,7 +5532,7 @@
         <v>1.33327</v>
       </c>
       <c r="J109">
-        <v>1.099999999998325</v>
+        <v>1.1</v>
       </c>
       <c r="K109">
         <v>1.33338</v>
@@ -5541,7 +5541,7 @@
         <v>43251.44375</v>
       </c>
       <c r="M109">
-        <v>-33.20000000000212</v>
+        <v>-33.2</v>
       </c>
       <c r="N109">
         <v>1.32995</v>
@@ -5558,7 +5558,7 @@
         <v>1.33238</v>
       </c>
       <c r="C110">
-        <v>12.70000000000104</v>
+        <v>12.7</v>
       </c>
       <c r="D110">
         <v>1.33365</v>
@@ -5567,7 +5567,7 @@
         <v>43252.45625</v>
       </c>
       <c r="F110">
-        <v>-5.500000000000504</v>
+        <v>-5.5</v>
       </c>
       <c r="G110">
         <v>1.33183</v>
@@ -5579,7 +5579,7 @@
         <v>1.33205</v>
       </c>
       <c r="J110">
-        <v>16.00000000000046</v>
+        <v>16</v>
       </c>
       <c r="K110">
         <v>1.33365</v>
@@ -5588,7 +5588,7 @@
         <v>43252.45625</v>
       </c>
       <c r="M110">
-        <v>-2.20000000000109</v>
+        <v>-2.2</v>
       </c>
       <c r="N110">
         <v>1.33183</v>
@@ -5605,7 +5605,7 @@
         <v>1.33537</v>
       </c>
       <c r="C111">
-        <v>0.09999999999843467</v>
+        <v>0.1</v>
       </c>
       <c r="D111">
         <v>1.33538</v>
@@ -5614,7 +5614,7 @@
         <v>43255.44513888889</v>
       </c>
       <c r="F111">
-        <v>-23.30000000000165</v>
+        <v>-23.3</v>
       </c>
       <c r="G111">
         <v>1.33304</v>
@@ -5626,7 +5626,7 @@
         <v>1.33444</v>
       </c>
       <c r="J111">
-        <v>9.399999999999409</v>
+        <v>9.4</v>
       </c>
       <c r="K111">
         <v>1.33538</v>
@@ -5635,7 +5635,7 @@
         <v>43255.44513888889</v>
       </c>
       <c r="M111">
-        <v>-14.00000000000068</v>
+        <v>-14</v>
       </c>
       <c r="N111">
         <v>1.33304</v>
@@ -5652,7 +5652,7 @@
         <v>1.33361</v>
       </c>
       <c r="C112">
-        <v>7.500000000000284</v>
+        <v>7.5</v>
       </c>
       <c r="D112">
         <v>1.33436</v>
@@ -5661,7 +5661,7 @@
         <v>43256.45972222222</v>
       </c>
       <c r="F112">
-        <v>-2.100000000000435</v>
+        <v>-2.1</v>
       </c>
       <c r="G112">
         <v>1.3334</v>
@@ -5673,7 +5673,7 @@
         <v>1.33361</v>
       </c>
       <c r="J112">
-        <v>7.500000000000284</v>
+        <v>7.5</v>
       </c>
       <c r="K112">
         <v>1.33436</v>
@@ -5682,7 +5682,7 @@
         <v>43256.45972222222</v>
       </c>
       <c r="M112">
-        <v>-2.100000000000435</v>
+        <v>-2.1</v>
       </c>
       <c r="N112">
         <v>1.3334</v>
@@ -5699,7 +5699,7 @@
         <v>1.34273</v>
       </c>
       <c r="C113">
-        <v>11.2000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="D113">
         <v>1.34385</v>
@@ -5708,7 +5708,7 @@
         <v>43257.45763888889</v>
       </c>
       <c r="F113">
-        <v>-4.599999999999049</v>
+        <v>-4.6</v>
       </c>
       <c r="G113">
         <v>1.34227</v>
@@ -5720,7 +5720,7 @@
         <v>1.34299</v>
       </c>
       <c r="J113">
-        <v>8.600000000000829</v>
+        <v>8.6</v>
       </c>
       <c r="K113">
         <v>1.34385</v>
@@ -5729,7 +5729,7 @@
         <v>43257.45763888889</v>
       </c>
       <c r="M113">
-        <v>-7.199999999998319</v>
+        <v>-7.2</v>
       </c>
       <c r="N113">
         <v>1.34227</v>
@@ -5746,7 +5746,7 @@
         <v>1.33897</v>
       </c>
       <c r="C114">
-        <v>31.5999999999983</v>
+        <v>31.6</v>
       </c>
       <c r="D114">
         <v>1.34213</v>
@@ -5755,7 +5755,7 @@
         <v>43258.45972222222</v>
       </c>
       <c r="F114">
-        <v>-4.299999999999304</v>
+        <v>-4.3</v>
       </c>
       <c r="G114">
         <v>1.33854</v>
@@ -5767,7 +5767,7 @@
         <v>1.34029</v>
       </c>
       <c r="J114">
-        <v>18.39999999999842</v>
+        <v>18.4</v>
       </c>
       <c r="K114">
         <v>1.34213</v>
@@ -5776,7 +5776,7 @@
         <v>43258.45972222222</v>
       </c>
       <c r="M114">
-        <v>-17.49999999999918</v>
+        <v>-17.5</v>
       </c>
       <c r="N114">
         <v>1.33854</v>
@@ -5793,7 +5793,7 @@
         <v>1.33881</v>
       </c>
       <c r="C115">
-        <v>18.19999999999933</v>
+        <v>18.2</v>
       </c>
       <c r="D115">
         <v>1.34063</v>
@@ -5802,7 +5802,7 @@
         <v>43259.45972222222</v>
       </c>
       <c r="F115">
-        <v>-9.500000000000064</v>
+        <v>-9.5</v>
       </c>
       <c r="G115">
         <v>1.33786</v>
@@ -5814,7 +5814,7 @@
         <v>1.33814</v>
       </c>
       <c r="J115">
-        <v>24.90000000000103</v>
+        <v>24.9</v>
       </c>
       <c r="K115">
         <v>1.34063</v>
@@ -5823,7 +5823,7 @@
         <v>43259.45972222222</v>
       </c>
       <c r="M115">
-        <v>-2.799999999998359</v>
+        <v>-2.8</v>
       </c>
       <c r="N115">
         <v>1.33786</v>
@@ -5840,7 +5840,7 @@
         <v>1.33961</v>
       </c>
       <c r="C116">
-        <v>3.40000000000007</v>
+        <v>3.4</v>
       </c>
       <c r="D116">
         <v>1.33995</v>
@@ -5849,7 +5849,7 @@
         <v>43262.44930555556</v>
       </c>
       <c r="F116">
-        <v>-6.099999999999994</v>
+        <v>-6.1</v>
       </c>
       <c r="G116">
         <v>1.339</v>
@@ -5861,7 +5861,7 @@
         <v>1.33943</v>
       </c>
       <c r="J116">
-        <v>5.20000000000076</v>
+        <v>5.2</v>
       </c>
       <c r="K116">
         <v>1.33995</v>
@@ -5870,7 +5870,7 @@
         <v>43262.44930555556</v>
       </c>
       <c r="M116">
-        <v>-4.299999999999304</v>
+        <v>-4.3</v>
       </c>
       <c r="N116">
         <v>1.339</v>
@@ -5887,7 +5887,7 @@
         <v>1.33638</v>
       </c>
       <c r="C117">
-        <v>1.500000000000945</v>
+        <v>1.5</v>
       </c>
       <c r="D117">
         <v>1.33653</v>
@@ -5896,7 +5896,7 @@
         <v>43263.44097222222</v>
       </c>
       <c r="F117">
-        <v>-13.69999999999871</v>
+        <v>-13.7</v>
       </c>
       <c r="G117">
         <v>1.33501</v>
@@ -5908,7 +5908,7 @@
         <v>1.33537</v>
       </c>
       <c r="J117">
-        <v>11.59999999999828</v>
+        <v>11.6</v>
       </c>
       <c r="K117">
         <v>1.33653</v>
@@ -5917,7 +5917,7 @@
         <v>43263.44097222222</v>
       </c>
       <c r="M117">
-        <v>-3.60000000000138</v>
+        <v>-3.6</v>
       </c>
       <c r="N117">
         <v>1.33501</v>
@@ -5934,7 +5934,7 @@
         <v>1.33609</v>
       </c>
       <c r="C118">
-        <v>9.500000000000064</v>
+        <v>9.5</v>
       </c>
       <c r="D118">
         <v>1.33704</v>
@@ -5943,7 +5943,7 @@
         <v>43264.45208333333</v>
       </c>
       <c r="F118">
-        <v>-0.1000000000006551</v>
+        <v>-0.1</v>
       </c>
       <c r="G118">
         <v>1.33608</v>
@@ -5955,7 +5955,7 @@
         <v>1.33668</v>
       </c>
       <c r="J118">
-        <v>3.60000000000138</v>
+        <v>3.6</v>
       </c>
       <c r="K118">
         <v>1.33704</v>
@@ -5964,7 +5964,7 @@
         <v>43264.45208333333</v>
       </c>
       <c r="M118">
-        <v>-5.999999999999339</v>
+        <v>-6</v>
       </c>
       <c r="N118">
         <v>1.33608</v>
@@ -5981,7 +5981,7 @@
         <v>1.33153</v>
       </c>
       <c r="C119">
-        <v>17.100000000001</v>
+        <v>17.1</v>
       </c>
       <c r="D119">
         <v>1.33324</v>
@@ -5990,7 +5990,7 @@
         <v>43265.45902777778</v>
       </c>
       <c r="F119">
-        <v>-3.40000000000007</v>
+        <v>-3.4</v>
       </c>
       <c r="G119">
         <v>1.33119</v>
@@ -6002,7 +6002,7 @@
         <v>1.33138</v>
       </c>
       <c r="J119">
-        <v>18.59999999999973</v>
+        <v>18.6</v>
       </c>
       <c r="K119">
         <v>1.33324</v>
@@ -6011,7 +6011,7 @@
         <v>43265.45902777778</v>
       </c>
       <c r="M119">
-        <v>-1.900000000001345</v>
+        <v>-1.9</v>
       </c>
       <c r="N119">
         <v>1.33119</v>
@@ -6028,7 +6028,7 @@
         <v>1.32755</v>
       </c>
       <c r="C120">
-        <v>20.7999999999986</v>
+        <v>20.8</v>
       </c>
       <c r="D120">
         <v>1.32963</v>
@@ -6037,7 +6037,7 @@
         <v>43266.45625</v>
       </c>
       <c r="F120">
-        <v>-7.999999999999119</v>
+        <v>-8</v>
       </c>
       <c r="G120">
         <v>1.32675</v>
@@ -6049,7 +6049,7 @@
         <v>1.32741</v>
       </c>
       <c r="J120">
-        <v>22.19999999999889</v>
+        <v>22.2</v>
       </c>
       <c r="K120">
         <v>1.32963</v>
@@ -6058,7 +6058,7 @@
         <v>43266.45625</v>
       </c>
       <c r="M120">
-        <v>-6.599999999998829</v>
+        <v>-6.6</v>
       </c>
       <c r="N120">
         <v>1.32675</v>
@@ -6075,7 +6075,7 @@
         <v>1.32393</v>
       </c>
       <c r="C121">
-        <v>12.0000000000009</v>
+        <v>12</v>
       </c>
       <c r="D121">
         <v>1.32513</v>
@@ -6084,7 +6084,7 @@
         <v>43269.44861111111</v>
       </c>
       <c r="F121">
-        <v>-1.299999999997414</v>
+        <v>-1.3</v>
       </c>
       <c r="G121">
         <v>1.3238</v>
@@ -6096,7 +6096,7 @@
         <v>1.32498</v>
       </c>
       <c r="J121">
-        <v>1.500000000000945</v>
+        <v>1.5</v>
       </c>
       <c r="K121">
         <v>1.32513</v>
@@ -6105,7 +6105,7 @@
         <v>43269.44861111111</v>
       </c>
       <c r="M121">
-        <v>-11.79999999999737</v>
+        <v>-11.8</v>
       </c>
       <c r="N121">
         <v>1.3238</v>
@@ -6122,7 +6122,7 @@
         <v>1.31609</v>
       </c>
       <c r="C122">
-        <v>13.90000000000002</v>
+        <v>13.9</v>
       </c>
       <c r="D122">
         <v>1.31748</v>
@@ -6131,7 +6131,7 @@
         <v>43270.45416666667</v>
       </c>
       <c r="F122">
-        <v>-3.699999999999815</v>
+        <v>-3.7</v>
       </c>
       <c r="G122">
         <v>1.31572</v>
@@ -6143,7 +6143,7 @@
         <v>1.31622</v>
       </c>
       <c r="J122">
-        <v>12.59999999999817</v>
+        <v>12.6</v>
       </c>
       <c r="K122">
         <v>1.31748</v>
@@ -6152,7 +6152,7 @@
         <v>43270.45416666667</v>
       </c>
       <c r="M122">
-        <v>-5.00000000000167</v>
+        <v>-5</v>
       </c>
       <c r="N122">
         <v>1.31572</v>
@@ -6169,7 +6169,7 @@
         <v>1.3176</v>
       </c>
       <c r="C123">
-        <v>3.899999999998904</v>
+        <v>3.9</v>
       </c>
       <c r="D123">
         <v>1.31799</v>
@@ -6178,7 +6178,7 @@
         <v>43271.45347222222</v>
       </c>
       <c r="F123">
-        <v>-4.60000000000127</v>
+        <v>-4.6</v>
       </c>
       <c r="G123">
         <v>1.31714</v>
@@ -6190,7 +6190,7 @@
         <v>1.3174</v>
       </c>
       <c r="J123">
-        <v>5.900000000000905</v>
+        <v>5.9</v>
       </c>
       <c r="K123">
         <v>1.31799</v>
@@ -6199,7 +6199,7 @@
         <v>43271.45347222222</v>
       </c>
       <c r="M123">
-        <v>-2.59999999999927</v>
+        <v>-2.6</v>
       </c>
       <c r="N123">
         <v>1.31714</v>
@@ -6216,7 +6216,7 @@
         <v>1.32491</v>
       </c>
       <c r="C124">
-        <v>19.40000000000053</v>
+        <v>19.4</v>
       </c>
       <c r="D124">
         <v>1.32685</v>
@@ -6225,7 +6225,7 @@
         <v>43272.44861111111</v>
       </c>
       <c r="F124">
-        <v>-3.40000000000007</v>
+        <v>-3.4</v>
       </c>
       <c r="G124">
         <v>1.32457</v>
@@ -6237,7 +6237,7 @@
         <v>1.32653</v>
       </c>
       <c r="J124">
-        <v>3.20000000000098</v>
+        <v>3.2</v>
       </c>
       <c r="K124">
         <v>1.32685</v>
@@ -6246,7 +6246,7 @@
         <v>43272.44861111111</v>
       </c>
       <c r="M124">
-        <v>-19.59999999999962</v>
+        <v>-19.6</v>
       </c>
       <c r="N124">
         <v>1.32457</v>
@@ -6263,7 +6263,7 @@
         <v>1.32552</v>
       </c>
       <c r="C125">
-        <v>15.8999999999998</v>
+        <v>15.9</v>
       </c>
       <c r="D125">
         <v>1.32711</v>
@@ -6272,7 +6272,7 @@
         <v>43273.45763888889</v>
       </c>
       <c r="F125">
-        <v>-0.2000000000013102</v>
+        <v>-0.2</v>
       </c>
       <c r="G125">
         <v>1.3255</v>
@@ -6284,7 +6284,7 @@
         <v>1.32574</v>
       </c>
       <c r="J125">
-        <v>13.70000000000093</v>
+        <v>13.7</v>
       </c>
       <c r="K125">
         <v>1.32711</v>
@@ -6293,7 +6293,7 @@
         <v>43273.45763888889</v>
       </c>
       <c r="M125">
-        <v>-2.40000000000018</v>
+        <v>-2.4</v>
       </c>
       <c r="N125">
         <v>1.3255</v>
@@ -6310,7 +6310,7 @@
         <v>1.3272</v>
       </c>
       <c r="C126">
-        <v>2.700000000002145</v>
+        <v>2.7</v>
       </c>
       <c r="D126">
         <v>1.32747</v>
@@ -6319,7 +6319,7 @@
         <v>43276.44375</v>
       </c>
       <c r="F126">
-        <v>-14.39999999999886</v>
+        <v>-14.4</v>
       </c>
       <c r="G126">
         <v>1.32576</v>
@@ -6331,7 +6331,7 @@
         <v>1.32654</v>
       </c>
       <c r="J126">
-        <v>9.300000000000974</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K126">
         <v>1.32747</v>
@@ -6340,7 +6340,7 @@
         <v>43276.44375</v>
       </c>
       <c r="M126">
-        <v>-7.800000000000029</v>
+        <v>-7.8</v>
       </c>
       <c r="N126">
         <v>1.32576</v>
@@ -6357,7 +6357,7 @@
         <v>1.32305</v>
       </c>
       <c r="C127">
-        <v>14.60000000000017</v>
+        <v>14.6</v>
       </c>
       <c r="D127">
         <v>1.32451</v>
@@ -6378,7 +6378,7 @@
         <v>1.3239</v>
       </c>
       <c r="J127">
-        <v>6.099999999999994</v>
+        <v>6.1</v>
       </c>
       <c r="K127">
         <v>1.32451</v>
@@ -6387,7 +6387,7 @@
         <v>43277.45138888889</v>
       </c>
       <c r="M127">
-        <v>-8.500000000000174</v>
+        <v>-8.5</v>
       </c>
       <c r="N127">
         <v>1.32305</v>
@@ -6404,7 +6404,7 @@
         <v>1.31552</v>
       </c>
       <c r="C128">
-        <v>2.59999999999927</v>
+        <v>2.6</v>
       </c>
       <c r="D128">
         <v>1.31578</v>
@@ -6413,7 +6413,7 @@
         <v>43278.43819444445</v>
       </c>
       <c r="F128">
-        <v>-10.40000000000152</v>
+        <v>-10.4</v>
       </c>
       <c r="G128">
         <v>1.31448</v>
@@ -6425,7 +6425,7 @@
         <v>1.3152</v>
       </c>
       <c r="J128">
-        <v>5.800000000000249</v>
+        <v>5.8</v>
       </c>
       <c r="K128">
         <v>1.31578</v>
@@ -6434,7 +6434,7 @@
         <v>43278.43819444445</v>
       </c>
       <c r="M128">
-        <v>-7.200000000000539</v>
+        <v>-7.2</v>
       </c>
       <c r="N128">
         <v>1.31448</v>
@@ -6451,7 +6451,7 @@
         <v>1.31008</v>
       </c>
       <c r="C129">
-        <v>7.80000000000225</v>
+        <v>7.8</v>
       </c>
       <c r="D129">
         <v>1.31086</v>
@@ -6460,7 +6460,7 @@
         <v>43279.44444444445</v>
       </c>
       <c r="F129">
-        <v>-9.199999999998099</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="G129">
         <v>1.30916</v>
@@ -6472,7 +6472,7 @@
         <v>1.31031</v>
       </c>
       <c r="J129">
-        <v>5.500000000000504</v>
+        <v>5.5</v>
       </c>
       <c r="K129">
         <v>1.31086</v>
@@ -6481,7 +6481,7 @@
         <v>43279.44444444445</v>
       </c>
       <c r="M129">
-        <v>-11.49999999999984</v>
+        <v>-11.5</v>
       </c>
       <c r="N129">
         <v>1.30916</v>
@@ -6498,7 +6498,7 @@
         <v>1.31729</v>
       </c>
       <c r="C130">
-        <v>33.69999999999873</v>
+        <v>33.7</v>
       </c>
       <c r="D130">
         <v>1.32066</v>
@@ -6507,7 +6507,7 @@
         <v>43280.45763888889</v>
       </c>
       <c r="F130">
-        <v>-3.60000000000138</v>
+        <v>-3.6</v>
       </c>
       <c r="G130">
         <v>1.31693</v>
@@ -6519,7 +6519,7 @@
         <v>1.31805</v>
       </c>
       <c r="J130">
-        <v>26.10000000000001</v>
+        <v>26.1</v>
       </c>
       <c r="K130">
         <v>1.32066</v>
@@ -6528,7 +6528,7 @@
         <v>43280.45763888889</v>
       </c>
       <c r="M130">
-        <v>-11.2000000000001</v>
+        <v>-11.2</v>
       </c>
       <c r="N130">
         <v>1.31693</v>
@@ -6545,7 +6545,7 @@
         <v>1.31043</v>
       </c>
       <c r="C131">
-        <v>37.59999999999985</v>
+        <v>37.6</v>
       </c>
       <c r="D131">
         <v>1.31419</v>
@@ -6554,7 +6554,7 @@
         <v>43283.45486111111</v>
       </c>
       <c r="F131">
-        <v>-1.099999999998325</v>
+        <v>-1.1</v>
       </c>
       <c r="G131">
         <v>1.31032</v>
@@ -6566,7 +6566,7 @@
         <v>1.3111</v>
       </c>
       <c r="J131">
-        <v>30.90000000000037</v>
+        <v>30.9</v>
       </c>
       <c r="K131">
         <v>1.31419</v>
@@ -6575,7 +6575,7 @@
         <v>43283.45486111111</v>
       </c>
       <c r="M131">
-        <v>-7.799999999997809</v>
+        <v>-7.8</v>
       </c>
       <c r="N131">
         <v>1.31032</v>
@@ -6592,7 +6592,7 @@
         <v>1.3173</v>
       </c>
       <c r="C132">
-        <v>3.00000000000189</v>
+        <v>3</v>
       </c>
       <c r="D132">
         <v>1.3176</v>
@@ -6601,7 +6601,7 @@
         <v>43284.45763888889</v>
       </c>
       <c r="F132">
-        <v>-13.70000000000093</v>
+        <v>-13.7</v>
       </c>
       <c r="G132">
         <v>1.31593</v>
@@ -6613,7 +6613,7 @@
         <v>1.31631</v>
       </c>
       <c r="J132">
-        <v>12.90000000000013</v>
+        <v>12.9</v>
       </c>
       <c r="K132">
         <v>1.3176</v>
@@ -6622,7 +6622,7 @@
         <v>43284.45763888889</v>
       </c>
       <c r="M132">
-        <v>-3.80000000000269</v>
+        <v>-3.8</v>
       </c>
       <c r="N132">
         <v>1.31593</v>
@@ -6648,7 +6648,7 @@
         <v>43285.4375</v>
       </c>
       <c r="F133">
-        <v>-12.39999999999908</v>
+        <v>-12.4</v>
       </c>
       <c r="G133">
         <v>1.3208</v>
@@ -6660,7 +6660,7 @@
         <v>1.32164</v>
       </c>
       <c r="J133">
-        <v>3.999999999999559</v>
+        <v>4</v>
       </c>
       <c r="K133">
         <v>1.32204</v>
@@ -6669,7 +6669,7 @@
         <v>43285.4375</v>
       </c>
       <c r="M133">
-        <v>-8.399999999999519</v>
+        <v>-8.4</v>
       </c>
       <c r="N133">
         <v>1.3208</v>
@@ -6686,7 +6686,7 @@
         <v>1.32247</v>
       </c>
       <c r="C134">
-        <v>4.399999999999959</v>
+        <v>4.4</v>
       </c>
       <c r="D134">
         <v>1.32291</v>
@@ -6695,7 +6695,7 @@
         <v>43286.44652777778</v>
       </c>
       <c r="F134">
-        <v>-8.999999999999009</v>
+        <v>-9</v>
       </c>
       <c r="G134">
         <v>1.32157</v>
@@ -6707,7 +6707,7 @@
         <v>1.32288</v>
       </c>
       <c r="J134">
-        <v>0.3000000000019654</v>
+        <v>0.3</v>
       </c>
       <c r="K134">
         <v>1.32291</v>
@@ -6716,7 +6716,7 @@
         <v>43286.44652777778</v>
       </c>
       <c r="M134">
-        <v>-13.099999999997</v>
+        <v>-13.1</v>
       </c>
       <c r="N134">
         <v>1.32157</v>
@@ -6733,7 +6733,7 @@
         <v>1.32713</v>
       </c>
       <c r="C135">
-        <v>4.80000000000036</v>
+        <v>4.8</v>
       </c>
       <c r="D135">
         <v>1.32761</v>
@@ -6742,7 +6742,7 @@
         <v>43287.45763888889</v>
       </c>
       <c r="F135">
-        <v>-9.900000000000464</v>
+        <v>-9.9</v>
       </c>
       <c r="G135">
         <v>1.32614</v>
@@ -6754,7 +6754,7 @@
         <v>1.32656</v>
       </c>
       <c r="J135">
-        <v>10.49999999999995</v>
+        <v>10.5</v>
       </c>
       <c r="K135">
         <v>1.32761</v>
@@ -6763,7 +6763,7 @@
         <v>43287.45763888889</v>
       </c>
       <c r="M135">
-        <v>-4.20000000000087</v>
+        <v>-4.2</v>
       </c>
       <c r="N135">
         <v>1.32614</v>
@@ -6780,7 +6780,7 @@
         <v>1.32448</v>
       </c>
       <c r="C136">
-        <v>20.10000000000067</v>
+        <v>20.1</v>
       </c>
       <c r="D136">
         <v>1.32649</v>
@@ -6801,7 +6801,7 @@
         <v>1.32608</v>
       </c>
       <c r="J136">
-        <v>4.100000000000215</v>
+        <v>4.1</v>
       </c>
       <c r="K136">
         <v>1.32649</v>
@@ -6810,7 +6810,7 @@
         <v>43290.44375</v>
       </c>
       <c r="M136">
-        <v>-16.00000000000046</v>
+        <v>-16</v>
       </c>
       <c r="N136">
         <v>1.32448</v>
@@ -6827,7 +6827,7 @@
         <v>1.32738</v>
       </c>
       <c r="C137">
-        <v>2.19999999999887</v>
+        <v>2.2</v>
       </c>
       <c r="D137">
         <v>1.3276</v>
@@ -6836,7 +6836,7 @@
         <v>43291.45625</v>
       </c>
       <c r="F137">
-        <v>-9.900000000000464</v>
+        <v>-9.9</v>
       </c>
       <c r="G137">
         <v>1.32639</v>
@@ -6848,7 +6848,7 @@
         <v>1.32709</v>
       </c>
       <c r="J137">
-        <v>5.100000000000104</v>
+        <v>5.1</v>
       </c>
       <c r="K137">
         <v>1.3276</v>
@@ -6857,7 +6857,7 @@
         <v>43291.45625</v>
       </c>
       <c r="M137">
-        <v>-6.999999999999229</v>
+        <v>-7</v>
       </c>
       <c r="N137">
         <v>1.32639</v>
@@ -6883,7 +6883,7 @@
         <v>43292.4375</v>
       </c>
       <c r="F138">
-        <v>-22.99999999999969</v>
+        <v>-23</v>
       </c>
       <c r="G138">
         <v>1.32462</v>
@@ -6895,7 +6895,7 @@
         <v>1.32587</v>
       </c>
       <c r="J138">
-        <v>10.49999999999995</v>
+        <v>10.5</v>
       </c>
       <c r="K138">
         <v>1.32692</v>
@@ -6904,7 +6904,7 @@
         <v>43292.4375</v>
       </c>
       <c r="M138">
-        <v>-12.49999999999973</v>
+        <v>-12.5</v>
       </c>
       <c r="N138">
         <v>1.32462</v>
@@ -6921,7 +6921,7 @@
         <v>1.322</v>
       </c>
       <c r="C139">
-        <v>7.200000000000539</v>
+        <v>7.2</v>
       </c>
       <c r="D139">
         <v>1.32272</v>
@@ -6930,7 +6930,7 @@
         <v>43293.44236111111</v>
       </c>
       <c r="F139">
-        <v>-4.100000000000215</v>
+        <v>-4.1</v>
       </c>
       <c r="G139">
         <v>1.32159</v>
@@ -6942,7 +6942,7 @@
         <v>1.32181</v>
       </c>
       <c r="J139">
-        <v>9.100000000001884</v>
+        <v>9.1</v>
       </c>
       <c r="K139">
         <v>1.32272</v>
@@ -6951,7 +6951,7 @@
         <v>43293.44236111111</v>
       </c>
       <c r="M139">
-        <v>-2.19999999999887</v>
+        <v>-2.2</v>
       </c>
       <c r="N139">
         <v>1.32159</v>
@@ -6968,7 +6968,7 @@
         <v>1.31828</v>
       </c>
       <c r="C140">
-        <v>21.40000000000253</v>
+        <v>21.4</v>
       </c>
       <c r="D140">
         <v>1.32042</v>
@@ -6977,7 +6977,7 @@
         <v>43294.45277777778</v>
       </c>
       <c r="F140">
-        <v>-6.799999999997919</v>
+        <v>-6.8</v>
       </c>
       <c r="G140">
         <v>1.3176</v>
@@ -6989,7 +6989,7 @@
         <v>1.31843</v>
       </c>
       <c r="J140">
-        <v>19.90000000000158</v>
+        <v>19.9</v>
       </c>
       <c r="K140">
         <v>1.32042</v>
@@ -6998,7 +6998,7 @@
         <v>43294.45277777778</v>
       </c>
       <c r="M140">
-        <v>-8.299999999998864</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="N140">
         <v>1.3176</v>
@@ -7015,7 +7015,7 @@
         <v>1.32661</v>
       </c>
       <c r="C141">
-        <v>3.199999999998759</v>
+        <v>3.2</v>
       </c>
       <c r="D141">
         <v>1.32693</v>
@@ -7024,7 +7024,7 @@
         <v>43297.43819444445</v>
       </c>
       <c r="F141">
-        <v>-38.7000000000004</v>
+        <v>-38.7</v>
       </c>
       <c r="G141">
         <v>1.32274</v>
@@ -7036,7 +7036,7 @@
         <v>1.32535</v>
       </c>
       <c r="J141">
-        <v>15.79999999999915</v>
+        <v>15.8</v>
       </c>
       <c r="K141">
         <v>1.32693</v>
@@ -7045,7 +7045,7 @@
         <v>43297.43819444445</v>
       </c>
       <c r="M141">
-        <v>-26.10000000000001</v>
+        <v>-26.1</v>
       </c>
       <c r="N141">
         <v>1.32274</v>
@@ -7062,7 +7062,7 @@
         <v>1.31574</v>
       </c>
       <c r="C142">
-        <v>9.300000000000974</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D142">
         <v>1.31667</v>
@@ -7071,7 +7071,7 @@
         <v>43298.45486111111</v>
       </c>
       <c r="F142">
-        <v>-2.99999999999967</v>
+        <v>-3</v>
       </c>
       <c r="G142">
         <v>1.31544</v>
@@ -7083,7 +7083,7 @@
         <v>1.31589</v>
       </c>
       <c r="J142">
-        <v>7.800000000000029</v>
+        <v>7.8</v>
       </c>
       <c r="K142">
         <v>1.31667</v>
@@ -7092,7 +7092,7 @@
         <v>43298.45486111111</v>
       </c>
       <c r="M142">
-        <v>-4.500000000000615</v>
+        <v>-4.5</v>
       </c>
       <c r="N142">
         <v>1.31544</v>
@@ -7109,7 +7109,7 @@
         <v>1.30411</v>
       </c>
       <c r="C143">
-        <v>8.599999999998609</v>
+        <v>8.6</v>
       </c>
       <c r="D143">
         <v>1.30497</v>
@@ -7118,7 +7118,7 @@
         <v>43299.45902777778</v>
       </c>
       <c r="F143">
-        <v>-3.300000000001635</v>
+        <v>-3.3</v>
       </c>
       <c r="G143">
         <v>1.30378</v>
@@ -7130,7 +7130,7 @@
         <v>1.30446</v>
       </c>
       <c r="J143">
-        <v>5.100000000000104</v>
+        <v>5.1</v>
       </c>
       <c r="K143">
         <v>1.30497</v>
@@ -7139,7 +7139,7 @@
         <v>43299.45902777778</v>
       </c>
       <c r="M143">
-        <v>-6.800000000000139</v>
+        <v>-6.8</v>
       </c>
       <c r="N143">
         <v>1.30378</v>
@@ -7156,7 +7156,7 @@
         <v>1.29959</v>
       </c>
       <c r="C144">
-        <v>9.500000000000064</v>
+        <v>9.5</v>
       </c>
       <c r="D144">
         <v>1.30054</v>
@@ -7165,7 +7165,7 @@
         <v>43300.44930555556</v>
       </c>
       <c r="F144">
-        <v>-3.500000000000725</v>
+        <v>-3.5</v>
       </c>
       <c r="G144">
         <v>1.29924</v>
@@ -7177,7 +7177,7 @@
         <v>1.29988</v>
       </c>
       <c r="J144">
-        <v>6.600000000001049</v>
+        <v>6.6</v>
       </c>
       <c r="K144">
         <v>1.30054</v>
@@ -7186,7 +7186,7 @@
         <v>43300.44930555556</v>
       </c>
       <c r="M144">
-        <v>-6.399999999999739</v>
+        <v>-6.4</v>
       </c>
       <c r="N144">
         <v>1.29924</v>
@@ -7203,7 +7203,7 @@
         <v>1.31062</v>
       </c>
       <c r="C145">
-        <v>3.499999999998504</v>
+        <v>3.5</v>
       </c>
       <c r="D145">
         <v>1.31097</v>
@@ -7212,7 +7212,7 @@
         <v>43301.45208333333</v>
       </c>
       <c r="F145">
-        <v>-7.200000000000539</v>
+        <v>-7.2</v>
       </c>
       <c r="G145">
         <v>1.3099</v>
@@ -7224,7 +7224,7 @@
         <v>1.31078</v>
       </c>
       <c r="J145">
-        <v>1.900000000001345</v>
+        <v>1.9</v>
       </c>
       <c r="K145">
         <v>1.31097</v>
@@ -7233,7 +7233,7 @@
         <v>43301.45208333333</v>
       </c>
       <c r="M145">
-        <v>-8.799999999997699</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="N145">
         <v>1.3099</v>
@@ -7250,7 +7250,7 @@
         <v>1.31085</v>
       </c>
       <c r="C146">
-        <v>10.3999999999993</v>
+        <v>10.4</v>
       </c>
       <c r="D146">
         <v>1.31189</v>
@@ -7259,7 +7259,7 @@
         <v>43304.44583333333</v>
       </c>
       <c r="F146">
-        <v>-5.20000000000076</v>
+        <v>-5.2</v>
       </c>
       <c r="G146">
         <v>1.31033</v>
@@ -7271,7 +7271,7 @@
         <v>1.31183</v>
       </c>
       <c r="J146">
-        <v>0.6000000000017103</v>
+        <v>0.6</v>
       </c>
       <c r="K146">
         <v>1.31189</v>
@@ -7280,7 +7280,7 @@
         <v>43304.44583333333</v>
       </c>
       <c r="M146">
-        <v>-14.99999999999835</v>
+        <v>-15</v>
       </c>
       <c r="N146">
         <v>1.31033</v>
@@ -7297,7 +7297,7 @@
         <v>1.31421</v>
       </c>
       <c r="C147">
-        <v>13.60000000000028</v>
+        <v>13.6</v>
       </c>
       <c r="D147">
         <v>1.31557</v>
@@ -7306,7 +7306,7 @@
         <v>43305.45833333334</v>
       </c>
       <c r="F147">
-        <v>-3.700000000002035</v>
+        <v>-3.7</v>
       </c>
       <c r="G147">
         <v>1.31384</v>
@@ -7318,7 +7318,7 @@
         <v>1.31463</v>
       </c>
       <c r="J147">
-        <v>9.400000000001629</v>
+        <v>9.4</v>
       </c>
       <c r="K147">
         <v>1.31557</v>
@@ -7327,7 +7327,7 @@
         <v>43305.45833333334</v>
       </c>
       <c r="M147">
-        <v>-7.900000000000684</v>
+        <v>-7.9</v>
       </c>
       <c r="N147">
         <v>1.31384</v>
@@ -7344,7 +7344,7 @@
         <v>1.31433</v>
       </c>
       <c r="C148">
-        <v>7.099999999999884</v>
+        <v>7.1</v>
       </c>
       <c r="D148">
         <v>1.31504</v>
@@ -7353,7 +7353,7 @@
         <v>43306.45833333334</v>
       </c>
       <c r="F148">
-        <v>-3.80000000000047</v>
+        <v>-3.8</v>
       </c>
       <c r="G148">
         <v>1.31395</v>
@@ -7365,7 +7365,7 @@
         <v>1.31444</v>
       </c>
       <c r="J148">
-        <v>5.999999999999339</v>
+        <v>6</v>
       </c>
       <c r="K148">
         <v>1.31504</v>
@@ -7374,7 +7374,7 @@
         <v>43306.45833333334</v>
       </c>
       <c r="M148">
-        <v>-4.900000000001015</v>
+        <v>-4.9</v>
       </c>
       <c r="N148">
         <v>1.31395</v>
@@ -7391,7 +7391,7 @@
         <v>1.31279</v>
       </c>
       <c r="C149">
-        <v>23.70000000000205</v>
+        <v>23.7</v>
       </c>
       <c r="D149">
         <v>1.31516</v>
@@ -7400,7 +7400,7 @@
         <v>43307.45902777778</v>
       </c>
       <c r="F149">
-        <v>-3.299999999999415</v>
+        <v>-3.3</v>
       </c>
       <c r="G149">
         <v>1.31246</v>
@@ -7412,7 +7412,7 @@
         <v>1.31397</v>
       </c>
       <c r="J149">
-        <v>11.90000000000024</v>
+        <v>11.9</v>
       </c>
       <c r="K149">
         <v>1.31516</v>
@@ -7421,7 +7421,7 @@
         <v>43307.45902777778</v>
       </c>
       <c r="M149">
-        <v>-15.10000000000122</v>
+        <v>-15.1</v>
       </c>
       <c r="N149">
         <v>1.31246</v>
@@ -7438,7 +7438,7 @@
         <v>1.31185</v>
       </c>
       <c r="C150">
-        <v>12.20000000000221</v>
+        <v>12.2</v>
       </c>
       <c r="D150">
         <v>1.31307</v>
@@ -7447,7 +7447,7 @@
         <v>43308.45486111111</v>
       </c>
       <c r="F150">
-        <v>-10.20000000000021</v>
+        <v>-10.2</v>
       </c>
       <c r="G150">
         <v>1.31083</v>
@@ -7459,7 +7459,7 @@
         <v>1.31122</v>
       </c>
       <c r="J150">
-        <v>18.50000000000129</v>
+        <v>18.5</v>
       </c>
       <c r="K150">
         <v>1.31307</v>
@@ -7468,7 +7468,7 @@
         <v>43308.45486111111</v>
       </c>
       <c r="M150">
-        <v>-3.900000000001125</v>
+        <v>-3.9</v>
       </c>
       <c r="N150">
         <v>1.31083</v>
@@ -7485,7 +7485,7 @@
         <v>1.31488</v>
       </c>
       <c r="C151">
-        <v>2.100000000000435</v>
+        <v>2.1</v>
       </c>
       <c r="D151">
         <v>1.31509</v>
@@ -7494,7 +7494,7 @@
         <v>43311.45555555556</v>
       </c>
       <c r="F151">
-        <v>-4.499999999998394</v>
+        <v>-4.5</v>
       </c>
       <c r="G151">
         <v>1.31443</v>
@@ -7506,7 +7506,7 @@
         <v>1.31463</v>
       </c>
       <c r="J151">
-        <v>4.599999999999049</v>
+        <v>4.6</v>
       </c>
       <c r="K151">
         <v>1.31509</v>
@@ -7515,7 +7515,7 @@
         <v>43311.45555555556</v>
       </c>
       <c r="M151">
-        <v>-1.99999999999978</v>
+        <v>-2</v>
       </c>
       <c r="N151">
         <v>1.31443</v>
@@ -7532,7 +7532,7 @@
         <v>1.31303</v>
       </c>
       <c r="C152">
-        <v>0.5000000000010552</v>
+        <v>0.5</v>
       </c>
       <c r="D152">
         <v>1.31308</v>
@@ -7541,7 +7541,7 @@
         <v>43312.43958333333</v>
       </c>
       <c r="F152">
-        <v>-34.0000000000007</v>
+        <v>-34</v>
       </c>
       <c r="G152">
         <v>1.30963</v>
@@ -7553,7 +7553,7 @@
         <v>1.3118</v>
       </c>
       <c r="J152">
-        <v>12.79999999999948</v>
+        <v>12.8</v>
       </c>
       <c r="K152">
         <v>1.31308</v>
@@ -7562,7 +7562,7 @@
         <v>43312.43958333333</v>
       </c>
       <c r="M152">
-        <v>-21.70000000000227</v>
+        <v>-21.7</v>
       </c>
       <c r="N152">
         <v>1.30963</v>
@@ -7579,7 +7579,7 @@
         <v>1.31248</v>
       </c>
       <c r="C153">
-        <v>8.900000000002795</v>
+        <v>8.9</v>
       </c>
       <c r="D153">
         <v>1.31337</v>
@@ -7588,7 +7588,7 @@
         <v>43313.45069444444</v>
       </c>
       <c r="F153">
-        <v>-7.299999999998974</v>
+        <v>-7.3</v>
       </c>
       <c r="G153">
         <v>1.31175</v>
@@ -7600,7 +7600,7 @@
         <v>1.31299</v>
       </c>
       <c r="J153">
-        <v>3.80000000000269</v>
+        <v>3.8</v>
       </c>
       <c r="K153">
         <v>1.31337</v>
@@ -7609,7 +7609,7 @@
         <v>43313.45069444444</v>
       </c>
       <c r="M153">
-        <v>-12.39999999999908</v>
+        <v>-12.4</v>
       </c>
       <c r="N153">
         <v>1.31175</v>
@@ -7626,7 +7626,7 @@
         <v>1.30394</v>
       </c>
       <c r="C154">
-        <v>2.100000000000435</v>
+        <v>2.1</v>
       </c>
       <c r="D154">
         <v>1.30415</v>
@@ -7635,7 +7635,7 @@
         <v>43314.44861111111</v>
       </c>
       <c r="F154">
-        <v>-8.500000000000174</v>
+        <v>-8.5</v>
       </c>
       <c r="G154">
         <v>1.30309</v>
@@ -7647,7 +7647,7 @@
         <v>1.30372</v>
       </c>
       <c r="J154">
-        <v>4.299999999999304</v>
+        <v>4.3</v>
       </c>
       <c r="K154">
         <v>1.30415</v>
@@ -7656,7 +7656,7 @@
         <v>43314.44861111111</v>
       </c>
       <c r="M154">
-        <v>-6.300000000001305</v>
+        <v>-6.3</v>
       </c>
       <c r="N154">
         <v>1.30309</v>
@@ -7673,7 +7673,7 @@
         <v>1.3004</v>
       </c>
       <c r="C155">
-        <v>20.00000000000002</v>
+        <v>20</v>
       </c>
       <c r="D155">
         <v>1.3024</v>
@@ -7682,7 +7682,7 @@
         <v>43315.45138888889</v>
       </c>
       <c r="F155">
-        <v>-1.2000000000012</v>
+        <v>-1.2</v>
       </c>
       <c r="G155">
         <v>1.30028</v>
@@ -7694,7 +7694,7 @@
         <v>1.30209</v>
       </c>
       <c r="J155">
-        <v>3.100000000000325</v>
+        <v>3.1</v>
       </c>
       <c r="K155">
         <v>1.3024</v>
@@ -7703,7 +7703,7 @@
         <v>43315.45138888889</v>
       </c>
       <c r="M155">
-        <v>-18.10000000000089</v>
+        <v>-18.1</v>
       </c>
       <c r="N155">
         <v>1.30028</v>
@@ -7729,7 +7729,7 @@
         <v>43318.4375</v>
       </c>
       <c r="F156">
-        <v>-9.700000000001374</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="G156">
         <v>1.29399</v>
@@ -7741,7 +7741,7 @@
         <v>1.29445</v>
       </c>
       <c r="J156">
-        <v>5.100000000000104</v>
+        <v>5.1</v>
       </c>
       <c r="K156">
         <v>1.29496</v>
@@ -7750,7 +7750,7 @@
         <v>43318.4375</v>
       </c>
       <c r="M156">
-        <v>-4.60000000000127</v>
+        <v>-4.6</v>
       </c>
       <c r="N156">
         <v>1.29399</v>
@@ -7767,7 +7767,7 @@
         <v>1.29437</v>
       </c>
       <c r="C157">
-        <v>10.90000000000035</v>
+        <v>10.9</v>
       </c>
       <c r="D157">
         <v>1.29546</v>
@@ -7776,7 +7776,7 @@
         <v>43319.45902777778</v>
       </c>
       <c r="F157">
-        <v>-0.4999999999988347</v>
+        <v>-0.5</v>
       </c>
       <c r="G157">
         <v>1.29432</v>
@@ -7788,7 +7788,7 @@
         <v>1.29433</v>
       </c>
       <c r="J157">
-        <v>11.30000000000075</v>
+        <v>11.3</v>
       </c>
       <c r="K157">
         <v>1.29546</v>
@@ -7797,7 +7797,7 @@
         <v>43319.45902777778</v>
       </c>
       <c r="M157">
-        <v>-0.09999999999843467</v>
+        <v>-0.1</v>
       </c>
       <c r="N157">
         <v>1.29432</v>
@@ -7814,7 +7814,7 @@
         <v>1.28717</v>
       </c>
       <c r="C158">
-        <v>12.99999999999857</v>
+        <v>13</v>
       </c>
       <c r="D158">
         <v>1.28847</v>
@@ -7823,7 +7823,7 @@
         <v>43320.45972222222</v>
       </c>
       <c r="F158">
-        <v>-4.40000000000218</v>
+        <v>-4.4</v>
       </c>
       <c r="G158">
         <v>1.28673</v>
@@ -7835,7 +7835,7 @@
         <v>1.28724</v>
       </c>
       <c r="J158">
-        <v>12.30000000000064</v>
+        <v>12.3</v>
       </c>
       <c r="K158">
         <v>1.28847</v>
@@ -7844,7 +7844,7 @@
         <v>43320.45972222222</v>
       </c>
       <c r="M158">
-        <v>-5.100000000000104</v>
+        <v>-5.1</v>
       </c>
       <c r="N158">
         <v>1.28673</v>
@@ -7861,7 +7861,7 @@
         <v>1.28814</v>
       </c>
       <c r="C159">
-        <v>3.899999999998904</v>
+        <v>3.9</v>
       </c>
       <c r="D159">
         <v>1.28853</v>
@@ -7870,7 +7870,7 @@
         <v>43321.45208333333</v>
       </c>
       <c r="F159">
-        <v>-14.30000000000042</v>
+        <v>-14.3</v>
       </c>
       <c r="G159">
         <v>1.28671</v>
@@ -7882,7 +7882,7 @@
         <v>1.2881</v>
       </c>
       <c r="J159">
-        <v>4.299999999999304</v>
+        <v>4.3</v>
       </c>
       <c r="K159">
         <v>1.28853</v>
@@ -7891,7 +7891,7 @@
         <v>43321.45208333333</v>
       </c>
       <c r="M159">
-        <v>-13.90000000000002</v>
+        <v>-13.9</v>
       </c>
       <c r="N159">
         <v>1.28671</v>
@@ -7908,7 +7908,7 @@
         <v>1.27628</v>
       </c>
       <c r="C160">
-        <v>17.70000000000049</v>
+        <v>17.7</v>
       </c>
       <c r="D160">
         <v>1.27805</v>
@@ -7917,7 +7917,7 @@
         <v>43322.45208333333</v>
       </c>
       <c r="F160">
-        <v>-4.699999999997484</v>
+        <v>-4.7</v>
       </c>
       <c r="G160">
         <v>1.27581</v>
@@ -7929,7 +7929,7 @@
         <v>1.27711</v>
       </c>
       <c r="J160">
-        <v>9.399999999999409</v>
+        <v>9.4</v>
       </c>
       <c r="K160">
         <v>1.27805</v>
@@ -7938,7 +7938,7 @@
         <v>43322.45208333333</v>
       </c>
       <c r="M160">
-        <v>-12.99999999999857</v>
+        <v>-13</v>
       </c>
       <c r="N160">
         <v>1.27581</v>
@@ -7955,7 +7955,7 @@
         <v>1.27883</v>
       </c>
       <c r="C161">
-        <v>1.500000000000945</v>
+        <v>1.5</v>
       </c>
       <c r="D161">
         <v>1.27898</v>
@@ -7964,7 +7964,7 @@
         <v>43325.43888888889</v>
       </c>
       <c r="F161">
-        <v>-12.69999999999882</v>
+        <v>-12.7</v>
       </c>
       <c r="G161">
         <v>1.27756</v>
@@ -7976,7 +7976,7 @@
         <v>1.27837</v>
       </c>
       <c r="J161">
-        <v>6.099999999999994</v>
+        <v>6.1</v>
       </c>
       <c r="K161">
         <v>1.27898</v>
@@ -7985,7 +7985,7 @@
         <v>43325.43888888889</v>
       </c>
       <c r="M161">
-        <v>-8.099999999999774</v>
+        <v>-8.1</v>
       </c>
       <c r="N161">
         <v>1.27756</v>
@@ -8011,7 +8011,7 @@
         <v>43326.4375</v>
       </c>
       <c r="F162">
-        <v>-22.19999999999889</v>
+        <v>-22.2</v>
       </c>
       <c r="G162">
         <v>1.27472</v>
@@ -8023,7 +8023,7 @@
         <v>1.27625</v>
       </c>
       <c r="J162">
-        <v>6.899999999998574</v>
+        <v>6.9</v>
       </c>
       <c r="K162">
         <v>1.27694</v>
@@ -8032,7 +8032,7 @@
         <v>43326.4375</v>
       </c>
       <c r="M162">
-        <v>-15.30000000000031</v>
+        <v>-15.3</v>
       </c>
       <c r="N162">
         <v>1.27472</v>
@@ -8049,7 +8049,7 @@
         <v>1.26847</v>
       </c>
       <c r="C163">
-        <v>2.80000000000058</v>
+        <v>2.8</v>
       </c>
       <c r="D163">
         <v>1.26875</v>
@@ -8058,7 +8058,7 @@
         <v>43327.44097222222</v>
       </c>
       <c r="F163">
-        <v>-19.70000000000027</v>
+        <v>-19.7</v>
       </c>
       <c r="G163">
         <v>1.2665</v>
@@ -8070,7 +8070,7 @@
         <v>1.26798</v>
       </c>
       <c r="J163">
-        <v>7.700000000001594</v>
+        <v>7.7</v>
       </c>
       <c r="K163">
         <v>1.26875</v>
@@ -8079,7 +8079,7 @@
         <v>43327.44097222222</v>
       </c>
       <c r="M163">
-        <v>-14.79999999999926</v>
+        <v>-14.8</v>
       </c>
       <c r="N163">
         <v>1.2665</v>
@@ -8096,7 +8096,7 @@
         <v>1.27291</v>
       </c>
       <c r="C164">
-        <v>2.900000000001235</v>
+        <v>2.9</v>
       </c>
       <c r="D164">
         <v>1.2732</v>
@@ -8105,7 +8105,7 @@
         <v>43328.44236111111</v>
       </c>
       <c r="F164">
-        <v>-10.09999999999955</v>
+        <v>-10.1</v>
       </c>
       <c r="G164">
         <v>1.2719</v>
@@ -8117,7 +8117,7 @@
         <v>1.27215</v>
       </c>
       <c r="J164">
-        <v>10.50000000000217</v>
+        <v>10.5</v>
       </c>
       <c r="K164">
         <v>1.2732</v>
@@ -8126,7 +8126,7 @@
         <v>43328.44236111111</v>
       </c>
       <c r="M164">
-        <v>-2.499999999998614</v>
+        <v>-2.5</v>
       </c>
       <c r="N164">
         <v>1.2719</v>
@@ -8143,7 +8143,7 @@
         <v>1.27286</v>
       </c>
       <c r="C165">
-        <v>11.19999999999788</v>
+        <v>11.2</v>
       </c>
       <c r="D165">
         <v>1.27398</v>
@@ -8152,7 +8152,7 @@
         <v>43329.45833333334</v>
       </c>
       <c r="F165">
-        <v>-0.3000000000019654</v>
+        <v>-0.3</v>
       </c>
       <c r="G165">
         <v>1.27283</v>
@@ -8164,7 +8164,7 @@
         <v>1.27327</v>
       </c>
       <c r="J165">
-        <v>7.099999999997664</v>
+        <v>7.1</v>
       </c>
       <c r="K165">
         <v>1.27398</v>
@@ -8173,7 +8173,7 @@
         <v>43329.45833333334</v>
       </c>
       <c r="M165">
-        <v>-4.40000000000218</v>
+        <v>-4.4</v>
       </c>
       <c r="N165">
         <v>1.27283</v>
@@ -8190,7 +8190,7 @@
         <v>1.27718</v>
       </c>
       <c r="C166">
-        <v>2.40000000000018</v>
+        <v>2.4</v>
       </c>
       <c r="D166">
         <v>1.27742</v>
@@ -8199,7 +8199,7 @@
         <v>43332.44513888889</v>
       </c>
       <c r="F166">
-        <v>-12.79999999999948</v>
+        <v>-12.8</v>
       </c>
       <c r="G166">
         <v>1.2759</v>
@@ -8211,7 +8211,7 @@
         <v>1.27716</v>
       </c>
       <c r="J166">
-        <v>2.59999999999927</v>
+        <v>2.6</v>
       </c>
       <c r="K166">
         <v>1.27742</v>
@@ -8220,7 +8220,7 @@
         <v>43332.44513888889</v>
       </c>
       <c r="M166">
-        <v>-12.60000000000039</v>
+        <v>-12.6</v>
       </c>
       <c r="N166">
         <v>1.2759</v>
@@ -8237,7 +8237,7 @@
         <v>1.28678</v>
       </c>
       <c r="C167">
-        <v>7.999999999999119</v>
+        <v>8</v>
       </c>
       <c r="D167">
         <v>1.28758</v>
@@ -8246,7 +8246,7 @@
         <v>43333.44375</v>
       </c>
       <c r="F167">
-        <v>-4.299999999999304</v>
+        <v>-4.3</v>
       </c>
       <c r="G167">
         <v>1.28635</v>
@@ -8258,7 +8258,7 @@
         <v>1.28748</v>
       </c>
       <c r="J167">
-        <v>0.9999999999998899</v>
+        <v>1</v>
       </c>
       <c r="K167">
         <v>1.28758</v>
@@ -8267,7 +8267,7 @@
         <v>43333.44375</v>
       </c>
       <c r="M167">
-        <v>-11.29999999999853</v>
+        <v>-11.3</v>
       </c>
       <c r="N167">
         <v>1.28635</v>
@@ -8284,7 +8284,7 @@
         <v>1.29129</v>
       </c>
       <c r="C168">
-        <v>2.99999999999967</v>
+        <v>3</v>
       </c>
       <c r="D168">
         <v>1.29159</v>
@@ -8293,7 +8293,7 @@
         <v>43334.45138888889</v>
       </c>
       <c r="F168">
-        <v>-5.20000000000076</v>
+        <v>-5.2</v>
       </c>
       <c r="G168">
         <v>1.29077</v>
@@ -8305,7 +8305,7 @@
         <v>1.29158</v>
       </c>
       <c r="J168">
-        <v>0.1000000000006551</v>
+        <v>0.1</v>
       </c>
       <c r="K168">
         <v>1.29159</v>
@@ -8314,7 +8314,7 @@
         <v>43334.45138888889</v>
       </c>
       <c r="M168">
-        <v>-8.099999999999774</v>
+        <v>-8.1</v>
       </c>
       <c r="N168">
         <v>1.29077</v>
@@ -8340,7 +8340,7 @@
         <v>43335.4375</v>
       </c>
       <c r="F169">
-        <v>-21.79999999999849</v>
+        <v>-21.8</v>
       </c>
       <c r="G169">
         <v>1.2817</v>
@@ -8352,7 +8352,7 @@
         <v>1.28172</v>
       </c>
       <c r="J169">
-        <v>21.5999999999994</v>
+        <v>21.6</v>
       </c>
       <c r="K169">
         <v>1.28388</v>
@@ -8361,7 +8361,7 @@
         <v>43335.4375</v>
       </c>
       <c r="M169">
-        <v>-0.1999999999990898</v>
+        <v>-0.2</v>
       </c>
       <c r="N169">
         <v>1.2817</v>
@@ -8378,7 +8378,7 @@
         <v>1.28557</v>
       </c>
       <c r="C170">
-        <v>7.099999999997664</v>
+        <v>7.1</v>
       </c>
       <c r="D170">
         <v>1.28628</v>
@@ -8387,7 +8387,7 @@
         <v>43336.45416666667</v>
       </c>
       <c r="F170">
-        <v>-14.49999999999951</v>
+        <v>-14.5</v>
       </c>
       <c r="G170">
         <v>1.28412</v>
@@ -8399,7 +8399,7 @@
         <v>1.28462</v>
       </c>
       <c r="J170">
-        <v>16.59999999999773</v>
+        <v>16.6</v>
       </c>
       <c r="K170">
         <v>1.28628</v>
@@ -8408,7 +8408,7 @@
         <v>43336.45416666667</v>
       </c>
       <c r="M170">
-        <v>-4.999999999999449</v>
+        <v>-5</v>
       </c>
       <c r="N170">
         <v>1.28412</v>
@@ -8425,7 +8425,7 @@
         <v>1.28865</v>
       </c>
       <c r="C171">
-        <v>4.299999999999304</v>
+        <v>4.3</v>
       </c>
       <c r="D171">
         <v>1.28908</v>
@@ -8434,7 +8434,7 @@
         <v>43339.45902777778</v>
       </c>
       <c r="F171">
-        <v>-5.700000000001815</v>
+        <v>-5.7</v>
       </c>
       <c r="G171">
         <v>1.28808</v>
@@ -8446,7 +8446,7 @@
         <v>1.28852</v>
       </c>
       <c r="J171">
-        <v>5.599999999998939</v>
+        <v>5.6</v>
       </c>
       <c r="K171">
         <v>1.28908</v>
@@ -8455,7 +8455,7 @@
         <v>43339.45902777778</v>
       </c>
       <c r="M171">
-        <v>-4.40000000000218</v>
+        <v>-4.4</v>
       </c>
       <c r="N171">
         <v>1.28808</v>
@@ -8472,7 +8472,7 @@
         <v>1.28838</v>
       </c>
       <c r="C172">
-        <v>3.100000000000325</v>
+        <v>3.1</v>
       </c>
       <c r="D172">
         <v>1.28869</v>
@@ -8481,7 +8481,7 @@
         <v>43340.44652777778</v>
       </c>
       <c r="F172">
-        <v>-13.39999999999897</v>
+        <v>-13.4</v>
       </c>
       <c r="G172">
         <v>1.28704</v>
@@ -8493,7 +8493,7 @@
         <v>1.28814</v>
       </c>
       <c r="J172">
-        <v>5.499999999998284</v>
+        <v>5.5</v>
       </c>
       <c r="K172">
         <v>1.28869</v>
@@ -8502,7 +8502,7 @@
         <v>43340.44652777778</v>
       </c>
       <c r="M172">
-        <v>-11.00000000000101</v>
+        <v>-11</v>
       </c>
       <c r="N172">
         <v>1.28704</v>
@@ -8519,7 +8519,7 @@
         <v>1.29923</v>
       </c>
       <c r="C173">
-        <v>10.40000000000152</v>
+        <v>10.4</v>
       </c>
       <c r="D173">
         <v>1.30027</v>
@@ -8528,7 +8528,7 @@
         <v>43341.44791666666</v>
       </c>
       <c r="F173">
-        <v>-12.99999999999857</v>
+        <v>-13</v>
       </c>
       <c r="G173">
         <v>1.29793</v>
@@ -8549,7 +8549,7 @@
         <v>43341.44791666666</v>
       </c>
       <c r="M173">
-        <v>-23.40000000000009</v>
+        <v>-23.4</v>
       </c>
       <c r="N173">
         <v>1.29793</v>
@@ -8566,7 +8566,7 @@
         <v>1.30132</v>
       </c>
       <c r="C174">
-        <v>10.3999999999993</v>
+        <v>10.4</v>
       </c>
       <c r="D174">
         <v>1.30236</v>
@@ -8575,7 +8575,7 @@
         <v>43342.44236111111</v>
       </c>
       <c r="F174">
-        <v>-9.200000000000319</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="G174">
         <v>1.3004</v>
@@ -8587,7 +8587,7 @@
         <v>1.30195</v>
       </c>
       <c r="J174">
-        <v>4.100000000000215</v>
+        <v>4.1</v>
       </c>
       <c r="K174">
         <v>1.30236</v>
@@ -8596,7 +8596,7 @@
         <v>43342.44236111111</v>
       </c>
       <c r="M174">
-        <v>-15.4999999999994</v>
+        <v>-15.5</v>
       </c>
       <c r="N174">
         <v>1.3004</v>
@@ -8613,7 +8613,7 @@
         <v>1.29836</v>
       </c>
       <c r="C175">
-        <v>18.70000000000038</v>
+        <v>18.7</v>
       </c>
       <c r="D175">
         <v>1.30023</v>
@@ -8622,7 +8622,7 @@
         <v>43343.45694444444</v>
       </c>
       <c r="F175">
-        <v>-2.699999999999925</v>
+        <v>-2.7</v>
       </c>
       <c r="G175">
         <v>1.29809</v>
@@ -8634,7 +8634,7 @@
         <v>1.29971</v>
       </c>
       <c r="J175">
-        <v>5.199999999998539</v>
+        <v>5.2</v>
       </c>
       <c r="K175">
         <v>1.30023</v>
@@ -8643,7 +8643,7 @@
         <v>43343.45694444444</v>
       </c>
       <c r="M175">
-        <v>-16.20000000000177</v>
+        <v>-16.2</v>
       </c>
       <c r="N175">
         <v>1.29809</v>
@@ -8660,7 +8660,7 @@
         <v>1.28733</v>
       </c>
       <c r="C176">
-        <v>14.30000000000264</v>
+        <v>14.3</v>
       </c>
       <c r="D176">
         <v>1.28876</v>
@@ -8681,7 +8681,7 @@
         <v>1.28808</v>
       </c>
       <c r="J176">
-        <v>6.80000000000236</v>
+        <v>6.8</v>
       </c>
       <c r="K176">
         <v>1.28876</v>
@@ -8690,7 +8690,7 @@
         <v>43346.45763888889</v>
       </c>
       <c r="M176">
-        <v>-7.500000000000284</v>
+        <v>-7.5</v>
       </c>
       <c r="N176">
         <v>1.28733</v>
@@ -8707,7 +8707,7 @@
         <v>1.28207</v>
       </c>
       <c r="C177">
-        <v>12.39999999999908</v>
+        <v>12.4</v>
       </c>
       <c r="D177">
         <v>1.28331</v>
@@ -8716,7 +8716,7 @@
         <v>43347.45694444444</v>
       </c>
       <c r="F177">
-        <v>-9.999999999998899</v>
+        <v>-10</v>
       </c>
       <c r="G177">
         <v>1.28107</v>
@@ -8728,7 +8728,7 @@
         <v>1.28124</v>
       </c>
       <c r="J177">
-        <v>20.70000000000016</v>
+        <v>20.7</v>
       </c>
       <c r="K177">
         <v>1.28331</v>
@@ -8737,7 +8737,7 @@
         <v>43347.45694444444</v>
       </c>
       <c r="M177">
-        <v>-1.699999999997814</v>
+        <v>-1.7</v>
       </c>
       <c r="N177">
         <v>1.28107</v>
@@ -8754,7 +8754,7 @@
         <v>1.29672</v>
       </c>
       <c r="C178">
-        <v>3.699999999997594</v>
+        <v>3.7</v>
       </c>
       <c r="D178">
         <v>1.29709</v>
@@ -8763,7 +8763,7 @@
         <v>43348.44027777778</v>
       </c>
       <c r="F178">
-        <v>-13.00000000000079</v>
+        <v>-13</v>
       </c>
       <c r="G178">
         <v>1.29542</v>
@@ -8775,7 +8775,7 @@
         <v>1.29631</v>
       </c>
       <c r="J178">
-        <v>7.799999999997809</v>
+        <v>7.8</v>
       </c>
       <c r="K178">
         <v>1.29709</v>
@@ -8784,7 +8784,7 @@
         <v>43348.44027777778</v>
       </c>
       <c r="M178">
-        <v>-8.900000000000574</v>
+        <v>-8.9</v>
       </c>
       <c r="N178">
         <v>1.29542</v>
@@ -8801,7 +8801,7 @@
         <v>1.29412</v>
       </c>
       <c r="C179">
-        <v>15.99999999999824</v>
+        <v>16</v>
       </c>
       <c r="D179">
         <v>1.29572</v>
@@ -8810,7 +8810,7 @@
         <v>43349.45694444444</v>
       </c>
       <c r="F179">
-        <v>-8.300000000001084</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="G179">
         <v>1.29329</v>
@@ -8822,7 +8822,7 @@
         <v>1.29388</v>
       </c>
       <c r="J179">
-        <v>18.40000000000064</v>
+        <v>18.4</v>
       </c>
       <c r="K179">
         <v>1.29572</v>
@@ -8831,7 +8831,7 @@
         <v>43349.45694444444</v>
       </c>
       <c r="M179">
-        <v>-5.899999999998684</v>
+        <v>-5.9</v>
       </c>
       <c r="N179">
         <v>1.29329</v>
@@ -8848,7 +8848,7 @@
         <v>1.29648</v>
       </c>
       <c r="C180">
-        <v>13.90000000000224</v>
+        <v>13.9</v>
       </c>
       <c r="D180">
         <v>1.29787</v>
@@ -8857,7 +8857,7 @@
         <v>43350.44166666667</v>
       </c>
       <c r="F180">
-        <v>-17.29999999999787</v>
+        <v>-17.3</v>
       </c>
       <c r="G180">
         <v>1.29475</v>
@@ -8869,7 +8869,7 @@
         <v>1.29642</v>
       </c>
       <c r="J180">
-        <v>14.49999999999951</v>
+        <v>14.5</v>
       </c>
       <c r="K180">
         <v>1.29787</v>
@@ -8878,7 +8878,7 @@
         <v>43350.44166666667</v>
       </c>
       <c r="M180">
-        <v>-16.7000000000006</v>
+        <v>-16.7</v>
       </c>
       <c r="N180">
         <v>1.29475</v>
@@ -8904,7 +8904,7 @@
         <v>43353.4375</v>
       </c>
       <c r="F181">
-        <v>-14.09999999999911</v>
+        <v>-14.1</v>
       </c>
       <c r="G181">
         <v>1.30116</v>
@@ -8916,7 +8916,7 @@
         <v>1.30219</v>
       </c>
       <c r="J181">
-        <v>3.80000000000047</v>
+        <v>3.8</v>
       </c>
       <c r="K181">
         <v>1.30257</v>
@@ -8925,7 +8925,7 @@
         <v>43353.4375</v>
       </c>
       <c r="M181">
-        <v>-10.29999999999864</v>
+        <v>-10.3</v>
       </c>
       <c r="N181">
         <v>1.30116</v>
@@ -8942,7 +8942,7 @@
         <v>1.30008</v>
       </c>
       <c r="C182">
-        <v>5.60000000000116</v>
+        <v>5.6</v>
       </c>
       <c r="D182">
         <v>1.30064</v>
@@ -8951,7 +8951,7 @@
         <v>43354.45208333333</v>
       </c>
       <c r="F182">
-        <v>-10.59999999999839</v>
+        <v>-10.6</v>
       </c>
       <c r="G182">
         <v>1.29902</v>
@@ -8963,7 +8963,7 @@
         <v>1.29902</v>
       </c>
       <c r="J182">
-        <v>16.19999999999955</v>
+        <v>16.2</v>
       </c>
       <c r="K182">
         <v>1.30064</v>
@@ -8989,7 +8989,7 @@
         <v>1.30212</v>
       </c>
       <c r="C183">
-        <v>2.499999999998614</v>
+        <v>2.5</v>
       </c>
       <c r="D183">
         <v>1.30237</v>
@@ -8998,7 +8998,7 @@
         <v>43355.44027777778</v>
       </c>
       <c r="F183">
-        <v>-8.100000000001994</v>
+        <v>-8.1</v>
       </c>
       <c r="G183">
         <v>1.30131</v>
@@ -9010,7 +9010,7 @@
         <v>1.3017</v>
       </c>
       <c r="J183">
-        <v>6.699999999999484</v>
+        <v>6.7</v>
       </c>
       <c r="K183">
         <v>1.30237</v>
@@ -9019,7 +9019,7 @@
         <v>43355.44027777778</v>
       </c>
       <c r="M183">
-        <v>-3.900000000001125</v>
+        <v>-3.9</v>
       </c>
       <c r="N183">
         <v>1.30131</v>
@@ -9045,7 +9045,7 @@
         <v>43356.4375</v>
       </c>
       <c r="F184">
-        <v>-13.79999999999937</v>
+        <v>-13.8</v>
       </c>
       <c r="G184">
         <v>1.30882</v>
@@ -9057,7 +9057,7 @@
         <v>1.30897</v>
       </c>
       <c r="J184">
-        <v>12.30000000000064</v>
+        <v>12.3</v>
       </c>
       <c r="K184">
         <v>1.3102</v>
@@ -9066,7 +9066,7 @@
         <v>43356.4375</v>
       </c>
       <c r="M184">
-        <v>-1.499999999998725</v>
+        <v>-1.5</v>
       </c>
       <c r="N184">
         <v>1.30882</v>
@@ -9083,7 +9083,7 @@
         <v>1.30782</v>
       </c>
       <c r="C185">
-        <v>7.00000000000145</v>
+        <v>7</v>
       </c>
       <c r="D185">
         <v>1.30852</v>
@@ -9092,7 +9092,7 @@
         <v>43357.43958333333</v>
       </c>
       <c r="F185">
-        <v>-6.499999999998174</v>
+        <v>-6.5</v>
       </c>
       <c r="G185">
         <v>1.30717</v>
@@ -9104,7 +9104,7 @@
         <v>1.3076</v>
       </c>
       <c r="J185">
-        <v>9.200000000000319</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K185">
         <v>1.30852</v>
@@ -9113,7 +9113,7 @@
         <v>43357.43958333333</v>
       </c>
       <c r="M185">
-        <v>-4.299999999999304</v>
+        <v>-4.3</v>
       </c>
       <c r="N185">
         <v>1.30717</v>
@@ -9130,7 +9130,7 @@
         <v>1.31484</v>
       </c>
       <c r="C186">
-        <v>6.500000000000394</v>
+        <v>6.5</v>
       </c>
       <c r="D186">
         <v>1.31549</v>
@@ -9139,7 +9139,7 @@
         <v>43360.44791666666</v>
       </c>
       <c r="F186">
-        <v>-4.80000000000036</v>
+        <v>-4.8</v>
       </c>
       <c r="G186">
         <v>1.31436</v>
@@ -9160,7 +9160,7 @@
         <v>43360.44791666666</v>
       </c>
       <c r="M186">
-        <v>-11.30000000000075</v>
+        <v>-11.3</v>
       </c>
       <c r="N186">
         <v>1.31436</v>
@@ -9177,7 +9177,7 @@
         <v>1.31535</v>
       </c>
       <c r="C187">
-        <v>1.299999999999635</v>
+        <v>1.3</v>
       </c>
       <c r="D187">
         <v>1.31548</v>
@@ -9186,7 +9186,7 @@
         <v>43361.43819444445</v>
       </c>
       <c r="F187">
-        <v>-8.600000000000829</v>
+        <v>-8.6</v>
       </c>
       <c r="G187">
         <v>1.31449</v>
@@ -9198,7 +9198,7 @@
         <v>1.31507</v>
       </c>
       <c r="J187">
-        <v>4.099999999997994</v>
+        <v>4.1</v>
       </c>
       <c r="K187">
         <v>1.31548</v>
@@ -9207,7 +9207,7 @@
         <v>43361.43819444445</v>
       </c>
       <c r="M187">
-        <v>-5.80000000000247</v>
+        <v>-5.8</v>
       </c>
       <c r="N187">
         <v>1.31449</v>
@@ -9224,7 +9224,7 @@
         <v>1.31418</v>
       </c>
       <c r="C188">
-        <v>11.70000000000115</v>
+        <v>11.7</v>
       </c>
       <c r="D188">
         <v>1.31535</v>
@@ -9233,7 +9233,7 @@
         <v>43362.45972222222</v>
       </c>
       <c r="F188">
-        <v>-2.899999999999014</v>
+        <v>-2.9</v>
       </c>
       <c r="G188">
         <v>1.31389</v>
@@ -9245,7 +9245,7 @@
         <v>1.31452</v>
       </c>
       <c r="J188">
-        <v>8.299999999998864</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K188">
         <v>1.31535</v>
@@ -9254,7 +9254,7 @@
         <v>43362.45972222222</v>
       </c>
       <c r="M188">
-        <v>-6.300000000001305</v>
+        <v>-6.3</v>
       </c>
       <c r="N188">
         <v>1.31389</v>
@@ -9271,7 +9271,7 @@
         <v>1.32617</v>
       </c>
       <c r="C189">
-        <v>6.099999999997774</v>
+        <v>6.1</v>
       </c>
       <c r="D189">
         <v>1.32678</v>
@@ -9280,7 +9280,7 @@
         <v>43363.44513888889</v>
       </c>
       <c r="F189">
-        <v>-14.00000000000068</v>
+        <v>-14</v>
       </c>
       <c r="G189">
         <v>1.32477</v>
@@ -9292,7 +9292,7 @@
         <v>1.32641</v>
       </c>
       <c r="J189">
-        <v>3.699999999997594</v>
+        <v>3.7</v>
       </c>
       <c r="K189">
         <v>1.32678</v>
@@ -9301,7 +9301,7 @@
         <v>43363.44513888889</v>
       </c>
       <c r="M189">
-        <v>-16.40000000000086</v>
+        <v>-16.4</v>
       </c>
       <c r="N189">
         <v>1.32477</v>
@@ -9318,7 +9318,7 @@
         <v>1.30835</v>
       </c>
       <c r="C190">
-        <v>16.20000000000177</v>
+        <v>16.2</v>
       </c>
       <c r="D190">
         <v>1.30997</v>
@@ -9339,7 +9339,7 @@
         <v>1.30854</v>
       </c>
       <c r="J190">
-        <v>14.30000000000042</v>
+        <v>14.3</v>
       </c>
       <c r="K190">
         <v>1.30997</v>
@@ -9348,7 +9348,7 @@
         <v>43364.45972222222</v>
       </c>
       <c r="M190">
-        <v>-1.900000000001345</v>
+        <v>-1.9</v>
       </c>
       <c r="N190">
         <v>1.30835</v>
@@ -9365,7 +9365,7 @@
         <v>1.31343</v>
       </c>
       <c r="C191">
-        <v>7.300000000001194</v>
+        <v>7.3</v>
       </c>
       <c r="D191">
         <v>1.31416</v>
@@ -9374,7 +9374,7 @@
         <v>43367.45763888889</v>
       </c>
       <c r="F191">
-        <v>-4.699999999997484</v>
+        <v>-4.7</v>
       </c>
       <c r="G191">
         <v>1.31296</v>
@@ -9386,7 +9386,7 @@
         <v>1.31312</v>
       </c>
       <c r="J191">
-        <v>10.3999999999993</v>
+        <v>10.4</v>
       </c>
       <c r="K191">
         <v>1.31416</v>
@@ -9395,7 +9395,7 @@
         <v>43367.45763888889</v>
       </c>
       <c r="M191">
-        <v>-1.59999999999938</v>
+        <v>-1.6</v>
       </c>
       <c r="N191">
         <v>1.31296</v>
@@ -9412,7 +9412,7 @@
         <v>1.31581</v>
       </c>
       <c r="C192">
-        <v>15.19999999999744</v>
+        <v>15.2</v>
       </c>
       <c r="D192">
         <v>1.31733</v>
@@ -9421,7 +9421,7 @@
         <v>43368.44375</v>
       </c>
       <c r="F192">
-        <v>-6.900000000000794</v>
+        <v>-6.9</v>
       </c>
       <c r="G192">
         <v>1.31512</v>
@@ -9433,7 +9433,7 @@
         <v>1.31629</v>
       </c>
       <c r="J192">
-        <v>10.3999999999993</v>
+        <v>10.4</v>
       </c>
       <c r="K192">
         <v>1.31733</v>
@@ -9442,7 +9442,7 @@
         <v>43368.44375</v>
       </c>
       <c r="M192">
-        <v>-11.69999999999893</v>
+        <v>-11.7</v>
       </c>
       <c r="N192">
         <v>1.31512</v>
@@ -9459,7 +9459,7 @@
         <v>1.31728</v>
       </c>
       <c r="C193">
-        <v>22.19999999999889</v>
+        <v>22.2</v>
       </c>
       <c r="D193">
         <v>1.3195</v>
@@ -9468,7 +9468,7 @@
         <v>43369.45555555556</v>
       </c>
       <c r="F193">
-        <v>-2.80000000000058</v>
+        <v>-2.8</v>
       </c>
       <c r="G193">
         <v>1.317</v>
@@ -9480,7 +9480,7 @@
         <v>1.3186</v>
       </c>
       <c r="J193">
-        <v>8.999999999999009</v>
+        <v>9</v>
       </c>
       <c r="K193">
         <v>1.3195</v>
@@ -9489,7 +9489,7 @@
         <v>43369.45555555556</v>
       </c>
       <c r="M193">
-        <v>-16.00000000000046</v>
+        <v>-16</v>
       </c>
       <c r="N193">
         <v>1.317</v>
@@ -9506,7 +9506,7 @@
         <v>1.31346</v>
       </c>
       <c r="C194">
-        <v>0.3999999999981796</v>
+        <v>0.4</v>
       </c>
       <c r="D194">
         <v>1.3135</v>
@@ -9515,7 +9515,7 @@
         <v>43370.43819444445</v>
       </c>
       <c r="F194">
-        <v>-19.40000000000053</v>
+        <v>-19.4</v>
       </c>
       <c r="G194">
         <v>1.31152</v>
@@ -9527,7 +9527,7 @@
         <v>1.31269</v>
       </c>
       <c r="J194">
-        <v>8.099999999999774</v>
+        <v>8.1</v>
       </c>
       <c r="K194">
         <v>1.3135</v>
@@ -9536,7 +9536,7 @@
         <v>43370.43819444445</v>
       </c>
       <c r="M194">
-        <v>-11.69999999999893</v>
+        <v>-11.7</v>
       </c>
       <c r="N194">
         <v>1.31152</v>
@@ -9553,7 +9553,7 @@
         <v>1.30072</v>
       </c>
       <c r="C195">
-        <v>37.69999999999829</v>
+        <v>37.7</v>
       </c>
       <c r="D195">
         <v>1.30449</v>
@@ -9562,7 +9562,7 @@
         <v>43371.45972222222</v>
       </c>
       <c r="F195">
-        <v>-2.60000000000149</v>
+        <v>-2.6</v>
       </c>
       <c r="G195">
         <v>1.30046</v>
@@ -9574,7 +9574,7 @@
         <v>1.30168</v>
       </c>
       <c r="J195">
-        <v>28.09999999999979</v>
+        <v>28.1</v>
       </c>
       <c r="K195">
         <v>1.30449</v>
@@ -9583,7 +9583,7 @@
         <v>43371.45972222222</v>
       </c>
       <c r="M195">
-        <v>-12.19999999999999</v>
+        <v>-12.2</v>
       </c>
       <c r="N195">
         <v>1.30046</v>
@@ -9609,7 +9609,7 @@
         <v>43374.4375</v>
       </c>
       <c r="F196">
-        <v>-24.99999999999947</v>
+        <v>-25</v>
       </c>
       <c r="G196">
         <v>1.304</v>
@@ -9621,7 +9621,7 @@
         <v>1.30595</v>
       </c>
       <c r="J196">
-        <v>5.500000000000504</v>
+        <v>5.5</v>
       </c>
       <c r="K196">
         <v>1.3065</v>
@@ -9630,7 +9630,7 @@
         <v>43374.4375</v>
       </c>
       <c r="M196">
-        <v>-19.49999999999896</v>
+        <v>-19.5</v>
       </c>
       <c r="N196">
         <v>1.304</v>
@@ -9647,7 +9647,7 @@
         <v>1.29793</v>
       </c>
       <c r="C197">
-        <v>4.999999999999449</v>
+        <v>5</v>
       </c>
       <c r="D197">
         <v>1.29843</v>
@@ -9656,7 +9656,7 @@
         <v>43375.45625</v>
       </c>
       <c r="F197">
-        <v>-19.90000000000158</v>
+        <v>-19.9</v>
       </c>
       <c r="G197">
         <v>1.29594</v>
@@ -9668,7 +9668,7 @@
         <v>1.29604</v>
       </c>
       <c r="J197">
-        <v>23.90000000000114</v>
+        <v>23.9</v>
       </c>
       <c r="K197">
         <v>1.29843</v>
@@ -9677,7 +9677,7 @@
         <v>43375.45625</v>
       </c>
       <c r="M197">
-        <v>-0.9999999999998899</v>
+        <v>-1</v>
       </c>
       <c r="N197">
         <v>1.29594</v>
@@ -9703,7 +9703,7 @@
         <v>43376.4375</v>
       </c>
       <c r="F198">
-        <v>-19.70000000000027</v>
+        <v>-19.7</v>
       </c>
       <c r="G198">
         <v>1.29979</v>
@@ -9715,7 +9715,7 @@
         <v>1.30006</v>
       </c>
       <c r="J198">
-        <v>17.00000000000035</v>
+        <v>17</v>
       </c>
       <c r="K198">
         <v>1.30176</v>
@@ -9724,7 +9724,7 @@
         <v>43376.4375</v>
       </c>
       <c r="M198">
-        <v>-2.699999999999925</v>
+        <v>-2.7</v>
       </c>
       <c r="N198">
         <v>1.29979</v>
@@ -9741,7 +9741,7 @@
         <v>1.30328</v>
       </c>
       <c r="C199">
-        <v>0.4000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="D199">
         <v>1.30332</v>
@@ -9750,7 +9750,7 @@
         <v>43377.43888888889</v>
       </c>
       <c r="F199">
-        <v>-9.500000000000064</v>
+        <v>-9.5</v>
       </c>
       <c r="G199">
         <v>1.30233</v>
@@ -9762,7 +9762,7 @@
         <v>1.30276</v>
       </c>
       <c r="J199">
-        <v>5.599999999998939</v>
+        <v>5.6</v>
       </c>
       <c r="K199">
         <v>1.30332</v>
@@ -9771,7 +9771,7 @@
         <v>43377.43888888889</v>
       </c>
       <c r="M199">
-        <v>-4.300000000001525</v>
+        <v>-4.3</v>
       </c>
       <c r="N199">
         <v>1.30233</v>
@@ -9788,7 +9788,7 @@
         <v>1.3077</v>
       </c>
       <c r="C200">
-        <v>44.79999999999818</v>
+        <v>44.8</v>
       </c>
       <c r="D200">
         <v>1.31218</v>
@@ -9797,7 +9797,7 @@
         <v>43378.45555555556</v>
       </c>
       <c r="F200">
-        <v>-7.300000000001194</v>
+        <v>-7.3</v>
       </c>
       <c r="G200">
         <v>1.30697</v>
@@ -9809,7 +9809,7 @@
         <v>1.30705</v>
       </c>
       <c r="J200">
-        <v>51.29999999999857</v>
+        <v>51.3</v>
       </c>
       <c r="K200">
         <v>1.31218</v>
@@ -9818,7 +9818,7 @@
         <v>43378.45555555556</v>
       </c>
       <c r="M200">
-        <v>-0.8000000000008001</v>
+        <v>-0.8</v>
       </c>
       <c r="N200">
         <v>1.30697</v>
@@ -9835,7 +9835,7 @@
         <v>1.30684</v>
       </c>
       <c r="C201">
-        <v>2.20000000000109</v>
+        <v>2.2</v>
       </c>
       <c r="D201">
         <v>1.30706</v>
@@ -9844,7 +9844,7 @@
         <v>43381.45833333334</v>
       </c>
       <c r="F201">
-        <v>-6.800000000000139</v>
+        <v>-6.8</v>
       </c>
       <c r="G201">
         <v>1.30616</v>
@@ -9856,7 +9856,7 @@
         <v>1.30636</v>
       </c>
       <c r="J201">
-        <v>7.00000000000145</v>
+        <v>7</v>
       </c>
       <c r="K201">
         <v>1.30706</v>
@@ -9865,7 +9865,7 @@
         <v>43381.45833333334</v>
       </c>
       <c r="M201">
-        <v>-1.99999999999978</v>
+        <v>-2</v>
       </c>
       <c r="N201">
         <v>1.30616</v>
@@ -9882,7 +9882,7 @@
         <v>1.30916</v>
       </c>
       <c r="C202">
-        <v>16.59999999999995</v>
+        <v>16.6</v>
       </c>
       <c r="D202">
         <v>1.31082</v>
@@ -9891,7 +9891,7 @@
         <v>43382.44722222222</v>
       </c>
       <c r="F202">
-        <v>-6.399999999999739</v>
+        <v>-6.4</v>
       </c>
       <c r="G202">
         <v>1.30852</v>
@@ -9903,7 +9903,7 @@
         <v>1.31052</v>
       </c>
       <c r="J202">
-        <v>2.99999999999967</v>
+        <v>3</v>
       </c>
       <c r="K202">
         <v>1.31082</v>
@@ -9912,7 +9912,7 @@
         <v>43382.44722222222</v>
       </c>
       <c r="M202">
-        <v>-20.00000000000002</v>
+        <v>-20</v>
       </c>
       <c r="N202">
         <v>1.30852</v>
@@ -9929,7 +9929,7 @@
         <v>1.31918</v>
       </c>
       <c r="C203">
-        <v>17.19999999999944</v>
+        <v>17.2</v>
       </c>
       <c r="D203">
         <v>1.3209</v>
@@ -9950,7 +9950,7 @@
         <v>1.31986</v>
       </c>
       <c r="J203">
-        <v>10.3999999999993</v>
+        <v>10.4</v>
       </c>
       <c r="K203">
         <v>1.3209</v>
@@ -9959,7 +9959,7 @@
         <v>43383.45347222222</v>
       </c>
       <c r="M203">
-        <v>-6.800000000000139</v>
+        <v>-6.8</v>
       </c>
       <c r="N203">
         <v>1.31918</v>
@@ -9976,7 +9976,7 @@
         <v>1.32242</v>
       </c>
       <c r="C204">
-        <v>5.499999999998284</v>
+        <v>5.5</v>
       </c>
       <c r="D204">
         <v>1.32297</v>
@@ -9985,7 +9985,7 @@
         <v>43384.44583333333</v>
       </c>
       <c r="F204">
-        <v>-15.10000000000122</v>
+        <v>-15.1</v>
       </c>
       <c r="G204">
         <v>1.32091</v>
@@ -9997,7 +9997,7 @@
         <v>1.3227</v>
       </c>
       <c r="J204">
-        <v>2.699999999999925</v>
+        <v>2.7</v>
       </c>
       <c r="K204">
         <v>1.32297</v>
@@ -10006,7 +10006,7 @@
         <v>43384.44583333333</v>
       </c>
       <c r="M204">
-        <v>-17.89999999999958</v>
+        <v>-17.9</v>
       </c>
       <c r="N204">
         <v>1.32091</v>
@@ -10023,7 +10023,7 @@
         <v>1.31847</v>
       </c>
       <c r="C205">
-        <v>0.4000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="D205">
         <v>1.31851</v>
@@ -10032,7 +10032,7 @@
         <v>43385.43819444445</v>
       </c>
       <c r="F205">
-        <v>-31.30000000000077</v>
+        <v>-31.3</v>
       </c>
       <c r="G205">
         <v>1.31534</v>
@@ -10044,7 +10044,7 @@
         <v>1.31624</v>
       </c>
       <c r="J205">
-        <v>22.70000000000216</v>
+        <v>22.7</v>
       </c>
       <c r="K205">
         <v>1.31851</v>
@@ -10053,7 +10053,7 @@
         <v>43385.43819444445</v>
       </c>
       <c r="M205">
-        <v>-8.999999999999009</v>
+        <v>-9</v>
       </c>
       <c r="N205">
         <v>1.31534</v>
@@ -10070,7 +10070,7 @@
         <v>1.31367</v>
       </c>
       <c r="C206">
-        <v>23.59999999999918</v>
+        <v>23.6</v>
       </c>
       <c r="D206">
         <v>1.31603</v>
@@ -10079,7 +10079,7 @@
         <v>43388.44166666667</v>
       </c>
       <c r="F206">
-        <v>-4.700000000001925</v>
+        <v>-4.7</v>
       </c>
       <c r="G206">
         <v>1.3132</v>
@@ -10091,7 +10091,7 @@
         <v>1.31543</v>
       </c>
       <c r="J206">
-        <v>6.00000000000156</v>
+        <v>6</v>
       </c>
       <c r="K206">
         <v>1.31603</v>
@@ -10100,7 +10100,7 @@
         <v>43388.44166666667</v>
       </c>
       <c r="M206">
-        <v>-22.29999999999954</v>
+        <v>-22.3</v>
       </c>
       <c r="N206">
         <v>1.3132</v>
@@ -10117,7 +10117,7 @@
         <v>1.32113</v>
       </c>
       <c r="C207">
-        <v>9.800000000002029</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D207">
         <v>1.32211</v>
@@ -10126,7 +10126,7 @@
         <v>43389.44236111111</v>
       </c>
       <c r="F207">
-        <v>-3.799999999998249</v>
+        <v>-3.8</v>
       </c>
       <c r="G207">
         <v>1.32075</v>
@@ -10138,7 +10138,7 @@
         <v>1.32145</v>
       </c>
       <c r="J207">
-        <v>6.600000000001049</v>
+        <v>6.6</v>
       </c>
       <c r="K207">
         <v>1.32211</v>
@@ -10147,7 +10147,7 @@
         <v>43389.44236111111</v>
       </c>
       <c r="M207">
-        <v>-6.999999999999229</v>
+        <v>-7</v>
       </c>
       <c r="N207">
         <v>1.32075</v>
@@ -10164,7 +10164,7 @@
         <v>1.31349</v>
       </c>
       <c r="C208">
-        <v>3.599999999999159</v>
+        <v>3.6</v>
       </c>
       <c r="D208">
         <v>1.31385</v>
@@ -10173,7 +10173,7 @@
         <v>43390.43819444445</v>
       </c>
       <c r="F208">
-        <v>-12.10000000000155</v>
+        <v>-12.1</v>
       </c>
       <c r="G208">
         <v>1.31228</v>
@@ -10185,7 +10185,7 @@
         <v>1.3132</v>
       </c>
       <c r="J208">
-        <v>6.500000000000394</v>
+        <v>6.5</v>
       </c>
       <c r="K208">
         <v>1.31385</v>
@@ -10194,7 +10194,7 @@
         <v>43390.43819444445</v>
       </c>
       <c r="M208">
-        <v>-9.200000000000319</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="N208">
         <v>1.31228</v>
@@ -10211,7 +10211,7 @@
         <v>1.30882</v>
       </c>
       <c r="C209">
-        <v>3.999999999999559</v>
+        <v>4</v>
       </c>
       <c r="D209">
         <v>1.30922</v>
@@ -10220,7 +10220,7 @@
         <v>43391.44097222222</v>
       </c>
       <c r="F209">
-        <v>-19.70000000000027</v>
+        <v>-19.7</v>
       </c>
       <c r="G209">
         <v>1.30685</v>
@@ -10232,7 +10232,7 @@
         <v>1.30762</v>
       </c>
       <c r="J209">
-        <v>16.00000000000046</v>
+        <v>16</v>
       </c>
       <c r="K209">
         <v>1.30922</v>
@@ -10241,7 +10241,7 @@
         <v>43391.44097222222</v>
       </c>
       <c r="M209">
-        <v>-7.699999999999374</v>
+        <v>-7.7</v>
       </c>
       <c r="N209">
         <v>1.30685</v>
@@ -10258,7 +10258,7 @@
         <v>1.30471</v>
       </c>
       <c r="C210">
-        <v>1.40000000000029</v>
+        <v>1.4</v>
       </c>
       <c r="D210">
         <v>1.30485</v>
@@ -10267,7 +10267,7 @@
         <v>43392.45694444444</v>
       </c>
       <c r="F210">
-        <v>-8.999999999999009</v>
+        <v>-9</v>
       </c>
       <c r="G210">
         <v>1.30381</v>
@@ -10279,7 +10279,7 @@
         <v>1.3042</v>
       </c>
       <c r="J210">
-        <v>6.500000000000394</v>
+        <v>6.5</v>
       </c>
       <c r="K210">
         <v>1.30485</v>
@@ -10288,7 +10288,7 @@
         <v>43392.45694444444</v>
       </c>
       <c r="M210">
-        <v>-3.899999999998904</v>
+        <v>-3.9</v>
       </c>
       <c r="N210">
         <v>1.30381</v>
@@ -10305,7 +10305,7 @@
         <v>1.2974</v>
       </c>
       <c r="C211">
-        <v>8.200000000000429</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D211">
         <v>1.29822</v>
@@ -10314,7 +10314,7 @@
         <v>43395.45486111111</v>
       </c>
       <c r="F211">
-        <v>-3.100000000002545</v>
+        <v>-3.1</v>
       </c>
       <c r="G211">
         <v>1.29709</v>
@@ -10326,7 +10326,7 @@
         <v>1.29733</v>
       </c>
       <c r="J211">
-        <v>8.900000000002795</v>
+        <v>8.9</v>
       </c>
       <c r="K211">
         <v>1.29822</v>
@@ -10335,7 +10335,7 @@
         <v>43395.45486111111</v>
       </c>
       <c r="M211">
-        <v>-2.40000000000018</v>
+        <v>-2.4</v>
       </c>
       <c r="N211">
         <v>1.29709</v>
@@ -10352,7 +10352,7 @@
         <v>1.29793</v>
       </c>
       <c r="C212">
-        <v>7.800000000000029</v>
+        <v>7.8</v>
       </c>
       <c r="D212">
         <v>1.29871</v>
@@ -10361,7 +10361,7 @@
         <v>43396.44513888889</v>
       </c>
       <c r="F212">
-        <v>-7.00000000000145</v>
+        <v>-7</v>
       </c>
       <c r="G212">
         <v>1.29723</v>
@@ -10373,7 +10373,7 @@
         <v>1.29753</v>
       </c>
       <c r="J212">
-        <v>11.80000000000181</v>
+        <v>11.8</v>
       </c>
       <c r="K212">
         <v>1.29871</v>
@@ -10382,7 +10382,7 @@
         <v>43396.44513888889</v>
       </c>
       <c r="M212">
-        <v>-2.99999999999967</v>
+        <v>-3</v>
       </c>
       <c r="N212">
         <v>1.29723</v>
@@ -10399,7 +10399,7 @@
         <v>1.29219</v>
       </c>
       <c r="C213">
-        <v>7.700000000001594</v>
+        <v>7.7</v>
       </c>
       <c r="D213">
         <v>1.29296</v>
@@ -10408,7 +10408,7 @@
         <v>43397.44166666667</v>
       </c>
       <c r="F213">
-        <v>-11.90000000000024</v>
+        <v>-11.9</v>
       </c>
       <c r="G213">
         <v>1.291</v>
@@ -10420,7 +10420,7 @@
         <v>1.29228</v>
       </c>
       <c r="J213">
-        <v>6.80000000000236</v>
+        <v>6.8</v>
       </c>
       <c r="K213">
         <v>1.29296</v>
@@ -10429,7 +10429,7 @@
         <v>43397.44166666667</v>
       </c>
       <c r="M213">
-        <v>-12.79999999999948</v>
+        <v>-12.8</v>
       </c>
       <c r="N213">
         <v>1.291</v>
@@ -10446,7 +10446,7 @@
         <v>1.28283</v>
       </c>
       <c r="C214">
-        <v>5.800000000000249</v>
+        <v>5.8</v>
       </c>
       <c r="D214">
         <v>1.28341</v>
@@ -10455,7 +10455,7 @@
         <v>43398.44027777778</v>
       </c>
       <c r="F214">
-        <v>-16.19999999999955</v>
+        <v>-16.2</v>
       </c>
       <c r="G214">
         <v>1.28121</v>
@@ -10467,7 +10467,7 @@
         <v>1.28278</v>
       </c>
       <c r="J214">
-        <v>6.299999999999084</v>
+        <v>6.3</v>
       </c>
       <c r="K214">
         <v>1.28341</v>
@@ -10476,7 +10476,7 @@
         <v>43398.44027777778</v>
       </c>
       <c r="M214">
-        <v>-15.70000000000071</v>
+        <v>-15.7</v>
       </c>
       <c r="N214">
         <v>1.28121</v>
@@ -10493,7 +10493,7 @@
         <v>1.28125</v>
       </c>
       <c r="C215">
-        <v>7.399999999999629</v>
+        <v>7.4</v>
       </c>
       <c r="D215">
         <v>1.28199</v>
@@ -10502,7 +10502,7 @@
         <v>43399.45833333334</v>
       </c>
       <c r="F215">
-        <v>-2.299999999999525</v>
+        <v>-2.3</v>
       </c>
       <c r="G215">
         <v>1.28102</v>
@@ -10514,7 +10514,7 @@
         <v>1.28156</v>
       </c>
       <c r="J215">
-        <v>4.299999999999304</v>
+        <v>4.3</v>
       </c>
       <c r="K215">
         <v>1.28199</v>
@@ -10523,7 +10523,7 @@
         <v>43399.45833333334</v>
       </c>
       <c r="M215">
-        <v>-5.399999999999849</v>
+        <v>-5.4</v>
       </c>
       <c r="N215">
         <v>1.28102</v>
@@ -10540,7 +10540,7 @@
         <v>1.28079</v>
       </c>
       <c r="C216">
-        <v>6.200000000000649</v>
+        <v>6.2</v>
       </c>
       <c r="D216">
         <v>1.28141</v>
@@ -10561,7 +10561,7 @@
         <v>1.28097</v>
       </c>
       <c r="J216">
-        <v>4.399999999997739</v>
+        <v>4.4</v>
       </c>
       <c r="K216">
         <v>1.28141</v>
@@ -10570,7 +10570,7 @@
         <v>43402.45833333334</v>
       </c>
       <c r="M216">
-        <v>-1.80000000000291</v>
+        <v>-1.8</v>
       </c>
       <c r="N216">
         <v>1.28079</v>
@@ -10587,7 +10587,7 @@
         <v>1.27607</v>
       </c>
       <c r="C217">
-        <v>1.899999999999125</v>
+        <v>1.9</v>
       </c>
       <c r="D217">
         <v>1.27626</v>
@@ -10596,7 +10596,7 @@
         <v>43403.44027777778</v>
       </c>
       <c r="F217">
-        <v>-24.20000000000089</v>
+        <v>-24.2</v>
       </c>
       <c r="G217">
         <v>1.27365</v>
@@ -10608,7 +10608,7 @@
         <v>1.27447</v>
       </c>
       <c r="J217">
-        <v>17.89999999999958</v>
+        <v>17.9</v>
       </c>
       <c r="K217">
         <v>1.27626</v>
@@ -10617,7 +10617,7 @@
         <v>43403.44027777778</v>
       </c>
       <c r="M217">
-        <v>-8.200000000000429</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="N217">
         <v>1.27365</v>
@@ -10643,7 +10643,7 @@
         <v>43404.4375</v>
       </c>
       <c r="F218">
-        <v>-16.49999999999929</v>
+        <v>-16.5</v>
       </c>
       <c r="G218">
         <v>1.27576</v>
@@ -10655,7 +10655,7 @@
         <v>1.27624</v>
       </c>
       <c r="J218">
-        <v>11.69999999999893</v>
+        <v>11.7</v>
       </c>
       <c r="K218">
         <v>1.27741</v>
@@ -10664,7 +10664,7 @@
         <v>43404.4375</v>
       </c>
       <c r="M218">
-        <v>-4.80000000000036</v>
+        <v>-4.8</v>
       </c>
       <c r="N218">
         <v>1.27576</v>
@@ -10681,7 +10681,7 @@
         <v>1.2939</v>
       </c>
       <c r="C219">
-        <v>12.39999999999908</v>
+        <v>12.4</v>
       </c>
       <c r="D219">
         <v>1.29514</v>
@@ -10690,7 +10690,7 @@
         <v>43405.45486111111</v>
       </c>
       <c r="F219">
-        <v>-2.900000000001235</v>
+        <v>-2.9</v>
       </c>
       <c r="G219">
         <v>1.29361</v>
@@ -10702,7 +10702,7 @@
         <v>1.29395</v>
       </c>
       <c r="J219">
-        <v>11.90000000000024</v>
+        <v>11.9</v>
       </c>
       <c r="K219">
         <v>1.29514</v>
@@ -10711,7 +10711,7 @@
         <v>43405.45486111111</v>
       </c>
       <c r="M219">
-        <v>-3.40000000000007</v>
+        <v>-3.4</v>
       </c>
       <c r="N219">
         <v>1.29361</v>
@@ -10728,7 +10728,7 @@
         <v>1.29965</v>
       </c>
       <c r="C220">
-        <v>4.999999999999449</v>
+        <v>5</v>
       </c>
       <c r="D220">
         <v>1.30015</v>
@@ -10737,7 +10737,7 @@
         <v>43406.44236111111</v>
       </c>
       <c r="F220">
-        <v>-14.89999999999991</v>
+        <v>-14.9</v>
       </c>
       <c r="G220">
         <v>1.29816</v>
@@ -10749,7 +10749,7 @@
         <v>1.29846</v>
       </c>
       <c r="J220">
-        <v>16.89999999999969</v>
+        <v>16.9</v>
       </c>
       <c r="K220">
         <v>1.30015</v>
@@ -10758,7 +10758,7 @@
         <v>43406.44236111111</v>
       </c>
       <c r="M220">
-        <v>-2.99999999999967</v>
+        <v>-3</v>
       </c>
       <c r="N220">
         <v>1.29816</v>
@@ -10784,7 +10784,7 @@
         <v>43409.4375</v>
       </c>
       <c r="F221">
-        <v>-17.59999999999984</v>
+        <v>-17.6</v>
       </c>
       <c r="G221">
         <v>1.30132</v>
@@ -10796,7 +10796,7 @@
         <v>1.3025</v>
       </c>
       <c r="J221">
-        <v>5.800000000000249</v>
+        <v>5.8</v>
       </c>
       <c r="K221">
         <v>1.30308</v>
@@ -10805,7 +10805,7 @@
         <v>43409.4375</v>
       </c>
       <c r="M221">
-        <v>-11.79999999999959</v>
+        <v>-11.8</v>
       </c>
       <c r="N221">
         <v>1.30132</v>
@@ -10822,7 +10822,7 @@
         <v>1.30781</v>
       </c>
       <c r="C222">
-        <v>4.399999999997739</v>
+        <v>4.4</v>
       </c>
       <c r="D222">
         <v>1.30825</v>
@@ -10831,7 +10831,7 @@
         <v>43410.44791666666</v>
       </c>
       <c r="F222">
-        <v>-2.700000000002145</v>
+        <v>-2.7</v>
       </c>
       <c r="G222">
         <v>1.30754</v>
@@ -10852,7 +10852,7 @@
         <v>43410.44791666666</v>
       </c>
       <c r="M222">
-        <v>-7.099999999999884</v>
+        <v>-7.1</v>
       </c>
       <c r="N222">
         <v>1.30754</v>
@@ -10869,7 +10869,7 @@
         <v>1.31537</v>
       </c>
       <c r="C223">
-        <v>10.99999999999879</v>
+        <v>11</v>
       </c>
       <c r="D223">
         <v>1.31647</v>
@@ -10878,7 +10878,7 @@
         <v>43411.44444444445</v>
       </c>
       <c r="F223">
-        <v>-20.60000000000173</v>
+        <v>-20.6</v>
       </c>
       <c r="G223">
         <v>1.31331</v>
@@ -10890,7 +10890,7 @@
         <v>1.31609</v>
       </c>
       <c r="J223">
-        <v>3.80000000000047</v>
+        <v>3.8</v>
       </c>
       <c r="K223">
         <v>1.31647</v>
@@ -10899,7 +10899,7 @@
         <v>43411.44444444445</v>
       </c>
       <c r="M223">
-        <v>-27.80000000000005</v>
+        <v>-27.8</v>
       </c>
       <c r="N223">
         <v>1.31331</v>
@@ -10916,7 +10916,7 @@
         <v>1.31164</v>
       </c>
       <c r="C224">
-        <v>13.60000000000028</v>
+        <v>13.6</v>
       </c>
       <c r="D224">
         <v>1.313</v>
@@ -10925,7 +10925,7 @@
         <v>43412.45486111111</v>
       </c>
       <c r="F224">
-        <v>-3.100000000000325</v>
+        <v>-3.1</v>
       </c>
       <c r="G224">
         <v>1.31133</v>
@@ -10937,7 +10937,7 @@
         <v>1.31228</v>
       </c>
       <c r="J224">
-        <v>7.200000000000539</v>
+        <v>7.2</v>
       </c>
       <c r="K224">
         <v>1.313</v>
@@ -10946,7 +10946,7 @@
         <v>43412.45486111111</v>
       </c>
       <c r="M224">
-        <v>-9.500000000000064</v>
+        <v>-9.5</v>
       </c>
       <c r="N224">
         <v>1.31133</v>
@@ -10963,7 +10963,7 @@
         <v>1.30403</v>
       </c>
       <c r="C225">
-        <v>6.999999999999229</v>
+        <v>7</v>
       </c>
       <c r="D225">
         <v>1.30473</v>
@@ -10972,7 +10972,7 @@
         <v>43413.44236111111</v>
       </c>
       <c r="F225">
-        <v>-15.30000000000031</v>
+        <v>-15.3</v>
       </c>
       <c r="G225">
         <v>1.3025</v>
@@ -10984,7 +10984,7 @@
         <v>1.30372</v>
       </c>
       <c r="J225">
-        <v>10.09999999999955</v>
+        <v>10.1</v>
       </c>
       <c r="K225">
         <v>1.30473</v>
@@ -10993,7 +10993,7 @@
         <v>43413.44236111111</v>
       </c>
       <c r="M225">
-        <v>-12.19999999999999</v>
+        <v>-12.2</v>
       </c>
       <c r="N225">
         <v>1.3025</v>
@@ -11010,7 +11010,7 @@
         <v>1.28896</v>
       </c>
       <c r="C226">
-        <v>5.599999999998939</v>
+        <v>5.6</v>
       </c>
       <c r="D226">
         <v>1.28952</v>
@@ -11019,7 +11019,7 @@
         <v>43416.44166666667</v>
       </c>
       <c r="F226">
-        <v>-26.10000000000001</v>
+        <v>-26.1</v>
       </c>
       <c r="G226">
         <v>1.28635</v>
@@ -11031,7 +11031,7 @@
         <v>1.28894</v>
       </c>
       <c r="J226">
-        <v>5.800000000000249</v>
+        <v>5.8</v>
       </c>
       <c r="K226">
         <v>1.28952</v>
@@ -11040,7 +11040,7 @@
         <v>43416.44166666667</v>
       </c>
       <c r="M226">
-        <v>-25.8999999999987</v>
+        <v>-25.9</v>
       </c>
       <c r="N226">
         <v>1.28635</v>
@@ -11057,7 +11057,7 @@
         <v>1.29509</v>
       </c>
       <c r="C227">
-        <v>44.8000000000004</v>
+        <v>44.8</v>
       </c>
       <c r="D227">
         <v>1.29957</v>
@@ -11066,7 +11066,7 @@
         <v>43417.45833333334</v>
       </c>
       <c r="F227">
-        <v>-9.100000000001884</v>
+        <v>-9.1</v>
       </c>
       <c r="G227">
         <v>1.29418</v>
@@ -11078,7 +11078,7 @@
         <v>1.29502</v>
       </c>
       <c r="J227">
-        <v>45.50000000000054</v>
+        <v>45.5</v>
       </c>
       <c r="K227">
         <v>1.29957</v>
@@ -11087,7 +11087,7 @@
         <v>43417.45833333334</v>
       </c>
       <c r="M227">
-        <v>-8.400000000001739</v>
+        <v>-8.4</v>
       </c>
       <c r="N227">
         <v>1.29418</v>
@@ -11104,7 +11104,7 @@
         <v>1.29775</v>
       </c>
       <c r="C228">
-        <v>41.20000000000124</v>
+        <v>41.2</v>
       </c>
       <c r="D228">
         <v>1.30187</v>
@@ -11113,7 +11113,7 @@
         <v>43418.45416666667</v>
       </c>
       <c r="F228">
-        <v>-2.699999999999925</v>
+        <v>-2.7</v>
       </c>
       <c r="G228">
         <v>1.29748</v>
@@ -11125,7 +11125,7 @@
         <v>1.29977</v>
       </c>
       <c r="J228">
-        <v>20.99999999999991</v>
+        <v>21</v>
       </c>
       <c r="K228">
         <v>1.30187</v>
@@ -11134,7 +11134,7 @@
         <v>43418.45416666667</v>
       </c>
       <c r="M228">
-        <v>-22.90000000000125</v>
+        <v>-22.9</v>
       </c>
       <c r="N228">
         <v>1.29748</v>
@@ -11160,7 +11160,7 @@
         <v>43419.4375</v>
       </c>
       <c r="F229">
-        <v>-30.39999999999932</v>
+        <v>-30.4</v>
       </c>
       <c r="G229">
         <v>1.27645</v>
@@ -11172,7 +11172,7 @@
         <v>1.27645</v>
       </c>
       <c r="J229">
-        <v>30.39999999999932</v>
+        <v>30.4</v>
       </c>
       <c r="K229">
         <v>1.27949</v>
@@ -11198,7 +11198,7 @@
         <v>1.28535</v>
       </c>
       <c r="C230">
-        <v>0.9999999999998899</v>
+        <v>1</v>
       </c>
       <c r="D230">
         <v>1.28545</v>
@@ -11207,7 +11207,7 @@
         <v>43420.43958333333</v>
       </c>
       <c r="F230">
-        <v>-17.89999999999958</v>
+        <v>-17.9</v>
       </c>
       <c r="G230">
         <v>1.28356</v>
@@ -11219,7 +11219,7 @@
         <v>1.2844</v>
       </c>
       <c r="J230">
-        <v>10.49999999999995</v>
+        <v>10.5</v>
       </c>
       <c r="K230">
         <v>1.28545</v>
@@ -11228,7 +11228,7 @@
         <v>43420.43958333333</v>
       </c>
       <c r="M230">
-        <v>-8.399999999999519</v>
+        <v>-8.4</v>
       </c>
       <c r="N230">
         <v>1.28356</v>
@@ -11245,7 +11245,7 @@
         <v>1.28593</v>
       </c>
       <c r="C231">
-        <v>11.79999999999959</v>
+        <v>11.8</v>
       </c>
       <c r="D231">
         <v>1.28711</v>
@@ -11254,7 +11254,7 @@
         <v>43423.44791666666</v>
       </c>
       <c r="F231">
-        <v>-1.500000000000945</v>
+        <v>-1.5</v>
       </c>
       <c r="G231">
         <v>1.28578</v>
@@ -11275,7 +11275,7 @@
         <v>43423.44791666666</v>
       </c>
       <c r="M231">
-        <v>-13.30000000000053</v>
+        <v>-13.3</v>
       </c>
       <c r="N231">
         <v>1.28578</v>
@@ -11292,7 +11292,7 @@
         <v>1.28275</v>
       </c>
       <c r="C232">
-        <v>2.99999999999967</v>
+        <v>3</v>
       </c>
       <c r="D232">
         <v>1.28305</v>
@@ -11301,7 +11301,7 @@
         <v>43424.45486111111</v>
       </c>
       <c r="F232">
-        <v>-13.00000000000079</v>
+        <v>-13</v>
       </c>
       <c r="G232">
         <v>1.28145</v>
@@ -11313,7 +11313,7 @@
         <v>1.28232</v>
       </c>
       <c r="J232">
-        <v>7.299999999998974</v>
+        <v>7.3</v>
       </c>
       <c r="K232">
         <v>1.28305</v>
@@ -11322,7 +11322,7 @@
         <v>43424.45486111111</v>
       </c>
       <c r="M232">
-        <v>-8.700000000001484</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="N232">
         <v>1.28145</v>
@@ -11348,7 +11348,7 @@
         <v>43425.4375</v>
       </c>
       <c r="F233">
-        <v>-30.69999999999906</v>
+        <v>-30.7</v>
       </c>
       <c r="G233">
         <v>1.27762</v>
@@ -11360,7 +11360,7 @@
         <v>1.27844</v>
       </c>
       <c r="J233">
-        <v>22.49999999999863</v>
+        <v>22.5</v>
       </c>
       <c r="K233">
         <v>1.28069</v>
@@ -11369,7 +11369,7 @@
         <v>43425.4375</v>
       </c>
       <c r="M233">
-        <v>-8.200000000000429</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="N233">
         <v>1.27762</v>
@@ -11386,7 +11386,7 @@
         <v>1.28615</v>
       </c>
       <c r="C234">
-        <v>14.70000000000082</v>
+        <v>14.7</v>
       </c>
       <c r="D234">
         <v>1.28762</v>
@@ -11395,7 +11395,7 @@
         <v>43426.45694444444</v>
       </c>
       <c r="F234">
-        <v>-10.79999999999748</v>
+        <v>-10.8</v>
       </c>
       <c r="G234">
         <v>1.28507</v>
@@ -11407,7 +11407,7 @@
         <v>1.28591</v>
       </c>
       <c r="J234">
-        <v>17.09999999999878</v>
+        <v>17.1</v>
       </c>
       <c r="K234">
         <v>1.28762</v>
@@ -11416,7 +11416,7 @@
         <v>43426.45694444444</v>
       </c>
       <c r="M234">
-        <v>-8.399999999999519</v>
+        <v>-8.4</v>
       </c>
       <c r="N234">
         <v>1.28507</v>
@@ -11433,7 +11433,7 @@
         <v>1.28248</v>
       </c>
       <c r="C235">
-        <v>3.100000000000325</v>
+        <v>3.1</v>
       </c>
       <c r="D235">
         <v>1.28279</v>
@@ -11442,7 +11442,7 @@
         <v>43427.44513888889</v>
       </c>
       <c r="F235">
-        <v>-23.09999999999812</v>
+        <v>-23.1</v>
       </c>
       <c r="G235">
         <v>1.28017</v>
@@ -11454,7 +11454,7 @@
         <v>1.28195</v>
       </c>
       <c r="J235">
-        <v>8.399999999999519</v>
+        <v>8.4</v>
       </c>
       <c r="K235">
         <v>1.28279</v>
@@ -11463,7 +11463,7 @@
         <v>43427.44513888889</v>
       </c>
       <c r="M235">
-        <v>-17.79999999999893</v>
+        <v>-17.8</v>
       </c>
       <c r="N235">
         <v>1.28017</v>
@@ -11480,7 +11480,7 @@
         <v>1.2835</v>
       </c>
       <c r="C236">
-        <v>2.100000000000435</v>
+        <v>2.1</v>
       </c>
       <c r="D236">
         <v>1.28371</v>
@@ -11489,7 +11489,7 @@
         <v>43430.45347222222</v>
       </c>
       <c r="F236">
-        <v>-12.50000000000195</v>
+        <v>-12.5</v>
       </c>
       <c r="G236">
         <v>1.28225</v>
@@ -11501,7 +11501,7 @@
         <v>1.28298</v>
       </c>
       <c r="J236">
-        <v>7.300000000001194</v>
+        <v>7.3</v>
       </c>
       <c r="K236">
         <v>1.28371</v>
@@ -11510,7 +11510,7 @@
         <v>43430.45347222222</v>
       </c>
       <c r="M236">
-        <v>-7.300000000001194</v>
+        <v>-7.3</v>
       </c>
       <c r="N236">
         <v>1.28225</v>
@@ -11527,7 +11527,7 @@
         <v>1.27535</v>
       </c>
       <c r="C237">
-        <v>0.2000000000013102</v>
+        <v>0.2</v>
       </c>
       <c r="D237">
         <v>1.27537</v>
@@ -11536,7 +11536,7 @@
         <v>43431.43819444445</v>
       </c>
       <c r="F237">
-        <v>-16.19999999999955</v>
+        <v>-16.2</v>
       </c>
       <c r="G237">
         <v>1.27373</v>
@@ -11548,7 +11548,7 @@
         <v>1.27451</v>
       </c>
       <c r="J237">
-        <v>8.600000000000829</v>
+        <v>8.6</v>
       </c>
       <c r="K237">
         <v>1.27537</v>
@@ -11557,7 +11557,7 @@
         <v>43431.43819444445</v>
       </c>
       <c r="M237">
-        <v>-7.800000000000029</v>
+        <v>-7.8</v>
       </c>
       <c r="N237">
         <v>1.27373</v>
@@ -11574,7 +11574,7 @@
         <v>1.27723</v>
       </c>
       <c r="C238">
-        <v>1.700000000002255</v>
+        <v>1.7</v>
       </c>
       <c r="D238">
         <v>1.2774</v>
@@ -11583,7 +11583,7 @@
         <v>43432.43819444445</v>
       </c>
       <c r="F238">
-        <v>-22.99999999999969</v>
+        <v>-23</v>
       </c>
       <c r="G238">
         <v>1.27493</v>
@@ -11595,7 +11595,7 @@
         <v>1.27643</v>
       </c>
       <c r="J238">
-        <v>9.700000000001374</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K238">
         <v>1.2774</v>
@@ -11604,7 +11604,7 @@
         <v>43432.43819444445</v>
       </c>
       <c r="M238">
-        <v>-15.00000000000057</v>
+        <v>-15</v>
       </c>
       <c r="N238">
         <v>1.27493</v>
@@ -11621,7 +11621,7 @@
         <v>1.27779</v>
       </c>
       <c r="C239">
-        <v>3.300000000001635</v>
+        <v>3.3</v>
       </c>
       <c r="D239">
         <v>1.27812</v>
@@ -11630,7 +11630,7 @@
         <v>43433.43819444445</v>
       </c>
       <c r="F239">
-        <v>-13.90000000000002</v>
+        <v>-13.9</v>
       </c>
       <c r="G239">
         <v>1.2764</v>
@@ -11642,7 +11642,7 @@
         <v>1.27679</v>
       </c>
       <c r="J239">
-        <v>13.30000000000275</v>
+        <v>13.3</v>
       </c>
       <c r="K239">
         <v>1.27812</v>
@@ -11651,7 +11651,7 @@
         <v>43433.43819444445</v>
       </c>
       <c r="M239">
-        <v>-3.899999999998904</v>
+        <v>-3.9</v>
       </c>
       <c r="N239">
         <v>1.2764</v>
@@ -11668,7 +11668,7 @@
         <v>1.2751</v>
       </c>
       <c r="C240">
-        <v>11.6000000000005</v>
+        <v>11.6</v>
       </c>
       <c r="D240">
         <v>1.27626</v>
@@ -11677,7 +11677,7 @@
         <v>43434.45972222222</v>
       </c>
       <c r="F240">
-        <v>-4.100000000000215</v>
+        <v>-4.1</v>
       </c>
       <c r="G240">
         <v>1.27469</v>
@@ -11689,7 +11689,7 @@
         <v>1.27567</v>
       </c>
       <c r="J240">
-        <v>5.899999999998684</v>
+        <v>5.9</v>
       </c>
       <c r="K240">
         <v>1.27626</v>
@@ -11698,7 +11698,7 @@
         <v>43434.45972222222</v>
       </c>
       <c r="M240">
-        <v>-9.800000000002029</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="N240">
         <v>1.27469</v>
@@ -11715,7 +11715,7 @@
         <v>1.27294</v>
       </c>
       <c r="C241">
-        <v>15.4999999999994</v>
+        <v>15.5</v>
       </c>
       <c r="D241">
         <v>1.27449</v>
@@ -11736,7 +11736,7 @@
         <v>1.27441</v>
       </c>
       <c r="J241">
-        <v>0.7999999999985796</v>
+        <v>0.8</v>
       </c>
       <c r="K241">
         <v>1.27449</v>
@@ -11745,7 +11745,7 @@
         <v>43437.44930555556</v>
       </c>
       <c r="M241">
-        <v>-14.70000000000082</v>
+        <v>-14.7</v>
       </c>
       <c r="N241">
         <v>1.27294</v>
@@ -11771,7 +11771,7 @@
         <v>43438.4375</v>
       </c>
       <c r="F242">
-        <v>-25.80000000000249</v>
+        <v>-25.8</v>
       </c>
       <c r="G242">
         <v>1.27174</v>
@@ -11783,7 +11783,7 @@
         <v>1.27306</v>
       </c>
       <c r="J242">
-        <v>12.60000000000039</v>
+        <v>12.6</v>
       </c>
       <c r="K242">
         <v>1.27432</v>
@@ -11792,7 +11792,7 @@
         <v>43438.4375</v>
       </c>
       <c r="M242">
-        <v>-13.2000000000021</v>
+        <v>-13.2</v>
       </c>
       <c r="N242">
         <v>1.27174</v>
@@ -11809,7 +11809,7 @@
         <v>1.27275</v>
       </c>
       <c r="C243">
-        <v>12.49999999999973</v>
+        <v>12.5</v>
       </c>
       <c r="D243">
         <v>1.274</v>
@@ -11818,7 +11818,7 @@
         <v>43439.45208333333</v>
       </c>
       <c r="F243">
-        <v>-6.200000000000649</v>
+        <v>-6.2</v>
       </c>
       <c r="G243">
         <v>1.27213</v>
@@ -11830,7 +11830,7 @@
         <v>1.27288</v>
       </c>
       <c r="J243">
-        <v>11.2000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="K243">
         <v>1.274</v>
@@ -11839,7 +11839,7 @@
         <v>43439.45208333333</v>
       </c>
       <c r="M243">
-        <v>-7.500000000000284</v>
+        <v>-7.5</v>
       </c>
       <c r="N243">
         <v>1.27213</v>
@@ -11865,7 +11865,7 @@
         <v>43440.4375</v>
       </c>
       <c r="F244">
-        <v>-24.80000000000038</v>
+        <v>-24.8</v>
       </c>
       <c r="G244">
         <v>1.27732</v>
@@ -11877,7 +11877,7 @@
         <v>1.27738</v>
       </c>
       <c r="J244">
-        <v>24.20000000000089</v>
+        <v>24.2</v>
       </c>
       <c r="K244">
         <v>1.2798</v>
@@ -11886,7 +11886,7 @@
         <v>43440.4375</v>
       </c>
       <c r="M244">
-        <v>-0.5999999999994898</v>
+        <v>-0.6</v>
       </c>
       <c r="N244">
         <v>1.27732</v>
@@ -11903,7 +11903,7 @@
         <v>1.27334</v>
       </c>
       <c r="C245">
-        <v>24.99999999999947</v>
+        <v>25</v>
       </c>
       <c r="D245">
         <v>1.27584</v>
@@ -11912,7 +11912,7 @@
         <v>43441.45833333334</v>
       </c>
       <c r="F245">
-        <v>-4.899999999998794</v>
+        <v>-4.9</v>
       </c>
       <c r="G245">
         <v>1.27285</v>
@@ -11924,7 +11924,7 @@
         <v>1.27403</v>
       </c>
       <c r="J245">
-        <v>18.09999999999867</v>
+        <v>18.1</v>
       </c>
       <c r="K245">
         <v>1.27584</v>
@@ -11933,7 +11933,7 @@
         <v>43441.45833333334</v>
       </c>
       <c r="M245">
-        <v>-11.79999999999959</v>
+        <v>-11.8</v>
       </c>
       <c r="N245">
         <v>1.27285</v>
@@ -11971,7 +11971,7 @@
         <v>1.26184</v>
       </c>
       <c r="J246">
-        <v>27.0999999999999</v>
+        <v>27.1</v>
       </c>
       <c r="K246">
         <v>1.26455</v>
@@ -11980,7 +11980,7 @@
         <v>43444.4375</v>
       </c>
       <c r="M246">
-        <v>-93.90000000000009</v>
+        <v>-93.90000000000001</v>
       </c>
       <c r="N246">
         <v>1.25245</v>
@@ -11997,7 +11997,7 @@
         <v>1.2556</v>
       </c>
       <c r="C247">
-        <v>4.500000000000615</v>
+        <v>4.5</v>
       </c>
       <c r="D247">
         <v>1.25605</v>
@@ -12006,7 +12006,7 @@
         <v>43445.44236111111</v>
       </c>
       <c r="F247">
-        <v>-54.00000000000071</v>
+        <v>-54</v>
       </c>
       <c r="G247">
         <v>1.2502</v>
@@ -12018,7 +12018,7 @@
         <v>1.25567</v>
       </c>
       <c r="J247">
-        <v>3.80000000000047</v>
+        <v>3.8</v>
       </c>
       <c r="K247">
         <v>1.25605</v>
@@ -12027,7 +12027,7 @@
         <v>43445.44236111111</v>
       </c>
       <c r="M247">
-        <v>-54.70000000000086</v>
+        <v>-54.7</v>
       </c>
       <c r="N247">
         <v>1.2502</v>
@@ -12044,7 +12044,7 @@
         <v>1.2642</v>
       </c>
       <c r="C248">
-        <v>25.39999999999987</v>
+        <v>25.4</v>
       </c>
       <c r="D248">
         <v>1.26674</v>
@@ -12053,7 +12053,7 @@
         <v>43446.45694444444</v>
       </c>
       <c r="F248">
-        <v>-6.099999999999994</v>
+        <v>-6.1</v>
       </c>
       <c r="G248">
         <v>1.26359</v>
@@ -12065,7 +12065,7 @@
         <v>1.26364</v>
       </c>
       <c r="J248">
-        <v>31.00000000000103</v>
+        <v>31</v>
       </c>
       <c r="K248">
         <v>1.26674</v>
@@ -12074,7 +12074,7 @@
         <v>43446.45694444444</v>
       </c>
       <c r="M248">
-        <v>-0.4999999999988347</v>
+        <v>-0.5</v>
       </c>
       <c r="N248">
         <v>1.26359</v>
@@ -12091,7 +12091,7 @@
         <v>1.26256</v>
       </c>
       <c r="C249">
-        <v>3.199999999998759</v>
+        <v>3.2</v>
       </c>
       <c r="D249">
         <v>1.26288</v>
@@ -12100,7 +12100,7 @@
         <v>43447.45486111111</v>
       </c>
       <c r="F249">
-        <v>-9.000000000001229</v>
+        <v>-9</v>
       </c>
       <c r="G249">
         <v>1.26166</v>
@@ -12112,7 +12112,7 @@
         <v>1.26234</v>
       </c>
       <c r="J249">
-        <v>5.399999999999849</v>
+        <v>5.4</v>
       </c>
       <c r="K249">
         <v>1.26288</v>
@@ -12121,7 +12121,7 @@
         <v>43447.45486111111</v>
       </c>
       <c r="M249">
-        <v>-6.800000000000139</v>
+        <v>-6.8</v>
       </c>
       <c r="N249">
         <v>1.26166</v>
@@ -12138,7 +12138,7 @@
         <v>1.25487</v>
       </c>
       <c r="C250">
-        <v>11.89999999999802</v>
+        <v>11.9</v>
       </c>
       <c r="D250">
         <v>1.25606</v>
@@ -12159,7 +12159,7 @@
         <v>1.25531</v>
       </c>
       <c r="J250">
-        <v>7.500000000000284</v>
+        <v>7.5</v>
       </c>
       <c r="K250">
         <v>1.25606</v>
@@ -12168,7 +12168,7 @@
         <v>43448.45902777778</v>
       </c>
       <c r="M250">
-        <v>-4.399999999997739</v>
+        <v>-4.4</v>
       </c>
       <c r="N250">
         <v>1.25487</v>
@@ -12185,7 +12185,7 @@
         <v>1.26081</v>
       </c>
       <c r="C251">
-        <v>6.099999999999994</v>
+        <v>6.1</v>
       </c>
       <c r="D251">
         <v>1.26142</v>
@@ -12194,7 +12194,7 @@
         <v>43451.45694444444</v>
       </c>
       <c r="F251">
-        <v>-10.30000000000086</v>
+        <v>-10.3</v>
       </c>
       <c r="G251">
         <v>1.25978</v>
@@ -12206,7 +12206,7 @@
         <v>1.26083</v>
       </c>
       <c r="J251">
-        <v>5.900000000000905</v>
+        <v>5.9</v>
       </c>
       <c r="K251">
         <v>1.26142</v>
@@ -12215,7 +12215,7 @@
         <v>43451.45694444444</v>
       </c>
       <c r="M251">
-        <v>-10.49999999999995</v>
+        <v>-10.5</v>
       </c>
       <c r="N251">
         <v>1.25978</v>
@@ -12232,7 +12232,7 @@
         <v>1.26569</v>
       </c>
       <c r="C252">
-        <v>10.3999999999993</v>
+        <v>10.4</v>
       </c>
       <c r="D252">
         <v>1.26673</v>
@@ -12241,7 +12241,7 @@
         <v>43452.44236111111</v>
       </c>
       <c r="F252">
-        <v>-26.80000000000016</v>
+        <v>-26.8</v>
       </c>
       <c r="G252">
         <v>1.26301</v>
@@ -12253,7 +12253,7 @@
         <v>1.26595</v>
       </c>
       <c r="J252">
-        <v>7.800000000000029</v>
+        <v>7.8</v>
       </c>
       <c r="K252">
         <v>1.26673</v>
@@ -12262,7 +12262,7 @@
         <v>43452.44236111111</v>
       </c>
       <c r="M252">
-        <v>-29.39999999999943</v>
+        <v>-29.4</v>
       </c>
       <c r="N252">
         <v>1.26301</v>
@@ -12279,7 +12279,7 @@
         <v>1.26686</v>
       </c>
       <c r="C253">
-        <v>0.1999999999990898</v>
+        <v>0.2</v>
       </c>
       <c r="D253">
         <v>1.26688</v>
@@ -12288,7 +12288,7 @@
         <v>43453.43819444445</v>
       </c>
       <c r="F253">
-        <v>-26.60000000000107</v>
+        <v>-26.6</v>
       </c>
       <c r="G253">
         <v>1.2642</v>
@@ -12300,7 +12300,7 @@
         <v>1.26648</v>
       </c>
       <c r="J253">
-        <v>4.00000000000178</v>
+        <v>4</v>
       </c>
       <c r="K253">
         <v>1.26688</v>
@@ -12309,7 +12309,7 @@
         <v>43453.43819444445</v>
       </c>
       <c r="M253">
-        <v>-22.79999999999838</v>
+        <v>-22.8</v>
       </c>
       <c r="N253">
         <v>1.2642</v>
@@ -12335,7 +12335,7 @@
         <v>43454.4375</v>
       </c>
       <c r="F254">
-        <v>-14.70000000000082</v>
+        <v>-14.7</v>
       </c>
       <c r="G254">
         <v>1.26269</v>
@@ -12347,7 +12347,7 @@
         <v>1.26307</v>
       </c>
       <c r="J254">
-        <v>10.89999999999813</v>
+        <v>10.9</v>
       </c>
       <c r="K254">
         <v>1.26416</v>
@@ -12356,7 +12356,7 @@
         <v>43454.4375</v>
       </c>
       <c r="M254">
-        <v>-3.80000000000269</v>
+        <v>-3.8</v>
       </c>
       <c r="N254">
         <v>1.26269</v>
@@ -12373,7 +12373,7 @@
         <v>1.26465</v>
       </c>
       <c r="C255">
-        <v>42.89999999999905</v>
+        <v>42.9</v>
       </c>
       <c r="D255">
         <v>1.26894</v>
@@ -12394,7 +12394,7 @@
         <v>1.26526</v>
       </c>
       <c r="J255">
-        <v>36.79999999999906</v>
+        <v>36.8</v>
       </c>
       <c r="K255">
         <v>1.26894</v>
@@ -12403,7 +12403,7 @@
         <v>43455.45416666667</v>
       </c>
       <c r="M255">
-        <v>-6.099999999999994</v>
+        <v>-6.1</v>
       </c>
       <c r="N255">
         <v>1.26465</v>
@@ -12420,7 +12420,7 @@
         <v>1.27124</v>
       </c>
       <c r="C256">
-        <v>5.300000000001415</v>
+        <v>5.3</v>
       </c>
       <c r="D256">
         <v>1.27177</v>
@@ -12429,7 +12429,7 @@
         <v>43458.45833333334</v>
       </c>
       <c r="F256">
-        <v>-13.09999999999922</v>
+        <v>-13.1</v>
       </c>
       <c r="G256">
         <v>1.26993</v>
@@ -12441,7 +12441,7 @@
         <v>1.27044</v>
       </c>
       <c r="J256">
-        <v>13.30000000000053</v>
+        <v>13.3</v>
       </c>
       <c r="K256">
         <v>1.27177</v>
@@ -12450,7 +12450,7 @@
         <v>43458.45833333334</v>
       </c>
       <c r="M256">
-        <v>-5.100000000000104</v>
+        <v>-5.1</v>
       </c>
       <c r="N256">
         <v>1.26993</v>
@@ -12467,7 +12467,7 @@
         <v>1.26907</v>
       </c>
       <c r="C257">
-        <v>0.09999999999843467</v>
+        <v>0.1</v>
       </c>
       <c r="D257">
         <v>1.26908</v>
@@ -12476,7 +12476,7 @@
         <v>43460.45486111111</v>
       </c>
       <c r="F257">
-        <v>-19.10000000000078</v>
+        <v>-19.1</v>
       </c>
       <c r="G257">
         <v>1.26716</v>
@@ -12488,7 +12488,7 @@
         <v>1.26846</v>
       </c>
       <c r="J257">
-        <v>6.199999999998429</v>
+        <v>6.2</v>
       </c>
       <c r="K257">
         <v>1.26908</v>
@@ -12497,7 +12497,7 @@
         <v>43460.45486111111</v>
       </c>
       <c r="M257">
-        <v>-13.00000000000079</v>
+        <v>-13</v>
       </c>
       <c r="N257">
         <v>1.26716</v>
@@ -12514,7 +12514,7 @@
         <v>1.26583</v>
       </c>
       <c r="C258">
-        <v>6.699999999999484</v>
+        <v>6.7</v>
       </c>
       <c r="D258">
         <v>1.2665</v>
@@ -12523,7 +12523,7 @@
         <v>43461.44097222222</v>
       </c>
       <c r="F258">
-        <v>-26.00000000000158</v>
+        <v>-26</v>
       </c>
       <c r="G258">
         <v>1.26323</v>
@@ -12535,7 +12535,7 @@
         <v>1.26554</v>
       </c>
       <c r="J258">
-        <v>9.600000000000719</v>
+        <v>9.6</v>
       </c>
       <c r="K258">
         <v>1.2665</v>
@@ -12544,7 +12544,7 @@
         <v>43461.44097222222</v>
       </c>
       <c r="M258">
-        <v>-23.10000000000034</v>
+        <v>-23.1</v>
       </c>
       <c r="N258">
         <v>1.26323</v>
@@ -12561,7 +12561,7 @@
         <v>1.26818</v>
       </c>
       <c r="C259">
-        <v>8.600000000000829</v>
+        <v>8.6</v>
       </c>
       <c r="D259">
         <v>1.26904</v>
@@ -12570,7 +12570,7 @@
         <v>43462.45069444444</v>
       </c>
       <c r="F259">
-        <v>-4.899999999998794</v>
+        <v>-4.9</v>
       </c>
       <c r="G259">
         <v>1.26769</v>
@@ -12582,7 +12582,7 @@
         <v>1.26778</v>
       </c>
       <c r="J259">
-        <v>12.60000000000039</v>
+        <v>12.6</v>
       </c>
       <c r="K259">
         <v>1.26904</v>
@@ -12591,7 +12591,7 @@
         <v>43462.45069444444</v>
       </c>
       <c r="M259">
-        <v>-0.8999999999992347</v>
+        <v>-0.9</v>
       </c>
       <c r="N259">
         <v>1.26769</v>
@@ -12608,7 +12608,7 @@
         <v>1.28061</v>
       </c>
       <c r="C260">
-        <v>7.099999999999884</v>
+        <v>7.1</v>
       </c>
       <c r="D260">
         <v>1.28132</v>
@@ -12617,7 +12617,7 @@
         <v>43465.43888888889</v>
       </c>
       <c r="F260">
-        <v>-84.89999999999887</v>
+        <v>-84.90000000000001</v>
       </c>
       <c r="G260">
         <v>1.27212</v>
@@ -12629,7 +12629,7 @@
         <v>1.27862</v>
       </c>
       <c r="J260">
-        <v>26.99999999999925</v>
+        <v>27</v>
       </c>
       <c r="K260">
         <v>1.28132</v>
@@ -12638,7 +12638,7 @@
         <v>43465.43888888889</v>
       </c>
       <c r="M260">
-        <v>-64.9999999999995</v>
+        <v>-65</v>
       </c>
       <c r="N260">
         <v>1.27212</v>

--- a/edge_research/dataout/18mpip.xlsx
+++ b/edge_research/dataout/18mpip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>1030_PRICE</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t>MAX_PIP_DOWN_1045_DATETIME</t>
+  </si>
+  <si>
+    <t>MAX_PIP_UP_PRIOR_DAY_FIX</t>
+  </si>
+  <si>
+    <t>MAX_PIP_UP_PRIOR_DAY_FIX_DATETIME</t>
+  </si>
+  <si>
+    <t>MAX_PIP_UP_PRIOR_DAY_FIX_PRICE</t>
+  </si>
+  <si>
+    <t>MAX_PIP_DOWN_PRIOR_DAY_FIX</t>
+  </si>
+  <si>
+    <t>MAX_PIP_DOWN_PRIOR_DAY_FIX_DATETIME</t>
+  </si>
+  <si>
+    <t>MAX_PIP_DOWN_PRIOR_DAY_FIX_PRICE</t>
   </si>
 </sst>
 </file>
@@ -421,16 +439,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O260"/>
+  <dimension ref="A1:U260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="15" width="18.7109375" customWidth="1"/>
+    <col min="1" max="21" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +491,26 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="2">
         <v>43102</v>
       </c>
@@ -520,8 +556,14 @@
       <c r="O2" s="3">
         <v>43102.43958333333</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="2">
         <v>43103</v>
       </c>
@@ -567,8 +609,14 @@
       <c r="O3" s="3">
         <v>43103.4375</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="2">
         <v>43104</v>
       </c>
@@ -614,8 +662,14 @@
       <c r="O4" s="3">
         <v>43104.45763888889</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="2">
         <v>43105</v>
       </c>
@@ -661,8 +715,14 @@
       <c r="O5" s="3">
         <v>43105.45069444444</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="2">
         <v>43108</v>
       </c>
@@ -708,8 +768,14 @@
       <c r="O6" s="3">
         <v>43108.44027777778</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="2">
         <v>43109</v>
       </c>
@@ -755,8 +821,14 @@
       <c r="O7" s="3">
         <v>43109.44027777778</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="2">
         <v>43110</v>
       </c>
@@ -802,8 +874,14 @@
       <c r="O8" s="3">
         <v>43110.44722222222</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="2">
         <v>43111</v>
       </c>
@@ -849,8 +927,14 @@
       <c r="O9" s="3">
         <v>43111.4375</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="2">
         <v>43112</v>
       </c>
@@ -896,8 +980,14 @@
       <c r="O10" s="3">
         <v>43112.43958333333</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="2">
         <v>43115</v>
       </c>
@@ -943,8 +1033,14 @@
       <c r="O11" s="3">
         <v>43115.44305555556</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="2">
         <v>43116</v>
       </c>
@@ -990,8 +1086,14 @@
       <c r="O12" s="3">
         <v>43116.4375</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="2">
         <v>43117</v>
       </c>
@@ -1037,8 +1139,14 @@
       <c r="O13" s="3">
         <v>43117.44236111111</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="2">
         <v>43118</v>
       </c>
@@ -1084,8 +1192,14 @@
       <c r="O14" s="3">
         <v>43118.44236111111</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="2">
         <v>43119</v>
       </c>
@@ -1131,8 +1245,14 @@
       <c r="O15" s="3">
         <v>43119.45763888889</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="2">
         <v>43122</v>
       </c>
@@ -1178,8 +1298,14 @@
       <c r="O16" s="3">
         <v>43122.4375</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="2">
         <v>43123</v>
       </c>
@@ -1225,8 +1351,14 @@
       <c r="O17" s="3">
         <v>43123.43819444445</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="2">
         <v>43124</v>
       </c>
@@ -1272,8 +1404,14 @@
       <c r="O18" s="3">
         <v>43124.44305555556</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="2">
         <v>43125</v>
       </c>
@@ -1319,8 +1457,14 @@
       <c r="O19" s="3">
         <v>43125.44097222222</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="2">
         <v>43126</v>
       </c>
@@ -1366,8 +1510,14 @@
       <c r="O20" s="3">
         <v>43126.43888888889</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="2">
         <v>43129</v>
       </c>
@@ -1413,8 +1563,14 @@
       <c r="O21" s="3">
         <v>43129.45972222222</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="2">
         <v>43130</v>
       </c>
@@ -1460,8 +1616,14 @@
       <c r="O22" s="3">
         <v>43130.45833333334</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="2">
         <v>43131</v>
       </c>
@@ -1507,8 +1669,14 @@
       <c r="O23" s="3">
         <v>43131.44027777778</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="2">
         <v>43132</v>
       </c>
@@ -1554,8 +1722,14 @@
       <c r="O24" s="3">
         <v>43132.4375</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="2">
         <v>43133</v>
       </c>
@@ -1601,8 +1775,14 @@
       <c r="O25" s="3">
         <v>43133.44930555556</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="2">
         <v>43136</v>
       </c>
@@ -1648,8 +1828,14 @@
       <c r="O26" s="3">
         <v>43136.44652777778</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="2">
         <v>43137</v>
       </c>
@@ -1695,8 +1881,14 @@
       <c r="O27" s="3">
         <v>43137.44166666667</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="2">
         <v>43138</v>
       </c>
@@ -1742,8 +1934,14 @@
       <c r="O28" s="3">
         <v>43138.45972222222</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="2">
         <v>43139</v>
       </c>
@@ -1789,8 +1987,14 @@
       <c r="O29" s="3">
         <v>43139.45972222222</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="2">
         <v>43140</v>
       </c>
@@ -1836,8 +2040,14 @@
       <c r="O30" s="3">
         <v>43140.44513888889</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="2">
         <v>43143</v>
       </c>
@@ -1883,8 +2093,14 @@
       <c r="O31" s="3">
         <v>43143.44791666666</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="2">
         <v>43144</v>
       </c>
@@ -1930,8 +2146,14 @@
       <c r="O32" s="3">
         <v>43144.45902777778</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="2">
         <v>43145</v>
       </c>
@@ -1977,8 +2199,14 @@
       <c r="O33" s="3">
         <v>43145.4375</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="2">
         <v>43146</v>
       </c>
@@ -2024,8 +2252,14 @@
       <c r="O34" s="3">
         <v>43146.44930555556</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="2">
         <v>43147</v>
       </c>
@@ -2071,8 +2305,14 @@
       <c r="O35" s="3">
         <v>43147.45694444444</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="2">
         <v>43150</v>
       </c>
@@ -2118,8 +2358,14 @@
       <c r="O36" s="3">
         <v>43150.44027777778</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="2">
         <v>43151</v>
       </c>
@@ -2165,8 +2411,14 @@
       <c r="O37" s="3">
         <v>43151.43819444445</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="2">
         <v>43152</v>
       </c>
@@ -2212,8 +2464,14 @@
       <c r="O38" s="3">
         <v>43152.45</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="2">
         <v>43153</v>
       </c>
@@ -2259,8 +2517,14 @@
       <c r="O39" s="3">
         <v>43153.45277777778</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="2">
         <v>43154</v>
       </c>
@@ -2306,8 +2570,14 @@
       <c r="O40" s="3">
         <v>43154.45694444444</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="2">
         <v>43157</v>
       </c>
@@ -2353,8 +2623,14 @@
       <c r="O41" s="3">
         <v>43157.45555555556</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="2">
         <v>43158</v>
       </c>
@@ -2400,8 +2676,14 @@
       <c r="O42" s="3">
         <v>43158.45486111111</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="2">
         <v>43159</v>
       </c>
@@ -2447,8 +2729,14 @@
       <c r="O43" s="3">
         <v>43159.45902777778</v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="2">
         <v>43160</v>
       </c>
@@ -2494,8 +2782,14 @@
       <c r="O44" s="3">
         <v>43160.45833333334</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="2">
         <v>43161</v>
       </c>
@@ -2541,8 +2835,14 @@
       <c r="O45" s="3">
         <v>43161.45069444444</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="2">
         <v>43164</v>
       </c>
@@ -2588,8 +2888,14 @@
       <c r="O46" s="3">
         <v>43164.44097222222</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="2">
         <v>43165</v>
       </c>
@@ -2635,8 +2941,14 @@
       <c r="O47" s="3">
         <v>43165.45694444444</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="2">
         <v>43166</v>
       </c>
@@ -2682,8 +2994,14 @@
       <c r="O48" s="3">
         <v>43166.4375</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="2">
         <v>43167</v>
       </c>
@@ -2729,8 +3047,14 @@
       <c r="O49" s="3">
         <v>43167.45069444444</v>
       </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="2">
         <v>43168</v>
       </c>
@@ -2776,8 +3100,14 @@
       <c r="O50" s="3">
         <v>43168.45972222222</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="2">
         <v>43171</v>
       </c>
@@ -2823,8 +3153,14 @@
       <c r="O51" s="3">
         <v>43171.4375</v>
       </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="2">
         <v>43172</v>
       </c>
@@ -2870,8 +3206,14 @@
       <c r="O52" s="3">
         <v>43172.43819444445</v>
       </c>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="2">
         <v>43173</v>
       </c>
@@ -2917,8 +3259,14 @@
       <c r="O53" s="3">
         <v>43173.43958333333</v>
       </c>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="2">
         <v>43174</v>
       </c>
@@ -2964,8 +3312,14 @@
       <c r="O54" s="3">
         <v>43174.43958333333</v>
       </c>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="2">
         <v>43175</v>
       </c>
@@ -3011,8 +3365,14 @@
       <c r="O55" s="3">
         <v>43175.45833333334</v>
       </c>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="2">
         <v>43178</v>
       </c>
@@ -3058,8 +3418,14 @@
       <c r="O56" s="3">
         <v>43178.45972222222</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="2">
         <v>43179</v>
       </c>
@@ -3105,8 +3471,14 @@
       <c r="O57" s="3">
         <v>43179.4375</v>
       </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="2">
         <v>43180</v>
       </c>
@@ -3152,8 +3524,14 @@
       <c r="O58" s="3">
         <v>43180.44513888889</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="2">
         <v>43181</v>
       </c>
@@ -3199,8 +3577,14 @@
       <c r="O59" s="3">
         <v>43181.45208333333</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="2">
         <v>43182</v>
       </c>
@@ -3246,8 +3630,14 @@
       <c r="O60" s="3">
         <v>43182.45416666667</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="2">
         <v>43185</v>
       </c>
@@ -3293,8 +3683,14 @@
       <c r="O61" s="3">
         <v>43185.4375</v>
       </c>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="2">
         <v>43186</v>
       </c>
@@ -3340,8 +3736,14 @@
       <c r="O62" s="3">
         <v>43186.45555555556</v>
       </c>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="2">
         <v>43187</v>
       </c>
@@ -3387,8 +3789,14 @@
       <c r="O63" s="3">
         <v>43187.44583333333</v>
       </c>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="2">
         <v>43188</v>
       </c>
@@ -3434,8 +3842,14 @@
       <c r="O64" s="3">
         <v>43188.45902777778</v>
       </c>
-    </row>
-    <row r="65" spans="1:15">
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="2">
         <v>43189</v>
       </c>
@@ -3481,8 +3895,14 @@
       <c r="O65" s="3">
         <v>43189.45972222222</v>
       </c>
-    </row>
-    <row r="66" spans="1:15">
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="2">
         <v>43192</v>
       </c>
@@ -3528,8 +3948,14 @@
       <c r="O66" s="3">
         <v>43192.45277777778</v>
       </c>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="2">
         <v>43193</v>
       </c>
@@ -3575,8 +4001,14 @@
       <c r="O67" s="3">
         <v>43193.44722222222</v>
       </c>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="2">
         <v>43194</v>
       </c>
@@ -3622,8 +4054,14 @@
       <c r="O68" s="3">
         <v>43194.44861111111</v>
       </c>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="2">
         <v>43195</v>
       </c>
@@ -3669,8 +4107,14 @@
       <c r="O69" s="3">
         <v>43195.45694444444</v>
       </c>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="2">
         <v>43196</v>
       </c>
@@ -3716,8 +4160,14 @@
       <c r="O70" s="3">
         <v>43196.45833333334</v>
       </c>
-    </row>
-    <row r="71" spans="1:15">
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="2">
         <v>43199</v>
       </c>
@@ -3763,8 +4213,14 @@
       <c r="O71" s="3">
         <v>43199.45902777778</v>
       </c>
-    </row>
-    <row r="72" spans="1:15">
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="2">
         <v>43200</v>
       </c>
@@ -3810,8 +4266,14 @@
       <c r="O72" s="3">
         <v>43200.45625</v>
       </c>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="2">
         <v>43201</v>
       </c>
@@ -3857,8 +4319,14 @@
       <c r="O73" s="3">
         <v>43201.45763888889</v>
       </c>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="2">
         <v>43202</v>
       </c>
@@ -3904,8 +4372,14 @@
       <c r="O74" s="3">
         <v>43202.44027777778</v>
       </c>
-    </row>
-    <row r="75" spans="1:15">
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="2">
         <v>43203</v>
       </c>
@@ -3951,8 +4425,14 @@
       <c r="O75" s="3">
         <v>43203.45902777778</v>
       </c>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="2">
         <v>43206</v>
       </c>
@@ -3998,8 +4478,14 @@
       <c r="O76" s="3">
         <v>43206.44930555556</v>
       </c>
-    </row>
-    <row r="77" spans="1:15">
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="2">
         <v>43207</v>
       </c>
@@ -4045,8 +4531,14 @@
       <c r="O77" s="3">
         <v>43207.45902777778</v>
       </c>
-    </row>
-    <row r="78" spans="1:15">
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="2">
         <v>43208</v>
       </c>
@@ -4092,8 +4584,14 @@
       <c r="O78" s="3">
         <v>43208.45486111111</v>
       </c>
-    </row>
-    <row r="79" spans="1:15">
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="2">
         <v>43209</v>
       </c>
@@ -4139,8 +4637,14 @@
       <c r="O79" s="3">
         <v>43209.45694444444</v>
       </c>
-    </row>
-    <row r="80" spans="1:15">
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="2">
         <v>43210</v>
       </c>
@@ -4186,8 +4690,14 @@
       <c r="O80" s="3">
         <v>43210.43888888889</v>
       </c>
-    </row>
-    <row r="81" spans="1:15">
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="2">
         <v>43213</v>
       </c>
@@ -4233,8 +4743,14 @@
       <c r="O81" s="3">
         <v>43213.45138888889</v>
       </c>
-    </row>
-    <row r="82" spans="1:15">
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="2">
         <v>43214</v>
       </c>
@@ -4280,8 +4796,14 @@
       <c r="O82" s="3">
         <v>43214.44444444445</v>
       </c>
-    </row>
-    <row r="83" spans="1:15">
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="2">
         <v>43215</v>
       </c>
@@ -4327,8 +4849,14 @@
       <c r="O83" s="3">
         <v>43215.44166666667</v>
       </c>
-    </row>
-    <row r="84" spans="1:15">
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="2">
         <v>43216</v>
       </c>
@@ -4374,8 +4902,14 @@
       <c r="O84" s="3">
         <v>43216.45972222222</v>
       </c>
-    </row>
-    <row r="85" spans="1:15">
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="2">
         <v>43217</v>
       </c>
@@ -4421,8 +4955,14 @@
       <c r="O85" s="3">
         <v>43217.4375</v>
       </c>
-    </row>
-    <row r="86" spans="1:15">
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="2">
         <v>43220</v>
       </c>
@@ -4468,8 +5008,14 @@
       <c r="O86" s="3">
         <v>43220.45486111111</v>
       </c>
-    </row>
-    <row r="87" spans="1:15">
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="2">
         <v>43221</v>
       </c>
@@ -4515,8 +5061,14 @@
       <c r="O87" s="3">
         <v>43221.45902777778</v>
       </c>
-    </row>
-    <row r="88" spans="1:15">
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="2">
         <v>43222</v>
       </c>
@@ -4562,8 +5114,14 @@
       <c r="O88" s="3">
         <v>43222.45902777778</v>
       </c>
-    </row>
-    <row r="89" spans="1:15">
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="2">
         <v>43223</v>
       </c>
@@ -4609,8 +5167,14 @@
       <c r="O89" s="3">
         <v>43223.45902777778</v>
       </c>
-    </row>
-    <row r="90" spans="1:15">
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="2">
         <v>43224</v>
       </c>
@@ -4656,8 +5220,14 @@
       <c r="O90" s="3">
         <v>43224.4375</v>
       </c>
-    </row>
-    <row r="91" spans="1:15">
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="2">
         <v>43227</v>
       </c>
@@ -4703,8 +5273,14 @@
       <c r="O91" s="3">
         <v>43227.44513888889</v>
       </c>
-    </row>
-    <row r="92" spans="1:15">
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="2">
         <v>43228</v>
       </c>
@@ -4750,8 +5326,14 @@
       <c r="O92" s="3">
         <v>43228.4375</v>
       </c>
-    </row>
-    <row r="93" spans="1:15">
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="2">
         <v>43229</v>
       </c>
@@ -4797,8 +5379,14 @@
       <c r="O93" s="3">
         <v>43229.45694444444</v>
       </c>
-    </row>
-    <row r="94" spans="1:15">
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="2">
         <v>43230</v>
       </c>
@@ -4844,8 +5432,14 @@
       <c r="O94" s="3">
         <v>43230.45277777778</v>
       </c>
-    </row>
-    <row r="95" spans="1:15">
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="2">
         <v>43231</v>
       </c>
@@ -4891,8 +5485,14 @@
       <c r="O95" s="3">
         <v>43231.45138888889</v>
       </c>
-    </row>
-    <row r="96" spans="1:15">
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="2">
         <v>43234</v>
       </c>
@@ -4938,8 +5538,14 @@
       <c r="O96" s="3">
         <v>43234.44166666667</v>
       </c>
-    </row>
-    <row r="97" spans="1:15">
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="2">
         <v>43235</v>
       </c>
@@ -4985,8 +5591,14 @@
       <c r="O97" s="3">
         <v>43235.44513888889</v>
       </c>
-    </row>
-    <row r="98" spans="1:15">
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="2">
         <v>43236</v>
       </c>
@@ -5032,8 +5644,14 @@
       <c r="O98" s="3">
         <v>43236.45625</v>
       </c>
-    </row>
-    <row r="99" spans="1:15">
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="2">
         <v>43237</v>
       </c>
@@ -5079,8 +5697,14 @@
       <c r="O99" s="3">
         <v>43237.45972222222</v>
       </c>
-    </row>
-    <row r="100" spans="1:15">
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="2">
         <v>43238</v>
       </c>
@@ -5126,8 +5750,14 @@
       <c r="O100" s="3">
         <v>43238.44097222222</v>
       </c>
-    </row>
-    <row r="101" spans="1:15">
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="2">
         <v>43241</v>
       </c>
@@ -5173,8 +5803,14 @@
       <c r="O101" s="3">
         <v>43241.45972222222</v>
       </c>
-    </row>
-    <row r="102" spans="1:15">
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="2">
         <v>43242</v>
       </c>
@@ -5220,8 +5856,14 @@
       <c r="O102" s="3">
         <v>43242.45138888889</v>
       </c>
-    </row>
-    <row r="103" spans="1:15">
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" s="2">
         <v>43243</v>
       </c>
@@ -5267,8 +5909,14 @@
       <c r="O103" s="3">
         <v>43243.45902777778</v>
       </c>
-    </row>
-    <row r="104" spans="1:15">
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="2">
         <v>43244</v>
       </c>
@@ -5314,8 +5962,14 @@
       <c r="O104" s="3">
         <v>43244.45486111111</v>
       </c>
-    </row>
-    <row r="105" spans="1:15">
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="2">
         <v>43245</v>
       </c>
@@ -5361,8 +6015,14 @@
       <c r="O105" s="3">
         <v>43245.45347222222</v>
       </c>
-    </row>
-    <row r="106" spans="1:15">
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="2">
         <v>43248</v>
       </c>
@@ -5408,8 +6068,14 @@
       <c r="O106" s="3">
         <v>43248.45694444444</v>
       </c>
-    </row>
-    <row r="107" spans="1:15">
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="2">
         <v>43249</v>
       </c>
@@ -5455,8 +6121,14 @@
       <c r="O107" s="3">
         <v>43249.45972222222</v>
       </c>
-    </row>
-    <row r="108" spans="1:15">
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="2">
         <v>43250</v>
       </c>
@@ -5502,8 +6174,14 @@
       <c r="O108" s="3">
         <v>43250.45486111111</v>
       </c>
-    </row>
-    <row r="109" spans="1:15">
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="2">
         <v>43251</v>
       </c>
@@ -5549,8 +6227,14 @@
       <c r="O109" s="3">
         <v>43251.45972222222</v>
       </c>
-    </row>
-    <row r="110" spans="1:15">
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="2">
         <v>43252</v>
       </c>
@@ -5596,8 +6280,14 @@
       <c r="O110" s="3">
         <v>43252.44236111111</v>
       </c>
-    </row>
-    <row r="111" spans="1:15">
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="2">
         <v>43255</v>
       </c>
@@ -5643,8 +6333,14 @@
       <c r="O111" s="3">
         <v>43255.45694444444</v>
       </c>
-    </row>
-    <row r="112" spans="1:15">
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="2">
         <v>43256</v>
       </c>
@@ -5690,8 +6386,14 @@
       <c r="O112" s="3">
         <v>43256.44166666667</v>
       </c>
-    </row>
-    <row r="113" spans="1:15">
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
       <c r="A113" s="2">
         <v>43257</v>
       </c>
@@ -5737,8 +6439,14 @@
       <c r="O113" s="3">
         <v>43257.44583333333</v>
       </c>
-    </row>
-    <row r="114" spans="1:15">
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
       <c r="A114" s="2">
         <v>43258</v>
       </c>
@@ -5784,8 +6492,14 @@
       <c r="O114" s="3">
         <v>43258.44513888889</v>
       </c>
-    </row>
-    <row r="115" spans="1:15">
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="2">
         <v>43259</v>
       </c>
@@ -5831,8 +6545,14 @@
       <c r="O115" s="3">
         <v>43259.45069444444</v>
       </c>
-    </row>
-    <row r="116" spans="1:15">
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="2">
         <v>43262</v>
       </c>
@@ -5878,8 +6598,14 @@
       <c r="O116" s="3">
         <v>43262.45763888889</v>
       </c>
-    </row>
-    <row r="117" spans="1:15">
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
       <c r="A117" s="2">
         <v>43263</v>
       </c>
@@ -5925,8 +6651,14 @@
       <c r="O117" s="3">
         <v>43263.45902777778</v>
       </c>
-    </row>
-    <row r="118" spans="1:15">
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="2">
         <v>43264</v>
       </c>
@@ -5972,8 +6704,14 @@
       <c r="O118" s="3">
         <v>43264.44444444445</v>
       </c>
-    </row>
-    <row r="119" spans="1:15">
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="2">
         <v>43265</v>
       </c>
@@ -6019,8 +6757,14 @@
       <c r="O119" s="3">
         <v>43265.44652777778</v>
       </c>
-    </row>
-    <row r="120" spans="1:15">
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="2">
         <v>43266</v>
       </c>
@@ -6066,8 +6810,14 @@
       <c r="O120" s="3">
         <v>43266.44236111111</v>
       </c>
-    </row>
-    <row r="121" spans="1:15">
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="2">
         <v>43269</v>
       </c>
@@ -6113,8 +6863,14 @@
       <c r="O121" s="3">
         <v>43269.43888888889</v>
       </c>
-    </row>
-    <row r="122" spans="1:15">
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="2">
         <v>43270</v>
       </c>
@@ -6160,8 +6916,14 @@
       <c r="O122" s="3">
         <v>43270.43888888889</v>
       </c>
-    </row>
-    <row r="123" spans="1:15">
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="2">
         <v>43271</v>
       </c>
@@ -6207,8 +6969,14 @@
       <c r="O123" s="3">
         <v>43271.45069444444</v>
       </c>
-    </row>
-    <row r="124" spans="1:15">
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" s="2">
         <v>43272</v>
       </c>
@@ -6254,8 +7022,14 @@
       <c r="O124" s="3">
         <v>43272.43888888889</v>
       </c>
-    </row>
-    <row r="125" spans="1:15">
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="2">
         <v>43273</v>
       </c>
@@ -6301,8 +7075,14 @@
       <c r="O125" s="3">
         <v>43273.44583333333</v>
       </c>
-    </row>
-    <row r="126" spans="1:15">
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" s="2">
         <v>43276</v>
       </c>
@@ -6348,8 +7128,14 @@
       <c r="O126" s="3">
         <v>43276.45</v>
       </c>
-    </row>
-    <row r="127" spans="1:15">
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
       <c r="A127" s="2">
         <v>43277</v>
       </c>
@@ -6395,8 +7181,14 @@
       <c r="O127" s="3">
         <v>43277.4375</v>
       </c>
-    </row>
-    <row r="128" spans="1:15">
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="2">
         <v>43278</v>
       </c>
@@ -6442,8 +7234,14 @@
       <c r="O128" s="3">
         <v>43278.45555555556</v>
       </c>
-    </row>
-    <row r="129" spans="1:15">
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" s="2">
         <v>43279</v>
       </c>
@@ -6489,8 +7287,14 @@
       <c r="O129" s="3">
         <v>43279.45416666667</v>
       </c>
-    </row>
-    <row r="130" spans="1:15">
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="2">
         <v>43280</v>
       </c>
@@ -6536,8 +7340,14 @@
       <c r="O130" s="3">
         <v>43280.44236111111</v>
       </c>
-    </row>
-    <row r="131" spans="1:15">
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="2">
         <v>43283</v>
       </c>
@@ -6583,8 +7393,14 @@
       <c r="O131" s="3">
         <v>43283.43819444445</v>
       </c>
-    </row>
-    <row r="132" spans="1:15">
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19">
       <c r="A132" s="2">
         <v>43284</v>
       </c>
@@ -6630,8 +7446,14 @@
       <c r="O132" s="3">
         <v>43284.45208333333</v>
       </c>
-    </row>
-    <row r="133" spans="1:15">
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="2">
         <v>43285</v>
       </c>
@@ -6677,8 +7499,14 @@
       <c r="O133" s="3">
         <v>43285.45833333334</v>
       </c>
-    </row>
-    <row r="134" spans="1:15">
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
       <c r="A134" s="2">
         <v>43286</v>
       </c>
@@ -6724,8 +7552,14 @@
       <c r="O134" s="3">
         <v>43286.45486111111</v>
       </c>
-    </row>
-    <row r="135" spans="1:15">
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="2">
         <v>43287</v>
       </c>
@@ -6771,8 +7605,14 @@
       <c r="O135" s="3">
         <v>43287.45</v>
       </c>
-    </row>
-    <row r="136" spans="1:15">
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19">
       <c r="A136" s="2">
         <v>43290</v>
       </c>
@@ -6818,8 +7658,14 @@
       <c r="O136" s="3">
         <v>43290.4375</v>
       </c>
-    </row>
-    <row r="137" spans="1:15">
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
       <c r="A137" s="2">
         <v>43291</v>
       </c>
@@ -6865,8 +7711,14 @@
       <c r="O137" s="3">
         <v>43291.44375</v>
       </c>
-    </row>
-    <row r="138" spans="1:15">
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
       <c r="A138" s="2">
         <v>43292</v>
       </c>
@@ -6912,8 +7764,14 @@
       <c r="O138" s="3">
         <v>43292.45902777778</v>
       </c>
-    </row>
-    <row r="139" spans="1:15">
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19">
       <c r="A139" s="2">
         <v>43293</v>
       </c>
@@ -6959,8 +7817,14 @@
       <c r="O139" s="3">
         <v>43293.45138888889</v>
       </c>
-    </row>
-    <row r="140" spans="1:15">
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" s="2">
         <v>43294</v>
       </c>
@@ -7006,8 +7870,14 @@
       <c r="O140" s="3">
         <v>43294.44166666667</v>
       </c>
-    </row>
-    <row r="141" spans="1:15">
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="2">
         <v>43297</v>
       </c>
@@ -7053,8 +7923,14 @@
       <c r="O141" s="3">
         <v>43297.45902777778</v>
       </c>
-    </row>
-    <row r="142" spans="1:15">
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" s="2">
         <v>43298</v>
       </c>
@@ -7100,8 +7976,14 @@
       <c r="O142" s="3">
         <v>43298.44097222222</v>
       </c>
-    </row>
-    <row r="143" spans="1:15">
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" s="2">
         <v>43299</v>
       </c>
@@ -7147,8 +8029,14 @@
       <c r="O143" s="3">
         <v>43299.45416666667</v>
       </c>
-    </row>
-    <row r="144" spans="1:15">
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19">
       <c r="A144" s="2">
         <v>43300</v>
       </c>
@@ -7194,8 +8082,14 @@
       <c r="O144" s="3">
         <v>43300.44027777778</v>
       </c>
-    </row>
-    <row r="145" spans="1:15">
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19">
       <c r="A145" s="2">
         <v>43301</v>
       </c>
@@ -7241,8 +8135,14 @@
       <c r="O145" s="3">
         <v>43301.45972222222</v>
       </c>
-    </row>
-    <row r="146" spans="1:15">
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19">
       <c r="A146" s="2">
         <v>43304</v>
       </c>
@@ -7288,8 +8188,14 @@
       <c r="O146" s="3">
         <v>43304.45625</v>
       </c>
-    </row>
-    <row r="147" spans="1:15">
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19">
       <c r="A147" s="2">
         <v>43305</v>
       </c>
@@ -7335,8 +8241,14 @@
       <c r="O147" s="3">
         <v>43305.43888888889</v>
       </c>
-    </row>
-    <row r="148" spans="1:15">
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
       <c r="A148" s="2">
         <v>43306</v>
       </c>
@@ -7382,8 +8294,14 @@
       <c r="O148" s="3">
         <v>43306.45555555556</v>
       </c>
-    </row>
-    <row r="149" spans="1:15">
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19">
       <c r="A149" s="2">
         <v>43307</v>
       </c>
@@ -7429,8 +8347,14 @@
       <c r="O149" s="3">
         <v>43307.43819444445</v>
       </c>
-    </row>
-    <row r="150" spans="1:15">
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19">
       <c r="A150" s="2">
         <v>43308</v>
       </c>
@@ -7476,8 +8400,14 @@
       <c r="O150" s="3">
         <v>43308.44652777778</v>
       </c>
-    </row>
-    <row r="151" spans="1:15">
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19">
       <c r="A151" s="2">
         <v>43311</v>
       </c>
@@ -7523,8 +8453,14 @@
       <c r="O151" s="3">
         <v>43311.45833333334</v>
       </c>
-    </row>
-    <row r="152" spans="1:15">
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19">
       <c r="A152" s="2">
         <v>43312</v>
       </c>
@@ -7570,8 +8506,14 @@
       <c r="O152" s="3">
         <v>43312.45347222222</v>
       </c>
-    </row>
-    <row r="153" spans="1:15">
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19">
       <c r="A153" s="2">
         <v>43313</v>
       </c>
@@ -7617,8 +8559,14 @@
       <c r="O153" s="3">
         <v>43313.45486111111</v>
       </c>
-    </row>
-    <row r="154" spans="1:15">
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19">
       <c r="A154" s="2">
         <v>43314</v>
       </c>
@@ -7664,8 +8612,14 @@
       <c r="O154" s="3">
         <v>43314.45694444444</v>
       </c>
-    </row>
-    <row r="155" spans="1:15">
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19">
       <c r="A155" s="2">
         <v>43315</v>
       </c>
@@ -7711,8 +8665,14 @@
       <c r="O155" s="3">
         <v>43315.43888888889</v>
       </c>
-    </row>
-    <row r="156" spans="1:15">
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19">
       <c r="A156" s="2">
         <v>43318</v>
       </c>
@@ -7758,8 +8718,14 @@
       <c r="O156" s="3">
         <v>43318.45555555556</v>
       </c>
-    </row>
-    <row r="157" spans="1:15">
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="S156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19">
       <c r="A157" s="2">
         <v>43319</v>
       </c>
@@ -7805,8 +8771,14 @@
       <c r="O157" s="3">
         <v>43319.44722222222</v>
       </c>
-    </row>
-    <row r="158" spans="1:15">
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="S157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19">
       <c r="A158" s="2">
         <v>43320</v>
       </c>
@@ -7852,8 +8824,14 @@
       <c r="O158" s="3">
         <v>43320.44166666667</v>
       </c>
-    </row>
-    <row r="159" spans="1:15">
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="S158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19">
       <c r="A159" s="2">
         <v>43321</v>
       </c>
@@ -7899,8 +8877,14 @@
       <c r="O159" s="3">
         <v>43321.45763888889</v>
       </c>
-    </row>
-    <row r="160" spans="1:15">
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="S159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19">
       <c r="A160" s="2">
         <v>43322</v>
       </c>
@@ -7946,8 +8930,14 @@
       <c r="O160" s="3">
         <v>43322.43888888889</v>
       </c>
-    </row>
-    <row r="161" spans="1:15">
+      <c r="P160">
+        <v>0</v>
+      </c>
+      <c r="S160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19">
       <c r="A161" s="2">
         <v>43325</v>
       </c>
@@ -7993,8 +8983,14 @@
       <c r="O161" s="3">
         <v>43325.45972222222</v>
       </c>
-    </row>
-    <row r="162" spans="1:15">
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="S161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19">
       <c r="A162" s="2">
         <v>43326</v>
       </c>
@@ -8040,8 +9036,14 @@
       <c r="O162" s="3">
         <v>43326.45625</v>
       </c>
-    </row>
-    <row r="163" spans="1:15">
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="S162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19">
       <c r="A163" s="2">
         <v>43327</v>
       </c>
@@ -8087,8 +9089,14 @@
       <c r="O163" s="3">
         <v>43327.45694444444</v>
       </c>
-    </row>
-    <row r="164" spans="1:15">
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="S163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19">
       <c r="A164" s="2">
         <v>43328</v>
       </c>
@@ -8134,8 +9142,14 @@
       <c r="O164" s="3">
         <v>43328.44930555556</v>
       </c>
-    </row>
-    <row r="165" spans="1:15">
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19">
       <c r="A165" s="2">
         <v>43329</v>
       </c>
@@ -8181,8 +9195,14 @@
       <c r="O165" s="3">
         <v>43329.45208333333</v>
       </c>
-    </row>
-    <row r="166" spans="1:15">
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="S165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19">
       <c r="A166" s="2">
         <v>43332</v>
       </c>
@@ -8228,8 +9248,14 @@
       <c r="O166" s="3">
         <v>43332.45833333334</v>
       </c>
-    </row>
-    <row r="167" spans="1:15">
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="S166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19">
       <c r="A167" s="2">
         <v>43333</v>
       </c>
@@ -8275,8 +9301,14 @@
       <c r="O167" s="3">
         <v>43333.45763888889</v>
       </c>
-    </row>
-    <row r="168" spans="1:15">
+      <c r="P167">
+        <v>0</v>
+      </c>
+      <c r="S167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19">
       <c r="A168" s="2">
         <v>43334</v>
       </c>
@@ -8322,8 +9354,14 @@
       <c r="O168" s="3">
         <v>43334.45347222222</v>
       </c>
-    </row>
-    <row r="169" spans="1:15">
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="S168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19">
       <c r="A169" s="2">
         <v>43335</v>
       </c>
@@ -8369,8 +9407,14 @@
       <c r="O169" s="3">
         <v>43335.44930555556</v>
       </c>
-    </row>
-    <row r="170" spans="1:15">
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="S169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19">
       <c r="A170" s="2">
         <v>43336</v>
       </c>
@@ -8416,8 +9460,14 @@
       <c r="O170" s="3">
         <v>43336.44583333333</v>
       </c>
-    </row>
-    <row r="171" spans="1:15">
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="S170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19">
       <c r="A171" s="2">
         <v>43339</v>
       </c>
@@ -8463,8 +9513,14 @@
       <c r="O171" s="3">
         <v>43339.44444444445</v>
       </c>
-    </row>
-    <row r="172" spans="1:15">
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="S171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19">
       <c r="A172" s="2">
         <v>43340</v>
       </c>
@@ -8510,8 +9566,14 @@
       <c r="O172" s="3">
         <v>43340.45555555556</v>
       </c>
-    </row>
-    <row r="173" spans="1:15">
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="S172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19">
       <c r="A173" s="2">
         <v>43341</v>
       </c>
@@ -8557,8 +9619,14 @@
       <c r="O173" s="3">
         <v>43341.44027777778</v>
       </c>
-    </row>
-    <row r="174" spans="1:15">
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="S173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19">
       <c r="A174" s="2">
         <v>43342</v>
       </c>
@@ -8604,8 +9672,14 @@
       <c r="O174" s="3">
         <v>43342.45833333334</v>
       </c>
-    </row>
-    <row r="175" spans="1:15">
+      <c r="P174">
+        <v>0</v>
+      </c>
+      <c r="S174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19">
       <c r="A175" s="2">
         <v>43343</v>
       </c>
@@ -8651,8 +9725,14 @@
       <c r="O175" s="3">
         <v>43343.45277777778</v>
       </c>
-    </row>
-    <row r="176" spans="1:15">
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19">
       <c r="A176" s="2">
         <v>43346</v>
       </c>
@@ -8698,8 +9778,14 @@
       <c r="O176" s="3">
         <v>43346.4375</v>
       </c>
-    </row>
-    <row r="177" spans="1:15">
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="S176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19">
       <c r="A177" s="2">
         <v>43347</v>
       </c>
@@ -8745,8 +9831,14 @@
       <c r="O177" s="3">
         <v>43347.44722222222</v>
       </c>
-    </row>
-    <row r="178" spans="1:15">
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19">
       <c r="A178" s="2">
         <v>43348</v>
       </c>
@@ -8792,8 +9884,14 @@
       <c r="O178" s="3">
         <v>43348.45972222222</v>
       </c>
-    </row>
-    <row r="179" spans="1:15">
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="S178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19">
       <c r="A179" s="2">
         <v>43349</v>
       </c>
@@ -8839,8 +9937,14 @@
       <c r="O179" s="3">
         <v>43349.44236111111</v>
       </c>
-    </row>
-    <row r="180" spans="1:15">
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="S179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19">
       <c r="A180" s="2">
         <v>43350</v>
       </c>
@@ -8886,8 +9990,14 @@
       <c r="O180" s="3">
         <v>43350.45902777778</v>
       </c>
-    </row>
-    <row r="181" spans="1:15">
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19">
       <c r="A181" s="2">
         <v>43353</v>
       </c>
@@ -8933,8 +10043,14 @@
       <c r="O181" s="3">
         <v>43353.45069444444</v>
       </c>
-    </row>
-    <row r="182" spans="1:15">
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="S181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19">
       <c r="A182" s="2">
         <v>43354</v>
       </c>
@@ -8980,8 +10096,14 @@
       <c r="O182" s="3">
         <v>43354.44791666666</v>
       </c>
-    </row>
-    <row r="183" spans="1:15">
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19">
       <c r="A183" s="2">
         <v>43355</v>
       </c>
@@ -9027,8 +10149,14 @@
       <c r="O183" s="3">
         <v>43355.44375</v>
       </c>
-    </row>
-    <row r="184" spans="1:15">
+      <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="S183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19">
       <c r="A184" s="2">
         <v>43356</v>
       </c>
@@ -9074,8 +10202,14 @@
       <c r="O184" s="3">
         <v>43356.44652777778</v>
       </c>
-    </row>
-    <row r="185" spans="1:15">
+      <c r="P184">
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19">
       <c r="A185" s="2">
         <v>43357</v>
       </c>
@@ -9121,8 +10255,14 @@
       <c r="O185" s="3">
         <v>43357.45902777778</v>
       </c>
-    </row>
-    <row r="186" spans="1:15">
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="S185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19">
       <c r="A186" s="2">
         <v>43360</v>
       </c>
@@ -9168,8 +10308,14 @@
       <c r="O186" s="3">
         <v>43360.45347222222</v>
       </c>
-    </row>
-    <row r="187" spans="1:15">
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="S186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19">
       <c r="A187" s="2">
         <v>43361</v>
       </c>
@@ -9215,8 +10361,14 @@
       <c r="O187" s="3">
         <v>43361.45625</v>
       </c>
-    </row>
-    <row r="188" spans="1:15">
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="S187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19">
       <c r="A188" s="2">
         <v>43362</v>
       </c>
@@ -9262,8 +10414,14 @@
       <c r="O188" s="3">
         <v>43362.43819444445</v>
       </c>
-    </row>
-    <row r="189" spans="1:15">
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="S188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19">
       <c r="A189" s="2">
         <v>43363</v>
       </c>
@@ -9309,8 +10467,14 @@
       <c r="O189" s="3">
         <v>43363.45555555556</v>
       </c>
-    </row>
-    <row r="190" spans="1:15">
+      <c r="P189">
+        <v>0</v>
+      </c>
+      <c r="S189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19">
       <c r="A190" s="2">
         <v>43364</v>
       </c>
@@ -9356,8 +10520,14 @@
       <c r="O190" s="3">
         <v>43364.4375</v>
       </c>
-    </row>
-    <row r="191" spans="1:15">
+      <c r="P190">
+        <v>0</v>
+      </c>
+      <c r="S190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19">
       <c r="A191" s="2">
         <v>43367</v>
       </c>
@@ -9403,8 +10573,14 @@
       <c r="O191" s="3">
         <v>43367.44027777778</v>
       </c>
-    </row>
-    <row r="192" spans="1:15">
+      <c r="P191">
+        <v>0</v>
+      </c>
+      <c r="S191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19">
       <c r="A192" s="2">
         <v>43368</v>
       </c>
@@ -9450,8 +10626,14 @@
       <c r="O192" s="3">
         <v>43368.45</v>
       </c>
-    </row>
-    <row r="193" spans="1:15">
+      <c r="P192">
+        <v>0</v>
+      </c>
+      <c r="S192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19">
       <c r="A193" s="2">
         <v>43369</v>
       </c>
@@ -9497,8 +10679,14 @@
       <c r="O193" s="3">
         <v>43369.44236111111</v>
       </c>
-    </row>
-    <row r="194" spans="1:15">
+      <c r="P193">
+        <v>0</v>
+      </c>
+      <c r="S193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19">
       <c r="A194" s="2">
         <v>43370</v>
       </c>
@@ -9544,8 +10732,14 @@
       <c r="O194" s="3">
         <v>43370.45902777778</v>
       </c>
-    </row>
-    <row r="195" spans="1:15">
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19">
       <c r="A195" s="2">
         <v>43371</v>
       </c>
@@ -9591,8 +10785,14 @@
       <c r="O195" s="3">
         <v>43371.43888888889</v>
       </c>
-    </row>
-    <row r="196" spans="1:15">
+      <c r="P195">
+        <v>0</v>
+      </c>
+      <c r="S195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19">
       <c r="A196" s="2">
         <v>43374</v>
       </c>
@@ -9638,8 +10838,14 @@
       <c r="O196" s="3">
         <v>43374.45763888889</v>
       </c>
-    </row>
-    <row r="197" spans="1:15">
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="S196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19">
       <c r="A197" s="2">
         <v>43375</v>
       </c>
@@ -9685,8 +10891,14 @@
       <c r="O197" s="3">
         <v>43375.44930555556</v>
       </c>
-    </row>
-    <row r="198" spans="1:15">
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="S197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19">
       <c r="A198" s="2">
         <v>43376</v>
       </c>
@@ -9732,8 +10944,14 @@
       <c r="O198" s="3">
         <v>43376.44652777778</v>
       </c>
-    </row>
-    <row r="199" spans="1:15">
+      <c r="P198">
+        <v>0</v>
+      </c>
+      <c r="S198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19">
       <c r="A199" s="2">
         <v>43377</v>
       </c>
@@ -9779,8 +10997,14 @@
       <c r="O199" s="3">
         <v>43377.45694444444</v>
       </c>
-    </row>
-    <row r="200" spans="1:15">
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="S199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19">
       <c r="A200" s="2">
         <v>43378</v>
       </c>
@@ -9826,8 +11050,14 @@
       <c r="O200" s="3">
         <v>43378.44305555556</v>
       </c>
-    </row>
-    <row r="201" spans="1:15">
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="S200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19">
       <c r="A201" s="2">
         <v>43381</v>
       </c>
@@ -9873,8 +11103,14 @@
       <c r="O201" s="3">
         <v>43381.44375</v>
       </c>
-    </row>
-    <row r="202" spans="1:15">
+      <c r="P201">
+        <v>0</v>
+      </c>
+      <c r="S201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19">
       <c r="A202" s="2">
         <v>43382</v>
       </c>
@@ -9920,8 +11156,14 @@
       <c r="O202" s="3">
         <v>43382.45972222222</v>
       </c>
-    </row>
-    <row r="203" spans="1:15">
+      <c r="P202">
+        <v>0</v>
+      </c>
+      <c r="S202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19">
       <c r="A203" s="2">
         <v>43383</v>
       </c>
@@ -9967,8 +11209,14 @@
       <c r="O203" s="3">
         <v>43383.4375</v>
       </c>
-    </row>
-    <row r="204" spans="1:15">
+      <c r="P203">
+        <v>0</v>
+      </c>
+      <c r="S203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19">
       <c r="A204" s="2">
         <v>43384</v>
       </c>
@@ -10014,8 +11262,14 @@
       <c r="O204" s="3">
         <v>43384.45972222222</v>
       </c>
-    </row>
-    <row r="205" spans="1:15">
+      <c r="P204">
+        <v>0</v>
+      </c>
+      <c r="S204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19">
       <c r="A205" s="2">
         <v>43385</v>
       </c>
@@ -10061,8 +11315,14 @@
       <c r="O205" s="3">
         <v>43385.45486111111</v>
       </c>
-    </row>
-    <row r="206" spans="1:15">
+      <c r="P205">
+        <v>0</v>
+      </c>
+      <c r="S205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19">
       <c r="A206" s="2">
         <v>43388</v>
       </c>
@@ -10108,8 +11368,14 @@
       <c r="O206" s="3">
         <v>43388.44027777778</v>
       </c>
-    </row>
-    <row r="207" spans="1:15">
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="S206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19">
       <c r="A207" s="2">
         <v>43389</v>
       </c>
@@ -10155,8 +11421,14 @@
       <c r="O207" s="3">
         <v>43389.45902777778</v>
       </c>
-    </row>
-    <row r="208" spans="1:15">
+      <c r="P207">
+        <v>0</v>
+      </c>
+      <c r="S207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19">
       <c r="A208" s="2">
         <v>43390</v>
       </c>
@@ -10202,8 +11474,14 @@
       <c r="O208" s="3">
         <v>43390.45486111111</v>
       </c>
-    </row>
-    <row r="209" spans="1:15">
+      <c r="P208">
+        <v>0</v>
+      </c>
+      <c r="S208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19">
       <c r="A209" s="2">
         <v>43391</v>
       </c>
@@ -10249,8 +11527,14 @@
       <c r="O209" s="3">
         <v>43391.45486111111</v>
       </c>
-    </row>
-    <row r="210" spans="1:15">
+      <c r="P209">
+        <v>0</v>
+      </c>
+      <c r="S209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19">
       <c r="A210" s="2">
         <v>43392</v>
       </c>
@@ -10296,8 +11580,14 @@
       <c r="O210" s="3">
         <v>43392.44930555556</v>
       </c>
-    </row>
-    <row r="211" spans="1:15">
+      <c r="P210">
+        <v>0</v>
+      </c>
+      <c r="S210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19">
       <c r="A211" s="2">
         <v>43395</v>
       </c>
@@ -10343,8 +11633,14 @@
       <c r="O211" s="3">
         <v>43395.45902777778</v>
       </c>
-    </row>
-    <row r="212" spans="1:15">
+      <c r="P211">
+        <v>0</v>
+      </c>
+      <c r="S211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19">
       <c r="A212" s="2">
         <v>43396</v>
       </c>
@@ -10390,8 +11686,14 @@
       <c r="O212" s="3">
         <v>43396.45902777778</v>
       </c>
-    </row>
-    <row r="213" spans="1:15">
+      <c r="P212">
+        <v>0</v>
+      </c>
+      <c r="S212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19">
       <c r="A213" s="2">
         <v>43397</v>
       </c>
@@ -10437,8 +11739,14 @@
       <c r="O213" s="3">
         <v>43397.45833333334</v>
       </c>
-    </row>
-    <row r="214" spans="1:15">
+      <c r="P213">
+        <v>0</v>
+      </c>
+      <c r="S213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19">
       <c r="A214" s="2">
         <v>43398</v>
       </c>
@@ -10484,8 +11792,14 @@
       <c r="O214" s="3">
         <v>43398.45972222222</v>
       </c>
-    </row>
-    <row r="215" spans="1:15">
+      <c r="P214">
+        <v>0</v>
+      </c>
+      <c r="S214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19">
       <c r="A215" s="2">
         <v>43399</v>
       </c>
@@ -10531,8 +11845,14 @@
       <c r="O215" s="3">
         <v>43399.43888888889</v>
       </c>
-    </row>
-    <row r="216" spans="1:15">
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="S215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19">
       <c r="A216" s="2">
         <v>43402</v>
       </c>
@@ -10578,8 +11898,14 @@
       <c r="O216" s="3">
         <v>43402.4375</v>
       </c>
-    </row>
-    <row r="217" spans="1:15">
+      <c r="P216">
+        <v>0</v>
+      </c>
+      <c r="S216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19">
       <c r="A217" s="2">
         <v>43403</v>
       </c>
@@ -10625,8 +11951,14 @@
       <c r="O217" s="3">
         <v>43403.45486111111</v>
       </c>
-    </row>
-    <row r="218" spans="1:15">
+      <c r="P217">
+        <v>0</v>
+      </c>
+      <c r="S217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19">
       <c r="A218" s="2">
         <v>43404</v>
       </c>
@@ -10672,8 +12004,14 @@
       <c r="O218" s="3">
         <v>43404.45486111111</v>
       </c>
-    </row>
-    <row r="219" spans="1:15">
+      <c r="P218">
+        <v>0</v>
+      </c>
+      <c r="S218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19">
       <c r="A219" s="2">
         <v>43405</v>
       </c>
@@ -10719,8 +12057,14 @@
       <c r="O219" s="3">
         <v>43405.44444444445</v>
       </c>
-    </row>
-    <row r="220" spans="1:15">
+      <c r="P219">
+        <v>0</v>
+      </c>
+      <c r="S219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19">
       <c r="A220" s="2">
         <v>43406</v>
       </c>
@@ -10766,8 +12110,14 @@
       <c r="O220" s="3">
         <v>43406.45972222222</v>
       </c>
-    </row>
-    <row r="221" spans="1:15">
+      <c r="P220">
+        <v>0</v>
+      </c>
+      <c r="S220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19">
       <c r="A221" s="2">
         <v>43409</v>
       </c>
@@ -10813,8 +12163,14 @@
       <c r="O221" s="3">
         <v>43409.45069444444</v>
       </c>
-    </row>
-    <row r="222" spans="1:15">
+      <c r="P221">
+        <v>0</v>
+      </c>
+      <c r="S221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19">
       <c r="A222" s="2">
         <v>43410</v>
       </c>
@@ -10860,8 +12216,14 @@
       <c r="O222" s="3">
         <v>43410.44513888889</v>
       </c>
-    </row>
-    <row r="223" spans="1:15">
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19">
       <c r="A223" s="2">
         <v>43411</v>
       </c>
@@ -10907,8 +12269,14 @@
       <c r="O223" s="3">
         <v>43411.45972222222</v>
       </c>
-    </row>
-    <row r="224" spans="1:15">
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19">
       <c r="A224" s="2">
         <v>43412</v>
       </c>
@@ -10954,8 +12322,14 @@
       <c r="O224" s="3">
         <v>43412.43958333333</v>
       </c>
-    </row>
-    <row r="225" spans="1:15">
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19">
       <c r="A225" s="2">
         <v>43413</v>
       </c>
@@ -11001,8 +12375,14 @@
       <c r="O225" s="3">
         <v>43413.45625</v>
       </c>
-    </row>
-    <row r="226" spans="1:15">
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19">
       <c r="A226" s="2">
         <v>43416</v>
       </c>
@@ -11048,8 +12428,14 @@
       <c r="O226" s="3">
         <v>43416.45972222222</v>
       </c>
-    </row>
-    <row r="227" spans="1:15">
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19">
       <c r="A227" s="2">
         <v>43417</v>
       </c>
@@ -11095,8 +12481,14 @@
       <c r="O227" s="3">
         <v>43417.44166666667</v>
       </c>
-    </row>
-    <row r="228" spans="1:15">
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19">
       <c r="A228" s="2">
         <v>43418</v>
       </c>
@@ -11142,8 +12534,14 @@
       <c r="O228" s="3">
         <v>43418.43958333333</v>
       </c>
-    </row>
-    <row r="229" spans="1:15">
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19">
       <c r="A229" s="2">
         <v>43419</v>
       </c>
@@ -11189,8 +12587,14 @@
       <c r="O229" s="3">
         <v>43419.44791666666</v>
       </c>
-    </row>
-    <row r="230" spans="1:15">
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19">
       <c r="A230" s="2">
         <v>43420</v>
       </c>
@@ -11236,8 +12640,14 @@
       <c r="O230" s="3">
         <v>43420.45208333333</v>
       </c>
-    </row>
-    <row r="231" spans="1:15">
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19">
       <c r="A231" s="2">
         <v>43423</v>
       </c>
@@ -11283,8 +12693,14 @@
       <c r="O231" s="3">
         <v>43423.45902777778</v>
       </c>
-    </row>
-    <row r="232" spans="1:15">
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19">
       <c r="A232" s="2">
         <v>43424</v>
       </c>
@@ -11330,8 +12746,14 @@
       <c r="O232" s="3">
         <v>43424.44097222222</v>
       </c>
-    </row>
-    <row r="233" spans="1:15">
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19">
       <c r="A233" s="2">
         <v>43425</v>
       </c>
@@ -11377,8 +12799,14 @@
       <c r="O233" s="3">
         <v>43425.45972222222</v>
       </c>
-    </row>
-    <row r="234" spans="1:15">
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19">
       <c r="A234" s="2">
         <v>43426</v>
       </c>
@@ -11424,8 +12852,14 @@
       <c r="O234" s="3">
         <v>43426.45416666667</v>
       </c>
-    </row>
-    <row r="235" spans="1:15">
+      <c r="P234">
+        <v>0</v>
+      </c>
+      <c r="S234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19">
       <c r="A235" s="2">
         <v>43427</v>
       </c>
@@ -11471,8 +12905,14 @@
       <c r="O235" s="3">
         <v>43427.45833333334</v>
       </c>
-    </row>
-    <row r="236" spans="1:15">
+      <c r="P235">
+        <v>0</v>
+      </c>
+      <c r="S235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19">
       <c r="A236" s="2">
         <v>43430</v>
       </c>
@@ -11518,8 +12958,14 @@
       <c r="O236" s="3">
         <v>43430.45902777778</v>
       </c>
-    </row>
-    <row r="237" spans="1:15">
+      <c r="P236">
+        <v>0</v>
+      </c>
+      <c r="S236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19">
       <c r="A237" s="2">
         <v>43431</v>
       </c>
@@ -11565,8 +13011,14 @@
       <c r="O237" s="3">
         <v>43431.45972222222</v>
       </c>
-    </row>
-    <row r="238" spans="1:15">
+      <c r="P237">
+        <v>0</v>
+      </c>
+      <c r="S237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19">
       <c r="A238" s="2">
         <v>43432</v>
       </c>
@@ -11612,8 +13064,14 @@
       <c r="O238" s="3">
         <v>43432.45555555556</v>
       </c>
-    </row>
-    <row r="239" spans="1:15">
+      <c r="P238">
+        <v>0</v>
+      </c>
+      <c r="S238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19">
       <c r="A239" s="2">
         <v>43433</v>
       </c>
@@ -11659,8 +13117,14 @@
       <c r="O239" s="3">
         <v>43433.45416666667</v>
       </c>
-    </row>
-    <row r="240" spans="1:15">
+      <c r="P239">
+        <v>0</v>
+      </c>
+      <c r="S239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19">
       <c r="A240" s="2">
         <v>43434</v>
       </c>
@@ -11706,8 +13170,14 @@
       <c r="O240" s="3">
         <v>43434.44097222222</v>
       </c>
-    </row>
-    <row r="241" spans="1:15">
+      <c r="P240">
+        <v>0</v>
+      </c>
+      <c r="S240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19">
       <c r="A241" s="2">
         <v>43437</v>
       </c>
@@ -11753,8 +13223,14 @@
       <c r="O241" s="3">
         <v>43437.4375</v>
       </c>
-    </row>
-    <row r="242" spans="1:15">
+      <c r="P241">
+        <v>0</v>
+      </c>
+      <c r="S241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19">
       <c r="A242" s="2">
         <v>43438</v>
       </c>
@@ -11800,8 +13276,14 @@
       <c r="O242" s="3">
         <v>43438.45347222222</v>
       </c>
-    </row>
-    <row r="243" spans="1:15">
+      <c r="P242">
+        <v>0</v>
+      </c>
+      <c r="S242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19">
       <c r="A243" s="2">
         <v>43439</v>
       </c>
@@ -11847,8 +13329,14 @@
       <c r="O243" s="3">
         <v>43439.44166666667</v>
       </c>
-    </row>
-    <row r="244" spans="1:15">
+      <c r="P243">
+        <v>0</v>
+      </c>
+      <c r="S243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19">
       <c r="A244" s="2">
         <v>43440</v>
       </c>
@@ -11894,8 +13382,14 @@
       <c r="O244" s="3">
         <v>43440.45625</v>
       </c>
-    </row>
-    <row r="245" spans="1:15">
+      <c r="P244">
+        <v>0</v>
+      </c>
+      <c r="S244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19">
       <c r="A245" s="2">
         <v>43441</v>
       </c>
@@ -11941,8 +13435,14 @@
       <c r="O245" s="3">
         <v>43441.43888888889</v>
       </c>
-    </row>
-    <row r="246" spans="1:15">
+      <c r="P245">
+        <v>0</v>
+      </c>
+      <c r="S245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19">
       <c r="A246" s="2">
         <v>43444</v>
       </c>
@@ -11988,8 +13488,14 @@
       <c r="O246" s="3">
         <v>43444.45763888889</v>
       </c>
-    </row>
-    <row r="247" spans="1:15">
+      <c r="P246">
+        <v>0</v>
+      </c>
+      <c r="S246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19">
       <c r="A247" s="2">
         <v>43445</v>
       </c>
@@ -12035,8 +13541,14 @@
       <c r="O247" s="3">
         <v>43445.45902777778</v>
       </c>
-    </row>
-    <row r="248" spans="1:15">
+      <c r="P247">
+        <v>0</v>
+      </c>
+      <c r="S247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19">
       <c r="A248" s="2">
         <v>43446</v>
       </c>
@@ -12082,8 +13594,14 @@
       <c r="O248" s="3">
         <v>43446.44722222222</v>
       </c>
-    </row>
-    <row r="249" spans="1:15">
+      <c r="P248">
+        <v>0</v>
+      </c>
+      <c r="S248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19">
       <c r="A249" s="2">
         <v>43447</v>
       </c>
@@ -12129,8 +13647,14 @@
       <c r="O249" s="3">
         <v>43447.45833333334</v>
       </c>
-    </row>
-    <row r="250" spans="1:15">
+      <c r="P249">
+        <v>0</v>
+      </c>
+      <c r="S249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19">
       <c r="A250" s="2">
         <v>43448</v>
       </c>
@@ -12176,8 +13700,14 @@
       <c r="O250" s="3">
         <v>43448.4375</v>
       </c>
-    </row>
-    <row r="251" spans="1:15">
+      <c r="P250">
+        <v>0</v>
+      </c>
+      <c r="S250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19">
       <c r="A251" s="2">
         <v>43451</v>
       </c>
@@ -12223,8 +13753,14 @@
       <c r="O251" s="3">
         <v>43451.45138888889</v>
       </c>
-    </row>
-    <row r="252" spans="1:15">
+      <c r="P251">
+        <v>0</v>
+      </c>
+      <c r="S251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19">
       <c r="A252" s="2">
         <v>43452</v>
       </c>
@@ -12270,8 +13806,14 @@
       <c r="O252" s="3">
         <v>43452.45763888889</v>
       </c>
-    </row>
-    <row r="253" spans="1:15">
+      <c r="P252">
+        <v>0</v>
+      </c>
+      <c r="S252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19">
       <c r="A253" s="2">
         <v>43453</v>
       </c>
@@ -12317,8 +13859,14 @@
       <c r="O253" s="3">
         <v>43453.45763888889</v>
       </c>
-    </row>
-    <row r="254" spans="1:15">
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="S253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19">
       <c r="A254" s="2">
         <v>43454</v>
       </c>
@@ -12364,8 +13912,14 @@
       <c r="O254" s="3">
         <v>43454.45416666667</v>
       </c>
-    </row>
-    <row r="255" spans="1:15">
+      <c r="P254">
+        <v>0</v>
+      </c>
+      <c r="S254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19">
       <c r="A255" s="2">
         <v>43455</v>
       </c>
@@ -12411,8 +13965,14 @@
       <c r="O255" s="3">
         <v>43455.4375</v>
       </c>
-    </row>
-    <row r="256" spans="1:15">
+      <c r="P255">
+        <v>0</v>
+      </c>
+      <c r="S255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19">
       <c r="A256" s="2">
         <v>43458</v>
       </c>
@@ -12458,8 +14018,14 @@
       <c r="O256" s="3">
         <v>43458.44444444445</v>
       </c>
-    </row>
-    <row r="257" spans="1:15">
+      <c r="P256">
+        <v>0</v>
+      </c>
+      <c r="S256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19">
       <c r="A257" s="2">
         <v>43460</v>
       </c>
@@ -12505,8 +14071,14 @@
       <c r="O257" s="3">
         <v>43460.45763888889</v>
       </c>
-    </row>
-    <row r="258" spans="1:15">
+      <c r="P257">
+        <v>0</v>
+      </c>
+      <c r="S257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19">
       <c r="A258" s="2">
         <v>43461</v>
       </c>
@@ -12552,8 +14124,14 @@
       <c r="O258" s="3">
         <v>43461.45972222222</v>
       </c>
-    </row>
-    <row r="259" spans="1:15">
+      <c r="P258">
+        <v>0</v>
+      </c>
+      <c r="S258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19">
       <c r="A259" s="2">
         <v>43462</v>
       </c>
@@ -12599,8 +14177,14 @@
       <c r="O259" s="3">
         <v>43462.45486111111</v>
       </c>
-    </row>
-    <row r="260" spans="1:15">
+      <c r="P259">
+        <v>0</v>
+      </c>
+      <c r="S259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19">
       <c r="A260" s="2">
         <v>43465</v>
       </c>
@@ -12645,6 +14229,12 @@
       </c>
       <c r="O260" s="3">
         <v>43465.45902777778</v>
+      </c>
+      <c r="P260">
+        <v>0</v>
+      </c>
+      <c r="S260">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/edge_research/dataout/18mpip.xlsx
+++ b/edge_research/dataout/18mpip.xlsx
@@ -61,19 +61,19 @@
     <t>MAX_PIP_UP_PRIOR_DAY_FIX</t>
   </si>
   <si>
-    <t>MAX_PIP_UP_PRIOR_DAY_FIX_DATETIME</t>
+    <t>MAX_PIP_UP_PRIOR_DAY_FIX_PRICE</t>
   </si>
   <si>
-    <t>MAX_PIP_UP_PRIOR_DAY_FIX_PRICE</t>
+    <t>MAX_PIP_UP_PRIOR_DAY_FIX_DATETIME</t>
   </si>
   <si>
     <t>MAX_PIP_DOWN_PRIOR_DAY_FIX</t>
   </si>
   <si>
-    <t>MAX_PIP_DOWN_PRIOR_DAY_FIX_DATETIME</t>
+    <t>MAX_PIP_DOWN_PRIOR_DAY_FIX_PRICE</t>
   </si>
   <si>
-    <t>MAX_PIP_DOWN_PRIOR_DAY_FIX_PRICE</t>
+    <t>MAX_PIP_DOWN_PRIOR_DAY_FIX_DATETIME</t>
   </si>
 </sst>
 </file>
@@ -83,6 +83,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -136,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -145,6 +146,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,7 +615,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-78.5</v>
+      </c>
+      <c r="T3">
+        <v>1.3578</v>
+      </c>
+      <c r="U3" s="4">
+        <v>43102</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -663,7 +671,13 @@
         <v>43104.45763888889</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>42.4</v>
+      </c>
+      <c r="Q4">
+        <v>1.3514</v>
+      </c>
+      <c r="R4" s="4">
+        <v>43103</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -716,10 +730,22 @@
         <v>43105.45069444444</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>12.2</v>
+      </c>
+      <c r="Q5">
+        <v>1.3552</v>
+      </c>
+      <c r="R5" s="4">
+        <v>43104</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-0.3</v>
+      </c>
+      <c r="T5">
+        <v>1.3552</v>
+      </c>
+      <c r="U5" s="4">
+        <v>43104</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -769,10 +795,22 @@
         <v>43108.44027777778</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="Q6">
+        <v>1.3561</v>
+      </c>
+      <c r="R6" s="4">
+        <v>43105</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>-10.4</v>
+      </c>
+      <c r="T6">
+        <v>1.3561</v>
+      </c>
+      <c r="U6" s="4">
+        <v>43105</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -825,7 +863,13 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>-65.2</v>
+      </c>
+      <c r="T7">
+        <v>1.3576</v>
+      </c>
+      <c r="U7" s="4">
+        <v>43108</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -875,10 +919,22 @@
         <v>43110.44722222222</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.5</v>
+      </c>
+      <c r="Q8">
+        <v>1.3525</v>
+      </c>
+      <c r="R8" s="4">
+        <v>43109</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>-2.6</v>
+      </c>
+      <c r="T8">
+        <v>1.3525</v>
+      </c>
+      <c r="U8" s="4">
+        <v>43109</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -928,7 +984,13 @@
         <v>43111.4375</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>12.2</v>
+      </c>
+      <c r="Q9">
+        <v>1.3531</v>
+      </c>
+      <c r="R9" s="4">
+        <v>43110</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -981,7 +1043,13 @@
         <v>43112.43958333333</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>152.1</v>
+      </c>
+      <c r="Q10">
+        <v>1.3537</v>
+      </c>
+      <c r="R10" s="4">
+        <v>43111</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1034,7 +1102,13 @@
         <v>43115.44305555556</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>119.5</v>
+      </c>
+      <c r="Q11">
+        <v>1.3687</v>
+      </c>
+      <c r="R11" s="4">
+        <v>43112</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1090,7 +1164,13 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>-34.3</v>
+      </c>
+      <c r="T12">
+        <v>1.3798</v>
+      </c>
+      <c r="U12" s="4">
+        <v>43115</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1140,7 +1220,13 @@
         <v>43117.44236111111</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>62.4</v>
+      </c>
+      <c r="Q13">
+        <v>1.3773</v>
+      </c>
+      <c r="R13" s="4">
+        <v>43116</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1193,7 +1279,13 @@
         <v>43118.44236111111</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>62.3</v>
+      </c>
+      <c r="Q14">
+        <v>1.383</v>
+      </c>
+      <c r="R14" s="4">
+        <v>43117</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1249,7 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>-44.8</v>
+      </c>
+      <c r="T15">
+        <v>1.3887</v>
+      </c>
+      <c r="U15" s="4">
+        <v>43118</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1299,13 +1397,19 @@
         <v>43122.4375</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>121.9</v>
+      </c>
+      <c r="Q16">
+        <v>1.3846</v>
+      </c>
+      <c r="R16" s="4">
+        <v>43119</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:21">
       <c r="A17" s="2">
         <v>43123</v>
       </c>
@@ -1352,13 +1456,19 @@
         <v>43123.43819444445</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>60.6</v>
+      </c>
+      <c r="Q17">
+        <v>1.3963</v>
+      </c>
+      <c r="R17" s="4">
+        <v>43122</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:21">
       <c r="A18" s="2">
         <v>43124</v>
       </c>
@@ -1405,13 +1515,19 @@
         <v>43124.44305555556</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>219.9</v>
+      </c>
+      <c r="Q18">
+        <v>1.4018</v>
+      </c>
+      <c r="R18" s="4">
+        <v>43123</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:21">
       <c r="A19" s="2">
         <v>43125</v>
       </c>
@@ -1458,13 +1574,19 @@
         <v>43125.44097222222</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>83.09999999999999</v>
+      </c>
+      <c r="Q19">
+        <v>1.4223</v>
+      </c>
+      <c r="R19" s="4">
+        <v>43124</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:21">
       <c r="A20" s="2">
         <v>43126</v>
       </c>
@@ -1514,10 +1636,16 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>-143.6</v>
+      </c>
+      <c r="T20">
+        <v>1.4299</v>
+      </c>
+      <c r="U20" s="4">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="2">
         <v>43129</v>
       </c>
@@ -1567,10 +1695,16 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>-125</v>
+      </c>
+      <c r="T21">
+        <v>1.4185</v>
+      </c>
+      <c r="U21" s="4">
+        <v>43126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="2">
         <v>43130</v>
       </c>
@@ -1617,13 +1751,19 @@
         <v>43130.45833333334</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>73.59999999999999</v>
+      </c>
+      <c r="Q22">
+        <v>1.4067</v>
+      </c>
+      <c r="R22" s="4">
+        <v>43129</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:21">
       <c r="A23" s="2">
         <v>43131</v>
       </c>
@@ -1670,13 +1810,19 @@
         <v>43131.44027777778</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>111.2</v>
+      </c>
+      <c r="Q23">
+        <v>1.4118</v>
+      </c>
+      <c r="R23" s="4">
+        <v>43130</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:21">
       <c r="A24" s="2">
         <v>43132</v>
       </c>
@@ -1723,13 +1869,19 @@
         <v>43132.4375</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>37.5</v>
+      </c>
+      <c r="Q24">
+        <v>1.4212</v>
+      </c>
+      <c r="R24" s="4">
+        <v>43131</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:21">
       <c r="A25" s="2">
         <v>43133</v>
       </c>
@@ -1779,10 +1931,16 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>-137.9</v>
+      </c>
+      <c r="T25">
+        <v>1.4241</v>
+      </c>
+      <c r="U25" s="4">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="2">
         <v>43136</v>
       </c>
@@ -1832,10 +1990,16 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>-108</v>
+      </c>
+      <c r="T26">
+        <v>1.4121</v>
+      </c>
+      <c r="U26" s="4">
+        <v>43133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="2">
         <v>43137</v>
       </c>
@@ -1885,10 +2049,16 @@
         <v>0</v>
       </c>
       <c r="S27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>-162.3</v>
+      </c>
+      <c r="T27">
+        <v>1.4019</v>
+      </c>
+      <c r="U27" s="4">
+        <v>43136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="2">
         <v>43138</v>
       </c>
@@ -1935,13 +2105,25 @@
         <v>43138.45972222222</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>18.1</v>
+      </c>
+      <c r="Q28">
+        <v>1.39</v>
+      </c>
+      <c r="R28" s="4">
+        <v>43137</v>
       </c>
       <c r="S28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>-17.7</v>
+      </c>
+      <c r="T28">
+        <v>1.39</v>
+      </c>
+      <c r="U28" s="4">
+        <v>43137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="2">
         <v>43139</v>
       </c>
@@ -1988,13 +2170,19 @@
         <v>43139.45972222222</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>147.1</v>
+      </c>
+      <c r="Q29">
+        <v>1.3885</v>
+      </c>
+      <c r="R29" s="4">
+        <v>43138</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:21">
       <c r="A30" s="2">
         <v>43140</v>
       </c>
@@ -2044,10 +2232,16 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>-215</v>
+      </c>
+      <c r="T30">
+        <v>1.4002</v>
+      </c>
+      <c r="U30" s="4">
+        <v>43139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="2">
         <v>43143</v>
       </c>
@@ -2094,13 +2288,25 @@
         <v>43143.44791666666</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>7.2</v>
+      </c>
+      <c r="Q31">
+        <v>1.381</v>
+      </c>
+      <c r="R31" s="4">
+        <v>43140</v>
       </c>
       <c r="S31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>-6.4</v>
+      </c>
+      <c r="T31">
+        <v>1.381</v>
+      </c>
+      <c r="U31" s="4">
+        <v>43140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="2">
         <v>43144</v>
       </c>
@@ -2147,13 +2353,19 @@
         <v>43144.45902777778</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>89.59999999999999</v>
+      </c>
+      <c r="Q32">
+        <v>1.3812</v>
+      </c>
+      <c r="R32" s="4">
+        <v>43143</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:21">
       <c r="A33" s="2">
         <v>43145</v>
       </c>
@@ -2200,13 +2412,19 @@
         <v>43145.4375</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>84.90000000000001</v>
+      </c>
+      <c r="Q33">
+        <v>1.3881</v>
+      </c>
+      <c r="R33" s="4">
+        <v>43144</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:21">
       <c r="A34" s="2">
         <v>43146</v>
       </c>
@@ -2253,13 +2471,19 @@
         <v>43146.44930555556</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>102.7</v>
+      </c>
+      <c r="Q34">
+        <v>1.3963</v>
+      </c>
+      <c r="R34" s="4">
+        <v>43145</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:21">
       <c r="A35" s="2">
         <v>43147</v>
       </c>
@@ -2306,13 +2530,25 @@
         <v>43147.45694444444</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>2.7</v>
+      </c>
+      <c r="Q35">
+        <v>1.4057</v>
+      </c>
+      <c r="R35" s="4">
+        <v>43146</v>
       </c>
       <c r="S35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>-24</v>
+      </c>
+      <c r="T35">
+        <v>1.4057</v>
+      </c>
+      <c r="U35" s="4">
+        <v>43146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="2">
         <v>43150</v>
       </c>
@@ -2362,10 +2598,16 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>-66.7</v>
+      </c>
+      <c r="T36">
+        <v>1.4042</v>
+      </c>
+      <c r="U36" s="4">
+        <v>43147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="2">
         <v>43151</v>
       </c>
@@ -2412,13 +2654,25 @@
         <v>43151.43819444445</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>12.8</v>
+      </c>
+      <c r="Q37">
+        <v>1.3994</v>
+      </c>
+      <c r="R37" s="4">
+        <v>43150</v>
       </c>
       <c r="S37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="T37">
+        <v>1.3994</v>
+      </c>
+      <c r="U37" s="4">
+        <v>43150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="2">
         <v>43152</v>
       </c>
@@ -2468,10 +2722,16 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>-39</v>
+      </c>
+      <c r="T38">
+        <v>1.4003</v>
+      </c>
+      <c r="U38" s="4">
+        <v>43151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="2">
         <v>43153</v>
       </c>
@@ -2521,10 +2781,16 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>-49.6</v>
+      </c>
+      <c r="T39">
+        <v>1.3975</v>
+      </c>
+      <c r="U39" s="4">
+        <v>43152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="2">
         <v>43154</v>
       </c>
@@ -2571,13 +2837,19 @@
         <v>43154.45694444444</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>67.2</v>
+      </c>
+      <c r="Q40">
+        <v>1.3937</v>
+      </c>
+      <c r="R40" s="4">
+        <v>43153</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:21">
       <c r="A41" s="2">
         <v>43157</v>
       </c>
@@ -2627,10 +2899,16 @@
         <v>0</v>
       </c>
       <c r="S41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>-40.5</v>
+      </c>
+      <c r="T41">
+        <v>1.3973</v>
+      </c>
+      <c r="U41" s="4">
+        <v>43154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="2">
         <v>43158</v>
       </c>
@@ -2680,10 +2958,16 @@
         <v>0</v>
       </c>
       <c r="S42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>-75.8</v>
+      </c>
+      <c r="T42">
+        <v>1.3936</v>
+      </c>
+      <c r="U42" s="4">
+        <v>43157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="2">
         <v>43159</v>
       </c>
@@ -2733,10 +3017,16 @@
         <v>0</v>
       </c>
       <c r="S43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>-102.1</v>
+      </c>
+      <c r="T43">
+        <v>1.3877</v>
+      </c>
+      <c r="U43" s="4">
+        <v>43158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="2">
         <v>43160</v>
       </c>
@@ -2786,10 +3076,16 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>-60.5</v>
+      </c>
+      <c r="T44">
+        <v>1.37805</v>
+      </c>
+      <c r="U44" s="4">
+        <v>43159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="2">
         <v>43161</v>
       </c>
@@ -2836,13 +3132,19 @@
         <v>43161.45069444444</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>64.59999999999999</v>
+      </c>
+      <c r="Q45">
+        <v>1.3725</v>
+      </c>
+      <c r="R45" s="4">
+        <v>43160</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:21">
       <c r="A46" s="2">
         <v>43164</v>
       </c>
@@ -2889,13 +3191,19 @@
         <v>43164.44097222222</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>74.2</v>
+      </c>
+      <c r="Q46">
+        <v>1.3773</v>
+      </c>
+      <c r="R46" s="4">
+        <v>43161</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:21">
       <c r="A47" s="2">
         <v>43165</v>
       </c>
@@ -2942,13 +3250,19 @@
         <v>43165.45694444444</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>53.2</v>
+      </c>
+      <c r="Q47">
+        <v>1.3845</v>
+      </c>
+      <c r="R47" s="4">
+        <v>43164</v>
       </c>
       <c r="S47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:21">
       <c r="A48" s="2">
         <v>43166</v>
       </c>
@@ -2995,13 +3309,25 @@
         <v>43166.4375</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>14.2</v>
+      </c>
+      <c r="Q48">
+        <v>1.3883</v>
+      </c>
+      <c r="R48" s="4">
+        <v>43165</v>
       </c>
       <c r="S48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>-13</v>
+      </c>
+      <c r="T48">
+        <v>1.3883</v>
+      </c>
+      <c r="U48" s="4">
+        <v>43165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="2">
         <v>43167</v>
       </c>
@@ -3051,10 +3377,16 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>-69.3</v>
+      </c>
+      <c r="T49">
+        <v>1.3895</v>
+      </c>
+      <c r="U49" s="4">
+        <v>43166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="2">
         <v>43168</v>
       </c>
@@ -3101,13 +3433,19 @@
         <v>43168.45972222222</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>55.8</v>
+      </c>
+      <c r="Q50">
+        <v>1.3829</v>
+      </c>
+      <c r="R50" s="4">
+        <v>43167</v>
       </c>
       <c r="S50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:21">
       <c r="A51" s="2">
         <v>43171</v>
       </c>
@@ -3154,13 +3492,19 @@
         <v>43171.4375</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>26.1</v>
+      </c>
+      <c r="Q51">
+        <v>1.387</v>
+      </c>
+      <c r="R51" s="4">
+        <v>43168</v>
       </c>
       <c r="S51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:21">
       <c r="A52" s="2">
         <v>43172</v>
       </c>
@@ -3207,13 +3551,19 @@
         <v>43172.43819444445</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>72.40000000000001</v>
+      </c>
+      <c r="Q52">
+        <v>1.3898</v>
+      </c>
+      <c r="R52" s="4">
+        <v>43171</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:21">
       <c r="A53" s="2">
         <v>43173</v>
       </c>
@@ -3263,10 +3613,16 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>-28.8</v>
+      </c>
+      <c r="T53">
+        <v>1.3985</v>
+      </c>
+      <c r="U53" s="4">
+        <v>43172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="2">
         <v>43174</v>
       </c>
@@ -3313,13 +3669,19 @@
         <v>43174.43958333333</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>47.1</v>
+      </c>
+      <c r="Q54">
+        <v>1.3939</v>
+      </c>
+      <c r="R54" s="4">
+        <v>43173</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:21">
       <c r="A55" s="2">
         <v>43175</v>
       </c>
@@ -3369,10 +3731,16 @@
         <v>0</v>
       </c>
       <c r="S55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>-59.5</v>
+      </c>
+      <c r="T55">
+        <v>1.3954</v>
+      </c>
+      <c r="U55" s="4">
+        <v>43174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" s="2">
         <v>43178</v>
       </c>
@@ -3419,13 +3787,19 @@
         <v>43178.45972222222</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>136.7</v>
+      </c>
+      <c r="Q56">
+        <v>1.3916</v>
+      </c>
+      <c r="R56" s="4">
+        <v>43175</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:21">
       <c r="A57" s="2">
         <v>43179</v>
       </c>
@@ -3475,10 +3849,16 @@
         <v>0</v>
       </c>
       <c r="S57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>-40.8</v>
+      </c>
+      <c r="T57">
+        <v>1.4035</v>
+      </c>
+      <c r="U57" s="4">
+        <v>43178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" s="2">
         <v>43180</v>
       </c>
@@ -3525,13 +3905,19 @@
         <v>43180.44513888889</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>62.3</v>
+      </c>
+      <c r="Q58">
+        <v>1.4013</v>
+      </c>
+      <c r="R58" s="4">
+        <v>43179</v>
       </c>
       <c r="S58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:21">
       <c r="A59" s="2">
         <v>43181</v>
       </c>
@@ -3578,13 +3964,19 @@
         <v>43181.45208333333</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>54.1</v>
+      </c>
+      <c r="Q59">
+        <v>1.4064</v>
+      </c>
+      <c r="R59" s="4">
+        <v>43180</v>
       </c>
       <c r="S59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:21">
       <c r="A60" s="2">
         <v>43182</v>
       </c>
@@ -3631,13 +4023,19 @@
         <v>43182.45416666667</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>78.2</v>
+      </c>
+      <c r="Q60">
+        <v>1.4092</v>
+      </c>
+      <c r="R60" s="4">
+        <v>43181</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:21">
       <c r="A61" s="2">
         <v>43185</v>
       </c>
@@ -3684,13 +4082,19 @@
         <v>43185.4375</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="Q61">
+        <v>1.4149</v>
+      </c>
+      <c r="R61" s="4">
+        <v>43182</v>
       </c>
       <c r="S61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:21">
       <c r="A62" s="2">
         <v>43186</v>
       </c>
@@ -3740,10 +4144,16 @@
         <v>0</v>
       </c>
       <c r="S62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>-85.7</v>
+      </c>
+      <c r="T62">
+        <v>1.4226</v>
+      </c>
+      <c r="U62" s="4">
+        <v>43185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" s="2">
         <v>43187</v>
       </c>
@@ -3793,10 +4203,16 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>-45.6</v>
+      </c>
+      <c r="T63">
+        <v>1.4141</v>
+      </c>
+      <c r="U63" s="4">
+        <v>43186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" s="2">
         <v>43188</v>
       </c>
@@ -3846,10 +4262,16 @@
         <v>0</v>
       </c>
       <c r="S64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>-78.7</v>
+      </c>
+      <c r="T64">
+        <v>1.4101</v>
+      </c>
+      <c r="U64" s="4">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" s="2">
         <v>43189</v>
       </c>
@@ -3896,13 +4318,19 @@
         <v>43189.45972222222</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Q65">
+        <v>1.4034</v>
+      </c>
+      <c r="R65" s="4">
+        <v>43188</v>
       </c>
       <c r="S65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:21">
       <c r="A66" s="2">
         <v>43192</v>
       </c>
@@ -3949,13 +4377,19 @@
         <v>43192.45277777778</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>23.5</v>
+      </c>
+      <c r="Q66">
+        <v>1.4034</v>
+      </c>
+      <c r="R66" s="4">
+        <v>43188</v>
       </c>
       <c r="S66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:21">
       <c r="A67" s="2">
         <v>43193</v>
       </c>
@@ -4005,10 +4439,16 @@
         <v>0</v>
       </c>
       <c r="S67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>-18.9</v>
+      </c>
+      <c r="T67">
+        <v>1.4053</v>
+      </c>
+      <c r="U67" s="4">
+        <v>43192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" s="2">
         <v>43194</v>
       </c>
@@ -4055,13 +4495,19 @@
         <v>43194.44861111111</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>47.6</v>
+      </c>
+      <c r="Q68">
+        <v>1.404</v>
+      </c>
+      <c r="R68" s="4">
+        <v>43193</v>
       </c>
       <c r="S68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:21">
       <c r="A69" s="2">
         <v>43195</v>
       </c>
@@ -4111,10 +4557,16 @@
         <v>0</v>
       </c>
       <c r="S69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+        <v>-95</v>
+      </c>
+      <c r="T69">
+        <v>1.4084</v>
+      </c>
+      <c r="U69" s="4">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" s="2">
         <v>43196</v>
       </c>
@@ -4161,13 +4613,19 @@
         <v>43196.45833333334</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>103.5</v>
+      </c>
+      <c r="Q70">
+        <v>1.3997</v>
+      </c>
+      <c r="R70" s="4">
+        <v>43195</v>
       </c>
       <c r="S70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:21">
       <c r="A71" s="2">
         <v>43199</v>
       </c>
@@ -4214,13 +4672,19 @@
         <v>43199.45902777778</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>64.8</v>
+      </c>
+      <c r="Q71">
+        <v>1.4086</v>
+      </c>
+      <c r="R71" s="4">
+        <v>43196</v>
       </c>
       <c r="S71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:21">
       <c r="A72" s="2">
         <v>43200</v>
       </c>
@@ -4267,13 +4731,19 @@
         <v>43200.45625</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>50.3</v>
+      </c>
+      <c r="Q72">
+        <v>1.4129</v>
+      </c>
+      <c r="R72" s="4">
+        <v>43199</v>
       </c>
       <c r="S72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:21">
       <c r="A73" s="2">
         <v>43201</v>
       </c>
@@ -4320,13 +4790,19 @@
         <v>43201.45763888889</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>44.1</v>
+      </c>
+      <c r="Q73">
+        <v>1.4173</v>
+      </c>
+      <c r="R73" s="4">
+        <v>43200</v>
       </c>
       <c r="S73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:21">
       <c r="A74" s="2">
         <v>43202</v>
       </c>
@@ -4373,13 +4849,19 @@
         <v>43202.44027777778</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="Q74">
+        <v>1.4206</v>
+      </c>
+      <c r="R74" s="4">
+        <v>43201</v>
       </c>
       <c r="S74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:21">
       <c r="A75" s="2">
         <v>43203</v>
       </c>
@@ -4426,13 +4908,19 @@
         <v>43203.45902777778</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>21.4</v>
+      </c>
+      <c r="Q75">
+        <v>1.4234</v>
+      </c>
+      <c r="R75" s="4">
+        <v>43202</v>
       </c>
       <c r="S75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:21">
       <c r="A76" s="2">
         <v>43206</v>
       </c>
@@ -4479,13 +4967,19 @@
         <v>43206.44930555556</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="Q76">
+        <v>1.425</v>
+      </c>
+      <c r="R76" s="4">
+        <v>43203</v>
       </c>
       <c r="S76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:21">
       <c r="A77" s="2">
         <v>43207</v>
       </c>
@@ -4535,10 +5029,16 @@
         <v>0</v>
       </c>
       <c r="S77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19">
+        <v>-22.9</v>
+      </c>
+      <c r="T77">
+        <v>1.4328</v>
+      </c>
+      <c r="U77" s="4">
+        <v>43206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" s="2">
         <v>43208</v>
       </c>
@@ -4588,10 +5088,16 @@
         <v>0</v>
       </c>
       <c r="S78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
+        <v>-81.5</v>
+      </c>
+      <c r="T78">
+        <v>1.4309</v>
+      </c>
+      <c r="U78" s="4">
+        <v>43207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" s="2">
         <v>43209</v>
       </c>
@@ -4641,10 +5147,16 @@
         <v>0</v>
       </c>
       <c r="S79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19">
+        <v>-13.9</v>
+      </c>
+      <c r="T79">
+        <v>1.4234</v>
+      </c>
+      <c r="U79" s="4">
+        <v>43208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" s="2">
         <v>43210</v>
       </c>
@@ -4694,10 +5206,16 @@
         <v>0</v>
       </c>
       <c r="S80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
+        <v>-207.6</v>
+      </c>
+      <c r="T80">
+        <v>1.4222</v>
+      </c>
+      <c r="U80" s="4">
+        <v>43209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" s="2">
         <v>43213</v>
       </c>
@@ -4747,10 +5265,16 @@
         <v>0</v>
       </c>
       <c r="S81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19">
+        <v>-80.5</v>
+      </c>
+      <c r="T81">
+        <v>1.4023</v>
+      </c>
+      <c r="U81" s="4">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" s="2">
         <v>43214</v>
       </c>
@@ -4797,13 +5321,19 @@
         <v>43214.44444444445</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>23.7</v>
+      </c>
+      <c r="Q82">
+        <v>1.3951</v>
+      </c>
+      <c r="R82" s="4">
+        <v>43213</v>
       </c>
       <c r="S82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:21">
       <c r="A83" s="2">
         <v>43215</v>
       </c>
@@ -4853,10 +5383,16 @@
         <v>0</v>
       </c>
       <c r="S83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19">
+        <v>-41.1</v>
+      </c>
+      <c r="T83">
+        <v>1.3966</v>
+      </c>
+      <c r="U83" s="4">
+        <v>43214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" s="2">
         <v>43216</v>
       </c>
@@ -4903,13 +5439,25 @@
         <v>43216.45972222222</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>21.2</v>
+      </c>
+      <c r="Q84">
+        <v>1.3934</v>
+      </c>
+      <c r="R84" s="4">
+        <v>43215</v>
       </c>
       <c r="S84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
+        <v>-7.7</v>
+      </c>
+      <c r="T84">
+        <v>1.3934</v>
+      </c>
+      <c r="U84" s="4">
+        <v>43215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" s="2">
         <v>43217</v>
       </c>
@@ -4959,10 +5507,16 @@
         <v>0</v>
       </c>
       <c r="S85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19">
+        <v>-160.9</v>
+      </c>
+      <c r="T85">
+        <v>1.3939</v>
+      </c>
+      <c r="U85" s="4">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" s="2">
         <v>43220</v>
       </c>
@@ -5012,10 +5566,16 @@
         <v>0</v>
       </c>
       <c r="S86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19">
+        <v>-45.8</v>
+      </c>
+      <c r="T86">
+        <v>1.3795</v>
+      </c>
+      <c r="U86" s="4">
+        <v>43217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" s="2">
         <v>43221</v>
       </c>
@@ -5065,10 +5625,16 @@
         <v>0</v>
       </c>
       <c r="S87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19">
+        <v>-182.4</v>
+      </c>
+      <c r="T87">
+        <v>1.3773</v>
+      </c>
+      <c r="U87" s="4">
+        <v>43220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" s="2">
         <v>43222</v>
       </c>
@@ -5115,13 +5681,25 @@
         <v>43222.45902777778</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>18.1</v>
+      </c>
+      <c r="Q88">
+        <v>1.3597</v>
+      </c>
+      <c r="R88" s="4">
+        <v>43221</v>
       </c>
       <c r="S88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19">
+        <v>-3.4</v>
+      </c>
+      <c r="T88">
+        <v>1.3597</v>
+      </c>
+      <c r="U88" s="4">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" s="2">
         <v>43223</v>
       </c>
@@ -5171,10 +5749,16 @@
         <v>0</v>
       </c>
       <c r="S89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19">
+        <v>-60.8</v>
+      </c>
+      <c r="T89">
+        <v>1.36</v>
+      </c>
+      <c r="U89" s="4">
+        <v>43222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" s="2">
         <v>43224</v>
       </c>
@@ -5224,10 +5808,16 @@
         <v>0</v>
       </c>
       <c r="S90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19">
+        <v>-30.2</v>
+      </c>
+      <c r="T90">
+        <v>1.3542</v>
+      </c>
+      <c r="U90" s="4">
+        <v>43223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" s="2">
         <v>43227</v>
       </c>
@@ -5274,13 +5864,19 @@
         <v>43227.44513888889</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>51.7</v>
+      </c>
+      <c r="Q91">
+        <v>1.3518</v>
+      </c>
+      <c r="R91" s="4">
+        <v>43224</v>
       </c>
       <c r="S91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:21">
       <c r="A92" s="2">
         <v>43228</v>
       </c>
@@ -5330,10 +5926,16 @@
         <v>0</v>
       </c>
       <c r="S92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19">
+        <v>-79.5</v>
+      </c>
+      <c r="T92">
+        <v>1.3567</v>
+      </c>
+      <c r="U92" s="4">
+        <v>43227</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93" s="2">
         <v>43229</v>
       </c>
@@ -5380,13 +5982,19 @@
         <v>43229.45694444444</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>62.8</v>
+      </c>
+      <c r="Q93">
+        <v>1.3519</v>
+      </c>
+      <c r="R93" s="4">
+        <v>43228</v>
       </c>
       <c r="S93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:21">
       <c r="A94" s="2">
         <v>43230</v>
       </c>
@@ -5436,10 +6044,16 @@
         <v>0</v>
       </c>
       <c r="S94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19">
+        <v>-113</v>
+      </c>
+      <c r="T94">
+        <v>1.3573</v>
+      </c>
+      <c r="U94" s="4">
+        <v>43229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95" s="2">
         <v>43231</v>
       </c>
@@ -5486,13 +6100,19 @@
         <v>43231.45138888889</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>97.2</v>
+      </c>
+      <c r="Q95">
+        <v>1.347</v>
+      </c>
+      <c r="R95" s="4">
+        <v>43230</v>
       </c>
       <c r="S95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:21">
       <c r="A96" s="2">
         <v>43234</v>
       </c>
@@ -5539,13 +6159,19 @@
         <v>43234.44166666667</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>43.6</v>
+      </c>
+      <c r="Q96">
+        <v>1.3552</v>
+      </c>
+      <c r="R96" s="4">
+        <v>43231</v>
       </c>
       <c r="S96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:21">
       <c r="A97" s="2">
         <v>43235</v>
       </c>
@@ -5595,10 +6221,16 @@
         <v>0</v>
       </c>
       <c r="S97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19">
+        <v>-119.6</v>
+      </c>
+      <c r="T97">
+        <v>1.35937</v>
+      </c>
+      <c r="U97" s="4">
+        <v>43234</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
       <c r="A98" s="2">
         <v>43236</v>
       </c>
@@ -5648,10 +6280,16 @@
         <v>0</v>
       </c>
       <c r="S98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19">
+        <v>-15.8</v>
+      </c>
+      <c r="T98">
+        <v>1.34967</v>
+      </c>
+      <c r="U98" s="4">
+        <v>43235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
       <c r="A99" s="2">
         <v>43237</v>
       </c>
@@ -5698,13 +6336,19 @@
         <v>43237.45972222222</v>
       </c>
       <c r="P99">
-        <v>0</v>
+        <v>31.5</v>
+      </c>
+      <c r="Q99">
+        <v>1.34825</v>
+      </c>
+      <c r="R99" s="4">
+        <v>43236</v>
       </c>
       <c r="S99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:21">
       <c r="A100" s="2">
         <v>43238</v>
       </c>
@@ -5754,10 +6398,16 @@
         <v>0</v>
       </c>
       <c r="S100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19">
+        <v>-38.6</v>
+      </c>
+      <c r="T100">
+        <v>1.3504</v>
+      </c>
+      <c r="U100" s="4">
+        <v>43237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
       <c r="A101" s="2">
         <v>43241</v>
       </c>
@@ -5807,10 +6457,16 @@
         <v>0</v>
       </c>
       <c r="S101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19">
+        <v>-70.40000000000001</v>
+      </c>
+      <c r="T101">
+        <v>1.3476</v>
+      </c>
+      <c r="U101" s="4">
+        <v>43238</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21">
       <c r="A102" s="2">
         <v>43242</v>
       </c>
@@ -5857,13 +6513,19 @@
         <v>43242.45138888889</v>
       </c>
       <c r="P102">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="Q102">
+        <v>1.341</v>
+      </c>
+      <c r="R102" s="4">
+        <v>43241</v>
       </c>
       <c r="S102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:21">
       <c r="A103" s="2">
         <v>43243</v>
       </c>
@@ -5913,10 +6575,16 @@
         <v>0</v>
       </c>
       <c r="S103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19">
+        <v>-82.3</v>
+      </c>
+      <c r="T103">
+        <v>1.34205</v>
+      </c>
+      <c r="U103" s="4">
+        <v>43242</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21">
       <c r="A104" s="2">
         <v>43244</v>
       </c>
@@ -5963,13 +6631,19 @@
         <v>43244.45486111111</v>
       </c>
       <c r="P104">
-        <v>0</v>
+        <v>45.6</v>
+      </c>
+      <c r="Q104">
+        <v>1.3343</v>
+      </c>
+      <c r="R104" s="4">
+        <v>43243</v>
       </c>
       <c r="S104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:21">
       <c r="A105" s="2">
         <v>43245</v>
       </c>
@@ -6019,10 +6693,16 @@
         <v>0</v>
       </c>
       <c r="S105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19">
+        <v>-67.7</v>
+      </c>
+      <c r="T105">
+        <v>1.33735</v>
+      </c>
+      <c r="U105" s="4">
+        <v>43244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21">
       <c r="A106" s="2">
         <v>43248</v>
       </c>
@@ -6072,10 +6752,16 @@
         <v>0</v>
       </c>
       <c r="S106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19">
+        <v>-16.6</v>
+      </c>
+      <c r="T106">
+        <v>1.33135</v>
+      </c>
+      <c r="U106" s="4">
+        <v>43245</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107" s="2">
         <v>43249</v>
       </c>
@@ -6125,10 +6811,16 @@
         <v>0</v>
       </c>
       <c r="S107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19">
+        <v>-30.8</v>
+      </c>
+      <c r="T107">
+        <v>1.3299</v>
+      </c>
+      <c r="U107" s="4">
+        <v>43248</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21">
       <c r="A108" s="2">
         <v>43250</v>
       </c>
@@ -6175,13 +6867,25 @@
         <v>43250.45486111111</v>
       </c>
       <c r="P108">
-        <v>0</v>
+        <v>9.6</v>
+      </c>
+      <c r="Q108">
+        <v>1.32735</v>
+      </c>
+      <c r="R108" s="4">
+        <v>43249</v>
       </c>
       <c r="S108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19">
+        <v>-4.7</v>
+      </c>
+      <c r="T108">
+        <v>1.32735</v>
+      </c>
+      <c r="U108" s="4">
+        <v>43249</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21">
       <c r="A109" s="2">
         <v>43251</v>
       </c>
@@ -6228,13 +6932,19 @@
         <v>43251.45972222222</v>
       </c>
       <c r="P109">
-        <v>0</v>
+        <v>56.8</v>
+      </c>
+      <c r="Q109">
+        <v>1.3277</v>
+      </c>
+      <c r="R109" s="4">
+        <v>43250</v>
       </c>
       <c r="S109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:21">
       <c r="A110" s="2">
         <v>43252</v>
       </c>
@@ -6281,13 +6991,19 @@
         <v>43252.44236111111</v>
       </c>
       <c r="P110">
-        <v>0</v>
+        <v>24.5</v>
+      </c>
+      <c r="Q110">
+        <v>1.3312</v>
+      </c>
+      <c r="R110" s="4">
+        <v>43251</v>
       </c>
       <c r="S110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:21">
       <c r="A111" s="2">
         <v>43255</v>
       </c>
@@ -6340,7 +7056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:21">
       <c r="A112" s="2">
         <v>43256</v>
       </c>
@@ -6387,13 +7103,19 @@
         <v>43256.44166666667</v>
       </c>
       <c r="P112">
-        <v>0</v>
+        <v>10.6</v>
+      </c>
+      <c r="Q112">
+        <v>1.3333</v>
+      </c>
+      <c r="R112" s="4">
+        <v>43255</v>
       </c>
       <c r="S112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:21">
       <c r="A113" s="2">
         <v>43257</v>
       </c>
@@ -6440,13 +7162,19 @@
         <v>43257.44583333333</v>
       </c>
       <c r="P113">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="Q113">
+        <v>1.33415</v>
+      </c>
+      <c r="R113" s="4">
+        <v>43256</v>
       </c>
       <c r="S113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:21">
       <c r="A114" s="2">
         <v>43258</v>
       </c>
@@ -6496,10 +7224,16 @@
         <v>0</v>
       </c>
       <c r="S114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19">
+        <v>-44.1</v>
+      </c>
+      <c r="T114">
+        <v>1.34295</v>
+      </c>
+      <c r="U114" s="4">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21">
       <c r="A115" s="2">
         <v>43259</v>
       </c>
@@ -6549,10 +7283,16 @@
         <v>0</v>
       </c>
       <c r="S115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19">
+        <v>-37.4</v>
+      </c>
+      <c r="T115">
+        <v>1.3416</v>
+      </c>
+      <c r="U115" s="4">
+        <v>43258</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21">
       <c r="A116" s="2">
         <v>43262</v>
       </c>
@@ -6599,13 +7339,25 @@
         <v>43262.45763888889</v>
       </c>
       <c r="P116">
-        <v>0</v>
+        <v>4.5</v>
+      </c>
+      <c r="Q116">
+        <v>1.3395</v>
+      </c>
+      <c r="R116" s="4">
+        <v>43259</v>
       </c>
       <c r="S116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19">
+        <v>-5</v>
+      </c>
+      <c r="T116">
+        <v>1.3395</v>
+      </c>
+      <c r="U116" s="4">
+        <v>43259</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21">
       <c r="A117" s="2">
         <v>43263</v>
       </c>
@@ -6655,10 +7407,16 @@
         <v>0</v>
       </c>
       <c r="S117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19">
+        <v>-41.9</v>
+      </c>
+      <c r="T117">
+        <v>1.3392</v>
+      </c>
+      <c r="U117" s="4">
+        <v>43262</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21">
       <c r="A118" s="2">
         <v>43264</v>
       </c>
@@ -6705,13 +7463,19 @@
         <v>43264.44444444445</v>
       </c>
       <c r="P118">
-        <v>0</v>
+        <v>15.4</v>
+      </c>
+      <c r="Q118">
+        <v>1.3355</v>
+      </c>
+      <c r="R118" s="4">
+        <v>43263</v>
       </c>
       <c r="S118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:21">
       <c r="A119" s="2">
         <v>43265</v>
       </c>
@@ -6761,10 +7525,16 @@
         <v>0</v>
       </c>
       <c r="S119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19">
+        <v>-55.1</v>
+      </c>
+      <c r="T119">
+        <v>1.3367</v>
+      </c>
+      <c r="U119" s="4">
+        <v>43264</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21">
       <c r="A120" s="2">
         <v>43266</v>
       </c>
@@ -6814,10 +7584,16 @@
         <v>0</v>
       </c>
       <c r="S120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19">
+        <v>-61.5</v>
+      </c>
+      <c r="T120">
+        <v>1.3329</v>
+      </c>
+      <c r="U120" s="4">
+        <v>43265</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21">
       <c r="A121" s="2">
         <v>43269</v>
       </c>
@@ -6867,10 +7643,16 @@
         <v>0</v>
       </c>
       <c r="S121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19">
+        <v>-52.5</v>
+      </c>
+      <c r="T121">
+        <v>1.32905</v>
+      </c>
+      <c r="U121" s="4">
+        <v>43266</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21">
       <c r="A122" s="2">
         <v>43270</v>
       </c>
@@ -6920,10 +7702,16 @@
         <v>0</v>
       </c>
       <c r="S122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19">
+        <v>-85.3</v>
+      </c>
+      <c r="T122">
+        <v>1.32425</v>
+      </c>
+      <c r="U122" s="4">
+        <v>43269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21">
       <c r="A123" s="2">
         <v>43271</v>
       </c>
@@ -6970,13 +7758,19 @@
         <v>43271.45069444444</v>
       </c>
       <c r="P123">
-        <v>0</v>
+        <v>9.4</v>
+      </c>
+      <c r="Q123">
+        <v>1.31705</v>
+      </c>
+      <c r="R123" s="4">
+        <v>43270</v>
       </c>
       <c r="S123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:21">
       <c r="A124" s="2">
         <v>43272</v>
       </c>
@@ -7023,13 +7817,19 @@
         <v>43272.43888888889</v>
       </c>
       <c r="P124">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="Q124">
+        <v>1.31765</v>
+      </c>
+      <c r="R124" s="4">
+        <v>43271</v>
       </c>
       <c r="S124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:21">
       <c r="A125" s="2">
         <v>43273</v>
       </c>
@@ -7076,13 +7876,25 @@
         <v>43273.44583333333</v>
       </c>
       <c r="P125">
-        <v>0</v>
+        <v>13.6</v>
+      </c>
+      <c r="Q125">
+        <v>1.32575</v>
+      </c>
+      <c r="R125" s="4">
+        <v>43272</v>
       </c>
       <c r="S125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19">
+        <v>-2.5</v>
+      </c>
+      <c r="T125">
+        <v>1.32575</v>
+      </c>
+      <c r="U125" s="4">
+        <v>43272</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21">
       <c r="A126" s="2">
         <v>43276</v>
       </c>
@@ -7129,13 +7941,25 @@
         <v>43276.45</v>
       </c>
       <c r="P126">
-        <v>0</v>
+        <v>3.7</v>
+      </c>
+      <c r="Q126">
+        <v>1.3271</v>
+      </c>
+      <c r="R126" s="4">
+        <v>43273</v>
       </c>
       <c r="S126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19">
+        <v>-13.4</v>
+      </c>
+      <c r="T126">
+        <v>1.3271</v>
+      </c>
+      <c r="U126" s="4">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21">
       <c r="A127" s="2">
         <v>43277</v>
       </c>
@@ -7185,10 +8009,16 @@
         <v>0</v>
       </c>
       <c r="S127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19">
+        <v>-35.5</v>
+      </c>
+      <c r="T127">
+        <v>1.3266</v>
+      </c>
+      <c r="U127" s="4">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21">
       <c r="A128" s="2">
         <v>43278</v>
       </c>
@@ -7238,10 +8068,16 @@
         <v>0</v>
       </c>
       <c r="S128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19">
+        <v>-89.2</v>
+      </c>
+      <c r="T128">
+        <v>1.3234</v>
+      </c>
+      <c r="U128" s="4">
+        <v>43277</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21">
       <c r="A129" s="2">
         <v>43279</v>
       </c>
@@ -7291,10 +8127,16 @@
         <v>0</v>
       </c>
       <c r="S129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19">
+        <v>-55.9</v>
+      </c>
+      <c r="T129">
+        <v>1.31475</v>
+      </c>
+      <c r="U129" s="4">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21">
       <c r="A130" s="2">
         <v>43280</v>
       </c>
@@ -7341,13 +8183,19 @@
         <v>43280.44236111111</v>
       </c>
       <c r="P130">
-        <v>0</v>
+        <v>112.1</v>
+      </c>
+      <c r="Q130">
+        <v>1.30945</v>
+      </c>
+      <c r="R130" s="4">
+        <v>43279</v>
       </c>
       <c r="S130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:21">
       <c r="A131" s="2">
         <v>43283</v>
       </c>
@@ -7397,10 +8245,16 @@
         <v>0</v>
       </c>
       <c r="S131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19">
+        <v>-99.3</v>
+      </c>
+      <c r="T131">
+        <v>1.32025</v>
+      </c>
+      <c r="U131" s="4">
+        <v>43280</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21">
       <c r="A132" s="2">
         <v>43284</v>
       </c>
@@ -7447,13 +8301,19 @@
         <v>43284.45208333333</v>
       </c>
       <c r="P132">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="Q132">
+        <v>1.313</v>
+      </c>
+      <c r="R132" s="4">
+        <v>43283</v>
       </c>
       <c r="S132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:21">
       <c r="A133" s="2">
         <v>43285</v>
       </c>
@@ -7500,13 +8360,19 @@
         <v>43285.45833333334</v>
       </c>
       <c r="P133">
-        <v>0</v>
+        <v>46.4</v>
+      </c>
+      <c r="Q133">
+        <v>1.3174</v>
+      </c>
+      <c r="R133" s="4">
+        <v>43284</v>
       </c>
       <c r="S133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:21">
       <c r="A134" s="2">
         <v>43286</v>
       </c>
@@ -7553,13 +8419,19 @@
         <v>43286.45486111111</v>
       </c>
       <c r="P134">
-        <v>0</v>
+        <v>17.6</v>
+      </c>
+      <c r="Q134">
+        <v>1.32115</v>
+      </c>
+      <c r="R134" s="4">
+        <v>43285</v>
       </c>
       <c r="S134">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:21">
       <c r="A135" s="2">
         <v>43287</v>
       </c>
@@ -7606,13 +8478,19 @@
         <v>43287.45</v>
       </c>
       <c r="P135">
-        <v>0</v>
+        <v>52.6</v>
+      </c>
+      <c r="Q135">
+        <v>1.32235</v>
+      </c>
+      <c r="R135" s="4">
+        <v>43286</v>
       </c>
       <c r="S135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:21">
       <c r="A136" s="2">
         <v>43290</v>
       </c>
@@ -7662,10 +8540,16 @@
         <v>0</v>
       </c>
       <c r="S136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19">
+        <v>-29.7</v>
+      </c>
+      <c r="T136">
+        <v>1.32745</v>
+      </c>
+      <c r="U136" s="4">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21">
       <c r="A137" s="2">
         <v>43291</v>
       </c>
@@ -7712,13 +8596,19 @@
         <v>43291.44375</v>
       </c>
       <c r="P137">
-        <v>0</v>
+        <v>17.5</v>
+      </c>
+      <c r="Q137">
+        <v>1.32585</v>
+      </c>
+      <c r="R137" s="4">
+        <v>43290</v>
       </c>
       <c r="S137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:21">
       <c r="A138" s="2">
         <v>43292</v>
       </c>
@@ -7765,13 +8655,25 @@
         <v>43292.45902777778</v>
       </c>
       <c r="P138">
-        <v>0</v>
+        <v>1.7</v>
+      </c>
+      <c r="Q138">
+        <v>1.32675</v>
+      </c>
+      <c r="R138" s="4">
+        <v>43291</v>
       </c>
       <c r="S138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19">
+        <v>-21.3</v>
+      </c>
+      <c r="T138">
+        <v>1.32675</v>
+      </c>
+      <c r="U138" s="4">
+        <v>43291</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21">
       <c r="A139" s="2">
         <v>43293</v>
       </c>
@@ -7821,10 +8723,16 @@
         <v>0</v>
       </c>
       <c r="S139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19">
+        <v>-34.6</v>
+      </c>
+      <c r="T139">
+        <v>1.32505</v>
+      </c>
+      <c r="U139" s="4">
+        <v>43292</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21">
       <c r="A140" s="2">
         <v>43294</v>
       </c>
@@ -7874,10 +8782,16 @@
         <v>0</v>
       </c>
       <c r="S140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19">
+        <v>-47.5</v>
+      </c>
+      <c r="T140">
+        <v>1.32235</v>
+      </c>
+      <c r="U140" s="4">
+        <v>43293</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21">
       <c r="A141" s="2">
         <v>43297</v>
       </c>
@@ -7924,13 +8838,19 @@
         <v>43297.45902777778</v>
       </c>
       <c r="P141">
-        <v>0</v>
+        <v>68.8</v>
+      </c>
+      <c r="Q141">
+        <v>1.32005</v>
+      </c>
+      <c r="R141" s="4">
+        <v>43294</v>
       </c>
       <c r="S141">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:21">
       <c r="A142" s="2">
         <v>43298</v>
       </c>
@@ -7980,10 +8900,16 @@
         <v>0</v>
       </c>
       <c r="S142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19">
+        <v>-78.09999999999999</v>
+      </c>
+      <c r="T142">
+        <v>1.32325</v>
+      </c>
+      <c r="U142" s="4">
+        <v>43297</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21">
       <c r="A143" s="2">
         <v>43299</v>
       </c>
@@ -8033,10 +8959,16 @@
         <v>0</v>
       </c>
       <c r="S143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19">
+        <v>-123.7</v>
+      </c>
+      <c r="T143">
+        <v>1.31615</v>
+      </c>
+      <c r="U143" s="4">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21">
       <c r="A144" s="2">
         <v>43300</v>
       </c>
@@ -8086,10 +9018,16 @@
         <v>0</v>
       </c>
       <c r="S144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19">
+        <v>-55.6</v>
+      </c>
+      <c r="T144">
+        <v>1.3048</v>
+      </c>
+      <c r="U144" s="4">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21">
       <c r="A145" s="2">
         <v>43301</v>
       </c>
@@ -8136,13 +9074,19 @@
         <v>43301.45972222222</v>
       </c>
       <c r="P145">
-        <v>0</v>
+        <v>107.2</v>
+      </c>
+      <c r="Q145">
+        <v>1.30025</v>
+      </c>
+      <c r="R145" s="4">
+        <v>43300</v>
       </c>
       <c r="S145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:21">
       <c r="A146" s="2">
         <v>43304</v>
       </c>
@@ -8189,13 +9133,19 @@
         <v>43304.45625</v>
       </c>
       <c r="P146">
-        <v>0</v>
+        <v>16.9</v>
+      </c>
+      <c r="Q146">
+        <v>1.3102</v>
+      </c>
+      <c r="R146" s="4">
+        <v>43301</v>
       </c>
       <c r="S146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:21">
       <c r="A147" s="2">
         <v>43305</v>
       </c>
@@ -8242,13 +9192,19 @@
         <v>43305.43888888889</v>
       </c>
       <c r="P147">
-        <v>0</v>
+        <v>45.7</v>
+      </c>
+      <c r="Q147">
+        <v>1.311</v>
+      </c>
+      <c r="R147" s="4">
+        <v>43304</v>
       </c>
       <c r="S147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:21">
       <c r="A148" s="2">
         <v>43306</v>
       </c>
@@ -8298,10 +9254,16 @@
         <v>0</v>
       </c>
       <c r="S148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19">
+        <v>-11</v>
+      </c>
+      <c r="T148">
+        <v>1.31505</v>
+      </c>
+      <c r="U148" s="4">
+        <v>43305</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21">
       <c r="A149" s="2">
         <v>43307</v>
       </c>
@@ -8348,13 +9310,25 @@
         <v>43307.43819444445</v>
       </c>
       <c r="P149">
-        <v>0</v>
+        <v>3.1</v>
+      </c>
+      <c r="Q149">
+        <v>1.31485</v>
+      </c>
+      <c r="R149" s="4">
+        <v>43306</v>
       </c>
       <c r="S149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19">
+        <v>-23.9</v>
+      </c>
+      <c r="T149">
+        <v>1.31485</v>
+      </c>
+      <c r="U149" s="4">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21">
       <c r="A150" s="2">
         <v>43308</v>
       </c>
@@ -8404,10 +9378,16 @@
         <v>0</v>
       </c>
       <c r="S150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19">
+        <v>-38.7</v>
+      </c>
+      <c r="T150">
+        <v>1.3147</v>
+      </c>
+      <c r="U150" s="4">
+        <v>43307</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21">
       <c r="A151" s="2">
         <v>43311</v>
       </c>
@@ -8454,13 +9434,19 @@
         <v>43311.45833333334</v>
       </c>
       <c r="P151">
-        <v>0</v>
+        <v>25.9</v>
+      </c>
+      <c r="Q151">
+        <v>1.3125</v>
+      </c>
+      <c r="R151" s="4">
+        <v>43308</v>
       </c>
       <c r="S151">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:21">
       <c r="A152" s="2">
         <v>43312</v>
       </c>
@@ -8510,10 +9496,16 @@
         <v>0</v>
       </c>
       <c r="S152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19">
+        <v>-50.7</v>
+      </c>
+      <c r="T152">
+        <v>1.3147</v>
+      </c>
+      <c r="U152" s="4">
+        <v>43311</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21">
       <c r="A153" s="2">
         <v>43313</v>
       </c>
@@ -8560,13 +9552,19 @@
         <v>43313.45486111111</v>
       </c>
       <c r="P153">
-        <v>0</v>
+        <v>18.2</v>
+      </c>
+      <c r="Q153">
+        <v>1.31155</v>
+      </c>
+      <c r="R153" s="4">
+        <v>43312</v>
       </c>
       <c r="S153">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:21">
       <c r="A154" s="2">
         <v>43314</v>
       </c>
@@ -8616,10 +9614,16 @@
         <v>0</v>
       </c>
       <c r="S154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19">
+        <v>-91.09999999999999</v>
+      </c>
+      <c r="T154">
+        <v>1.3122</v>
+      </c>
+      <c r="U154" s="4">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21">
       <c r="A155" s="2">
         <v>43315</v>
       </c>
@@ -8669,10 +9673,16 @@
         <v>0</v>
       </c>
       <c r="S155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19">
+        <v>-29.7</v>
+      </c>
+      <c r="T155">
+        <v>1.30325</v>
+      </c>
+      <c r="U155" s="4">
+        <v>43314</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21">
       <c r="A156" s="2">
         <v>43318</v>
       </c>
@@ -8722,10 +9732,16 @@
         <v>0</v>
       </c>
       <c r="S156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19">
+        <v>-79.09999999999999</v>
+      </c>
+      <c r="T156">
+        <v>1.3019</v>
+      </c>
+      <c r="U156" s="4">
+        <v>43315</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21">
       <c r="A157" s="2">
         <v>43319</v>
       </c>
@@ -8772,13 +9788,19 @@
         <v>43319.44722222222</v>
       </c>
       <c r="P157">
-        <v>0</v>
+        <v>14.1</v>
+      </c>
+      <c r="Q157">
+        <v>1.29405</v>
+      </c>
+      <c r="R157" s="4">
+        <v>43318</v>
       </c>
       <c r="S157">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:21">
       <c r="A158" s="2">
         <v>43320</v>
       </c>
@@ -8828,10 +9850,16 @@
         <v>0</v>
       </c>
       <c r="S158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19">
+        <v>-83.2</v>
+      </c>
+      <c r="T158">
+        <v>1.29505</v>
+      </c>
+      <c r="U158" s="4">
+        <v>43319</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21">
       <c r="A159" s="2">
         <v>43321</v>
       </c>
@@ -8878,13 +9906,25 @@
         <v>43321.45763888889</v>
       </c>
       <c r="P159">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="Q159">
+        <v>1.28805</v>
+      </c>
+      <c r="R159" s="4">
+        <v>43320</v>
       </c>
       <c r="S159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19">
+        <v>-13.4</v>
+      </c>
+      <c r="T159">
+        <v>1.28805</v>
+      </c>
+      <c r="U159" s="4">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21">
       <c r="A160" s="2">
         <v>43322</v>
       </c>
@@ -8934,10 +9974,16 @@
         <v>0</v>
       </c>
       <c r="S160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19">
+        <v>-112.4</v>
+      </c>
+      <c r="T160">
+        <v>1.28705</v>
+      </c>
+      <c r="U160" s="4">
+        <v>43321</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21">
       <c r="A161" s="2">
         <v>43325</v>
       </c>
@@ -8984,13 +10030,19 @@
         <v>43325.45972222222</v>
       </c>
       <c r="P161">
-        <v>0</v>
+        <v>14.3</v>
+      </c>
+      <c r="Q161">
+        <v>1.27755</v>
+      </c>
+      <c r="R161" s="4">
+        <v>43322</v>
       </c>
       <c r="S161">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:21">
       <c r="A162" s="2">
         <v>43326</v>
       </c>
@@ -9040,10 +10092,16 @@
         <v>0</v>
       </c>
       <c r="S162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19">
+        <v>-29.8</v>
+      </c>
+      <c r="T162">
+        <v>1.2777</v>
+      </c>
+      <c r="U162" s="4">
+        <v>43325</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21">
       <c r="A163" s="2">
         <v>43327</v>
       </c>
@@ -9093,10 +10151,16 @@
         <v>0</v>
       </c>
       <c r="S163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19">
+        <v>-87</v>
+      </c>
+      <c r="T163">
+        <v>1.2752</v>
+      </c>
+      <c r="U163" s="4">
+        <v>43326</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21">
       <c r="A164" s="2">
         <v>43328</v>
       </c>
@@ -9143,13 +10207,19 @@
         <v>43328.44930555556</v>
       </c>
       <c r="P164">
-        <v>0</v>
+        <v>64.5</v>
+      </c>
+      <c r="Q164">
+        <v>1.26675</v>
+      </c>
+      <c r="R164" s="4">
+        <v>43327</v>
       </c>
       <c r="S164">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:21">
       <c r="A165" s="2">
         <v>43329</v>
       </c>
@@ -9196,13 +10266,19 @@
         <v>43329.45208333333</v>
       </c>
       <c r="P165">
-        <v>0</v>
+        <v>16.3</v>
+      </c>
+      <c r="Q165">
+        <v>1.27235</v>
+      </c>
+      <c r="R165" s="4">
+        <v>43328</v>
       </c>
       <c r="S165">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:21">
       <c r="A166" s="2">
         <v>43332</v>
       </c>
@@ -9249,13 +10325,19 @@
         <v>43332.45833333334</v>
       </c>
       <c r="P166">
-        <v>0</v>
+        <v>36.2</v>
+      </c>
+      <c r="Q166">
+        <v>1.2738</v>
+      </c>
+      <c r="R166" s="4">
+        <v>43329</v>
       </c>
       <c r="S166">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:21">
       <c r="A167" s="2">
         <v>43333</v>
       </c>
@@ -9302,13 +10384,19 @@
         <v>43333.45763888889</v>
       </c>
       <c r="P167">
-        <v>0</v>
+        <v>114.8</v>
+      </c>
+      <c r="Q167">
+        <v>1.2761</v>
+      </c>
+      <c r="R167" s="4">
+        <v>43332</v>
       </c>
       <c r="S167">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:21">
       <c r="A168" s="2">
         <v>43334</v>
       </c>
@@ -9355,13 +10443,19 @@
         <v>43334.45347222222</v>
       </c>
       <c r="P168">
-        <v>0</v>
+        <v>49.9</v>
+      </c>
+      <c r="Q168">
+        <v>1.2866</v>
+      </c>
+      <c r="R168" s="4">
+        <v>43333</v>
       </c>
       <c r="S168">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:21">
       <c r="A169" s="2">
         <v>43335</v>
       </c>
@@ -9411,10 +10505,16 @@
         <v>0</v>
       </c>
       <c r="S169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19">
+        <v>-93.5</v>
+      </c>
+      <c r="T169">
+        <v>1.29105</v>
+      </c>
+      <c r="U169" s="4">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21">
       <c r="A170" s="2">
         <v>43336</v>
       </c>
@@ -9461,13 +10561,19 @@
         <v>43336.44583333333</v>
       </c>
       <c r="P170">
-        <v>0</v>
+        <v>27.8</v>
+      </c>
+      <c r="Q170">
+        <v>1.2835</v>
+      </c>
+      <c r="R170" s="4">
+        <v>43335</v>
       </c>
       <c r="S170">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:21">
       <c r="A171" s="2">
         <v>43339</v>
       </c>
@@ -9514,13 +10620,19 @@
         <v>43339.44444444445</v>
       </c>
       <c r="P171">
-        <v>0</v>
+        <v>32.8</v>
+      </c>
+      <c r="Q171">
+        <v>1.2858</v>
+      </c>
+      <c r="R171" s="4">
+        <v>43336</v>
       </c>
       <c r="S171">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:21">
       <c r="A172" s="2">
         <v>43340</v>
       </c>
@@ -9570,10 +10682,16 @@
         <v>0</v>
       </c>
       <c r="S172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19">
+        <v>-18.1</v>
+      </c>
+      <c r="T172">
+        <v>1.28885</v>
+      </c>
+      <c r="U172" s="4">
+        <v>43339</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21">
       <c r="A173" s="2">
         <v>43341</v>
       </c>
@@ -9620,13 +10738,19 @@
         <v>43341.44027777778</v>
       </c>
       <c r="P173">
-        <v>0</v>
+        <v>123.2</v>
+      </c>
+      <c r="Q173">
+        <v>1.28795</v>
+      </c>
+      <c r="R173" s="4">
+        <v>43340</v>
       </c>
       <c r="S173">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:21">
       <c r="A174" s="2">
         <v>43342</v>
       </c>
@@ -9673,13 +10797,19 @@
         <v>43342.45833333334</v>
       </c>
       <c r="P174">
-        <v>0</v>
+        <v>27.1</v>
+      </c>
+      <c r="Q174">
+        <v>1.29965</v>
+      </c>
+      <c r="R174" s="4">
+        <v>43341</v>
       </c>
       <c r="S174">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:21">
       <c r="A175" s="2">
         <v>43343</v>
       </c>
@@ -9729,10 +10859,16 @@
         <v>0</v>
       </c>
       <c r="S175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19">
+        <v>-26.6</v>
+      </c>
+      <c r="T175">
+        <v>1.30075</v>
+      </c>
+      <c r="U175" s="4">
+        <v>43342</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21">
       <c r="A176" s="2">
         <v>43346</v>
       </c>
@@ -9782,10 +10918,16 @@
         <v>0</v>
       </c>
       <c r="S176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19">
+        <v>-124.7</v>
+      </c>
+      <c r="T176">
+        <v>1.2998</v>
+      </c>
+      <c r="U176" s="4">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21">
       <c r="A177" s="2">
         <v>43347</v>
       </c>
@@ -9835,10 +10977,16 @@
         <v>0</v>
       </c>
       <c r="S177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19">
+        <v>-74.8</v>
+      </c>
+      <c r="T177">
+        <v>1.28855</v>
+      </c>
+      <c r="U177" s="4">
+        <v>43346</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21">
       <c r="A178" s="2">
         <v>43348</v>
       </c>
@@ -9885,13 +11033,19 @@
         <v>43348.45972222222</v>
       </c>
       <c r="P178">
-        <v>0</v>
+        <v>137.9</v>
+      </c>
+      <c r="Q178">
+        <v>1.2833</v>
+      </c>
+      <c r="R178" s="4">
+        <v>43347</v>
       </c>
       <c r="S178">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:21">
       <c r="A179" s="2">
         <v>43349</v>
       </c>
@@ -9941,10 +11095,16 @@
         <v>0</v>
       </c>
       <c r="S179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19">
+        <v>-24.6</v>
+      </c>
+      <c r="T179">
+        <v>1.29575</v>
+      </c>
+      <c r="U179" s="4">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21">
       <c r="A180" s="2">
         <v>43350</v>
       </c>
@@ -9991,13 +11151,25 @@
         <v>43350.45902777778</v>
       </c>
       <c r="P180">
-        <v>0</v>
+        <v>26.2</v>
+      </c>
+      <c r="Q180">
+        <v>1.29525</v>
+      </c>
+      <c r="R180" s="4">
+        <v>43349</v>
       </c>
       <c r="S180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19">
+        <v>-5</v>
+      </c>
+      <c r="T180">
+        <v>1.29525</v>
+      </c>
+      <c r="U180" s="4">
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21">
       <c r="A181" s="2">
         <v>43353</v>
       </c>
@@ -10044,13 +11216,19 @@
         <v>43353.45069444444</v>
       </c>
       <c r="P181">
-        <v>0</v>
+        <v>68.2</v>
+      </c>
+      <c r="Q181">
+        <v>1.29575</v>
+      </c>
+      <c r="R181" s="4">
+        <v>43350</v>
       </c>
       <c r="S181">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:21">
       <c r="A182" s="2">
         <v>43354</v>
       </c>
@@ -10100,10 +11278,16 @@
         <v>0</v>
       </c>
       <c r="S182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19">
+        <v>-28.8</v>
+      </c>
+      <c r="T182">
+        <v>1.3019</v>
+      </c>
+      <c r="U182" s="4">
+        <v>43353</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21">
       <c r="A183" s="2">
         <v>43355</v>
       </c>
@@ -10150,13 +11334,19 @@
         <v>43355.44375</v>
       </c>
       <c r="P183">
-        <v>0</v>
+        <v>25.2</v>
+      </c>
+      <c r="Q183">
+        <v>1.29985</v>
+      </c>
+      <c r="R183" s="4">
+        <v>43354</v>
       </c>
       <c r="S183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:21">
       <c r="A184" s="2">
         <v>43356</v>
       </c>
@@ -10203,13 +11393,19 @@
         <v>43356.44652777778</v>
       </c>
       <c r="P184">
-        <v>0</v>
+        <v>80.5</v>
+      </c>
+      <c r="Q184">
+        <v>1.30215</v>
+      </c>
+      <c r="R184" s="4">
+        <v>43355</v>
       </c>
       <c r="S184">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:21">
       <c r="A185" s="2">
         <v>43357</v>
       </c>
@@ -10259,10 +11455,16 @@
         <v>0</v>
       </c>
       <c r="S185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19">
+        <v>-21.3</v>
+      </c>
+      <c r="T185">
+        <v>1.3093</v>
+      </c>
+      <c r="U185" s="4">
+        <v>43356</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21">
       <c r="A186" s="2">
         <v>43360</v>
       </c>
@@ -10309,13 +11511,19 @@
         <v>43360.45347222222</v>
       </c>
       <c r="P186">
-        <v>0</v>
+        <v>77.90000000000001</v>
+      </c>
+      <c r="Q186">
+        <v>1.3077</v>
+      </c>
+      <c r="R186" s="4">
+        <v>43357</v>
       </c>
       <c r="S186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:21">
       <c r="A187" s="2">
         <v>43361</v>
       </c>
@@ -10362,13 +11570,25 @@
         <v>43361.45625</v>
       </c>
       <c r="P187">
-        <v>0</v>
+        <v>4.3</v>
+      </c>
+      <c r="Q187">
+        <v>1.31505</v>
+      </c>
+      <c r="R187" s="4">
+        <v>43360</v>
       </c>
       <c r="S187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:19">
+        <v>-5.6</v>
+      </c>
+      <c r="T187">
+        <v>1.31505</v>
+      </c>
+      <c r="U187" s="4">
+        <v>43360</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21">
       <c r="A188" s="2">
         <v>43362</v>
       </c>
@@ -10415,13 +11635,25 @@
         <v>43362.43819444445</v>
       </c>
       <c r="P188">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="Q188">
+        <v>1.3151</v>
+      </c>
+      <c r="R188" s="4">
+        <v>43361</v>
       </c>
       <c r="S188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19">
+        <v>-12.1</v>
+      </c>
+      <c r="T188">
+        <v>1.3151</v>
+      </c>
+      <c r="U188" s="4">
+        <v>43361</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21">
       <c r="A189" s="2">
         <v>43363</v>
       </c>
@@ -10468,13 +11700,19 @@
         <v>43363.45555555556</v>
       </c>
       <c r="P189">
-        <v>0</v>
+        <v>115.8</v>
+      </c>
+      <c r="Q189">
+        <v>1.3152</v>
+      </c>
+      <c r="R189" s="4">
+        <v>43362</v>
       </c>
       <c r="S189">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:21">
       <c r="A190" s="2">
         <v>43364</v>
       </c>
@@ -10524,10 +11762,16 @@
         <v>0</v>
       </c>
       <c r="S190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19">
+        <v>-167.5</v>
+      </c>
+      <c r="T190">
+        <v>1.3251</v>
+      </c>
+      <c r="U190" s="4">
+        <v>43363</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
       <c r="A191" s="2">
         <v>43367</v>
       </c>
@@ -10574,13 +11818,19 @@
         <v>43367.44027777778</v>
       </c>
       <c r="P191">
-        <v>0</v>
+        <v>45.1</v>
+      </c>
+      <c r="Q191">
+        <v>1.30965</v>
+      </c>
+      <c r="R191" s="4">
+        <v>43364</v>
       </c>
       <c r="S191">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:21">
       <c r="A192" s="2">
         <v>43368</v>
       </c>
@@ -10627,13 +11877,19 @@
         <v>43368.45</v>
       </c>
       <c r="P192">
-        <v>0</v>
+        <v>32.3</v>
+      </c>
+      <c r="Q192">
+        <v>1.3141</v>
+      </c>
+      <c r="R192" s="4">
+        <v>43367</v>
       </c>
       <c r="S192">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:21">
       <c r="A193" s="2">
         <v>43369</v>
       </c>
@@ -10680,13 +11936,19 @@
         <v>43369.44236111111</v>
       </c>
       <c r="P193">
-        <v>0</v>
+        <v>32.5</v>
+      </c>
+      <c r="Q193">
+        <v>1.31625</v>
+      </c>
+      <c r="R193" s="4">
+        <v>43368</v>
       </c>
       <c r="S193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:21">
       <c r="A194" s="2">
         <v>43370</v>
       </c>
@@ -10736,10 +11998,16 @@
         <v>0</v>
       </c>
       <c r="S194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19">
+        <v>-71.3</v>
+      </c>
+      <c r="T194">
+        <v>1.31865</v>
+      </c>
+      <c r="U194" s="4">
+        <v>43369</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21">
       <c r="A195" s="2">
         <v>43371</v>
       </c>
@@ -10789,10 +12057,16 @@
         <v>0</v>
       </c>
       <c r="S195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19">
+        <v>-116.9</v>
+      </c>
+      <c r="T195">
+        <v>1.31215</v>
+      </c>
+      <c r="U195" s="4">
+        <v>43370</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21">
       <c r="A196" s="2">
         <v>43374</v>
       </c>
@@ -10839,13 +12113,19 @@
         <v>43374.45763888889</v>
       </c>
       <c r="P196">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="Q196">
+        <v>1.3038</v>
+      </c>
+      <c r="R196" s="4">
+        <v>43371</v>
       </c>
       <c r="S196">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:21">
       <c r="A197" s="2">
         <v>43375</v>
       </c>
@@ -10895,10 +12175,16 @@
         <v>0</v>
       </c>
       <c r="S197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19">
+        <v>-88.59999999999999</v>
+      </c>
+      <c r="T197">
+        <v>1.3048</v>
+      </c>
+      <c r="U197" s="4">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21">
       <c r="A198" s="2">
         <v>43376</v>
       </c>
@@ -10945,13 +12231,19 @@
         <v>43376.44652777778</v>
       </c>
       <c r="P198">
-        <v>0</v>
+        <v>34.6</v>
+      </c>
+      <c r="Q198">
+        <v>1.2983</v>
+      </c>
+      <c r="R198" s="4">
+        <v>43375</v>
       </c>
       <c r="S198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:21">
       <c r="A199" s="2">
         <v>43377</v>
       </c>
@@ -10998,13 +12290,19 @@
         <v>43377.45694444444</v>
       </c>
       <c r="P199">
-        <v>0</v>
+        <v>27.2</v>
+      </c>
+      <c r="Q199">
+        <v>1.3006</v>
+      </c>
+      <c r="R199" s="4">
+        <v>43376</v>
       </c>
       <c r="S199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:21">
       <c r="A200" s="2">
         <v>43378</v>
       </c>
@@ -11051,13 +12349,19 @@
         <v>43378.44305555556</v>
       </c>
       <c r="P200">
-        <v>0</v>
+        <v>95.3</v>
+      </c>
+      <c r="Q200">
+        <v>1.30265</v>
+      </c>
+      <c r="R200" s="4">
+        <v>43377</v>
       </c>
       <c r="S200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:21">
       <c r="A201" s="2">
         <v>43381</v>
       </c>
@@ -11107,10 +12411,16 @@
         <v>0</v>
       </c>
       <c r="S201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19">
+        <v>-17.4</v>
+      </c>
+      <c r="T201">
+        <v>1.3079</v>
+      </c>
+      <c r="U201" s="4">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21">
       <c r="A202" s="2">
         <v>43382</v>
       </c>
@@ -11157,13 +12467,19 @@
         <v>43382.45972222222</v>
       </c>
       <c r="P202">
-        <v>0</v>
+        <v>39.7</v>
+      </c>
+      <c r="Q202">
+        <v>1.30685</v>
+      </c>
+      <c r="R202" s="4">
+        <v>43381</v>
       </c>
       <c r="S202">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:21">
       <c r="A203" s="2">
         <v>43383</v>
       </c>
@@ -11210,13 +12526,19 @@
         <v>43383.4375</v>
       </c>
       <c r="P203">
-        <v>0</v>
+        <v>119.5</v>
+      </c>
+      <c r="Q203">
+        <v>1.30895</v>
+      </c>
+      <c r="R203" s="4">
+        <v>43382</v>
       </c>
       <c r="S203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:21">
       <c r="A204" s="2">
         <v>43384</v>
       </c>
@@ -11263,13 +12585,19 @@
         <v>43384.45972222222</v>
       </c>
       <c r="P204">
-        <v>0</v>
+        <v>29.7</v>
+      </c>
+      <c r="Q204">
+        <v>1.32</v>
+      </c>
+      <c r="R204" s="4">
+        <v>43383</v>
       </c>
       <c r="S204">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:21">
       <c r="A205" s="2">
         <v>43385</v>
       </c>
@@ -11319,10 +12647,16 @@
         <v>0</v>
       </c>
       <c r="S205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:19">
+        <v>-61.1</v>
+      </c>
+      <c r="T205">
+        <v>1.32145</v>
+      </c>
+      <c r="U205" s="4">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21">
       <c r="A206" s="2">
         <v>43388</v>
       </c>
@@ -11369,13 +12703,25 @@
         <v>43388.44027777778</v>
       </c>
       <c r="P206">
-        <v>0</v>
+        <v>3.8</v>
+      </c>
+      <c r="Q206">
+        <v>1.31565</v>
+      </c>
+      <c r="R206" s="4">
+        <v>43385</v>
       </c>
       <c r="S206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:19">
+        <v>-24.5</v>
+      </c>
+      <c r="T206">
+        <v>1.31565</v>
+      </c>
+      <c r="U206" s="4">
+        <v>43385</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21">
       <c r="A207" s="2">
         <v>43389</v>
       </c>
@@ -11422,13 +12768,19 @@
         <v>43389.45902777778</v>
       </c>
       <c r="P207">
-        <v>0</v>
+        <v>80.59999999999999</v>
+      </c>
+      <c r="Q207">
+        <v>1.31405</v>
+      </c>
+      <c r="R207" s="4">
+        <v>43388</v>
       </c>
       <c r="S207">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:19">
+    <row r="208" spans="1:21">
       <c r="A208" s="2">
         <v>43390</v>
       </c>
@@ -11478,10 +12830,16 @@
         <v>0</v>
       </c>
       <c r="S208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:19">
+        <v>-90.2</v>
+      </c>
+      <c r="T208">
+        <v>1.3213</v>
+      </c>
+      <c r="U208" s="4">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21">
       <c r="A209" s="2">
         <v>43391</v>
       </c>
@@ -11531,10 +12889,16 @@
         <v>0</v>
       </c>
       <c r="S209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:19">
+        <v>-64</v>
+      </c>
+      <c r="T209">
+        <v>1.31325</v>
+      </c>
+      <c r="U209" s="4">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21">
       <c r="A210" s="2">
         <v>43392</v>
       </c>
@@ -11584,10 +12948,16 @@
         <v>0</v>
       </c>
       <c r="S210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:19">
+        <v>-35.9</v>
+      </c>
+      <c r="T210">
+        <v>1.3074</v>
+      </c>
+      <c r="U210" s="4">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21">
       <c r="A211" s="2">
         <v>43395</v>
       </c>
@@ -11637,10 +13007,16 @@
         <v>0</v>
       </c>
       <c r="S211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:19">
+        <v>-74.09999999999999</v>
+      </c>
+      <c r="T211">
+        <v>1.3045</v>
+      </c>
+      <c r="U211" s="4">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21">
       <c r="A212" s="2">
         <v>43396</v>
       </c>
@@ -11687,13 +13063,25 @@
         <v>43396.45902777778</v>
       </c>
       <c r="P212">
-        <v>0</v>
+        <v>12.1</v>
+      </c>
+      <c r="Q212">
+        <v>1.2975</v>
+      </c>
+      <c r="R212" s="4">
+        <v>43395</v>
       </c>
       <c r="S212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:19">
+        <v>-2.7</v>
+      </c>
+      <c r="T212">
+        <v>1.2975</v>
+      </c>
+      <c r="U212" s="4">
+        <v>43395</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21">
       <c r="A213" s="2">
         <v>43397</v>
       </c>
@@ -11743,10 +13131,16 @@
         <v>0</v>
       </c>
       <c r="S213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:19">
+        <v>-64.5</v>
+      </c>
+      <c r="T213">
+        <v>1.29745</v>
+      </c>
+      <c r="U213" s="4">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21">
       <c r="A214" s="2">
         <v>43398</v>
       </c>
@@ -11796,10 +13190,16 @@
         <v>0</v>
       </c>
       <c r="S214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:19">
+        <v>-101.4</v>
+      </c>
+      <c r="T214">
+        <v>1.29135</v>
+      </c>
+      <c r="U214" s="4">
+        <v>43397</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21">
       <c r="A215" s="2">
         <v>43399</v>
       </c>
@@ -11846,13 +13246,25 @@
         <v>43399.43888888889</v>
       </c>
       <c r="P215">
-        <v>0</v>
+        <v>5.4</v>
+      </c>
+      <c r="Q215">
+        <v>1.28145</v>
+      </c>
+      <c r="R215" s="4">
+        <v>43398</v>
       </c>
       <c r="S215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:19">
+        <v>-4.3</v>
+      </c>
+      <c r="T215">
+        <v>1.28145</v>
+      </c>
+      <c r="U215" s="4">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21">
       <c r="A216" s="2">
         <v>43402</v>
       </c>
@@ -11902,10 +13314,16 @@
         <v>0</v>
       </c>
       <c r="S216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:19">
+        <v>-10.6</v>
+      </c>
+      <c r="T216">
+        <v>1.28185</v>
+      </c>
+      <c r="U216" s="4">
+        <v>43399</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21">
       <c r="A217" s="2">
         <v>43403</v>
       </c>
@@ -11955,10 +13373,16 @@
         <v>0</v>
       </c>
       <c r="S217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:19">
+        <v>-72</v>
+      </c>
+      <c r="T217">
+        <v>1.28085</v>
+      </c>
+      <c r="U217" s="4">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21">
       <c r="A218" s="2">
         <v>43404</v>
       </c>
@@ -12005,13 +13429,19 @@
         <v>43404.45486111111</v>
       </c>
       <c r="P218">
-        <v>0</v>
+        <v>41.1</v>
+      </c>
+      <c r="Q218">
+        <v>1.2733</v>
+      </c>
+      <c r="R218" s="4">
+        <v>43403</v>
       </c>
       <c r="S218">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:19">
+    <row r="219" spans="1:21">
       <c r="A219" s="2">
         <v>43405</v>
       </c>
@@ -12058,13 +13488,19 @@
         <v>43405.44444444445</v>
       </c>
       <c r="P219">
-        <v>0</v>
+        <v>168.4</v>
+      </c>
+      <c r="Q219">
+        <v>1.2783</v>
+      </c>
+      <c r="R219" s="4">
+        <v>43404</v>
       </c>
       <c r="S219">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:19">
+    <row r="220" spans="1:21">
       <c r="A220" s="2">
         <v>43406</v>
       </c>
@@ -12111,13 +13547,19 @@
         <v>43406.45972222222</v>
       </c>
       <c r="P220">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="Q220">
+        <v>1.29725</v>
+      </c>
+      <c r="R220" s="4">
+        <v>43405</v>
       </c>
       <c r="S220">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:19">
+    <row r="221" spans="1:21">
       <c r="A221" s="2">
         <v>43409</v>
       </c>
@@ -12164,13 +13606,19 @@
         <v>43409.45069444444</v>
       </c>
       <c r="P221">
-        <v>0</v>
+        <v>66.3</v>
+      </c>
+      <c r="Q221">
+        <v>1.29645</v>
+      </c>
+      <c r="R221" s="4">
+        <v>43406</v>
       </c>
       <c r="S221">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:19">
+    <row r="222" spans="1:21">
       <c r="A222" s="2">
         <v>43410</v>
       </c>
@@ -12217,13 +13665,19 @@
         <v>43410.44513888889</v>
       </c>
       <c r="P222">
-        <v>0</v>
+        <v>62.5</v>
+      </c>
+      <c r="Q222">
+        <v>1.302</v>
+      </c>
+      <c r="R222" s="4">
+        <v>43409</v>
       </c>
       <c r="S222">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:19">
+    <row r="223" spans="1:21">
       <c r="A223" s="2">
         <v>43411</v>
       </c>
@@ -12270,13 +13724,19 @@
         <v>43411.45972222222</v>
       </c>
       <c r="P223">
-        <v>0</v>
+        <v>85.2</v>
+      </c>
+      <c r="Q223">
+        <v>1.30795</v>
+      </c>
+      <c r="R223" s="4">
+        <v>43410</v>
       </c>
       <c r="S223">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:19">
+    <row r="224" spans="1:21">
       <c r="A224" s="2">
         <v>43412</v>
       </c>
@@ -12326,10 +13786,16 @@
         <v>0</v>
       </c>
       <c r="S224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:19">
+        <v>-29.2</v>
+      </c>
+      <c r="T224">
+        <v>1.31425</v>
+      </c>
+      <c r="U224" s="4">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21">
       <c r="A225" s="2">
         <v>43413</v>
       </c>
@@ -12379,10 +13845,16 @@
         <v>0</v>
       </c>
       <c r="S225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:19">
+        <v>-102.5</v>
+      </c>
+      <c r="T225">
+        <v>1.31275</v>
+      </c>
+      <c r="U225" s="4">
+        <v>43412</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21">
       <c r="A226" s="2">
         <v>43416</v>
       </c>
@@ -12432,10 +13904,16 @@
         <v>0</v>
       </c>
       <c r="S226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:19">
+        <v>-165</v>
+      </c>
+      <c r="T226">
+        <v>1.30285</v>
+      </c>
+      <c r="U226" s="4">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21">
       <c r="A227" s="2">
         <v>43417</v>
       </c>
@@ -12482,13 +13960,19 @@
         <v>43417.44166666667</v>
       </c>
       <c r="P227">
-        <v>0</v>
+        <v>127.2</v>
+      </c>
+      <c r="Q227">
+        <v>1.28685</v>
+      </c>
+      <c r="R227" s="4">
+        <v>43416</v>
       </c>
       <c r="S227">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:19">
+    <row r="228" spans="1:21">
       <c r="A228" s="2">
         <v>43418</v>
       </c>
@@ -12535,13 +14019,25 @@
         <v>43418.43958333333</v>
       </c>
       <c r="P228">
-        <v>0</v>
+        <v>27.2</v>
+      </c>
+      <c r="Q228">
+        <v>1.29915</v>
+      </c>
+      <c r="R228" s="4">
+        <v>43417</v>
       </c>
       <c r="S228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:19">
+        <v>-16.7</v>
+      </c>
+      <c r="T228">
+        <v>1.29915</v>
+      </c>
+      <c r="U228" s="4">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21">
       <c r="A229" s="2">
         <v>43419</v>
       </c>
@@ -12591,10 +14087,16 @@
         <v>0</v>
       </c>
       <c r="S229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:19">
+        <v>-242.5</v>
+      </c>
+      <c r="T229">
+        <v>1.3007</v>
+      </c>
+      <c r="U229" s="4">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21">
       <c r="A230" s="2">
         <v>43420</v>
       </c>
@@ -12641,13 +14143,19 @@
         <v>43420.45208333333</v>
       </c>
       <c r="P230">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="Q230">
+        <v>1.27845</v>
+      </c>
+      <c r="R230" s="4">
+        <v>43419</v>
       </c>
       <c r="S230">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:19">
+    <row r="231" spans="1:21">
       <c r="A231" s="2">
         <v>43423</v>
       </c>
@@ -12694,13 +14202,19 @@
         <v>43423.45902777778</v>
       </c>
       <c r="P231">
-        <v>0</v>
+        <v>32.6</v>
+      </c>
+      <c r="Q231">
+        <v>1.28385</v>
+      </c>
+      <c r="R231" s="4">
+        <v>43420</v>
       </c>
       <c r="S231">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:19">
+    <row r="232" spans="1:21">
       <c r="A232" s="2">
         <v>43424</v>
       </c>
@@ -12750,10 +14264,16 @@
         <v>0</v>
       </c>
       <c r="S232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:19">
+        <v>-49</v>
+      </c>
+      <c r="T232">
+        <v>1.28635</v>
+      </c>
+      <c r="U232" s="4">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21">
       <c r="A233" s="2">
         <v>43425</v>
       </c>
@@ -12803,10 +14323,16 @@
         <v>0</v>
       </c>
       <c r="S233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:19">
+        <v>-49.8</v>
+      </c>
+      <c r="T233">
+        <v>1.2826</v>
+      </c>
+      <c r="U233" s="4">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21">
       <c r="A234" s="2">
         <v>43426</v>
       </c>
@@ -12853,13 +14379,19 @@
         <v>43426.45416666667</v>
       </c>
       <c r="P234">
-        <v>0</v>
+        <v>95.2</v>
+      </c>
+      <c r="Q234">
+        <v>1.2781</v>
+      </c>
+      <c r="R234" s="4">
+        <v>43425</v>
       </c>
       <c r="S234">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:19">
+    <row r="235" spans="1:21">
       <c r="A235" s="2">
         <v>43427</v>
       </c>
@@ -12909,10 +14441,16 @@
         <v>0</v>
       </c>
       <c r="S235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:19">
+        <v>-71.3</v>
+      </c>
+      <c r="T235">
+        <v>1.2873</v>
+      </c>
+      <c r="U235" s="4">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21">
       <c r="A236" s="2">
         <v>43430</v>
       </c>
@@ -12959,13 +14497,19 @@
         <v>43430.45902777778</v>
       </c>
       <c r="P236">
-        <v>0</v>
+        <v>30.1</v>
+      </c>
+      <c r="Q236">
+        <v>1.2807</v>
+      </c>
+      <c r="R236" s="4">
+        <v>43427</v>
       </c>
       <c r="S236">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:19">
+    <row r="237" spans="1:21">
       <c r="A237" s="2">
         <v>43431</v>
       </c>
@@ -13015,10 +14559,16 @@
         <v>0</v>
       </c>
       <c r="S237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:19">
+        <v>-90.7</v>
+      </c>
+      <c r="T237">
+        <v>1.2828</v>
+      </c>
+      <c r="U237" s="4">
+        <v>43430</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21">
       <c r="A238" s="2">
         <v>43432</v>
       </c>
@@ -13065,13 +14615,19 @@
         <v>43432.45555555556</v>
       </c>
       <c r="P238">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="Q238">
+        <v>1.2743</v>
+      </c>
+      <c r="R238" s="4">
+        <v>43431</v>
       </c>
       <c r="S238">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:19">
+    <row r="239" spans="1:21">
       <c r="A239" s="2">
         <v>43433</v>
       </c>
@@ -13118,13 +14674,19 @@
         <v>43433.45416666667</v>
       </c>
       <c r="P239">
-        <v>0</v>
+        <v>29.2</v>
+      </c>
+      <c r="Q239">
+        <v>1.2752</v>
+      </c>
+      <c r="R239" s="4">
+        <v>43432</v>
       </c>
       <c r="S239">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:19">
+    <row r="240" spans="1:21">
       <c r="A240" s="2">
         <v>43434</v>
       </c>
@@ -13174,10 +14736,16 @@
         <v>0</v>
       </c>
       <c r="S240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:19">
+        <v>-27.6</v>
+      </c>
+      <c r="T240">
+        <v>1.27745</v>
+      </c>
+      <c r="U240" s="4">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21">
       <c r="A241" s="2">
         <v>43437</v>
       </c>
@@ -13227,10 +14795,16 @@
         <v>0</v>
       </c>
       <c r="S241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:19">
+        <v>-25.1</v>
+      </c>
+      <c r="T241">
+        <v>1.27545</v>
+      </c>
+      <c r="U241" s="4">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21">
       <c r="A242" s="2">
         <v>43438</v>
       </c>
@@ -13277,13 +14851,25 @@
         <v>43438.45347222222</v>
       </c>
       <c r="P242">
-        <v>0</v>
+        <v>4.7</v>
+      </c>
+      <c r="Q242">
+        <v>1.27385</v>
+      </c>
+      <c r="R242" s="4">
+        <v>43437</v>
       </c>
       <c r="S242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:19">
+        <v>-21.1</v>
+      </c>
+      <c r="T242">
+        <v>1.27385</v>
+      </c>
+      <c r="U242" s="4">
+        <v>43437</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21">
       <c r="A243" s="2">
         <v>43439</v>
       </c>
@@ -13330,13 +14916,25 @@
         <v>43439.44166666667</v>
       </c>
       <c r="P243">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="Q243">
+        <v>1.2727</v>
+      </c>
+      <c r="R243" s="4">
+        <v>43438</v>
       </c>
       <c r="S243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:19">
+        <v>-5.7</v>
+      </c>
+      <c r="T243">
+        <v>1.2727</v>
+      </c>
+      <c r="U243" s="4">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21">
       <c r="A244" s="2">
         <v>43440</v>
       </c>
@@ -13383,13 +14981,19 @@
         <v>43440.45625</v>
       </c>
       <c r="P244">
-        <v>0</v>
+        <v>64.5</v>
+      </c>
+      <c r="Q244">
+        <v>1.27335</v>
+      </c>
+      <c r="R244" s="4">
+        <v>43439</v>
       </c>
       <c r="S244">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:19">
+    <row r="245" spans="1:21">
       <c r="A245" s="2">
         <v>43441</v>
       </c>
@@ -13439,10 +15043,16 @@
         <v>0</v>
       </c>
       <c r="S245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:19">
+        <v>-50</v>
+      </c>
+      <c r="T245">
+        <v>1.27785</v>
+      </c>
+      <c r="U245" s="4">
+        <v>43440</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21">
       <c r="A246" s="2">
         <v>43444</v>
       </c>
@@ -13492,10 +15102,16 @@
         <v>0</v>
       </c>
       <c r="S246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:19">
+        <v>-232</v>
+      </c>
+      <c r="T246">
+        <v>1.27565</v>
+      </c>
+      <c r="U246" s="4">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21">
       <c r="A247" s="2">
         <v>43445</v>
       </c>
@@ -13542,13 +15158,25 @@
         <v>43445.45902777778</v>
       </c>
       <c r="P247">
-        <v>0</v>
+        <v>23.5</v>
+      </c>
+      <c r="Q247">
+        <v>1.2537</v>
+      </c>
+      <c r="R247" s="4">
+        <v>43444</v>
       </c>
       <c r="S247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:19">
+        <v>-35</v>
+      </c>
+      <c r="T247">
+        <v>1.2537</v>
+      </c>
+      <c r="U247" s="4">
+        <v>43444</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21">
       <c r="A248" s="2">
         <v>43446</v>
       </c>
@@ -13595,13 +15223,19 @@
         <v>43446.44722222222</v>
       </c>
       <c r="P248">
-        <v>0</v>
+        <v>124.9</v>
+      </c>
+      <c r="Q248">
+        <v>1.25425</v>
+      </c>
+      <c r="R248" s="4">
+        <v>43445</v>
       </c>
       <c r="S248">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:19">
+    <row r="249" spans="1:21">
       <c r="A249" s="2">
         <v>43447</v>
       </c>
@@ -13651,10 +15285,16 @@
         <v>0</v>
       </c>
       <c r="S249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:19">
+        <v>-46.9</v>
+      </c>
+      <c r="T249">
+        <v>1.26635</v>
+      </c>
+      <c r="U249" s="4">
+        <v>43446</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21">
       <c r="A250" s="2">
         <v>43448</v>
       </c>
@@ -13704,10 +15344,16 @@
         <v>0</v>
       </c>
       <c r="S250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:19">
+        <v>-71.8</v>
+      </c>
+      <c r="T250">
+        <v>1.26205</v>
+      </c>
+      <c r="U250" s="4">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21">
       <c r="A251" s="2">
         <v>43451</v>
       </c>
@@ -13754,13 +15400,19 @@
         <v>43451.45138888889</v>
       </c>
       <c r="P251">
-        <v>0</v>
+        <v>56.2</v>
+      </c>
+      <c r="Q251">
+        <v>1.2558</v>
+      </c>
+      <c r="R251" s="4">
+        <v>43448</v>
       </c>
       <c r="S251">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:19">
+    <row r="252" spans="1:21">
       <c r="A252" s="2">
         <v>43452</v>
       </c>
@@ -13807,13 +15459,19 @@
         <v>43452.45763888889</v>
       </c>
       <c r="P252">
-        <v>0</v>
+        <v>56.3</v>
+      </c>
+      <c r="Q252">
+        <v>1.2611</v>
+      </c>
+      <c r="R252" s="4">
+        <v>43451</v>
       </c>
       <c r="S252">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:19">
+    <row r="253" spans="1:21">
       <c r="A253" s="2">
         <v>43453</v>
       </c>
@@ -13860,13 +15518,19 @@
         <v>43453.45763888889</v>
       </c>
       <c r="P253">
-        <v>0</v>
+        <v>36.3</v>
+      </c>
+      <c r="Q253">
+        <v>1.26325</v>
+      </c>
+      <c r="R253" s="4">
+        <v>43452</v>
       </c>
       <c r="S253">
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:19">
+    <row r="254" spans="1:21">
       <c r="A254" s="2">
         <v>43454</v>
       </c>
@@ -13916,10 +15580,16 @@
         <v>0</v>
       </c>
       <c r="S254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:19">
+        <v>-16.6</v>
+      </c>
+      <c r="T254">
+        <v>1.26435</v>
+      </c>
+      <c r="U254" s="4">
+        <v>43453</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21">
       <c r="A255" s="2">
         <v>43455</v>
       </c>
@@ -13966,13 +15636,19 @@
         <v>43455.4375</v>
       </c>
       <c r="P255">
-        <v>0</v>
+        <v>54.9</v>
+      </c>
+      <c r="Q255">
+        <v>1.26345</v>
+      </c>
+      <c r="R255" s="4">
+        <v>43454</v>
       </c>
       <c r="S255">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:19">
+    <row r="256" spans="1:21">
       <c r="A256" s="2">
         <v>43458</v>
       </c>
@@ -14019,13 +15695,25 @@
         <v>43458.44444444445</v>
       </c>
       <c r="P256">
-        <v>0</v>
+        <v>3.7</v>
+      </c>
+      <c r="Q256">
+        <v>1.2714</v>
+      </c>
+      <c r="R256" s="4">
+        <v>43457</v>
       </c>
       <c r="S256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:19">
+        <v>-14.7</v>
+      </c>
+      <c r="T256">
+        <v>1.2714</v>
+      </c>
+      <c r="U256" s="4">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21">
       <c r="A257" s="2">
         <v>43460</v>
       </c>
@@ -14075,10 +15763,16 @@
         <v>0</v>
       </c>
       <c r="S257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:19">
+        <v>-42.4</v>
+      </c>
+      <c r="T257">
+        <v>1.2714</v>
+      </c>
+      <c r="U257" s="4">
+        <v>43458</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21">
       <c r="A258" s="2">
         <v>43461</v>
       </c>
@@ -14128,10 +15822,16 @@
         <v>0</v>
       </c>
       <c r="S258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:19">
+        <v>-44.7</v>
+      </c>
+      <c r="T258">
+        <v>1.2677</v>
+      </c>
+      <c r="U258" s="4">
+        <v>43460</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21">
       <c r="A259" s="2">
         <v>43462</v>
       </c>
@@ -14178,13 +15878,19 @@
         <v>43462.45486111111</v>
       </c>
       <c r="P259">
-        <v>0</v>
+        <v>51.4</v>
+      </c>
+      <c r="Q259">
+        <v>1.2639</v>
+      </c>
+      <c r="R259" s="4">
+        <v>43461</v>
       </c>
       <c r="S259">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:19">
+    <row r="260" spans="1:21">
       <c r="A260" s="2">
         <v>43465</v>
       </c>
@@ -14231,7 +15937,13 @@
         <v>43465.45902777778</v>
       </c>
       <c r="P260">
-        <v>0</v>
+        <v>131.2</v>
+      </c>
+      <c r="Q260">
+        <v>1.2682</v>
+      </c>
+      <c r="R260" s="4">
+        <v>43462</v>
       </c>
       <c r="S260">
         <v>0</v>

--- a/edge_research/dataout/18mpip.xlsx
+++ b/edge_research/dataout/18mpip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>1030_PRICE</t>
   </si>
@@ -58,6 +58,9 @@
     <t>MAX_PIP_DOWN_1045_DATETIME</t>
   </si>
   <si>
+    <t>FIX_PRICE</t>
+  </si>
+  <si>
     <t>MAX_PIP_UP_PRIOR_DAY_FIX</t>
   </si>
   <si>
@@ -83,7 +86,6 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -137,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -146,7 +148,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,16 +442,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U260"/>
+  <dimension ref="A1:V260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="21" width="18.7109375" customWidth="1"/>
+    <col min="1" max="22" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +512,11 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="2">
         <v>43102</v>
       </c>
@@ -558,14 +562,14 @@
       <c r="O2" s="3">
         <v>43102.43958333333</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2">
         <v>43103</v>
       </c>
@@ -612,19 +616,16 @@
         <v>43103.4375</v>
       </c>
       <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>-78.5</v>
+        <v>1.3578</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1.3578</v>
-      </c>
-      <c r="U3" s="4">
-        <v>43102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="2">
         <v>43104</v>
       </c>
@@ -671,19 +672,22 @@
         <v>43104.45763888889</v>
       </c>
       <c r="P4">
-        <v>42.4</v>
+        <v>1.3514</v>
       </c>
       <c r="Q4">
-        <v>1.3514</v>
-      </c>
-      <c r="R4" s="4">
-        <v>43103</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>-28</v>
+      </c>
+      <c r="U4">
+        <v>1.355</v>
+      </c>
+      <c r="V4" s="3">
+        <v>43104.45763888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="2">
         <v>43105</v>
       </c>
@@ -730,25 +734,22 @@
         <v>43105.45069444444</v>
       </c>
       <c r="P5">
-        <v>12.2</v>
+        <v>1.3552</v>
       </c>
       <c r="Q5">
-        <v>1.3552</v>
-      </c>
-      <c r="R5" s="4">
-        <v>43104</v>
-      </c>
-      <c r="S5">
-        <v>-0.3</v>
+        <v>50.2</v>
+      </c>
+      <c r="R5">
+        <v>1.35642</v>
+      </c>
+      <c r="S5" s="3">
+        <v>43105.43958333333</v>
       </c>
       <c r="T5">
-        <v>1.3552</v>
-      </c>
-      <c r="U5" s="4">
-        <v>43104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="2">
         <v>43108</v>
       </c>
@@ -794,26 +795,14 @@
       <c r="O6" s="3">
         <v>43108.44027777778</v>
       </c>
-      <c r="P6">
-        <v>20</v>
-      </c>
       <c r="Q6">
-        <v>1.3561</v>
-      </c>
-      <c r="R6" s="4">
-        <v>43105</v>
-      </c>
-      <c r="S6">
-        <v>-10.4</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1.3561</v>
-      </c>
-      <c r="U6" s="4">
-        <v>43105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="2">
         <v>43109</v>
       </c>
@@ -860,19 +849,16 @@
         <v>43109.44027777778</v>
       </c>
       <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>-65.2</v>
+        <v>1.3576</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1.3576</v>
-      </c>
-      <c r="U7" s="4">
-        <v>43108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="2">
         <v>43110</v>
       </c>
@@ -919,25 +905,22 @@
         <v>43110.44722222222</v>
       </c>
       <c r="P8">
-        <v>8.5</v>
+        <v>1.3525</v>
       </c>
       <c r="Q8">
-        <v>1.3525</v>
-      </c>
-      <c r="R8" s="4">
-        <v>43109</v>
-      </c>
-      <c r="S8">
-        <v>-2.6</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>1.3525</v>
-      </c>
-      <c r="U8" s="4">
-        <v>43109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>-53.6</v>
+      </c>
+      <c r="U8">
+        <v>1.35224</v>
+      </c>
+      <c r="V8" s="3">
+        <v>43110.44722222222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="2">
         <v>43111</v>
       </c>
@@ -984,19 +967,22 @@
         <v>43111.4375</v>
       </c>
       <c r="P9">
-        <v>12.2</v>
+        <v>1.3531</v>
       </c>
       <c r="Q9">
-        <v>1.3531</v>
-      </c>
-      <c r="R9" s="4">
-        <v>43110</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>18.2</v>
+      </c>
+      <c r="R9">
+        <v>1.35432</v>
+      </c>
+      <c r="S9" s="3">
+        <v>43111.44652777778</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="2">
         <v>43112</v>
       </c>
@@ -1043,19 +1029,22 @@
         <v>43112.43958333333</v>
       </c>
       <c r="P10">
-        <v>152.1</v>
+        <v>1.3537</v>
       </c>
       <c r="Q10">
-        <v>1.3537</v>
-      </c>
-      <c r="R10" s="4">
-        <v>43111</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>158.1</v>
+      </c>
+      <c r="R10">
+        <v>1.36891</v>
+      </c>
+      <c r="S10" s="3">
+        <v>43112.45902777778</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="2">
         <v>43115</v>
       </c>
@@ -1101,20 +1090,14 @@
       <c r="O11" s="3">
         <v>43115.44305555556</v>
       </c>
-      <c r="P11">
-        <v>119.5</v>
-      </c>
       <c r="Q11">
-        <v>1.3687</v>
-      </c>
-      <c r="R11" s="4">
-        <v>43112</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="2">
         <v>43116</v>
       </c>
@@ -1161,19 +1144,16 @@
         <v>43116.4375</v>
       </c>
       <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>-34.3</v>
+        <v>1.3798</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1.3798</v>
-      </c>
-      <c r="U12" s="4">
-        <v>43115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="2">
         <v>43117</v>
       </c>
@@ -1220,19 +1200,22 @@
         <v>43117.44236111111</v>
       </c>
       <c r="P13">
-        <v>62.4</v>
+        <v>1.3773</v>
       </c>
       <c r="Q13">
-        <v>1.3773</v>
-      </c>
-      <c r="R13" s="4">
-        <v>43116</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>37.4</v>
+      </c>
+      <c r="R13">
+        <v>1.38354</v>
+      </c>
+      <c r="S13" s="3">
+        <v>43117.45902777778</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="2">
         <v>43118</v>
       </c>
@@ -1279,19 +1262,22 @@
         <v>43118.44236111111</v>
       </c>
       <c r="P14">
-        <v>62.3</v>
+        <v>1.383</v>
       </c>
       <c r="Q14">
-        <v>1.383</v>
-      </c>
-      <c r="R14" s="4">
-        <v>43117</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>119.3</v>
+      </c>
+      <c r="R14">
+        <v>1.38923</v>
+      </c>
+      <c r="S14" s="3">
+        <v>43118.45694444444</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="2">
         <v>43119</v>
       </c>
@@ -1338,19 +1324,22 @@
         <v>43119.45763888889</v>
       </c>
       <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>-44.8</v>
+        <v>1.3887</v>
+      </c>
+      <c r="Q15">
+        <v>38.4</v>
+      </c>
+      <c r="R15">
+        <v>1.38684</v>
+      </c>
+      <c r="S15" s="3">
+        <v>43119.44722222222</v>
       </c>
       <c r="T15">
-        <v>1.3887</v>
-      </c>
-      <c r="U15" s="4">
-        <v>43118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="2">
         <v>43122</v>
       </c>
@@ -1396,20 +1385,14 @@
       <c r="O16" s="3">
         <v>43122.4375</v>
       </c>
-      <c r="P16">
-        <v>121.9</v>
-      </c>
       <c r="Q16">
-        <v>1.3846</v>
-      </c>
-      <c r="R16" s="4">
-        <v>43119</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="2">
         <v>43123</v>
       </c>
@@ -1456,19 +1439,16 @@
         <v>43123.43819444445</v>
       </c>
       <c r="P17">
-        <v>60.6</v>
+        <v>1.3963</v>
       </c>
       <c r="Q17">
-        <v>1.3963</v>
-      </c>
-      <c r="R17" s="4">
-        <v>43122</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="2">
         <v>43124</v>
       </c>
@@ -1515,19 +1495,22 @@
         <v>43124.44305555556</v>
       </c>
       <c r="P18">
-        <v>219.9</v>
+        <v>1.4018</v>
       </c>
       <c r="Q18">
-        <v>1.4018</v>
-      </c>
-      <c r="R18" s="4">
-        <v>43123</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>274.9</v>
+      </c>
+      <c r="R18">
+        <v>1.42379</v>
+      </c>
+      <c r="S18" s="3">
+        <v>43124.45069444444</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="2">
         <v>43125</v>
       </c>
@@ -1574,19 +1557,22 @@
         <v>43125.44097222222</v>
       </c>
       <c r="P19">
-        <v>83.09999999999999</v>
+        <v>1.4223</v>
       </c>
       <c r="Q19">
-        <v>1.4223</v>
-      </c>
-      <c r="R19" s="4">
-        <v>43124</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>288.1</v>
+      </c>
+      <c r="R19">
+        <v>1.43061</v>
+      </c>
+      <c r="S19" s="3">
+        <v>43125.45902777778</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="2">
         <v>43126</v>
       </c>
@@ -1633,19 +1619,22 @@
         <v>43126.43888888889</v>
       </c>
       <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>-143.6</v>
+        <v>1.4299</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1.4299</v>
-      </c>
-      <c r="U20" s="4">
-        <v>43125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>-67.59999999999999</v>
+      </c>
+      <c r="U20">
+        <v>1.41554</v>
+      </c>
+      <c r="V20" s="3">
+        <v>43126.43888888889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="2">
         <v>43129</v>
       </c>
@@ -1691,20 +1680,14 @@
       <c r="O21" s="3">
         <v>43129.45972222222</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>-125</v>
+      <c r="Q21">
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>1.4185</v>
-      </c>
-      <c r="U21" s="4">
-        <v>43126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="2">
         <v>43130</v>
       </c>
@@ -1751,19 +1734,16 @@
         <v>43130.45833333334</v>
       </c>
       <c r="P22">
-        <v>73.59999999999999</v>
+        <v>1.4067</v>
       </c>
       <c r="Q22">
-        <v>1.4067</v>
-      </c>
-      <c r="R22" s="4">
-        <v>43129</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="2">
         <v>43131</v>
       </c>
@@ -1810,19 +1790,22 @@
         <v>43131.44027777778</v>
       </c>
       <c r="P23">
-        <v>111.2</v>
+        <v>1.4118</v>
       </c>
       <c r="Q23">
-        <v>1.4118</v>
-      </c>
-      <c r="R23" s="4">
-        <v>43130</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+        <v>162.2</v>
+      </c>
+      <c r="R23">
+        <v>1.42292</v>
+      </c>
+      <c r="S23" s="3">
+        <v>43131.45972222222</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="2">
         <v>43132</v>
       </c>
@@ -1869,19 +1852,22 @@
         <v>43132.4375</v>
       </c>
       <c r="P24">
-        <v>37.5</v>
+        <v>1.4212</v>
       </c>
       <c r="Q24">
-        <v>1.4212</v>
-      </c>
-      <c r="R24" s="4">
-        <v>43131</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>131.5</v>
+      </c>
+      <c r="R24">
+        <v>1.42495</v>
+      </c>
+      <c r="S24" s="3">
+        <v>43132.45625</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="2">
         <v>43133</v>
       </c>
@@ -1928,19 +1914,22 @@
         <v>43133.44930555556</v>
       </c>
       <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>-137.9</v>
+        <v>1.4241</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>1.4241</v>
-      </c>
-      <c r="U25" s="4">
-        <v>43132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+        <v>-108.9</v>
+      </c>
+      <c r="U25">
+        <v>1.41031</v>
+      </c>
+      <c r="V25" s="3">
+        <v>43133.44930555556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="2">
         <v>43136</v>
       </c>
@@ -1986,20 +1975,14 @@
       <c r="O26" s="3">
         <v>43136.44652777778</v>
       </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>-108</v>
+      <c r="Q26">
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>1.4121</v>
-      </c>
-      <c r="U26" s="4">
-        <v>43133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="2">
         <v>43137</v>
       </c>
@@ -2046,19 +2029,16 @@
         <v>43137.44166666667</v>
       </c>
       <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>-162.3</v>
+        <v>1.4019</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>1.4019</v>
-      </c>
-      <c r="U27" s="4">
-        <v>43136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="2">
         <v>43138</v>
       </c>
@@ -2105,25 +2085,22 @@
         <v>43138.45972222222</v>
       </c>
       <c r="P28">
-        <v>18.1</v>
+        <v>1.39</v>
       </c>
       <c r="Q28">
-        <v>1.39</v>
-      </c>
-      <c r="R28" s="4">
-        <v>43137</v>
-      </c>
-      <c r="S28">
-        <v>-17.7</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>1.39</v>
-      </c>
-      <c r="U28" s="4">
-        <v>43137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+        <v>-136.7</v>
+      </c>
+      <c r="U28">
+        <v>1.38823</v>
+      </c>
+      <c r="V28" s="3">
+        <v>43138.45972222222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="2">
         <v>43139</v>
       </c>
@@ -2170,19 +2147,22 @@
         <v>43139.45972222222</v>
       </c>
       <c r="P29">
-        <v>147.1</v>
+        <v>1.3885</v>
       </c>
       <c r="Q29">
-        <v>1.3885</v>
-      </c>
-      <c r="R29" s="4">
-        <v>43138</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+        <v>132.1</v>
+      </c>
+      <c r="R29">
+        <v>1.40321</v>
+      </c>
+      <c r="S29" s="3">
+        <v>43139.44930555556</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="2">
         <v>43140</v>
       </c>
@@ -2229,19 +2209,22 @@
         <v>43140.44513888889</v>
       </c>
       <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>-215</v>
+        <v>1.4002</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>1.4002</v>
-      </c>
-      <c r="U30" s="4">
-        <v>43139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+        <v>-98</v>
+      </c>
+      <c r="U30">
+        <v>1.3787</v>
+      </c>
+      <c r="V30" s="3">
+        <v>43140.44513888889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="2">
         <v>43143</v>
       </c>
@@ -2287,26 +2270,14 @@
       <c r="O31" s="3">
         <v>43143.44791666666</v>
       </c>
-      <c r="P31">
-        <v>7.2</v>
-      </c>
       <c r="Q31">
-        <v>1.381</v>
-      </c>
-      <c r="R31" s="4">
-        <v>43140</v>
-      </c>
-      <c r="S31">
-        <v>-6.4</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>1.381</v>
-      </c>
-      <c r="U31" s="4">
-        <v>43140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="2">
         <v>43144</v>
       </c>
@@ -2353,19 +2324,16 @@
         <v>43144.45902777778</v>
       </c>
       <c r="P32">
-        <v>89.59999999999999</v>
+        <v>1.3812</v>
       </c>
       <c r="Q32">
-        <v>1.3812</v>
-      </c>
-      <c r="R32" s="4">
-        <v>43143</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="2">
         <v>43145</v>
       </c>
@@ -2412,19 +2380,22 @@
         <v>43145.4375</v>
       </c>
       <c r="P33">
-        <v>84.90000000000001</v>
+        <v>1.3881</v>
       </c>
       <c r="Q33">
-        <v>1.3881</v>
-      </c>
-      <c r="R33" s="4">
-        <v>43144</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+        <v>153.9</v>
+      </c>
+      <c r="R33">
+        <v>1.39659</v>
+      </c>
+      <c r="S33" s="3">
+        <v>43145.45694444444</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="2">
         <v>43146</v>
       </c>
@@ -2471,19 +2442,22 @@
         <v>43146.44930555556</v>
       </c>
       <c r="P34">
-        <v>102.7</v>
+        <v>1.3963</v>
       </c>
       <c r="Q34">
-        <v>1.3963</v>
-      </c>
-      <c r="R34" s="4">
-        <v>43145</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>184.7</v>
+      </c>
+      <c r="R34">
+        <v>1.40657</v>
+      </c>
+      <c r="S34" s="3">
+        <v>43146.4375</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="2">
         <v>43147</v>
       </c>
@@ -2530,25 +2504,22 @@
         <v>43147.45694444444</v>
       </c>
       <c r="P35">
-        <v>2.7</v>
+        <v>1.4057</v>
       </c>
       <c r="Q35">
-        <v>1.4057</v>
-      </c>
-      <c r="R35" s="4">
-        <v>43146</v>
-      </c>
-      <c r="S35">
-        <v>-24</v>
+        <v>96.7</v>
+      </c>
+      <c r="R35">
+        <v>1.40597</v>
+      </c>
+      <c r="S35" s="3">
+        <v>43147.45486111111</v>
       </c>
       <c r="T35">
-        <v>1.4057</v>
-      </c>
-      <c r="U35" s="4">
-        <v>43146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="2">
         <v>43150</v>
       </c>
@@ -2594,20 +2565,14 @@
       <c r="O36" s="3">
         <v>43150.44027777778</v>
       </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>-66.7</v>
+      <c r="Q36">
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>1.4042</v>
-      </c>
-      <c r="U36" s="4">
-        <v>43147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="2">
         <v>43151</v>
       </c>
@@ -2654,25 +2619,16 @@
         <v>43151.43819444445</v>
       </c>
       <c r="P37">
-        <v>12.8</v>
+        <v>1.3994</v>
       </c>
       <c r="Q37">
-        <v>1.3994</v>
-      </c>
-      <c r="R37" s="4">
-        <v>43150</v>
-      </c>
-      <c r="S37">
-        <v>-8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>1.3994</v>
-      </c>
-      <c r="U37" s="4">
-        <v>43150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="2">
         <v>43152</v>
       </c>
@@ -2719,19 +2675,22 @@
         <v>43152.45</v>
       </c>
       <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>-39</v>
+        <v>1.4003</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>1.4003</v>
-      </c>
-      <c r="U38" s="4">
-        <v>43151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <v>-30</v>
+      </c>
+      <c r="U38">
+        <v>1.3964</v>
+      </c>
+      <c r="V38" s="3">
+        <v>43152.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="2">
         <v>43153</v>
       </c>
@@ -2778,19 +2737,22 @@
         <v>43153.45277777778</v>
       </c>
       <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>-49.6</v>
+        <v>1.3975</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>1.3975</v>
-      </c>
-      <c r="U39" s="4">
-        <v>43152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+        <v>-77.59999999999999</v>
+      </c>
+      <c r="U39">
+        <v>1.39254</v>
+      </c>
+      <c r="V39" s="3">
+        <v>43153.45277777778</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="2">
         <v>43154</v>
       </c>
@@ -2837,19 +2799,28 @@
         <v>43154.45694444444</v>
       </c>
       <c r="P40">
-        <v>67.2</v>
+        <v>1.3937</v>
       </c>
       <c r="Q40">
-        <v>1.3937</v>
-      </c>
-      <c r="R40" s="4">
-        <v>43153</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+        <v>29.2</v>
+      </c>
+      <c r="R40">
+        <v>1.40042</v>
+      </c>
+      <c r="S40" s="3">
+        <v>43154.44305555556</v>
+      </c>
+      <c r="T40">
+        <v>-3.7</v>
+      </c>
+      <c r="U40">
+        <v>1.39713</v>
+      </c>
+      <c r="V40" s="3">
+        <v>43154.45694444444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="2">
         <v>43157</v>
       </c>
@@ -2895,20 +2866,14 @@
       <c r="O41" s="3">
         <v>43157.45555555556</v>
       </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>-40.5</v>
+      <c r="Q41">
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>1.3973</v>
-      </c>
-      <c r="U41" s="4">
-        <v>43154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="2">
         <v>43158</v>
       </c>
@@ -2955,19 +2920,16 @@
         <v>43158.45486111111</v>
       </c>
       <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>-75.8</v>
+        <v>1.3936</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>1.3936</v>
-      </c>
-      <c r="U42" s="4">
-        <v>43157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="2">
         <v>43159</v>
       </c>
@@ -3014,19 +2976,22 @@
         <v>43159.45902777778</v>
       </c>
       <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>-102.1</v>
+        <v>1.3877</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>1.3877</v>
-      </c>
-      <c r="U43" s="4">
-        <v>43158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+        <v>-161.1</v>
+      </c>
+      <c r="U43">
+        <v>1.37749</v>
+      </c>
+      <c r="V43" s="3">
+        <v>43159.45902777778</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="2">
         <v>43160</v>
       </c>
@@ -3073,19 +3038,22 @@
         <v>43160.45833333334</v>
       </c>
       <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>-60.5</v>
+        <v>1.37805</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>1.37805</v>
-      </c>
-      <c r="U44" s="4">
-        <v>43159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+        <v>-157</v>
+      </c>
+      <c r="U44">
+        <v>1.372</v>
+      </c>
+      <c r="V44" s="3">
+        <v>43160.45833333334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="2">
         <v>43161</v>
       </c>
@@ -3132,19 +3100,28 @@
         <v>43161.45069444444</v>
       </c>
       <c r="P45">
-        <v>64.59999999999999</v>
+        <v>1.3725</v>
       </c>
       <c r="Q45">
-        <v>1.3725</v>
-      </c>
-      <c r="R45" s="4">
-        <v>43160</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+        <v>9.1</v>
+      </c>
+      <c r="R45">
+        <v>1.37896</v>
+      </c>
+      <c r="S45" s="3">
+        <v>43161.43958333333</v>
+      </c>
+      <c r="T45">
+        <v>-14.7</v>
+      </c>
+      <c r="U45">
+        <v>1.37658</v>
+      </c>
+      <c r="V45" s="3">
+        <v>43161.45069444444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="2">
         <v>43164</v>
       </c>
@@ -3190,20 +3167,14 @@
       <c r="O46" s="3">
         <v>43164.44097222222</v>
       </c>
-      <c r="P46">
-        <v>74.2</v>
-      </c>
       <c r="Q46">
-        <v>1.3773</v>
-      </c>
-      <c r="R46" s="4">
-        <v>43161</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="2">
         <v>43165</v>
       </c>
@@ -3250,19 +3221,16 @@
         <v>43165.45694444444</v>
       </c>
       <c r="P47">
-        <v>53.2</v>
+        <v>1.3845</v>
       </c>
       <c r="Q47">
-        <v>1.3845</v>
-      </c>
-      <c r="R47" s="4">
-        <v>43164</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="2">
         <v>43166</v>
       </c>
@@ -3309,25 +3277,22 @@
         <v>43166.4375</v>
       </c>
       <c r="P48">
-        <v>14.2</v>
+        <v>1.3883</v>
       </c>
       <c r="Q48">
-        <v>1.3883</v>
-      </c>
-      <c r="R48" s="4">
-        <v>43165</v>
-      </c>
-      <c r="S48">
-        <v>-13</v>
+        <v>52.2</v>
+      </c>
+      <c r="R48">
+        <v>1.38972</v>
+      </c>
+      <c r="S48" s="3">
+        <v>43166.45625</v>
       </c>
       <c r="T48">
-        <v>1.3883</v>
-      </c>
-      <c r="U48" s="4">
-        <v>43165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="2">
         <v>43167</v>
       </c>
@@ -3374,19 +3339,22 @@
         <v>43167.45069444444</v>
       </c>
       <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>-69.3</v>
+        <v>1.3895</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>1.3895</v>
-      </c>
-      <c r="U49" s="4">
-        <v>43166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+        <v>-57.3</v>
+      </c>
+      <c r="U49">
+        <v>1.38257</v>
+      </c>
+      <c r="V49" s="3">
+        <v>43167.45069444444</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="2">
         <v>43168</v>
       </c>
@@ -3433,19 +3401,22 @@
         <v>43168.45972222222</v>
       </c>
       <c r="P50">
-        <v>55.8</v>
+        <v>1.3829</v>
       </c>
       <c r="Q50">
-        <v>1.3829</v>
-      </c>
-      <c r="R50" s="4">
-        <v>43167</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>-29.7</v>
+      </c>
+      <c r="U50">
+        <v>1.38653</v>
+      </c>
+      <c r="V50" s="3">
+        <v>43168.45972222222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="2">
         <v>43171</v>
       </c>
@@ -3491,20 +3462,14 @@
       <c r="O51" s="3">
         <v>43171.4375</v>
       </c>
-      <c r="P51">
-        <v>26.1</v>
-      </c>
       <c r="Q51">
-        <v>1.387</v>
-      </c>
-      <c r="R51" s="4">
-        <v>43168</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="2">
         <v>43172</v>
       </c>
@@ -3551,19 +3516,16 @@
         <v>43172.43819444445</v>
       </c>
       <c r="P52">
-        <v>72.40000000000001</v>
+        <v>1.3898</v>
       </c>
       <c r="Q52">
-        <v>1.3898</v>
-      </c>
-      <c r="R52" s="4">
-        <v>43171</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="2">
         <v>43173</v>
       </c>
@@ -3610,19 +3572,22 @@
         <v>43173.43958333333</v>
       </c>
       <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>-28.8</v>
+        <v>1.3985</v>
+      </c>
+      <c r="Q53">
+        <v>67.7</v>
+      </c>
+      <c r="R53">
+        <v>1.39657</v>
+      </c>
+      <c r="S53" s="3">
+        <v>43173.45902777778</v>
       </c>
       <c r="T53">
-        <v>1.3985</v>
-      </c>
-      <c r="U53" s="4">
-        <v>43172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="2">
         <v>43174</v>
       </c>
@@ -3669,19 +3634,28 @@
         <v>43174.43958333333</v>
       </c>
       <c r="P54">
-        <v>47.1</v>
+        <v>1.3939</v>
       </c>
       <c r="Q54">
-        <v>1.3939</v>
-      </c>
-      <c r="R54" s="4">
-        <v>43173</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+        <v>1.1</v>
+      </c>
+      <c r="R54">
+        <v>1.39861</v>
+      </c>
+      <c r="S54" s="3">
+        <v>43174.44722222222</v>
+      </c>
+      <c r="T54">
+        <v>-15.5</v>
+      </c>
+      <c r="U54">
+        <v>1.39695</v>
+      </c>
+      <c r="V54" s="3">
+        <v>43174.43958333333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="2">
         <v>43175</v>
       </c>
@@ -3728,19 +3702,22 @@
         <v>43175.45833333334</v>
       </c>
       <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>-59.5</v>
+        <v>1.3954</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>1.3954</v>
-      </c>
-      <c r="U55" s="4">
-        <v>43174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+        <v>-44.5</v>
+      </c>
+      <c r="U55">
+        <v>1.38945</v>
+      </c>
+      <c r="V55" s="3">
+        <v>43175.45833333334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="2">
         <v>43178</v>
       </c>
@@ -3786,20 +3763,14 @@
       <c r="O56" s="3">
         <v>43178.45972222222</v>
       </c>
-      <c r="P56">
-        <v>136.7</v>
-      </c>
       <c r="Q56">
-        <v>1.3916</v>
-      </c>
-      <c r="R56" s="4">
-        <v>43175</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="2">
         <v>43179</v>
       </c>
@@ -3846,19 +3817,16 @@
         <v>43179.4375</v>
       </c>
       <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>-40.8</v>
+        <v>1.4035</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
       </c>
       <c r="T57">
-        <v>1.4035</v>
-      </c>
-      <c r="U57" s="4">
-        <v>43178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="2">
         <v>43180</v>
       </c>
@@ -3905,19 +3873,22 @@
         <v>43180.44513888889</v>
       </c>
       <c r="P58">
-        <v>62.3</v>
+        <v>1.4013</v>
       </c>
       <c r="Q58">
-        <v>1.4013</v>
-      </c>
-      <c r="R58" s="4">
-        <v>43179</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
+        <v>40.3</v>
+      </c>
+      <c r="R58">
+        <v>1.40753</v>
+      </c>
+      <c r="S58" s="3">
+        <v>43180.43819444445</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="2">
         <v>43181</v>
       </c>
@@ -3964,19 +3935,22 @@
         <v>43181.45208333333</v>
       </c>
       <c r="P59">
-        <v>54.1</v>
+        <v>1.4064</v>
       </c>
       <c r="Q59">
-        <v>1.4064</v>
-      </c>
-      <c r="R59" s="4">
-        <v>43180</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
+        <v>105.1</v>
+      </c>
+      <c r="R59">
+        <v>1.41181</v>
+      </c>
+      <c r="S59" s="3">
+        <v>43181.43819444445</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="2">
         <v>43182</v>
       </c>
@@ -4023,19 +3997,22 @@
         <v>43182.45416666667</v>
       </c>
       <c r="P60">
-        <v>78.2</v>
+        <v>1.4092</v>
       </c>
       <c r="Q60">
-        <v>1.4092</v>
-      </c>
-      <c r="R60" s="4">
-        <v>43181</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
+        <v>106.2</v>
+      </c>
+      <c r="R60">
+        <v>1.41702</v>
+      </c>
+      <c r="S60" s="3">
+        <v>43182.44375</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="2">
         <v>43185</v>
       </c>
@@ -4081,20 +4058,14 @@
       <c r="O61" s="3">
         <v>43185.4375</v>
       </c>
-      <c r="P61">
-        <v>81.40000000000001</v>
-      </c>
       <c r="Q61">
-        <v>1.4149</v>
-      </c>
-      <c r="R61" s="4">
-        <v>43182</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="2">
         <v>43186</v>
       </c>
@@ -4141,19 +4112,16 @@
         <v>43186.45555555556</v>
       </c>
       <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>-85.7</v>
+        <v>1.4226</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
       </c>
       <c r="T62">
-        <v>1.4226</v>
-      </c>
-      <c r="U62" s="4">
-        <v>43185</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="2">
         <v>43187</v>
       </c>
@@ -4200,19 +4168,22 @@
         <v>43187.44583333333</v>
       </c>
       <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>-45.6</v>
+        <v>1.4141</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
       </c>
       <c r="T63">
-        <v>1.4141</v>
-      </c>
-      <c r="U63" s="4">
-        <v>43186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+        <v>-130.6</v>
+      </c>
+      <c r="U63">
+        <v>1.40954</v>
+      </c>
+      <c r="V63" s="3">
+        <v>43187.44583333333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="2">
         <v>43188</v>
       </c>
@@ -4259,19 +4230,22 @@
         <v>43188.45902777778</v>
       </c>
       <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>-78.7</v>
+        <v>1.4101</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
       </c>
       <c r="T64">
-        <v>1.4101</v>
-      </c>
-      <c r="U64" s="4">
-        <v>43187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21">
+        <v>-118.7</v>
+      </c>
+      <c r="U64">
+        <v>1.40223</v>
+      </c>
+      <c r="V64" s="3">
+        <v>43188.45902777778</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="2">
         <v>43189</v>
       </c>
@@ -4318,19 +4292,22 @@
         <v>43189.45972222222</v>
       </c>
       <c r="P65">
-        <v>9.199999999999999</v>
+        <v>1.4034</v>
       </c>
       <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>-67</v>
+      </c>
+      <c r="U65">
         <v>1.4034</v>
       </c>
-      <c r="R65" s="4">
-        <v>43188</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
+      <c r="V65" s="3">
+        <v>43189.45972222222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" s="2">
         <v>43192</v>
       </c>
@@ -4376,20 +4353,14 @@
       <c r="O66" s="3">
         <v>43192.45277777778</v>
       </c>
-      <c r="P66">
-        <v>23.5</v>
-      </c>
       <c r="Q66">
-        <v>1.4034</v>
-      </c>
-      <c r="R66" s="4">
-        <v>43188</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" s="2">
         <v>43193</v>
       </c>
@@ -4436,19 +4407,16 @@
         <v>43193.44722222222</v>
       </c>
       <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>-18.9</v>
+        <v>1.4053</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
       </c>
       <c r="T67">
-        <v>1.4053</v>
-      </c>
-      <c r="U67" s="4">
-        <v>43192</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" s="2">
         <v>43194</v>
       </c>
@@ -4495,19 +4463,22 @@
         <v>43194.44861111111</v>
       </c>
       <c r="P68">
-        <v>47.6</v>
+        <v>1.404</v>
       </c>
       <c r="Q68">
-        <v>1.404</v>
-      </c>
-      <c r="R68" s="4">
-        <v>43193</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
+        <v>34.6</v>
+      </c>
+      <c r="R68">
+        <v>1.40876</v>
+      </c>
+      <c r="S68" s="3">
+        <v>43194.43888888889</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="2">
         <v>43195</v>
       </c>
@@ -4554,19 +4525,22 @@
         <v>43195.45694444444</v>
       </c>
       <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>-95</v>
+        <v>1.4084</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
       </c>
       <c r="T69">
-        <v>1.4084</v>
-      </c>
-      <c r="U69" s="4">
-        <v>43194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
+        <v>-51</v>
+      </c>
+      <c r="U69">
+        <v>1.3989</v>
+      </c>
+      <c r="V69" s="3">
+        <v>43195.45694444444</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="2">
         <v>43196</v>
       </c>
@@ -4613,19 +4587,28 @@
         <v>43196.45833333334</v>
       </c>
       <c r="P70">
-        <v>103.5</v>
+        <v>1.3997</v>
       </c>
       <c r="Q70">
-        <v>1.3997</v>
-      </c>
-      <c r="R70" s="4">
-        <v>43195</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
+        <v>16.5</v>
+      </c>
+      <c r="R70">
+        <v>1.41005</v>
+      </c>
+      <c r="S70" s="3">
+        <v>43196.44722222222</v>
+      </c>
+      <c r="T70">
+        <v>-1.8</v>
+      </c>
+      <c r="U70">
+        <v>1.40822</v>
+      </c>
+      <c r="V70" s="3">
+        <v>43196.45833333334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="2">
         <v>43199</v>
       </c>
@@ -4671,20 +4654,14 @@
       <c r="O71" s="3">
         <v>43199.45902777778</v>
       </c>
-      <c r="P71">
-        <v>64.8</v>
-      </c>
       <c r="Q71">
-        <v>1.4086</v>
-      </c>
-      <c r="R71" s="4">
-        <v>43196</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="2">
         <v>43200</v>
       </c>
@@ -4731,19 +4708,16 @@
         <v>43200.45625</v>
       </c>
       <c r="P72">
-        <v>50.3</v>
+        <v>1.4129</v>
       </c>
       <c r="Q72">
-        <v>1.4129</v>
-      </c>
-      <c r="R72" s="4">
-        <v>43199</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="2">
         <v>43201</v>
       </c>
@@ -4790,19 +4764,22 @@
         <v>43201.45763888889</v>
       </c>
       <c r="P73">
-        <v>44.1</v>
+        <v>1.4173</v>
       </c>
       <c r="Q73">
-        <v>1.4173</v>
-      </c>
-      <c r="R73" s="4">
-        <v>43200</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="R73">
+        <v>1.42171</v>
+      </c>
+      <c r="S73" s="3">
+        <v>43201.45208333333</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="2">
         <v>43202</v>
       </c>
@@ -4849,19 +4826,22 @@
         <v>43202.44027777778</v>
       </c>
       <c r="P74">
-        <v>33</v>
+        <v>1.4206</v>
       </c>
       <c r="Q74">
-        <v>1.4206</v>
-      </c>
-      <c r="R74" s="4">
-        <v>43201</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
+        <v>66</v>
+      </c>
+      <c r="R74">
+        <v>1.4239</v>
+      </c>
+      <c r="S74" s="3">
+        <v>43202.44722222222</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="2">
         <v>43203</v>
       </c>
@@ -4908,19 +4888,22 @@
         <v>43203.45902777778</v>
       </c>
       <c r="P75">
-        <v>21.4</v>
+        <v>1.4234</v>
       </c>
       <c r="Q75">
-        <v>1.4234</v>
-      </c>
-      <c r="R75" s="4">
-        <v>43202</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21">
+        <v>49.4</v>
+      </c>
+      <c r="R75">
+        <v>1.42554</v>
+      </c>
+      <c r="S75" s="3">
+        <v>43203.45625</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="2">
         <v>43206</v>
       </c>
@@ -4966,20 +4949,14 @@
       <c r="O76" s="3">
         <v>43206.44930555556</v>
       </c>
-      <c r="P76">
-        <v>83</v>
-      </c>
       <c r="Q76">
-        <v>1.425</v>
-      </c>
-      <c r="R76" s="4">
-        <v>43203</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="2">
         <v>43207</v>
       </c>
@@ -5026,19 +5003,16 @@
         <v>43207.45902777778</v>
       </c>
       <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>-22.9</v>
+        <v>1.4328</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
       </c>
       <c r="T77">
-        <v>1.4328</v>
-      </c>
-      <c r="U77" s="4">
-        <v>43206</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" s="2">
         <v>43208</v>
       </c>
@@ -5085,19 +5059,22 @@
         <v>43208.45486111111</v>
       </c>
       <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>-81.5</v>
+        <v>1.4309</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
       </c>
       <c r="T78">
-        <v>1.4309</v>
-      </c>
-      <c r="U78" s="4">
-        <v>43207</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21">
+        <v>-100.5</v>
+      </c>
+      <c r="U78">
+        <v>1.42275</v>
+      </c>
+      <c r="V78" s="3">
+        <v>43208.45486111111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="2">
         <v>43209</v>
       </c>
@@ -5144,19 +5121,22 @@
         <v>43209.45694444444</v>
       </c>
       <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>-13.9</v>
+        <v>1.4234</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
       </c>
       <c r="T79">
-        <v>1.4234</v>
-      </c>
-      <c r="U79" s="4">
-        <v>43208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21">
+        <v>-88.90000000000001</v>
+      </c>
+      <c r="U79">
+        <v>1.42201</v>
+      </c>
+      <c r="V79" s="3">
+        <v>43209.45694444444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" s="2">
         <v>43210</v>
       </c>
@@ -5203,19 +5183,22 @@
         <v>43210.43888888889</v>
       </c>
       <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>-207.6</v>
+        <v>1.4222</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
       </c>
       <c r="T80">
-        <v>1.4222</v>
-      </c>
-      <c r="U80" s="4">
-        <v>43209</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21">
+        <v>-219.6</v>
+      </c>
+      <c r="U80">
+        <v>1.40144</v>
+      </c>
+      <c r="V80" s="3">
+        <v>43210.43888888889</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" s="2">
         <v>43213</v>
       </c>
@@ -5261,20 +5244,14 @@
       <c r="O81" s="3">
         <v>43213.45138888889</v>
       </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>-80.5</v>
+      <c r="Q81">
+        <v>0</v>
       </c>
       <c r="T81">
-        <v>1.4023</v>
-      </c>
-      <c r="U81" s="4">
-        <v>43210</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" s="2">
         <v>43214</v>
       </c>
@@ -5321,19 +5298,16 @@
         <v>43214.44444444445</v>
       </c>
       <c r="P82">
-        <v>23.7</v>
+        <v>1.3951</v>
       </c>
       <c r="Q82">
-        <v>1.3951</v>
-      </c>
-      <c r="R82" s="4">
-        <v>43213</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" s="2">
         <v>43215</v>
       </c>
@@ -5380,19 +5354,22 @@
         <v>43215.44166666667</v>
       </c>
       <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>-41.1</v>
+        <v>1.3966</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
       </c>
       <c r="T83">
-        <v>1.3966</v>
-      </c>
-      <c r="U83" s="4">
-        <v>43214</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21">
+        <v>-26.1</v>
+      </c>
+      <c r="U83">
+        <v>1.39249</v>
+      </c>
+      <c r="V83" s="3">
+        <v>43215.44166666667</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" s="2">
         <v>43216</v>
       </c>
@@ -5439,25 +5416,22 @@
         <v>43216.45972222222</v>
       </c>
       <c r="P84">
-        <v>21.2</v>
+        <v>1.3934</v>
       </c>
       <c r="Q84">
-        <v>1.3934</v>
-      </c>
-      <c r="R84" s="4">
-        <v>43215</v>
-      </c>
-      <c r="S84">
-        <v>-7.7</v>
+        <v>0</v>
       </c>
       <c r="T84">
-        <v>1.3934</v>
-      </c>
-      <c r="U84" s="4">
-        <v>43215</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21">
+        <v>-39.7</v>
+      </c>
+      <c r="U84">
+        <v>1.39263</v>
+      </c>
+      <c r="V84" s="3">
+        <v>43216.45972222222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" s="2">
         <v>43217</v>
       </c>
@@ -5504,19 +5478,22 @@
         <v>43217.4375</v>
       </c>
       <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>-160.9</v>
+        <v>1.3939</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
       </c>
       <c r="T85">
-        <v>1.3939</v>
-      </c>
-      <c r="U85" s="4">
-        <v>43216</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21">
+        <v>-155.9</v>
+      </c>
+      <c r="U85">
+        <v>1.37781</v>
+      </c>
+      <c r="V85" s="3">
+        <v>43217.4375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" s="2">
         <v>43220</v>
       </c>
@@ -5562,20 +5539,14 @@
       <c r="O86" s="3">
         <v>43220.45486111111</v>
       </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <v>-45.8</v>
+      <c r="Q86">
+        <v>0</v>
       </c>
       <c r="T86">
-        <v>1.3795</v>
-      </c>
-      <c r="U86" s="4">
-        <v>43217</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" s="2">
         <v>43221</v>
       </c>
@@ -5622,19 +5593,16 @@
         <v>43221.45902777778</v>
       </c>
       <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="S87">
-        <v>-182.4</v>
+        <v>1.3773</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
       </c>
       <c r="T87">
-        <v>1.3773</v>
-      </c>
-      <c r="U87" s="4">
-        <v>43220</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" s="2">
         <v>43222</v>
       </c>
@@ -5681,25 +5649,22 @@
         <v>43222.45902777778</v>
       </c>
       <c r="P88">
-        <v>18.1</v>
+        <v>1.3597</v>
       </c>
       <c r="Q88">
-        <v>1.3597</v>
-      </c>
-      <c r="R88" s="4">
-        <v>43221</v>
-      </c>
-      <c r="S88">
-        <v>-3.4</v>
+        <v>0</v>
       </c>
       <c r="T88">
-        <v>1.3597</v>
-      </c>
-      <c r="U88" s="4">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21">
+        <v>-179.4</v>
+      </c>
+      <c r="U88">
+        <v>1.35936</v>
+      </c>
+      <c r="V88" s="3">
+        <v>43222.45902777778</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" s="2">
         <v>43223</v>
       </c>
@@ -5746,19 +5711,22 @@
         <v>43223.45902777778</v>
       </c>
       <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="S89">
-        <v>-60.8</v>
+        <v>1.36</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
       </c>
       <c r="T89">
-        <v>1.36</v>
-      </c>
-      <c r="U89" s="4">
-        <v>43222</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21">
+        <v>-57.8</v>
+      </c>
+      <c r="U89">
+        <v>1.35392</v>
+      </c>
+      <c r="V89" s="3">
+        <v>43223.45902777778</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" s="2">
         <v>43224</v>
       </c>
@@ -5805,19 +5773,22 @@
         <v>43224.4375</v>
       </c>
       <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="S90">
-        <v>-30.2</v>
+        <v>1.3542</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
       </c>
       <c r="T90">
-        <v>1.3542</v>
-      </c>
-      <c r="U90" s="4">
-        <v>43223</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21">
+        <v>-88.2</v>
+      </c>
+      <c r="U90">
+        <v>1.35118</v>
+      </c>
+      <c r="V90" s="3">
+        <v>43224.4375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" s="2">
         <v>43227</v>
       </c>
@@ -5863,20 +5834,14 @@
       <c r="O91" s="3">
         <v>43227.44513888889</v>
       </c>
-      <c r="P91">
-        <v>51.7</v>
-      </c>
       <c r="Q91">
-        <v>1.3518</v>
-      </c>
-      <c r="R91" s="4">
-        <v>43224</v>
-      </c>
-      <c r="S91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92" s="2">
         <v>43228</v>
       </c>
@@ -5923,19 +5888,16 @@
         <v>43228.4375</v>
       </c>
       <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="S92">
-        <v>-79.5</v>
+        <v>1.3567</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
       </c>
       <c r="T92">
-        <v>1.3567</v>
-      </c>
-      <c r="U92" s="4">
-        <v>43227</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93" s="2">
         <v>43229</v>
       </c>
@@ -5982,19 +5944,22 @@
         <v>43229.45694444444</v>
       </c>
       <c r="P93">
-        <v>62.8</v>
+        <v>1.3519</v>
       </c>
       <c r="Q93">
-        <v>1.3519</v>
-      </c>
-      <c r="R93" s="4">
-        <v>43228</v>
-      </c>
-      <c r="S93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21">
+        <v>14.8</v>
+      </c>
+      <c r="R93">
+        <v>1.35818</v>
+      </c>
+      <c r="S93" s="3">
+        <v>43229.44305555556</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94" s="2">
         <v>43230</v>
       </c>
@@ -6041,19 +6006,22 @@
         <v>43230.45277777778</v>
       </c>
       <c r="P94">
-        <v>0</v>
-      </c>
-      <c r="S94">
-        <v>-113</v>
+        <v>1.3573</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
       </c>
       <c r="T94">
-        <v>1.3573</v>
-      </c>
-      <c r="U94" s="4">
-        <v>43229</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21">
+        <v>-59</v>
+      </c>
+      <c r="U94">
+        <v>1.346</v>
+      </c>
+      <c r="V94" s="3">
+        <v>43230.45277777778</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" s="2">
         <v>43231</v>
       </c>
@@ -6100,19 +6068,22 @@
         <v>43231.45138888889</v>
       </c>
       <c r="P95">
-        <v>97.2</v>
+        <v>1.347</v>
       </c>
       <c r="Q95">
-        <v>1.347</v>
-      </c>
-      <c r="R95" s="4">
-        <v>43230</v>
-      </c>
-      <c r="S95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>-24</v>
+      </c>
+      <c r="U95">
+        <v>1.3549</v>
+      </c>
+      <c r="V95" s="3">
+        <v>43231.45138888889</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" s="2">
         <v>43234</v>
       </c>
@@ -6158,20 +6129,14 @@
       <c r="O96" s="3">
         <v>43234.44166666667</v>
       </c>
-      <c r="P96">
-        <v>43.6</v>
-      </c>
       <c r="Q96">
-        <v>1.3552</v>
-      </c>
-      <c r="R96" s="4">
-        <v>43231</v>
-      </c>
-      <c r="S96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97" s="2">
         <v>43235</v>
       </c>
@@ -6218,19 +6183,16 @@
         <v>43235.44513888889</v>
       </c>
       <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="S97">
-        <v>-119.6</v>
+        <v>1.35937</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
       </c>
       <c r="T97">
-        <v>1.35937</v>
-      </c>
-      <c r="U97" s="4">
-        <v>43234</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
       <c r="A98" s="2">
         <v>43236</v>
       </c>
@@ -6277,19 +6239,22 @@
         <v>43236.45625</v>
       </c>
       <c r="P98">
-        <v>0</v>
-      </c>
-      <c r="S98">
-        <v>-15.8</v>
+        <v>1.34967</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
       </c>
       <c r="T98">
-        <v>1.34967</v>
-      </c>
-      <c r="U98" s="4">
-        <v>43235</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21">
+        <v>-112.8</v>
+      </c>
+      <c r="U98">
+        <v>1.34809</v>
+      </c>
+      <c r="V98" s="3">
+        <v>43236.45625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99" s="2">
         <v>43237</v>
       </c>
@@ -6336,19 +6301,22 @@
         <v>43237.45972222222</v>
       </c>
       <c r="P99">
-        <v>31.5</v>
+        <v>1.34825</v>
       </c>
       <c r="Q99">
-        <v>1.34825</v>
-      </c>
-      <c r="R99" s="4">
-        <v>43236</v>
-      </c>
-      <c r="S99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21">
+        <v>17.3</v>
+      </c>
+      <c r="R99">
+        <v>1.3514</v>
+      </c>
+      <c r="S99" s="3">
+        <v>43237.44375</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
       <c r="A100" s="2">
         <v>43238</v>
       </c>
@@ -6395,19 +6363,22 @@
         <v>43238.44097222222</v>
       </c>
       <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="S100">
-        <v>-38.6</v>
+        <v>1.3504</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
       </c>
       <c r="T100">
-        <v>1.3504</v>
-      </c>
-      <c r="U100" s="4">
-        <v>43237</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21">
+        <v>-17.1</v>
+      </c>
+      <c r="U100">
+        <v>1.34654</v>
+      </c>
+      <c r="V100" s="3">
+        <v>43238.44097222222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
       <c r="A101" s="2">
         <v>43241</v>
       </c>
@@ -6453,20 +6424,14 @@
       <c r="O101" s="3">
         <v>43241.45972222222</v>
       </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="S101">
-        <v>-70.40000000000001</v>
+      <c r="Q101">
+        <v>0</v>
       </c>
       <c r="T101">
-        <v>1.3476</v>
-      </c>
-      <c r="U101" s="4">
-        <v>43238</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22">
       <c r="A102" s="2">
         <v>43242</v>
       </c>
@@ -6513,19 +6478,16 @@
         <v>43242.45138888889</v>
       </c>
       <c r="P102">
-        <v>31</v>
+        <v>1.341</v>
       </c>
       <c r="Q102">
-        <v>1.341</v>
-      </c>
-      <c r="R102" s="4">
-        <v>43241</v>
-      </c>
-      <c r="S102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
       <c r="A103" s="2">
         <v>43243</v>
       </c>
@@ -6572,19 +6534,22 @@
         <v>43243.45902777778</v>
       </c>
       <c r="P103">
-        <v>0</v>
-      </c>
-      <c r="S103">
-        <v>-82.3</v>
+        <v>1.34205</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
       </c>
       <c r="T103">
-        <v>1.34205</v>
-      </c>
-      <c r="U103" s="4">
-        <v>43242</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21">
+        <v>-71.8</v>
+      </c>
+      <c r="U103">
+        <v>1.33382</v>
+      </c>
+      <c r="V103" s="3">
+        <v>43243.45902777778</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22">
       <c r="A104" s="2">
         <v>43244</v>
       </c>
@@ -6631,19 +6596,22 @@
         <v>43244.45486111111</v>
       </c>
       <c r="P104">
-        <v>45.6</v>
+        <v>1.3343</v>
       </c>
       <c r="Q104">
-        <v>1.3343</v>
-      </c>
-      <c r="R104" s="4">
-        <v>43243</v>
-      </c>
-      <c r="S104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>-55.3</v>
+      </c>
+      <c r="U104">
+        <v>1.33652</v>
+      </c>
+      <c r="V104" s="3">
+        <v>43244.45486111111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22">
       <c r="A105" s="2">
         <v>43245</v>
       </c>
@@ -6690,19 +6658,22 @@
         <v>43245.45347222222</v>
       </c>
       <c r="P105">
-        <v>0</v>
-      </c>
-      <c r="S105">
-        <v>-67.7</v>
+        <v>1.33735</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
       </c>
       <c r="T105">
-        <v>1.33735</v>
-      </c>
-      <c r="U105" s="4">
-        <v>43244</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21">
+        <v>-37.2</v>
+      </c>
+      <c r="U105">
+        <v>1.33058</v>
+      </c>
+      <c r="V105" s="3">
+        <v>43245.45347222222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22">
       <c r="A106" s="2">
         <v>43248</v>
       </c>
@@ -6748,20 +6719,14 @@
       <c r="O106" s="3">
         <v>43248.45694444444</v>
       </c>
-      <c r="P106">
-        <v>0</v>
-      </c>
-      <c r="S106">
-        <v>-16.6</v>
+      <c r="Q106">
+        <v>0</v>
       </c>
       <c r="T106">
-        <v>1.33135</v>
-      </c>
-      <c r="U106" s="4">
-        <v>43245</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22">
       <c r="A107" s="2">
         <v>43249</v>
       </c>
@@ -6808,19 +6773,16 @@
         <v>43249.45972222222</v>
       </c>
       <c r="P107">
-        <v>0</v>
-      </c>
-      <c r="S107">
-        <v>-30.8</v>
+        <v>1.3299</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
       </c>
       <c r="T107">
-        <v>1.3299</v>
-      </c>
-      <c r="U107" s="4">
-        <v>43248</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22">
       <c r="A108" s="2">
         <v>43250</v>
       </c>
@@ -6867,25 +6829,22 @@
         <v>43250.45486111111</v>
       </c>
       <c r="P108">
-        <v>9.6</v>
+        <v>1.32735</v>
       </c>
       <c r="Q108">
-        <v>1.32735</v>
-      </c>
-      <c r="R108" s="4">
-        <v>43249</v>
-      </c>
-      <c r="S108">
-        <v>-4.7</v>
+        <v>0</v>
       </c>
       <c r="T108">
-        <v>1.32735</v>
-      </c>
-      <c r="U108" s="4">
-        <v>43249</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21">
+        <v>-30.2</v>
+      </c>
+      <c r="U108">
+        <v>1.32688</v>
+      </c>
+      <c r="V108" s="3">
+        <v>43250.45486111111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22">
       <c r="A109" s="2">
         <v>43251</v>
       </c>
@@ -6932,19 +6891,22 @@
         <v>43251.45972222222</v>
       </c>
       <c r="P109">
-        <v>56.8</v>
+        <v>1.3277</v>
       </c>
       <c r="Q109">
-        <v>1.3277</v>
-      </c>
-      <c r="R109" s="4">
-        <v>43250</v>
-      </c>
-      <c r="S109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21">
+        <v>60.3</v>
+      </c>
+      <c r="R109">
+        <v>1.33338</v>
+      </c>
+      <c r="S109" s="3">
+        <v>43251.44375</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22">
       <c r="A110" s="2">
         <v>43252</v>
       </c>
@@ -6991,19 +6953,22 @@
         <v>43252.44236111111</v>
       </c>
       <c r="P110">
-        <v>24.5</v>
+        <v>1.3312</v>
       </c>
       <c r="Q110">
-        <v>1.3312</v>
-      </c>
-      <c r="R110" s="4">
-        <v>43251</v>
-      </c>
-      <c r="S110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21">
+        <v>59.5</v>
+      </c>
+      <c r="R110">
+        <v>1.33365</v>
+      </c>
+      <c r="S110" s="3">
+        <v>43252.45625</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22">
       <c r="A111" s="2">
         <v>43255</v>
       </c>
@@ -7049,14 +7014,14 @@
       <c r="O111" s="3">
         <v>43255.45694444444</v>
       </c>
-      <c r="P111">
-        <v>0</v>
-      </c>
-      <c r="S111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21">
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22">
       <c r="A112" s="2">
         <v>43256</v>
       </c>
@@ -7103,19 +7068,16 @@
         <v>43256.44166666667</v>
       </c>
       <c r="P112">
-        <v>10.6</v>
+        <v>1.3333</v>
       </c>
       <c r="Q112">
-        <v>1.3333</v>
-      </c>
-      <c r="R112" s="4">
-        <v>43255</v>
-      </c>
-      <c r="S112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22">
       <c r="A113" s="2">
         <v>43257</v>
       </c>
@@ -7162,19 +7124,22 @@
         <v>43257.44583333333</v>
       </c>
       <c r="P113">
-        <v>97</v>
+        <v>1.33415</v>
       </c>
       <c r="Q113">
-        <v>1.33415</v>
-      </c>
-      <c r="R113" s="4">
-        <v>43256</v>
-      </c>
-      <c r="S113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21">
+        <v>105.5</v>
+      </c>
+      <c r="R113">
+        <v>1.34385</v>
+      </c>
+      <c r="S113" s="3">
+        <v>43257.45763888889</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22">
       <c r="A114" s="2">
         <v>43258</v>
       </c>
@@ -7221,19 +7186,22 @@
         <v>43258.44513888889</v>
       </c>
       <c r="P114">
-        <v>0</v>
-      </c>
-      <c r="S114">
-        <v>-44.1</v>
+        <v>1.34295</v>
+      </c>
+      <c r="Q114">
+        <v>79.8</v>
+      </c>
+      <c r="R114">
+        <v>1.34213</v>
+      </c>
+      <c r="S114" s="3">
+        <v>43258.45972222222</v>
       </c>
       <c r="T114">
-        <v>1.34295</v>
-      </c>
-      <c r="U114" s="4">
-        <v>43257</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22">
       <c r="A115" s="2">
         <v>43259</v>
       </c>
@@ -7280,19 +7248,22 @@
         <v>43259.45069444444</v>
       </c>
       <c r="P115">
-        <v>0</v>
-      </c>
-      <c r="S115">
-        <v>-37.4</v>
+        <v>1.3416</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
       </c>
       <c r="T115">
-        <v>1.3416</v>
-      </c>
-      <c r="U115" s="4">
-        <v>43258</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21">
+        <v>-50.9</v>
+      </c>
+      <c r="U115">
+        <v>1.33786</v>
+      </c>
+      <c r="V115" s="3">
+        <v>43259.45069444444</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22">
       <c r="A116" s="2">
         <v>43262</v>
       </c>
@@ -7338,26 +7309,14 @@
       <c r="O116" s="3">
         <v>43262.45763888889</v>
       </c>
-      <c r="P116">
-        <v>4.5</v>
-      </c>
       <c r="Q116">
-        <v>1.3395</v>
-      </c>
-      <c r="R116" s="4">
-        <v>43259</v>
-      </c>
-      <c r="S116">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="T116">
-        <v>1.3395</v>
-      </c>
-      <c r="U116" s="4">
-        <v>43259</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22">
       <c r="A117" s="2">
         <v>43263</v>
       </c>
@@ -7404,19 +7363,16 @@
         <v>43263.45902777778</v>
       </c>
       <c r="P117">
-        <v>0</v>
-      </c>
-      <c r="S117">
-        <v>-41.9</v>
+        <v>1.3392</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
       </c>
       <c r="T117">
-        <v>1.3392</v>
-      </c>
-      <c r="U117" s="4">
-        <v>43262</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22">
       <c r="A118" s="2">
         <v>43264</v>
       </c>
@@ -7463,19 +7419,22 @@
         <v>43264.44444444445</v>
       </c>
       <c r="P118">
-        <v>15.4</v>
+        <v>1.3355</v>
       </c>
       <c r="Q118">
-        <v>1.3355</v>
-      </c>
-      <c r="R118" s="4">
-        <v>43263</v>
-      </c>
-      <c r="S118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>-31.2</v>
+      </c>
+      <c r="U118">
+        <v>1.33608</v>
+      </c>
+      <c r="V118" s="3">
+        <v>43264.44444444445</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22">
       <c r="A119" s="2">
         <v>43265</v>
       </c>
@@ -7522,19 +7481,22 @@
         <v>43265.44652777778</v>
       </c>
       <c r="P119">
-        <v>0</v>
-      </c>
-      <c r="S119">
-        <v>-55.1</v>
+        <v>1.3367</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
       </c>
       <c r="T119">
-        <v>1.3367</v>
-      </c>
-      <c r="U119" s="4">
-        <v>43264</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21">
+        <v>-43.1</v>
+      </c>
+      <c r="U119">
+        <v>1.33119</v>
+      </c>
+      <c r="V119" s="3">
+        <v>43265.44652777778</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22">
       <c r="A120" s="2">
         <v>43266</v>
       </c>
@@ -7581,19 +7543,22 @@
         <v>43266.44236111111</v>
       </c>
       <c r="P120">
-        <v>0</v>
-      </c>
-      <c r="S120">
-        <v>-61.5</v>
+        <v>1.3329</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
       </c>
       <c r="T120">
-        <v>1.3329</v>
-      </c>
-      <c r="U120" s="4">
-        <v>43265</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21">
+        <v>-99.5</v>
+      </c>
+      <c r="U120">
+        <v>1.32675</v>
+      </c>
+      <c r="V120" s="3">
+        <v>43266.44236111111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22">
       <c r="A121" s="2">
         <v>43269</v>
       </c>
@@ -7639,20 +7604,14 @@
       <c r="O121" s="3">
         <v>43269.43888888889</v>
       </c>
-      <c r="P121">
-        <v>0</v>
-      </c>
-      <c r="S121">
-        <v>-52.5</v>
+      <c r="Q121">
+        <v>0</v>
       </c>
       <c r="T121">
-        <v>1.32905</v>
-      </c>
-      <c r="U121" s="4">
-        <v>43266</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22">
       <c r="A122" s="2">
         <v>43270</v>
       </c>
@@ -7699,19 +7658,16 @@
         <v>43270.43888888889</v>
       </c>
       <c r="P122">
-        <v>0</v>
-      </c>
-      <c r="S122">
-        <v>-85.3</v>
+        <v>1.32425</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
       </c>
       <c r="T122">
-        <v>1.32425</v>
-      </c>
-      <c r="U122" s="4">
-        <v>43269</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22">
       <c r="A123" s="2">
         <v>43271</v>
       </c>
@@ -7758,19 +7714,22 @@
         <v>43271.45069444444</v>
       </c>
       <c r="P123">
-        <v>9.4</v>
+        <v>1.31705</v>
       </c>
       <c r="Q123">
-        <v>1.31705</v>
-      </c>
-      <c r="R123" s="4">
-        <v>43270</v>
-      </c>
-      <c r="S123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>-71.09999999999999</v>
+      </c>
+      <c r="U123">
+        <v>1.31714</v>
+      </c>
+      <c r="V123" s="3">
+        <v>43271.45069444444</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22">
       <c r="A124" s="2">
         <v>43272</v>
       </c>
@@ -7817,19 +7776,22 @@
         <v>43272.43888888889</v>
       </c>
       <c r="P124">
-        <v>92</v>
+        <v>1.31765</v>
       </c>
       <c r="Q124">
-        <v>1.31765</v>
-      </c>
-      <c r="R124" s="4">
-        <v>43271</v>
-      </c>
-      <c r="S124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21">
+        <v>98</v>
+      </c>
+      <c r="R124">
+        <v>1.32685</v>
+      </c>
+      <c r="S124" s="3">
+        <v>43272.44861111111</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22">
       <c r="A125" s="2">
         <v>43273</v>
       </c>
@@ -7876,25 +7838,22 @@
         <v>43273.44583333333</v>
       </c>
       <c r="P125">
-        <v>13.6</v>
+        <v>1.32575</v>
       </c>
       <c r="Q125">
-        <v>1.32575</v>
-      </c>
-      <c r="R125" s="4">
-        <v>43272</v>
-      </c>
-      <c r="S125">
-        <v>-2.5</v>
+        <v>94.59999999999999</v>
+      </c>
+      <c r="R125">
+        <v>1.32711</v>
+      </c>
+      <c r="S125" s="3">
+        <v>43273.45763888889</v>
       </c>
       <c r="T125">
-        <v>1.32575</v>
-      </c>
-      <c r="U125" s="4">
-        <v>43272</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22">
       <c r="A126" s="2">
         <v>43276</v>
       </c>
@@ -7940,26 +7899,14 @@
       <c r="O126" s="3">
         <v>43276.45</v>
       </c>
-      <c r="P126">
-        <v>3.7</v>
-      </c>
       <c r="Q126">
-        <v>1.3271</v>
-      </c>
-      <c r="R126" s="4">
-        <v>43273</v>
-      </c>
-      <c r="S126">
-        <v>-13.4</v>
+        <v>0</v>
       </c>
       <c r="T126">
-        <v>1.3271</v>
-      </c>
-      <c r="U126" s="4">
-        <v>43273</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22">
       <c r="A127" s="2">
         <v>43277</v>
       </c>
@@ -8006,19 +7953,16 @@
         <v>43277.4375</v>
       </c>
       <c r="P127">
-        <v>0</v>
-      </c>
-      <c r="S127">
-        <v>-35.5</v>
+        <v>1.3266</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
       </c>
       <c r="T127">
-        <v>1.3266</v>
-      </c>
-      <c r="U127" s="4">
-        <v>43276</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22">
       <c r="A128" s="2">
         <v>43278</v>
       </c>
@@ -8065,19 +8009,22 @@
         <v>43278.45555555556</v>
       </c>
       <c r="P128">
-        <v>0</v>
-      </c>
-      <c r="S128">
-        <v>-89.2</v>
+        <v>1.3234</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
       </c>
       <c r="T128">
-        <v>1.3234</v>
-      </c>
-      <c r="U128" s="4">
-        <v>43277</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21">
+        <v>-121.2</v>
+      </c>
+      <c r="U128">
+        <v>1.31448</v>
+      </c>
+      <c r="V128" s="3">
+        <v>43278.45555555556</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22">
       <c r="A129" s="2">
         <v>43279</v>
       </c>
@@ -8124,19 +8071,22 @@
         <v>43279.45416666667</v>
       </c>
       <c r="P129">
-        <v>0</v>
-      </c>
-      <c r="S129">
-        <v>-55.9</v>
+        <v>1.31475</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
       </c>
       <c r="T129">
-        <v>1.31475</v>
-      </c>
-      <c r="U129" s="4">
-        <v>43278</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21">
+        <v>-142.4</v>
+      </c>
+      <c r="U129">
+        <v>1.30916</v>
+      </c>
+      <c r="V129" s="3">
+        <v>43279.45416666667</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22">
       <c r="A130" s="2">
         <v>43280</v>
       </c>
@@ -8183,19 +8133,22 @@
         <v>43280.44236111111</v>
       </c>
       <c r="P130">
-        <v>112.1</v>
+        <v>1.30945</v>
       </c>
       <c r="Q130">
-        <v>1.30945</v>
-      </c>
-      <c r="R130" s="4">
-        <v>43279</v>
-      </c>
-      <c r="S130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21">
+        <v>59.1</v>
+      </c>
+      <c r="R130">
+        <v>1.32066</v>
+      </c>
+      <c r="S130" s="3">
+        <v>43280.45763888889</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22">
       <c r="A131" s="2">
         <v>43283</v>
       </c>
@@ -8241,20 +8194,14 @@
       <c r="O131" s="3">
         <v>43283.43819444445</v>
       </c>
-      <c r="P131">
-        <v>0</v>
-      </c>
-      <c r="S131">
-        <v>-99.3</v>
+      <c r="Q131">
+        <v>0</v>
       </c>
       <c r="T131">
-        <v>1.32025</v>
-      </c>
-      <c r="U131" s="4">
-        <v>43280</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22">
       <c r="A132" s="2">
         <v>43284</v>
       </c>
@@ -8301,19 +8248,16 @@
         <v>43284.45208333333</v>
       </c>
       <c r="P132">
-        <v>46</v>
+        <v>1.313</v>
       </c>
       <c r="Q132">
-        <v>1.313</v>
-      </c>
-      <c r="R132" s="4">
-        <v>43283</v>
-      </c>
-      <c r="S132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22">
       <c r="A133" s="2">
         <v>43285</v>
       </c>
@@ -8360,19 +8304,22 @@
         <v>43285.45833333334</v>
       </c>
       <c r="P133">
-        <v>46.4</v>
+        <v>1.3174</v>
       </c>
       <c r="Q133">
-        <v>1.3174</v>
-      </c>
-      <c r="R133" s="4">
-        <v>43284</v>
-      </c>
-      <c r="S133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="R133">
+        <v>1.32204</v>
+      </c>
+      <c r="S133" s="3">
+        <v>43285.4375</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22">
       <c r="A134" s="2">
         <v>43286</v>
       </c>
@@ -8419,19 +8366,22 @@
         <v>43286.45486111111</v>
       </c>
       <c r="P134">
-        <v>17.6</v>
+        <v>1.32115</v>
       </c>
       <c r="Q134">
-        <v>1.32115</v>
-      </c>
-      <c r="R134" s="4">
-        <v>43285</v>
-      </c>
-      <c r="S134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21">
+        <v>55.1</v>
+      </c>
+      <c r="R134">
+        <v>1.32291</v>
+      </c>
+      <c r="S134" s="3">
+        <v>43286.44652777778</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22">
       <c r="A135" s="2">
         <v>43287</v>
       </c>
@@ -8478,19 +8428,22 @@
         <v>43287.45</v>
       </c>
       <c r="P135">
-        <v>52.6</v>
+        <v>1.32235</v>
       </c>
       <c r="Q135">
-        <v>1.32235</v>
-      </c>
-      <c r="R135" s="4">
-        <v>43286</v>
-      </c>
-      <c r="S135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="R135">
+        <v>1.32761</v>
+      </c>
+      <c r="S135" s="3">
+        <v>43287.45763888889</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22">
       <c r="A136" s="2">
         <v>43290</v>
       </c>
@@ -8536,20 +8489,14 @@
       <c r="O136" s="3">
         <v>43290.4375</v>
       </c>
-      <c r="P136">
-        <v>0</v>
-      </c>
-      <c r="S136">
-        <v>-29.7</v>
+      <c r="Q136">
+        <v>0</v>
       </c>
       <c r="T136">
-        <v>1.32745</v>
-      </c>
-      <c r="U136" s="4">
-        <v>43287</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22">
       <c r="A137" s="2">
         <v>43291</v>
       </c>
@@ -8596,19 +8543,16 @@
         <v>43291.44375</v>
       </c>
       <c r="P137">
-        <v>17.5</v>
+        <v>1.32585</v>
       </c>
       <c r="Q137">
-        <v>1.32585</v>
-      </c>
-      <c r="R137" s="4">
-        <v>43290</v>
-      </c>
-      <c r="S137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22">
       <c r="A138" s="2">
         <v>43292</v>
       </c>
@@ -8655,25 +8599,28 @@
         <v>43292.45902777778</v>
       </c>
       <c r="P138">
-        <v>1.7</v>
+        <v>1.32675</v>
       </c>
       <c r="Q138">
-        <v>1.32675</v>
-      </c>
-      <c r="R138" s="4">
-        <v>43291</v>
-      </c>
-      <c r="S138">
-        <v>-21.3</v>
+        <v>10.7</v>
+      </c>
+      <c r="R138">
+        <v>1.32692</v>
+      </c>
+      <c r="S138" s="3">
+        <v>43292.4375</v>
       </c>
       <c r="T138">
-        <v>1.32675</v>
-      </c>
-      <c r="U138" s="4">
-        <v>43291</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21">
+        <v>-12.3</v>
+      </c>
+      <c r="U138">
+        <v>1.32462</v>
+      </c>
+      <c r="V138" s="3">
+        <v>43292.45902777778</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22">
       <c r="A139" s="2">
         <v>43293</v>
       </c>
@@ -8720,19 +8667,22 @@
         <v>43293.45138888889</v>
       </c>
       <c r="P139">
-        <v>0</v>
-      </c>
-      <c r="S139">
-        <v>-34.6</v>
+        <v>1.32505</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
       </c>
       <c r="T139">
-        <v>1.32505</v>
-      </c>
-      <c r="U139" s="4">
-        <v>43292</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21">
+        <v>-51.6</v>
+      </c>
+      <c r="U139">
+        <v>1.32159</v>
+      </c>
+      <c r="V139" s="3">
+        <v>43293.45138888889</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22">
       <c r="A140" s="2">
         <v>43294</v>
       </c>
@@ -8779,19 +8729,22 @@
         <v>43294.44166666667</v>
       </c>
       <c r="P140">
-        <v>0</v>
-      </c>
-      <c r="S140">
-        <v>-47.5</v>
+        <v>1.32235</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
       </c>
       <c r="T140">
-        <v>1.32235</v>
-      </c>
-      <c r="U140" s="4">
-        <v>43293</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21">
+        <v>-74.5</v>
+      </c>
+      <c r="U140">
+        <v>1.3176</v>
+      </c>
+      <c r="V140" s="3">
+        <v>43294.44166666667</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22">
       <c r="A141" s="2">
         <v>43297</v>
       </c>
@@ -8837,20 +8790,14 @@
       <c r="O141" s="3">
         <v>43297.45902777778</v>
       </c>
-      <c r="P141">
-        <v>68.8</v>
-      </c>
       <c r="Q141">
-        <v>1.32005</v>
-      </c>
-      <c r="R141" s="4">
-        <v>43294</v>
-      </c>
-      <c r="S141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22">
       <c r="A142" s="2">
         <v>43298</v>
       </c>
@@ -8897,19 +8844,16 @@
         <v>43298.44097222222</v>
       </c>
       <c r="P142">
-        <v>0</v>
-      </c>
-      <c r="S142">
-        <v>-78.09999999999999</v>
+        <v>1.32325</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
       </c>
       <c r="T142">
-        <v>1.32325</v>
-      </c>
-      <c r="U142" s="4">
-        <v>43297</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22">
       <c r="A143" s="2">
         <v>43299</v>
       </c>
@@ -8956,19 +8900,22 @@
         <v>43299.45416666667</v>
       </c>
       <c r="P143">
-        <v>0</v>
-      </c>
-      <c r="S143">
-        <v>-123.7</v>
+        <v>1.31615</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
       </c>
       <c r="T143">
-        <v>1.31615</v>
-      </c>
-      <c r="U143" s="4">
-        <v>43298</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21">
+        <v>-194.7</v>
+      </c>
+      <c r="U143">
+        <v>1.30378</v>
+      </c>
+      <c r="V143" s="3">
+        <v>43299.45416666667</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22">
       <c r="A144" s="2">
         <v>43300</v>
       </c>
@@ -9015,19 +8962,22 @@
         <v>43300.44027777778</v>
       </c>
       <c r="P144">
-        <v>0</v>
-      </c>
-      <c r="S144">
-        <v>-55.6</v>
+        <v>1.3048</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
       </c>
       <c r="T144">
-        <v>1.3048</v>
-      </c>
-      <c r="U144" s="4">
-        <v>43299</v>
-      </c>
-    </row>
-    <row r="145" spans="1:21">
+        <v>-169.1</v>
+      </c>
+      <c r="U144">
+        <v>1.29924</v>
+      </c>
+      <c r="V144" s="3">
+        <v>43300.44027777778</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22">
       <c r="A145" s="2">
         <v>43301</v>
       </c>
@@ -9074,19 +9024,22 @@
         <v>43301.45972222222</v>
       </c>
       <c r="P145">
-        <v>107.2</v>
+        <v>1.30025</v>
       </c>
       <c r="Q145">
-        <v>1.30025</v>
-      </c>
-      <c r="R145" s="4">
-        <v>43300</v>
-      </c>
-      <c r="S145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21">
+        <v>61.7</v>
+      </c>
+      <c r="R145">
+        <v>1.31097</v>
+      </c>
+      <c r="S145" s="3">
+        <v>43301.45208333333</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22">
       <c r="A146" s="2">
         <v>43304</v>
       </c>
@@ -9132,20 +9085,14 @@
       <c r="O146" s="3">
         <v>43304.45625</v>
       </c>
-      <c r="P146">
-        <v>16.9</v>
-      </c>
       <c r="Q146">
-        <v>1.3102</v>
-      </c>
-      <c r="R146" s="4">
-        <v>43301</v>
-      </c>
-      <c r="S146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22">
       <c r="A147" s="2">
         <v>43305</v>
       </c>
@@ -9192,19 +9139,16 @@
         <v>43305.43888888889</v>
       </c>
       <c r="P147">
-        <v>45.7</v>
+        <v>1.311</v>
       </c>
       <c r="Q147">
-        <v>1.311</v>
-      </c>
-      <c r="R147" s="4">
-        <v>43304</v>
-      </c>
-      <c r="S147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22">
       <c r="A148" s="2">
         <v>43306</v>
       </c>
@@ -9251,19 +9195,22 @@
         <v>43306.45555555556</v>
       </c>
       <c r="P148">
-        <v>0</v>
-      </c>
-      <c r="S148">
-        <v>-11</v>
+        <v>1.31505</v>
+      </c>
+      <c r="Q148">
+        <v>40.4</v>
+      </c>
+      <c r="R148">
+        <v>1.31504</v>
+      </c>
+      <c r="S148" s="3">
+        <v>43306.45833333334</v>
       </c>
       <c r="T148">
-        <v>1.31505</v>
-      </c>
-      <c r="U148" s="4">
-        <v>43305</v>
-      </c>
-    </row>
-    <row r="149" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22">
       <c r="A149" s="2">
         <v>43307</v>
       </c>
@@ -9310,25 +9257,28 @@
         <v>43307.43819444445</v>
       </c>
       <c r="P149">
-        <v>3.1</v>
+        <v>1.31485</v>
       </c>
       <c r="Q149">
-        <v>1.31485</v>
-      </c>
-      <c r="R149" s="4">
-        <v>43306</v>
-      </c>
-      <c r="S149">
-        <v>-23.9</v>
+        <v>1.1</v>
+      </c>
+      <c r="R149">
+        <v>1.31516</v>
+      </c>
+      <c r="S149" s="3">
+        <v>43307.45902777778</v>
       </c>
       <c r="T149">
-        <v>1.31485</v>
-      </c>
-      <c r="U149" s="4">
-        <v>43306</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21">
+        <v>-25.9</v>
+      </c>
+      <c r="U149">
+        <v>1.31246</v>
+      </c>
+      <c r="V149" s="3">
+        <v>43307.43819444445</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22">
       <c r="A150" s="2">
         <v>43308</v>
       </c>
@@ -9375,19 +9325,22 @@
         <v>43308.44652777778</v>
       </c>
       <c r="P150">
-        <v>0</v>
-      </c>
-      <c r="S150">
-        <v>-38.7</v>
+        <v>1.3147</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
       </c>
       <c r="T150">
-        <v>1.3147</v>
-      </c>
-      <c r="U150" s="4">
-        <v>43307</v>
-      </c>
-    </row>
-    <row r="151" spans="1:21">
+        <v>-40.2</v>
+      </c>
+      <c r="U150">
+        <v>1.31083</v>
+      </c>
+      <c r="V150" s="3">
+        <v>43308.44652777778</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22">
       <c r="A151" s="2">
         <v>43311</v>
       </c>
@@ -9433,20 +9386,14 @@
       <c r="O151" s="3">
         <v>43311.45833333334</v>
       </c>
-      <c r="P151">
-        <v>25.9</v>
-      </c>
       <c r="Q151">
-        <v>1.3125</v>
-      </c>
-      <c r="R151" s="4">
-        <v>43308</v>
-      </c>
-      <c r="S151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22">
       <c r="A152" s="2">
         <v>43312</v>
       </c>
@@ -9493,19 +9440,16 @@
         <v>43312.45347222222</v>
       </c>
       <c r="P152">
-        <v>0</v>
-      </c>
-      <c r="S152">
-        <v>-50.7</v>
+        <v>1.3147</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
       </c>
       <c r="T152">
-        <v>1.3147</v>
-      </c>
-      <c r="U152" s="4">
-        <v>43311</v>
-      </c>
-    </row>
-    <row r="153" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22">
       <c r="A153" s="2">
         <v>43313</v>
       </c>
@@ -9552,19 +9496,22 @@
         <v>43313.45486111111</v>
       </c>
       <c r="P153">
-        <v>18.2</v>
+        <v>1.31155</v>
       </c>
       <c r="Q153">
-        <v>1.31155</v>
-      </c>
-      <c r="R153" s="4">
-        <v>43312</v>
-      </c>
-      <c r="S153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T153">
+        <v>-29.5</v>
+      </c>
+      <c r="U153">
+        <v>1.31175</v>
+      </c>
+      <c r="V153" s="3">
+        <v>43313.45486111111</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22">
       <c r="A154" s="2">
         <v>43314</v>
       </c>
@@ -9611,19 +9558,22 @@
         <v>43314.45694444444</v>
       </c>
       <c r="P154">
-        <v>0</v>
-      </c>
-      <c r="S154">
-        <v>-91.09999999999999</v>
+        <v>1.3122</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
       </c>
       <c r="T154">
-        <v>1.3122</v>
-      </c>
-      <c r="U154" s="4">
-        <v>43313</v>
-      </c>
-    </row>
-    <row r="155" spans="1:21">
+        <v>-84.59999999999999</v>
+      </c>
+      <c r="U154">
+        <v>1.30309</v>
+      </c>
+      <c r="V154" s="3">
+        <v>43314.45694444444</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22">
       <c r="A155" s="2">
         <v>43315</v>
       </c>
@@ -9670,19 +9620,22 @@
         <v>43315.43888888889</v>
       </c>
       <c r="P155">
-        <v>0</v>
-      </c>
-      <c r="S155">
-        <v>-29.7</v>
+        <v>1.30325</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
       </c>
       <c r="T155">
-        <v>1.30325</v>
-      </c>
-      <c r="U155" s="4">
-        <v>43314</v>
-      </c>
-    </row>
-    <row r="156" spans="1:21">
+        <v>-119.2</v>
+      </c>
+      <c r="U155">
+        <v>1.30028</v>
+      </c>
+      <c r="V155" s="3">
+        <v>43315.43888888889</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22">
       <c r="A156" s="2">
         <v>43318</v>
       </c>
@@ -9728,20 +9681,14 @@
       <c r="O156" s="3">
         <v>43318.45555555556</v>
       </c>
-      <c r="P156">
-        <v>0</v>
-      </c>
-      <c r="S156">
-        <v>-79.09999999999999</v>
+      <c r="Q156">
+        <v>0</v>
       </c>
       <c r="T156">
-        <v>1.3019</v>
-      </c>
-      <c r="U156" s="4">
-        <v>43315</v>
-      </c>
-    </row>
-    <row r="157" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22">
       <c r="A157" s="2">
         <v>43319</v>
       </c>
@@ -9788,19 +9735,16 @@
         <v>43319.44722222222</v>
       </c>
       <c r="P157">
-        <v>14.1</v>
+        <v>1.29405</v>
       </c>
       <c r="Q157">
-        <v>1.29405</v>
-      </c>
-      <c r="R157" s="4">
-        <v>43318</v>
-      </c>
-      <c r="S157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22">
       <c r="A158" s="2">
         <v>43320</v>
       </c>
@@ -9847,19 +9791,22 @@
         <v>43320.44166666667</v>
       </c>
       <c r="P158">
-        <v>0</v>
-      </c>
-      <c r="S158">
-        <v>-83.2</v>
+        <v>1.29505</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
       </c>
       <c r="T158">
-        <v>1.29505</v>
-      </c>
-      <c r="U158" s="4">
-        <v>43319</v>
-      </c>
-    </row>
-    <row r="159" spans="1:21">
+        <v>-73.2</v>
+      </c>
+      <c r="U158">
+        <v>1.28673</v>
+      </c>
+      <c r="V158" s="3">
+        <v>43320.44166666667</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22">
       <c r="A159" s="2">
         <v>43321</v>
       </c>
@@ -9906,25 +9853,22 @@
         <v>43321.45763888889</v>
       </c>
       <c r="P159">
-        <v>4.8</v>
+        <v>1.28805</v>
       </c>
       <c r="Q159">
-        <v>1.28805</v>
-      </c>
-      <c r="R159" s="4">
-        <v>43320</v>
-      </c>
-      <c r="S159">
-        <v>-13.4</v>
+        <v>0</v>
       </c>
       <c r="T159">
-        <v>1.28805</v>
-      </c>
-      <c r="U159" s="4">
-        <v>43320</v>
-      </c>
-    </row>
-    <row r="160" spans="1:21">
+        <v>-83.40000000000001</v>
+      </c>
+      <c r="U159">
+        <v>1.28671</v>
+      </c>
+      <c r="V159" s="3">
+        <v>43321.45763888889</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22">
       <c r="A160" s="2">
         <v>43322</v>
       </c>
@@ -9971,19 +9915,22 @@
         <v>43322.43888888889</v>
       </c>
       <c r="P160">
-        <v>0</v>
-      </c>
-      <c r="S160">
-        <v>-112.4</v>
+        <v>1.28705</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
       </c>
       <c r="T160">
-        <v>1.28705</v>
-      </c>
-      <c r="U160" s="4">
-        <v>43321</v>
-      </c>
-    </row>
-    <row r="161" spans="1:21">
+        <v>-122.4</v>
+      </c>
+      <c r="U160">
+        <v>1.27581</v>
+      </c>
+      <c r="V160" s="3">
+        <v>43322.43888888889</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22">
       <c r="A161" s="2">
         <v>43325</v>
       </c>
@@ -10029,20 +9976,14 @@
       <c r="O161" s="3">
         <v>43325.45972222222</v>
       </c>
-      <c r="P161">
-        <v>14.3</v>
-      </c>
       <c r="Q161">
-        <v>1.27755</v>
-      </c>
-      <c r="R161" s="4">
-        <v>43322</v>
-      </c>
-      <c r="S161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22">
       <c r="A162" s="2">
         <v>43326</v>
       </c>
@@ -10089,19 +10030,16 @@
         <v>43326.45625</v>
       </c>
       <c r="P162">
-        <v>0</v>
-      </c>
-      <c r="S162">
-        <v>-29.8</v>
+        <v>1.2777</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
       </c>
       <c r="T162">
-        <v>1.2777</v>
-      </c>
-      <c r="U162" s="4">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="163" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22">
       <c r="A163" s="2">
         <v>43327</v>
       </c>
@@ -10148,19 +10086,22 @@
         <v>43327.45694444444</v>
       </c>
       <c r="P163">
-        <v>0</v>
-      </c>
-      <c r="S163">
-        <v>-87</v>
+        <v>1.2752</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
       </c>
       <c r="T163">
-        <v>1.2752</v>
-      </c>
-      <c r="U163" s="4">
-        <v>43326</v>
-      </c>
-    </row>
-    <row r="164" spans="1:21">
+        <v>-112</v>
+      </c>
+      <c r="U163">
+        <v>1.2665</v>
+      </c>
+      <c r="V163" s="3">
+        <v>43327.45694444444</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22">
       <c r="A164" s="2">
         <v>43328</v>
       </c>
@@ -10207,19 +10148,22 @@
         <v>43328.44930555556</v>
       </c>
       <c r="P164">
-        <v>64.5</v>
+        <v>1.26675</v>
       </c>
       <c r="Q164">
-        <v>1.26675</v>
-      </c>
-      <c r="R164" s="4">
-        <v>43327</v>
-      </c>
-      <c r="S164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T164">
+        <v>-33</v>
+      </c>
+      <c r="U164">
+        <v>1.2719</v>
+      </c>
+      <c r="V164" s="3">
+        <v>43328.44930555556</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22">
       <c r="A165" s="2">
         <v>43329</v>
       </c>
@@ -10266,19 +10210,22 @@
         <v>43329.45208333333</v>
       </c>
       <c r="P165">
-        <v>16.3</v>
+        <v>1.27235</v>
       </c>
       <c r="Q165">
-        <v>1.27235</v>
-      </c>
-      <c r="R165" s="4">
-        <v>43328</v>
-      </c>
-      <c r="S165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:21">
+        <v>72.3</v>
+      </c>
+      <c r="R165">
+        <v>1.27398</v>
+      </c>
+      <c r="S165" s="3">
+        <v>43329.45833333334</v>
+      </c>
+      <c r="T165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22">
       <c r="A166" s="2">
         <v>43332</v>
       </c>
@@ -10324,20 +10271,14 @@
       <c r="O166" s="3">
         <v>43332.45833333334</v>
       </c>
-      <c r="P166">
-        <v>36.2</v>
-      </c>
       <c r="Q166">
-        <v>1.2738</v>
-      </c>
-      <c r="R166" s="4">
-        <v>43329</v>
-      </c>
-      <c r="S166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22">
       <c r="A167" s="2">
         <v>43333</v>
       </c>
@@ -10384,19 +10325,16 @@
         <v>43333.45763888889</v>
       </c>
       <c r="P167">
-        <v>114.8</v>
+        <v>1.2761</v>
       </c>
       <c r="Q167">
-        <v>1.2761</v>
-      </c>
-      <c r="R167" s="4">
-        <v>43332</v>
-      </c>
-      <c r="S167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22">
       <c r="A168" s="2">
         <v>43334</v>
       </c>
@@ -10443,19 +10381,22 @@
         <v>43334.45347222222</v>
       </c>
       <c r="P168">
-        <v>49.9</v>
+        <v>1.2866</v>
       </c>
       <c r="Q168">
-        <v>1.2866</v>
-      </c>
-      <c r="R168" s="4">
-        <v>43333</v>
-      </c>
-      <c r="S168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:21">
+        <v>154.9</v>
+      </c>
+      <c r="R168">
+        <v>1.29159</v>
+      </c>
+      <c r="S168" s="3">
+        <v>43334.45138888889</v>
+      </c>
+      <c r="T168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22">
       <c r="A169" s="2">
         <v>43335</v>
       </c>
@@ -10502,19 +10443,22 @@
         <v>43335.44930555556</v>
       </c>
       <c r="P169">
-        <v>0</v>
-      </c>
-      <c r="S169">
-        <v>-93.5</v>
+        <v>1.29105</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
       </c>
       <c r="T169">
-        <v>1.29105</v>
-      </c>
-      <c r="U169" s="4">
-        <v>43334</v>
-      </c>
-    </row>
-    <row r="170" spans="1:21">
+        <v>-49</v>
+      </c>
+      <c r="U169">
+        <v>1.2817</v>
+      </c>
+      <c r="V169" s="3">
+        <v>43335.44930555556</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22">
       <c r="A170" s="2">
         <v>43336</v>
       </c>
@@ -10561,19 +10505,22 @@
         <v>43336.44583333333</v>
       </c>
       <c r="P170">
-        <v>27.8</v>
+        <v>1.2835</v>
       </c>
       <c r="Q170">
-        <v>1.2835</v>
-      </c>
-      <c r="R170" s="4">
-        <v>43335</v>
-      </c>
-      <c r="S170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T170">
+        <v>-69.3</v>
+      </c>
+      <c r="U170">
+        <v>1.28412</v>
+      </c>
+      <c r="V170" s="3">
+        <v>43336.44583333333</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22">
       <c r="A171" s="2">
         <v>43339</v>
       </c>
@@ -10619,20 +10566,14 @@
       <c r="O171" s="3">
         <v>43339.44444444445</v>
       </c>
-      <c r="P171">
-        <v>32.8</v>
-      </c>
       <c r="Q171">
-        <v>1.2858</v>
-      </c>
-      <c r="R171" s="4">
-        <v>43336</v>
-      </c>
-      <c r="S171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22">
       <c r="A172" s="2">
         <v>43340</v>
       </c>
@@ -10679,19 +10620,16 @@
         <v>43340.45555555556</v>
       </c>
       <c r="P172">
-        <v>0</v>
-      </c>
-      <c r="S172">
-        <v>-18.1</v>
+        <v>1.28885</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
       </c>
       <c r="T172">
-        <v>1.28885</v>
-      </c>
-      <c r="U172" s="4">
-        <v>43339</v>
-      </c>
-    </row>
-    <row r="173" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22">
       <c r="A173" s="2">
         <v>43341</v>
       </c>
@@ -10738,19 +10676,22 @@
         <v>43341.44027777778</v>
       </c>
       <c r="P173">
-        <v>123.2</v>
+        <v>1.28795</v>
       </c>
       <c r="Q173">
-        <v>1.28795</v>
-      </c>
-      <c r="R173" s="4">
-        <v>43340</v>
-      </c>
-      <c r="S173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21">
+        <v>114.2</v>
+      </c>
+      <c r="R173">
+        <v>1.30027</v>
+      </c>
+      <c r="S173" s="3">
+        <v>43341.44791666666</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22">
       <c r="A174" s="2">
         <v>43342</v>
       </c>
@@ -10797,19 +10738,22 @@
         <v>43342.45833333334</v>
       </c>
       <c r="P174">
-        <v>27.1</v>
+        <v>1.29965</v>
       </c>
       <c r="Q174">
-        <v>1.29965</v>
-      </c>
-      <c r="R174" s="4">
-        <v>43341</v>
-      </c>
-      <c r="S174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:21">
+        <v>144.1</v>
+      </c>
+      <c r="R174">
+        <v>1.30236</v>
+      </c>
+      <c r="S174" s="3">
+        <v>43342.44236111111</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22">
       <c r="A175" s="2">
         <v>43343</v>
       </c>
@@ -10856,19 +10800,28 @@
         <v>43343.45277777778</v>
       </c>
       <c r="P175">
-        <v>0</v>
-      </c>
-      <c r="S175">
-        <v>-26.6</v>
+        <v>1.30075</v>
+      </c>
+      <c r="Q175">
+        <v>5.8</v>
+      </c>
+      <c r="R175">
+        <v>1.30023</v>
+      </c>
+      <c r="S175" s="3">
+        <v>43343.45694444444</v>
       </c>
       <c r="T175">
-        <v>1.30075</v>
-      </c>
-      <c r="U175" s="4">
-        <v>43342</v>
-      </c>
-    </row>
-    <row r="176" spans="1:21">
+        <v>-15.6</v>
+      </c>
+      <c r="U175">
+        <v>1.29809</v>
+      </c>
+      <c r="V175" s="3">
+        <v>43343.45277777778</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22">
       <c r="A176" s="2">
         <v>43346</v>
       </c>
@@ -10914,20 +10867,14 @@
       <c r="O176" s="3">
         <v>43346.4375</v>
       </c>
-      <c r="P176">
-        <v>0</v>
-      </c>
-      <c r="S176">
-        <v>-124.7</v>
+      <c r="Q176">
+        <v>0</v>
       </c>
       <c r="T176">
-        <v>1.2998</v>
-      </c>
-      <c r="U176" s="4">
-        <v>43343</v>
-      </c>
-    </row>
-    <row r="177" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22">
       <c r="A177" s="2">
         <v>43347</v>
       </c>
@@ -10974,19 +10921,16 @@
         <v>43347.44722222222</v>
       </c>
       <c r="P177">
-        <v>0</v>
-      </c>
-      <c r="S177">
-        <v>-74.8</v>
+        <v>1.28855</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
       </c>
       <c r="T177">
-        <v>1.28855</v>
-      </c>
-      <c r="U177" s="4">
-        <v>43346</v>
-      </c>
-    </row>
-    <row r="178" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22">
       <c r="A178" s="2">
         <v>43348</v>
       </c>
@@ -11033,19 +10977,22 @@
         <v>43348.45972222222</v>
       </c>
       <c r="P178">
-        <v>137.9</v>
+        <v>1.2833</v>
       </c>
       <c r="Q178">
-        <v>1.2833</v>
-      </c>
-      <c r="R178" s="4">
-        <v>43347</v>
-      </c>
-      <c r="S178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:21">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="R178">
+        <v>1.29709</v>
+      </c>
+      <c r="S178" s="3">
+        <v>43348.44027777778</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22">
       <c r="A179" s="2">
         <v>43349</v>
       </c>
@@ -11092,19 +11039,22 @@
         <v>43349.44236111111</v>
       </c>
       <c r="P179">
-        <v>0</v>
-      </c>
-      <c r="S179">
-        <v>-24.6</v>
+        <v>1.29575</v>
+      </c>
+      <c r="Q179">
+        <v>124.2</v>
+      </c>
+      <c r="R179">
+        <v>1.29572</v>
+      </c>
+      <c r="S179" s="3">
+        <v>43349.45694444444</v>
       </c>
       <c r="T179">
-        <v>1.29575</v>
-      </c>
-      <c r="U179" s="4">
-        <v>43348</v>
-      </c>
-    </row>
-    <row r="180" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22">
       <c r="A180" s="2">
         <v>43350</v>
       </c>
@@ -11151,25 +11101,28 @@
         <v>43350.45902777778</v>
       </c>
       <c r="P180">
-        <v>26.2</v>
+        <v>1.29525</v>
       </c>
       <c r="Q180">
-        <v>1.29525</v>
-      </c>
-      <c r="R180" s="4">
-        <v>43349</v>
-      </c>
-      <c r="S180">
-        <v>-5</v>
+        <v>21.2</v>
+      </c>
+      <c r="R180">
+        <v>1.29787</v>
+      </c>
+      <c r="S180" s="3">
+        <v>43350.44166666667</v>
       </c>
       <c r="T180">
-        <v>1.29525</v>
-      </c>
-      <c r="U180" s="4">
-        <v>43349</v>
-      </c>
-    </row>
-    <row r="181" spans="1:21">
+        <v>-10</v>
+      </c>
+      <c r="U180">
+        <v>1.29475</v>
+      </c>
+      <c r="V180" s="3">
+        <v>43350.45902777778</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22">
       <c r="A181" s="2">
         <v>43353</v>
       </c>
@@ -11215,20 +11168,14 @@
       <c r="O181" s="3">
         <v>43353.45069444444</v>
       </c>
-      <c r="P181">
-        <v>68.2</v>
-      </c>
       <c r="Q181">
-        <v>1.29575</v>
-      </c>
-      <c r="R181" s="4">
-        <v>43350</v>
-      </c>
-      <c r="S181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22">
       <c r="A182" s="2">
         <v>43354</v>
       </c>
@@ -11275,19 +11222,16 @@
         <v>43354.44791666666</v>
       </c>
       <c r="P182">
-        <v>0</v>
-      </c>
-      <c r="S182">
-        <v>-28.8</v>
+        <v>1.3019</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
       </c>
       <c r="T182">
-        <v>1.3019</v>
-      </c>
-      <c r="U182" s="4">
-        <v>43353</v>
-      </c>
-    </row>
-    <row r="183" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22">
       <c r="A183" s="2">
         <v>43355</v>
       </c>
@@ -11334,19 +11278,28 @@
         <v>43355.44375</v>
       </c>
       <c r="P183">
-        <v>25.2</v>
+        <v>1.29985</v>
       </c>
       <c r="Q183">
-        <v>1.29985</v>
-      </c>
-      <c r="R183" s="4">
-        <v>43354</v>
-      </c>
-      <c r="S183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:21">
+        <v>4.7</v>
+      </c>
+      <c r="R183">
+        <v>1.30237</v>
+      </c>
+      <c r="S183" s="3">
+        <v>43355.44027777778</v>
+      </c>
+      <c r="T183">
+        <v>-5.9</v>
+      </c>
+      <c r="U183">
+        <v>1.30131</v>
+      </c>
+      <c r="V183" s="3">
+        <v>43355.44375</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22">
       <c r="A184" s="2">
         <v>43356</v>
       </c>
@@ -11393,19 +11346,22 @@
         <v>43356.44652777778</v>
       </c>
       <c r="P184">
-        <v>80.5</v>
+        <v>1.30215</v>
       </c>
       <c r="Q184">
-        <v>1.30215</v>
-      </c>
-      <c r="R184" s="4">
-        <v>43355</v>
-      </c>
-      <c r="S184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:21">
+        <v>103.5</v>
+      </c>
+      <c r="R184">
+        <v>1.3102</v>
+      </c>
+      <c r="S184" s="3">
+        <v>43356.4375</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22">
       <c r="A185" s="2">
         <v>43357</v>
       </c>
@@ -11452,19 +11408,22 @@
         <v>43357.45902777778</v>
       </c>
       <c r="P185">
-        <v>0</v>
-      </c>
-      <c r="S185">
-        <v>-21.3</v>
+        <v>1.3093</v>
+      </c>
+      <c r="Q185">
+        <v>63.7</v>
+      </c>
+      <c r="R185">
+        <v>1.30852</v>
+      </c>
+      <c r="S185" s="3">
+        <v>43357.43958333333</v>
       </c>
       <c r="T185">
-        <v>1.3093</v>
-      </c>
-      <c r="U185" s="4">
-        <v>43356</v>
-      </c>
-    </row>
-    <row r="186" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22">
       <c r="A186" s="2">
         <v>43360</v>
       </c>
@@ -11510,20 +11469,14 @@
       <c r="O186" s="3">
         <v>43360.45347222222</v>
       </c>
-      <c r="P186">
-        <v>77.90000000000001</v>
-      </c>
       <c r="Q186">
-        <v>1.3077</v>
-      </c>
-      <c r="R186" s="4">
-        <v>43357</v>
-      </c>
-      <c r="S186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22">
       <c r="A187" s="2">
         <v>43361</v>
       </c>
@@ -11570,25 +11523,16 @@
         <v>43361.45625</v>
       </c>
       <c r="P187">
-        <v>4.3</v>
+        <v>1.31505</v>
       </c>
       <c r="Q187">
-        <v>1.31505</v>
-      </c>
-      <c r="R187" s="4">
-        <v>43360</v>
-      </c>
-      <c r="S187">
-        <v>-5.6</v>
+        <v>0</v>
       </c>
       <c r="T187">
-        <v>1.31505</v>
-      </c>
-      <c r="U187" s="4">
-        <v>43360</v>
-      </c>
-    </row>
-    <row r="188" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22">
       <c r="A188" s="2">
         <v>43362</v>
       </c>
@@ -11635,25 +11579,28 @@
         <v>43362.43819444445</v>
       </c>
       <c r="P188">
-        <v>2.5</v>
+        <v>1.3151</v>
       </c>
       <c r="Q188">
-        <v>1.3151</v>
-      </c>
-      <c r="R188" s="4">
-        <v>43361</v>
-      </c>
-      <c r="S188">
-        <v>-12.1</v>
+        <v>3</v>
+      </c>
+      <c r="R188">
+        <v>1.31535</v>
+      </c>
+      <c r="S188" s="3">
+        <v>43362.45972222222</v>
       </c>
       <c r="T188">
-        <v>1.3151</v>
-      </c>
-      <c r="U188" s="4">
-        <v>43361</v>
-      </c>
-    </row>
-    <row r="189" spans="1:21">
+        <v>-11.6</v>
+      </c>
+      <c r="U188">
+        <v>1.31389</v>
+      </c>
+      <c r="V188" s="3">
+        <v>43362.43819444445</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22">
       <c r="A189" s="2">
         <v>43363</v>
       </c>
@@ -11700,19 +11647,22 @@
         <v>43363.45555555556</v>
       </c>
       <c r="P189">
-        <v>115.8</v>
+        <v>1.3152</v>
       </c>
       <c r="Q189">
-        <v>1.3152</v>
-      </c>
-      <c r="R189" s="4">
-        <v>43362</v>
-      </c>
-      <c r="S189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:21">
+        <v>116.8</v>
+      </c>
+      <c r="R189">
+        <v>1.32678</v>
+      </c>
+      <c r="S189" s="3">
+        <v>43363.44513888889</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22">
       <c r="A190" s="2">
         <v>43364</v>
       </c>
@@ -11759,19 +11709,22 @@
         <v>43364.4375</v>
       </c>
       <c r="P190">
-        <v>0</v>
-      </c>
-      <c r="S190">
-        <v>-167.5</v>
+        <v>1.3251</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
       </c>
       <c r="T190">
-        <v>1.3251</v>
-      </c>
-      <c r="U190" s="4">
-        <v>43363</v>
-      </c>
-    </row>
-    <row r="191" spans="1:21">
+        <v>-68.5</v>
+      </c>
+      <c r="U190">
+        <v>1.30835</v>
+      </c>
+      <c r="V190" s="3">
+        <v>43364.4375</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22">
       <c r="A191" s="2">
         <v>43367</v>
       </c>
@@ -11817,20 +11770,14 @@
       <c r="O191" s="3">
         <v>43367.44027777778</v>
       </c>
-      <c r="P191">
-        <v>45.1</v>
-      </c>
       <c r="Q191">
-        <v>1.30965</v>
-      </c>
-      <c r="R191" s="4">
-        <v>43364</v>
-      </c>
-      <c r="S191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22">
       <c r="A192" s="2">
         <v>43368</v>
       </c>
@@ -11877,19 +11824,16 @@
         <v>43368.45</v>
       </c>
       <c r="P192">
-        <v>32.3</v>
+        <v>1.3141</v>
       </c>
       <c r="Q192">
-        <v>1.3141</v>
-      </c>
-      <c r="R192" s="4">
-        <v>43367</v>
-      </c>
-      <c r="S192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22">
       <c r="A193" s="2">
         <v>43369</v>
       </c>
@@ -11936,19 +11880,22 @@
         <v>43369.44236111111</v>
       </c>
       <c r="P193">
-        <v>32.5</v>
+        <v>1.31625</v>
       </c>
       <c r="Q193">
-        <v>1.31625</v>
-      </c>
-      <c r="R193" s="4">
-        <v>43368</v>
-      </c>
-      <c r="S193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:21">
+        <v>54</v>
+      </c>
+      <c r="R193">
+        <v>1.3195</v>
+      </c>
+      <c r="S193" s="3">
+        <v>43369.45555555556</v>
+      </c>
+      <c r="T193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22">
       <c r="A194" s="2">
         <v>43370</v>
       </c>
@@ -11995,19 +11942,22 @@
         <v>43370.45902777778</v>
       </c>
       <c r="P194">
-        <v>0</v>
-      </c>
-      <c r="S194">
-        <v>-71.3</v>
+        <v>1.31865</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
       </c>
       <c r="T194">
-        <v>1.31865</v>
-      </c>
-      <c r="U194" s="4">
-        <v>43369</v>
-      </c>
-    </row>
-    <row r="195" spans="1:21">
+        <v>-47.3</v>
+      </c>
+      <c r="U194">
+        <v>1.31152</v>
+      </c>
+      <c r="V194" s="3">
+        <v>43370.45902777778</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22">
       <c r="A195" s="2">
         <v>43371</v>
       </c>
@@ -12054,19 +12004,22 @@
         <v>43371.43888888889</v>
       </c>
       <c r="P195">
-        <v>0</v>
-      </c>
-      <c r="S195">
-        <v>-116.9</v>
+        <v>1.31215</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
       </c>
       <c r="T195">
-        <v>1.31215</v>
-      </c>
-      <c r="U195" s="4">
-        <v>43370</v>
-      </c>
-    </row>
-    <row r="196" spans="1:21">
+        <v>-181.9</v>
+      </c>
+      <c r="U195">
+        <v>1.30046</v>
+      </c>
+      <c r="V195" s="3">
+        <v>43371.43888888889</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22">
       <c r="A196" s="2">
         <v>43374</v>
       </c>
@@ -12112,20 +12065,14 @@
       <c r="O196" s="3">
         <v>43374.45763888889</v>
       </c>
-      <c r="P196">
-        <v>27</v>
-      </c>
       <c r="Q196">
-        <v>1.3038</v>
-      </c>
-      <c r="R196" s="4">
-        <v>43371</v>
-      </c>
-      <c r="S196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22">
       <c r="A197" s="2">
         <v>43375</v>
       </c>
@@ -12172,19 +12119,16 @@
         <v>43375.44930555556</v>
       </c>
       <c r="P197">
-        <v>0</v>
-      </c>
-      <c r="S197">
-        <v>-88.59999999999999</v>
+        <v>1.3048</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
       </c>
       <c r="T197">
-        <v>1.3048</v>
-      </c>
-      <c r="U197" s="4">
-        <v>43374</v>
-      </c>
-    </row>
-    <row r="198" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22">
       <c r="A198" s="2">
         <v>43376</v>
       </c>
@@ -12231,19 +12175,22 @@
         <v>43376.44652777778</v>
       </c>
       <c r="P198">
-        <v>34.6</v>
+        <v>1.2983</v>
       </c>
       <c r="Q198">
-        <v>1.2983</v>
-      </c>
-      <c r="R198" s="4">
-        <v>43375</v>
-      </c>
-      <c r="S198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T198">
+        <v>-50.1</v>
+      </c>
+      <c r="U198">
+        <v>1.29979</v>
+      </c>
+      <c r="V198" s="3">
+        <v>43376.44652777778</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22">
       <c r="A199" s="2">
         <v>43377</v>
       </c>
@@ -12290,19 +12237,22 @@
         <v>43377.45694444444</v>
       </c>
       <c r="P199">
-        <v>27.2</v>
+        <v>1.3006</v>
       </c>
       <c r="Q199">
-        <v>1.3006</v>
-      </c>
-      <c r="R199" s="4">
-        <v>43376</v>
-      </c>
-      <c r="S199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:21">
+        <v>50.2</v>
+      </c>
+      <c r="R199">
+        <v>1.30332</v>
+      </c>
+      <c r="S199" s="3">
+        <v>43377.43888888889</v>
+      </c>
+      <c r="T199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22">
       <c r="A200" s="2">
         <v>43378</v>
       </c>
@@ -12349,19 +12299,22 @@
         <v>43378.44305555556</v>
       </c>
       <c r="P200">
-        <v>95.3</v>
+        <v>1.30265</v>
       </c>
       <c r="Q200">
-        <v>1.30265</v>
-      </c>
-      <c r="R200" s="4">
-        <v>43377</v>
-      </c>
-      <c r="S200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:21">
+        <v>115.8</v>
+      </c>
+      <c r="R200">
+        <v>1.31218</v>
+      </c>
+      <c r="S200" s="3">
+        <v>43378.45555555556</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22">
       <c r="A201" s="2">
         <v>43381</v>
       </c>
@@ -12407,20 +12360,14 @@
       <c r="O201" s="3">
         <v>43381.44375</v>
       </c>
-      <c r="P201">
-        <v>0</v>
-      </c>
-      <c r="S201">
-        <v>-17.4</v>
+      <c r="Q201">
+        <v>0</v>
       </c>
       <c r="T201">
-        <v>1.3079</v>
-      </c>
-      <c r="U201" s="4">
-        <v>43378</v>
-      </c>
-    </row>
-    <row r="202" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22">
       <c r="A202" s="2">
         <v>43382</v>
       </c>
@@ -12467,19 +12414,16 @@
         <v>43382.45972222222</v>
       </c>
       <c r="P202">
-        <v>39.7</v>
+        <v>1.30685</v>
       </c>
       <c r="Q202">
-        <v>1.30685</v>
-      </c>
-      <c r="R202" s="4">
-        <v>43381</v>
-      </c>
-      <c r="S202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22">
       <c r="A203" s="2">
         <v>43383</v>
       </c>
@@ -12526,19 +12470,22 @@
         <v>43383.4375</v>
       </c>
       <c r="P203">
-        <v>119.5</v>
+        <v>1.30895</v>
       </c>
       <c r="Q203">
-        <v>1.30895</v>
-      </c>
-      <c r="R203" s="4">
-        <v>43382</v>
-      </c>
-      <c r="S203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:21">
+        <v>140.5</v>
+      </c>
+      <c r="R203">
+        <v>1.3209</v>
+      </c>
+      <c r="S203" s="3">
+        <v>43383.45347222222</v>
+      </c>
+      <c r="T203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22">
       <c r="A204" s="2">
         <v>43384</v>
       </c>
@@ -12585,19 +12532,22 @@
         <v>43384.45972222222</v>
       </c>
       <c r="P204">
-        <v>29.7</v>
+        <v>1.32</v>
       </c>
       <c r="Q204">
-        <v>1.32</v>
-      </c>
-      <c r="R204" s="4">
-        <v>43383</v>
-      </c>
-      <c r="S204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:21">
+        <v>140.2</v>
+      </c>
+      <c r="R204">
+        <v>1.32297</v>
+      </c>
+      <c r="S204" s="3">
+        <v>43384.44583333333</v>
+      </c>
+      <c r="T204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22">
       <c r="A205" s="2">
         <v>43385</v>
       </c>
@@ -12644,19 +12594,22 @@
         <v>43385.45486111111</v>
       </c>
       <c r="P205">
-        <v>0</v>
-      </c>
-      <c r="S205">
-        <v>-61.1</v>
+        <v>1.32145</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
       </c>
       <c r="T205">
-        <v>1.32145</v>
-      </c>
-      <c r="U205" s="4">
-        <v>43384</v>
-      </c>
-    </row>
-    <row r="206" spans="1:21">
+        <v>-46.6</v>
+      </c>
+      <c r="U205">
+        <v>1.31534</v>
+      </c>
+      <c r="V205" s="3">
+        <v>43385.45486111111</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22">
       <c r="A206" s="2">
         <v>43388</v>
       </c>
@@ -12702,26 +12655,14 @@
       <c r="O206" s="3">
         <v>43388.44027777778</v>
       </c>
-      <c r="P206">
-        <v>3.8</v>
-      </c>
       <c r="Q206">
-        <v>1.31565</v>
-      </c>
-      <c r="R206" s="4">
-        <v>43385</v>
-      </c>
-      <c r="S206">
-        <v>-24.5</v>
+        <v>0</v>
       </c>
       <c r="T206">
-        <v>1.31565</v>
-      </c>
-      <c r="U206" s="4">
-        <v>43385</v>
-      </c>
-    </row>
-    <row r="207" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22">
       <c r="A207" s="2">
         <v>43389</v>
       </c>
@@ -12768,19 +12709,16 @@
         <v>43389.45902777778</v>
       </c>
       <c r="P207">
-        <v>80.59999999999999</v>
+        <v>1.31405</v>
       </c>
       <c r="Q207">
-        <v>1.31405</v>
-      </c>
-      <c r="R207" s="4">
-        <v>43388</v>
-      </c>
-      <c r="S207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22">
       <c r="A208" s="2">
         <v>43390</v>
       </c>
@@ -12827,19 +12765,22 @@
         <v>43390.45486111111</v>
       </c>
       <c r="P208">
-        <v>0</v>
-      </c>
-      <c r="S208">
-        <v>-90.2</v>
+        <v>1.3213</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
       </c>
       <c r="T208">
-        <v>1.3213</v>
-      </c>
-      <c r="U208" s="4">
-        <v>43389</v>
-      </c>
-    </row>
-    <row r="209" spans="1:21">
+        <v>-17.7</v>
+      </c>
+      <c r="U208">
+        <v>1.31228</v>
+      </c>
+      <c r="V208" s="3">
+        <v>43390.45486111111</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22">
       <c r="A209" s="2">
         <v>43391</v>
       </c>
@@ -12886,19 +12827,22 @@
         <v>43391.45486111111</v>
       </c>
       <c r="P209">
-        <v>0</v>
-      </c>
-      <c r="S209">
-        <v>-64</v>
+        <v>1.31325</v>
+      </c>
+      <c r="Q209">
+        <v>0</v>
       </c>
       <c r="T209">
-        <v>1.31325</v>
-      </c>
-      <c r="U209" s="4">
-        <v>43390</v>
-      </c>
-    </row>
-    <row r="210" spans="1:21">
+        <v>-144.5</v>
+      </c>
+      <c r="U209">
+        <v>1.30685</v>
+      </c>
+      <c r="V209" s="3">
+        <v>43391.45486111111</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22">
       <c r="A210" s="2">
         <v>43392</v>
       </c>
@@ -12945,19 +12889,22 @@
         <v>43392.44930555556</v>
       </c>
       <c r="P210">
-        <v>0</v>
-      </c>
-      <c r="S210">
-        <v>-35.9</v>
+        <v>1.3074</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
       </c>
       <c r="T210">
-        <v>1.3074</v>
-      </c>
-      <c r="U210" s="4">
-        <v>43391</v>
-      </c>
-    </row>
-    <row r="211" spans="1:21">
+        <v>-94.40000000000001</v>
+      </c>
+      <c r="U210">
+        <v>1.30381</v>
+      </c>
+      <c r="V210" s="3">
+        <v>43392.44930555556</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22">
       <c r="A211" s="2">
         <v>43395</v>
       </c>
@@ -13003,20 +12950,14 @@
       <c r="O211" s="3">
         <v>43395.45902777778</v>
       </c>
-      <c r="P211">
-        <v>0</v>
-      </c>
-      <c r="S211">
-        <v>-74.09999999999999</v>
+      <c r="Q211">
+        <v>0</v>
       </c>
       <c r="T211">
-        <v>1.3045</v>
-      </c>
-      <c r="U211" s="4">
-        <v>43392</v>
-      </c>
-    </row>
-    <row r="212" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22">
       <c r="A212" s="2">
         <v>43396</v>
       </c>
@@ -13063,25 +13004,16 @@
         <v>43396.45902777778</v>
       </c>
       <c r="P212">
-        <v>12.1</v>
+        <v>1.2975</v>
       </c>
       <c r="Q212">
-        <v>1.2975</v>
-      </c>
-      <c r="R212" s="4">
-        <v>43395</v>
-      </c>
-      <c r="S212">
-        <v>-2.7</v>
+        <v>0</v>
       </c>
       <c r="T212">
-        <v>1.2975</v>
-      </c>
-      <c r="U212" s="4">
-        <v>43395</v>
-      </c>
-    </row>
-    <row r="213" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22">
       <c r="A213" s="2">
         <v>43397</v>
       </c>
@@ -13128,19 +13060,22 @@
         <v>43397.45833333334</v>
       </c>
       <c r="P213">
-        <v>0</v>
-      </c>
-      <c r="S213">
-        <v>-64.5</v>
+        <v>1.29745</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
       </c>
       <c r="T213">
-        <v>1.29745</v>
-      </c>
-      <c r="U213" s="4">
-        <v>43396</v>
-      </c>
-    </row>
-    <row r="214" spans="1:21">
+        <v>-65</v>
+      </c>
+      <c r="U213">
+        <v>1.291</v>
+      </c>
+      <c r="V213" s="3">
+        <v>43397.45833333334</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22">
       <c r="A214" s="2">
         <v>43398</v>
       </c>
@@ -13187,19 +13122,22 @@
         <v>43398.45972222222</v>
       </c>
       <c r="P214">
-        <v>0</v>
-      </c>
-      <c r="S214">
-        <v>-101.4</v>
+        <v>1.29135</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
       </c>
       <c r="T214">
-        <v>1.29135</v>
-      </c>
-      <c r="U214" s="4">
-        <v>43397</v>
-      </c>
-    </row>
-    <row r="215" spans="1:21">
+        <v>-162.4</v>
+      </c>
+      <c r="U214">
+        <v>1.28121</v>
+      </c>
+      <c r="V214" s="3">
+        <v>43398.45972222222</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22">
       <c r="A215" s="2">
         <v>43399</v>
       </c>
@@ -13246,25 +13184,22 @@
         <v>43399.43888888889</v>
       </c>
       <c r="P215">
-        <v>5.4</v>
+        <v>1.28145</v>
       </c>
       <c r="Q215">
-        <v>1.28145</v>
-      </c>
-      <c r="R215" s="4">
-        <v>43398</v>
-      </c>
-      <c r="S215">
-        <v>-4.3</v>
+        <v>0</v>
       </c>
       <c r="T215">
-        <v>1.28145</v>
-      </c>
-      <c r="U215" s="4">
-        <v>43398</v>
-      </c>
-    </row>
-    <row r="216" spans="1:21">
+        <v>-103.3</v>
+      </c>
+      <c r="U215">
+        <v>1.28102</v>
+      </c>
+      <c r="V215" s="3">
+        <v>43399.43888888889</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22">
       <c r="A216" s="2">
         <v>43402</v>
       </c>
@@ -13310,20 +13245,14 @@
       <c r="O216" s="3">
         <v>43402.4375</v>
       </c>
-      <c r="P216">
-        <v>0</v>
-      </c>
-      <c r="S216">
-        <v>-10.6</v>
+      <c r="Q216">
+        <v>0</v>
       </c>
       <c r="T216">
-        <v>1.28185</v>
-      </c>
-      <c r="U216" s="4">
-        <v>43399</v>
-      </c>
-    </row>
-    <row r="217" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22">
       <c r="A217" s="2">
         <v>43403</v>
       </c>
@@ -13370,19 +13299,16 @@
         <v>43403.45486111111</v>
       </c>
       <c r="P217">
-        <v>0</v>
-      </c>
-      <c r="S217">
-        <v>-72</v>
+        <v>1.28085</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
       </c>
       <c r="T217">
-        <v>1.28085</v>
-      </c>
-      <c r="U217" s="4">
-        <v>43402</v>
-      </c>
-    </row>
-    <row r="218" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22">
       <c r="A218" s="2">
         <v>43404</v>
       </c>
@@ -13429,19 +13355,22 @@
         <v>43404.45486111111</v>
       </c>
       <c r="P218">
-        <v>41.1</v>
+        <v>1.2733</v>
       </c>
       <c r="Q218">
-        <v>1.2733</v>
-      </c>
-      <c r="R218" s="4">
-        <v>43403</v>
-      </c>
-      <c r="S218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T218">
+        <v>-50.9</v>
+      </c>
+      <c r="U218">
+        <v>1.27576</v>
+      </c>
+      <c r="V218" s="3">
+        <v>43404.45486111111</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22">
       <c r="A219" s="2">
         <v>43405</v>
       </c>
@@ -13488,19 +13417,22 @@
         <v>43405.44444444445</v>
       </c>
       <c r="P219">
-        <v>168.4</v>
+        <v>1.2783</v>
       </c>
       <c r="Q219">
-        <v>1.2783</v>
-      </c>
-      <c r="R219" s="4">
-        <v>43404</v>
-      </c>
-      <c r="S219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:21">
+        <v>218.4</v>
+      </c>
+      <c r="R219">
+        <v>1.29514</v>
+      </c>
+      <c r="S219" s="3">
+        <v>43405.45486111111</v>
+      </c>
+      <c r="T219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22">
       <c r="A220" s="2">
         <v>43406</v>
       </c>
@@ -13547,19 +13479,22 @@
         <v>43406.45972222222</v>
       </c>
       <c r="P220">
-        <v>29</v>
+        <v>1.29725</v>
       </c>
       <c r="Q220">
-        <v>1.29725</v>
-      </c>
-      <c r="R220" s="4">
-        <v>43405</v>
-      </c>
-      <c r="S220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:21">
+        <v>218.5</v>
+      </c>
+      <c r="R220">
+        <v>1.30015</v>
+      </c>
+      <c r="S220" s="3">
+        <v>43406.44236111111</v>
+      </c>
+      <c r="T220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22">
       <c r="A221" s="2">
         <v>43409</v>
       </c>
@@ -13605,20 +13540,14 @@
       <c r="O221" s="3">
         <v>43409.45069444444</v>
       </c>
-      <c r="P221">
-        <v>66.3</v>
-      </c>
       <c r="Q221">
-        <v>1.29645</v>
-      </c>
-      <c r="R221" s="4">
-        <v>43406</v>
-      </c>
-      <c r="S221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22">
       <c r="A222" s="2">
         <v>43410</v>
       </c>
@@ -13665,19 +13594,16 @@
         <v>43410.44513888889</v>
       </c>
       <c r="P222">
-        <v>62.5</v>
+        <v>1.302</v>
       </c>
       <c r="Q222">
-        <v>1.302</v>
-      </c>
-      <c r="R222" s="4">
-        <v>43409</v>
-      </c>
-      <c r="S222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22">
       <c r="A223" s="2">
         <v>43411</v>
       </c>
@@ -13724,19 +13650,22 @@
         <v>43411.45972222222</v>
       </c>
       <c r="P223">
-        <v>85.2</v>
+        <v>1.30795</v>
       </c>
       <c r="Q223">
-        <v>1.30795</v>
-      </c>
-      <c r="R223" s="4">
-        <v>43410</v>
-      </c>
-      <c r="S223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:21">
+        <v>144.7</v>
+      </c>
+      <c r="R223">
+        <v>1.31647</v>
+      </c>
+      <c r="S223" s="3">
+        <v>43411.44444444445</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22">
       <c r="A224" s="2">
         <v>43412</v>
       </c>
@@ -13783,19 +13712,22 @@
         <v>43412.43958333333</v>
       </c>
       <c r="P224">
-        <v>0</v>
-      </c>
-      <c r="S224">
-        <v>-29.2</v>
+        <v>1.31425</v>
+      </c>
+      <c r="Q224">
+        <v>50.5</v>
+      </c>
+      <c r="R224">
+        <v>1.313</v>
+      </c>
+      <c r="S224" s="3">
+        <v>43412.45486111111</v>
       </c>
       <c r="T224">
-        <v>1.31425</v>
-      </c>
-      <c r="U224" s="4">
-        <v>43411</v>
-      </c>
-    </row>
-    <row r="225" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22">
       <c r="A225" s="2">
         <v>43413</v>
       </c>
@@ -13842,19 +13774,22 @@
         <v>43413.45625</v>
       </c>
       <c r="P225">
-        <v>0</v>
-      </c>
-      <c r="S225">
-        <v>-102.5</v>
+        <v>1.31275</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
       </c>
       <c r="T225">
-        <v>1.31275</v>
-      </c>
-      <c r="U225" s="4">
-        <v>43412</v>
-      </c>
-    </row>
-    <row r="226" spans="1:21">
+        <v>-117.5</v>
+      </c>
+      <c r="U225">
+        <v>1.3025</v>
+      </c>
+      <c r="V225" s="3">
+        <v>43413.45625</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22">
       <c r="A226" s="2">
         <v>43416</v>
       </c>
@@ -13900,20 +13835,14 @@
       <c r="O226" s="3">
         <v>43416.45972222222</v>
       </c>
-      <c r="P226">
-        <v>0</v>
-      </c>
-      <c r="S226">
-        <v>-165</v>
+      <c r="Q226">
+        <v>0</v>
       </c>
       <c r="T226">
-        <v>1.30285</v>
-      </c>
-      <c r="U226" s="4">
-        <v>43413</v>
-      </c>
-    </row>
-    <row r="227" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22">
       <c r="A227" s="2">
         <v>43417</v>
       </c>
@@ -13960,19 +13889,16 @@
         <v>43417.44166666667</v>
       </c>
       <c r="P227">
-        <v>127.2</v>
+        <v>1.28685</v>
       </c>
       <c r="Q227">
-        <v>1.28685</v>
-      </c>
-      <c r="R227" s="4">
-        <v>43416</v>
-      </c>
-      <c r="S227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22">
       <c r="A228" s="2">
         <v>43418</v>
       </c>
@@ -14019,25 +13945,22 @@
         <v>43418.43958333333</v>
       </c>
       <c r="P228">
-        <v>27.2</v>
+        <v>1.29915</v>
       </c>
       <c r="Q228">
-        <v>1.29915</v>
-      </c>
-      <c r="R228" s="4">
-        <v>43417</v>
-      </c>
-      <c r="S228">
-        <v>-16.7</v>
+        <v>150.2</v>
+      </c>
+      <c r="R228">
+        <v>1.30187</v>
+      </c>
+      <c r="S228" s="3">
+        <v>43418.45416666667</v>
       </c>
       <c r="T228">
-        <v>1.29915</v>
-      </c>
-      <c r="U228" s="4">
-        <v>43417</v>
-      </c>
-    </row>
-    <row r="229" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22">
       <c r="A229" s="2">
         <v>43419</v>
       </c>
@@ -14084,19 +14007,22 @@
         <v>43419.44791666666</v>
       </c>
       <c r="P229">
-        <v>0</v>
-      </c>
-      <c r="S229">
-        <v>-242.5</v>
+        <v>1.3007</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
       </c>
       <c r="T229">
-        <v>1.3007</v>
-      </c>
-      <c r="U229" s="4">
-        <v>43418</v>
-      </c>
-    </row>
-    <row r="230" spans="1:21">
+        <v>-227</v>
+      </c>
+      <c r="U229">
+        <v>1.27645</v>
+      </c>
+      <c r="V229" s="3">
+        <v>43419.44791666666</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22">
       <c r="A230" s="2">
         <v>43420</v>
       </c>
@@ -14143,19 +14069,22 @@
         <v>43420.45208333333</v>
       </c>
       <c r="P230">
-        <v>70</v>
+        <v>1.27845</v>
       </c>
       <c r="Q230">
-        <v>1.27845</v>
-      </c>
-      <c r="R230" s="4">
-        <v>43419</v>
-      </c>
-      <c r="S230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>-171.4</v>
+      </c>
+      <c r="U230">
+        <v>1.28356</v>
+      </c>
+      <c r="V230" s="3">
+        <v>43420.45208333333</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22">
       <c r="A231" s="2">
         <v>43423</v>
       </c>
@@ -14201,20 +14130,14 @@
       <c r="O231" s="3">
         <v>43423.45902777778</v>
       </c>
-      <c r="P231">
-        <v>32.6</v>
-      </c>
       <c r="Q231">
-        <v>1.28385</v>
-      </c>
-      <c r="R231" s="4">
-        <v>43420</v>
-      </c>
-      <c r="S231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22">
       <c r="A232" s="2">
         <v>43424</v>
       </c>
@@ -14261,19 +14184,16 @@
         <v>43424.44097222222</v>
       </c>
       <c r="P232">
-        <v>0</v>
-      </c>
-      <c r="S232">
-        <v>-49</v>
+        <v>1.28635</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
       </c>
       <c r="T232">
-        <v>1.28635</v>
-      </c>
-      <c r="U232" s="4">
-        <v>43423</v>
-      </c>
-    </row>
-    <row r="233" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22">
       <c r="A233" s="2">
         <v>43425</v>
       </c>
@@ -14320,19 +14240,22 @@
         <v>43425.45972222222</v>
       </c>
       <c r="P233">
-        <v>0</v>
-      </c>
-      <c r="S233">
-        <v>-49.8</v>
+        <v>1.2826</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
       </c>
       <c r="T233">
-        <v>1.2826</v>
-      </c>
-      <c r="U233" s="4">
-        <v>43424</v>
-      </c>
-    </row>
-    <row r="234" spans="1:21">
+        <v>-87.3</v>
+      </c>
+      <c r="U233">
+        <v>1.27762</v>
+      </c>
+      <c r="V233" s="3">
+        <v>43425.45972222222</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22">
       <c r="A234" s="2">
         <v>43426</v>
       </c>
@@ -14379,19 +14302,22 @@
         <v>43426.45416666667</v>
       </c>
       <c r="P234">
-        <v>95.2</v>
+        <v>1.2781</v>
       </c>
       <c r="Q234">
-        <v>1.2781</v>
-      </c>
-      <c r="R234" s="4">
-        <v>43425</v>
-      </c>
-      <c r="S234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:21">
+        <v>50.2</v>
+      </c>
+      <c r="R234">
+        <v>1.28762</v>
+      </c>
+      <c r="S234" s="3">
+        <v>43426.45694444444</v>
+      </c>
+      <c r="T234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22">
       <c r="A235" s="2">
         <v>43427</v>
       </c>
@@ -14438,19 +14364,22 @@
         <v>43427.45833333334</v>
       </c>
       <c r="P235">
-        <v>0</v>
-      </c>
-      <c r="S235">
-        <v>-71.3</v>
+        <v>1.2873</v>
+      </c>
+      <c r="Q235">
+        <v>46.9</v>
+      </c>
+      <c r="R235">
+        <v>1.28279</v>
+      </c>
+      <c r="S235" s="3">
+        <v>43427.44513888889</v>
       </c>
       <c r="T235">
-        <v>1.2873</v>
-      </c>
-      <c r="U235" s="4">
-        <v>43426</v>
-      </c>
-    </row>
-    <row r="236" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22">
       <c r="A236" s="2">
         <v>43430</v>
       </c>
@@ -14496,20 +14425,14 @@
       <c r="O236" s="3">
         <v>43430.45902777778</v>
       </c>
-      <c r="P236">
-        <v>30.1</v>
-      </c>
       <c r="Q236">
-        <v>1.2807</v>
-      </c>
-      <c r="R236" s="4">
-        <v>43427</v>
-      </c>
-      <c r="S236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22">
       <c r="A237" s="2">
         <v>43431</v>
       </c>
@@ -14556,19 +14479,16 @@
         <v>43431.45972222222</v>
       </c>
       <c r="P237">
-        <v>0</v>
-      </c>
-      <c r="S237">
-        <v>-90.7</v>
+        <v>1.2828</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
       </c>
       <c r="T237">
-        <v>1.2828</v>
-      </c>
-      <c r="U237" s="4">
-        <v>43430</v>
-      </c>
-    </row>
-    <row r="238" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22">
       <c r="A238" s="2">
         <v>43432</v>
       </c>
@@ -14615,19 +14535,22 @@
         <v>43432.45555555556</v>
       </c>
       <c r="P238">
-        <v>31</v>
+        <v>1.2743</v>
       </c>
       <c r="Q238">
-        <v>1.2743</v>
-      </c>
-      <c r="R238" s="4">
-        <v>43431</v>
-      </c>
-      <c r="S238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T238">
+        <v>-78.7</v>
+      </c>
+      <c r="U238">
+        <v>1.27493</v>
+      </c>
+      <c r="V238" s="3">
+        <v>43432.45555555556</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22">
       <c r="A239" s="2">
         <v>43433</v>
       </c>
@@ -14674,19 +14597,22 @@
         <v>43433.45416666667</v>
       </c>
       <c r="P239">
-        <v>29.2</v>
+        <v>1.2752</v>
       </c>
       <c r="Q239">
-        <v>1.2752</v>
-      </c>
-      <c r="R239" s="4">
-        <v>43432</v>
-      </c>
-      <c r="S239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:21">
+        <v>38.2</v>
+      </c>
+      <c r="R239">
+        <v>1.27812</v>
+      </c>
+      <c r="S239" s="3">
+        <v>43433.43819444445</v>
+      </c>
+      <c r="T239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22">
       <c r="A240" s="2">
         <v>43434</v>
       </c>
@@ -14733,19 +14659,28 @@
         <v>43434.44097222222</v>
       </c>
       <c r="P240">
-        <v>0</v>
-      </c>
-      <c r="S240">
-        <v>-27.6</v>
+        <v>1.27745</v>
+      </c>
+      <c r="Q240">
+        <v>10.6</v>
+      </c>
+      <c r="R240">
+        <v>1.27626</v>
+      </c>
+      <c r="S240" s="3">
+        <v>43434.45972222222</v>
       </c>
       <c r="T240">
-        <v>1.27745</v>
-      </c>
-      <c r="U240" s="4">
-        <v>43433</v>
-      </c>
-    </row>
-    <row r="241" spans="1:21">
+        <v>-5.1</v>
+      </c>
+      <c r="U240">
+        <v>1.27469</v>
+      </c>
+      <c r="V240" s="3">
+        <v>43434.44097222222</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22">
       <c r="A241" s="2">
         <v>43437</v>
       </c>
@@ -14791,20 +14726,14 @@
       <c r="O241" s="3">
         <v>43437.4375</v>
       </c>
-      <c r="P241">
-        <v>0</v>
-      </c>
-      <c r="S241">
-        <v>-25.1</v>
+      <c r="Q241">
+        <v>0</v>
       </c>
       <c r="T241">
-        <v>1.27545</v>
-      </c>
-      <c r="U241" s="4">
-        <v>43434</v>
-      </c>
-    </row>
-    <row r="242" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22">
       <c r="A242" s="2">
         <v>43438</v>
       </c>
@@ -14851,25 +14780,16 @@
         <v>43438.45347222222</v>
       </c>
       <c r="P242">
-        <v>4.7</v>
+        <v>1.27385</v>
       </c>
       <c r="Q242">
-        <v>1.27385</v>
-      </c>
-      <c r="R242" s="4">
-        <v>43437</v>
-      </c>
-      <c r="S242">
-        <v>-21.1</v>
+        <v>0</v>
       </c>
       <c r="T242">
-        <v>1.27385</v>
-      </c>
-      <c r="U242" s="4">
-        <v>43437</v>
-      </c>
-    </row>
-    <row r="243" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22">
       <c r="A243" s="2">
         <v>43439</v>
       </c>
@@ -14916,25 +14836,28 @@
         <v>43439.44166666667</v>
       </c>
       <c r="P243">
-        <v>13</v>
+        <v>1.2727</v>
       </c>
       <c r="Q243">
-        <v>1.2727</v>
-      </c>
-      <c r="R243" s="4">
-        <v>43438</v>
-      </c>
-      <c r="S243">
-        <v>-5.7</v>
+        <v>1.5</v>
+      </c>
+      <c r="R243">
+        <v>1.274</v>
+      </c>
+      <c r="S243" s="3">
+        <v>43439.45208333333</v>
       </c>
       <c r="T243">
-        <v>1.2727</v>
-      </c>
-      <c r="U243" s="4">
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="244" spans="1:21">
+        <v>-17.2</v>
+      </c>
+      <c r="U243">
+        <v>1.27213</v>
+      </c>
+      <c r="V243" s="3">
+        <v>43439.44166666667</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22">
       <c r="A244" s="2">
         <v>43440</v>
       </c>
@@ -14981,19 +14904,22 @@
         <v>43440.45625</v>
       </c>
       <c r="P244">
-        <v>64.5</v>
+        <v>1.27335</v>
       </c>
       <c r="Q244">
-        <v>1.27335</v>
-      </c>
-      <c r="R244" s="4">
-        <v>43439</v>
-      </c>
-      <c r="S244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:21">
+        <v>71</v>
+      </c>
+      <c r="R244">
+        <v>1.2798</v>
+      </c>
+      <c r="S244" s="3">
+        <v>43440.4375</v>
+      </c>
+      <c r="T244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22">
       <c r="A245" s="2">
         <v>43441</v>
       </c>
@@ -15040,19 +14966,28 @@
         <v>43441.43888888889</v>
       </c>
       <c r="P245">
-        <v>0</v>
-      </c>
-      <c r="S245">
-        <v>-50</v>
+        <v>1.27785</v>
+      </c>
+      <c r="Q245">
+        <v>24.9</v>
+      </c>
+      <c r="R245">
+        <v>1.27584</v>
+      </c>
+      <c r="S245" s="3">
+        <v>43441.45833333334</v>
       </c>
       <c r="T245">
-        <v>1.27785</v>
-      </c>
-      <c r="U245" s="4">
-        <v>43440</v>
-      </c>
-    </row>
-    <row r="246" spans="1:21">
+        <v>-5</v>
+      </c>
+      <c r="U245">
+        <v>1.27285</v>
+      </c>
+      <c r="V245" s="3">
+        <v>43441.43888888889</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22">
       <c r="A246" s="2">
         <v>43444</v>
       </c>
@@ -15098,20 +15033,14 @@
       <c r="O246" s="3">
         <v>43444.45763888889</v>
       </c>
-      <c r="P246">
-        <v>0</v>
-      </c>
-      <c r="S246">
-        <v>-232</v>
+      <c r="Q246">
+        <v>0</v>
       </c>
       <c r="T246">
-        <v>1.27565</v>
-      </c>
-      <c r="U246" s="4">
-        <v>43441</v>
-      </c>
-    </row>
-    <row r="247" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22">
       <c r="A247" s="2">
         <v>43445</v>
       </c>
@@ -15158,25 +15087,16 @@
         <v>43445.45902777778</v>
       </c>
       <c r="P247">
-        <v>23.5</v>
+        <v>1.2537</v>
       </c>
       <c r="Q247">
-        <v>1.2537</v>
-      </c>
-      <c r="R247" s="4">
-        <v>43444</v>
-      </c>
-      <c r="S247">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="T247">
-        <v>1.2537</v>
-      </c>
-      <c r="U247" s="4">
-        <v>43444</v>
-      </c>
-    </row>
-    <row r="248" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22">
       <c r="A248" s="2">
         <v>43446</v>
       </c>
@@ -15223,19 +15143,22 @@
         <v>43446.44722222222</v>
       </c>
       <c r="P248">
-        <v>124.9</v>
+        <v>1.25425</v>
       </c>
       <c r="Q248">
-        <v>1.25425</v>
-      </c>
-      <c r="R248" s="4">
-        <v>43445</v>
-      </c>
-      <c r="S248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:21">
+        <v>130.4</v>
+      </c>
+      <c r="R248">
+        <v>1.26674</v>
+      </c>
+      <c r="S248" s="3">
+        <v>43446.45694444444</v>
+      </c>
+      <c r="T248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22">
       <c r="A249" s="2">
         <v>43447</v>
       </c>
@@ -15282,19 +15205,22 @@
         <v>43447.45833333334</v>
       </c>
       <c r="P249">
-        <v>0</v>
-      </c>
-      <c r="S249">
-        <v>-46.9</v>
+        <v>1.26635</v>
+      </c>
+      <c r="Q249">
+        <v>86.3</v>
+      </c>
+      <c r="R249">
+        <v>1.26288</v>
+      </c>
+      <c r="S249" s="3">
+        <v>43447.45486111111</v>
       </c>
       <c r="T249">
-        <v>1.26635</v>
-      </c>
-      <c r="U249" s="4">
-        <v>43446</v>
-      </c>
-    </row>
-    <row r="250" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22">
       <c r="A250" s="2">
         <v>43448</v>
       </c>
@@ -15341,19 +15267,22 @@
         <v>43448.4375</v>
       </c>
       <c r="P250">
-        <v>0</v>
-      </c>
-      <c r="S250">
-        <v>-71.8</v>
+        <v>1.26205</v>
+      </c>
+      <c r="Q250">
+        <v>0</v>
       </c>
       <c r="T250">
-        <v>1.26205</v>
-      </c>
-      <c r="U250" s="4">
-        <v>43447</v>
-      </c>
-    </row>
-    <row r="251" spans="1:21">
+        <v>-114.8</v>
+      </c>
+      <c r="U250">
+        <v>1.25487</v>
+      </c>
+      <c r="V250" s="3">
+        <v>43448.4375</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22">
       <c r="A251" s="2">
         <v>43451</v>
       </c>
@@ -15399,20 +15328,14 @@
       <c r="O251" s="3">
         <v>43451.45138888889</v>
       </c>
-      <c r="P251">
-        <v>56.2</v>
-      </c>
       <c r="Q251">
-        <v>1.2558</v>
-      </c>
-      <c r="R251" s="4">
-        <v>43448</v>
-      </c>
-      <c r="S251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22">
       <c r="A252" s="2">
         <v>43452</v>
       </c>
@@ -15459,19 +15382,16 @@
         <v>43452.45763888889</v>
       </c>
       <c r="P252">
-        <v>56.3</v>
+        <v>1.2611</v>
       </c>
       <c r="Q252">
-        <v>1.2611</v>
-      </c>
-      <c r="R252" s="4">
-        <v>43451</v>
-      </c>
-      <c r="S252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="T252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22">
       <c r="A253" s="2">
         <v>43453</v>
       </c>
@@ -15518,19 +15438,22 @@
         <v>43453.45763888889</v>
       </c>
       <c r="P253">
-        <v>36.3</v>
+        <v>1.26325</v>
       </c>
       <c r="Q253">
-        <v>1.26325</v>
-      </c>
-      <c r="R253" s="4">
-        <v>43452</v>
-      </c>
-      <c r="S253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:21">
+        <v>57.8</v>
+      </c>
+      <c r="R253">
+        <v>1.26688</v>
+      </c>
+      <c r="S253" s="3">
+        <v>43453.43819444445</v>
+      </c>
+      <c r="T253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22">
       <c r="A254" s="2">
         <v>43454</v>
       </c>
@@ -15577,19 +15500,28 @@
         <v>43454.45416666667</v>
       </c>
       <c r="P254">
-        <v>0</v>
-      </c>
-      <c r="S254">
-        <v>-16.6</v>
+        <v>1.26435</v>
+      </c>
+      <c r="Q254">
+        <v>9.1</v>
+      </c>
+      <c r="R254">
+        <v>1.26416</v>
+      </c>
+      <c r="S254" s="3">
+        <v>43454.4375</v>
       </c>
       <c r="T254">
-        <v>1.26435</v>
-      </c>
-      <c r="U254" s="4">
-        <v>43453</v>
-      </c>
-    </row>
-    <row r="255" spans="1:21">
+        <v>-5.6</v>
+      </c>
+      <c r="U254">
+        <v>1.26269</v>
+      </c>
+      <c r="V254" s="3">
+        <v>43454.45416666667</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22">
       <c r="A255" s="2">
         <v>43455</v>
       </c>
@@ -15636,19 +15568,22 @@
         <v>43455.4375</v>
       </c>
       <c r="P255">
-        <v>54.9</v>
+        <v>1.26345</v>
       </c>
       <c r="Q255">
-        <v>1.26345</v>
-      </c>
-      <c r="R255" s="4">
-        <v>43454</v>
-      </c>
-      <c r="S255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:21">
+        <v>45.9</v>
+      </c>
+      <c r="R255">
+        <v>1.26894</v>
+      </c>
+      <c r="S255" s="3">
+        <v>43455.45416666667</v>
+      </c>
+      <c r="T255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22">
       <c r="A256" s="2">
         <v>43458</v>
       </c>
@@ -15695,25 +15630,16 @@
         <v>43458.44444444445</v>
       </c>
       <c r="P256">
-        <v>3.7</v>
+        <v>1.2714</v>
       </c>
       <c r="Q256">
-        <v>1.2714</v>
-      </c>
-      <c r="R256" s="4">
-        <v>43457</v>
-      </c>
-      <c r="S256">
-        <v>-14.7</v>
+        <v>0</v>
       </c>
       <c r="T256">
-        <v>1.2714</v>
-      </c>
-      <c r="U256" s="4">
-        <v>43457</v>
-      </c>
-    </row>
-    <row r="257" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22">
       <c r="A257" s="2">
         <v>43460</v>
       </c>
@@ -15759,20 +15685,20 @@
       <c r="O257" s="3">
         <v>43460.45763888889</v>
       </c>
-      <c r="P257">
-        <v>0</v>
-      </c>
-      <c r="S257">
+      <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="T257">
         <v>-42.4</v>
       </c>
-      <c r="T257">
-        <v>1.2714</v>
-      </c>
-      <c r="U257" s="4">
-        <v>43458</v>
-      </c>
-    </row>
-    <row r="258" spans="1:21">
+      <c r="U257">
+        <v>1.26716</v>
+      </c>
+      <c r="V257" s="3">
+        <v>43460.45763888889</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22">
       <c r="A258" s="2">
         <v>43461</v>
       </c>
@@ -15819,19 +15745,16 @@
         <v>43461.45972222222</v>
       </c>
       <c r="P258">
-        <v>0</v>
-      </c>
-      <c r="S258">
-        <v>-44.7</v>
+        <v>1.2677</v>
+      </c>
+      <c r="Q258">
+        <v>0</v>
       </c>
       <c r="T258">
-        <v>1.2677</v>
-      </c>
-      <c r="U258" s="4">
-        <v>43460</v>
-      </c>
-    </row>
-    <row r="259" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22">
       <c r="A259" s="2">
         <v>43462</v>
       </c>
@@ -15878,19 +15801,28 @@
         <v>43462.45486111111</v>
       </c>
       <c r="P259">
-        <v>51.4</v>
+        <v>1.2639</v>
       </c>
       <c r="Q259">
-        <v>1.2639</v>
-      </c>
-      <c r="R259" s="4">
-        <v>43461</v>
-      </c>
-      <c r="S259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:21">
+        <v>13.4</v>
+      </c>
+      <c r="R259">
+        <v>1.26904</v>
+      </c>
+      <c r="S259" s="3">
+        <v>43462.45069444444</v>
+      </c>
+      <c r="T259">
+        <v>-0.1</v>
+      </c>
+      <c r="U259">
+        <v>1.26769</v>
+      </c>
+      <c r="V259" s="3">
+        <v>43462.45486111111</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22">
       <c r="A260" s="2">
         <v>43465</v>
       </c>
@@ -15936,16 +15868,10 @@
       <c r="O260" s="3">
         <v>43465.45902777778</v>
       </c>
-      <c r="P260">
-        <v>131.2</v>
-      </c>
       <c r="Q260">
-        <v>1.2682</v>
-      </c>
-      <c r="R260" s="4">
-        <v>43462</v>
-      </c>
-      <c r="S260">
+        <v>0</v>
+      </c>
+      <c r="T260">
         <v>0</v>
       </c>
     </row>

--- a/edge_research/dataout/18mpip.xlsx
+++ b/edge_research/dataout/18mpip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viclee/Developer/_gbfx/fx-research/edge_research/dataout/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E77595C-801E-8546-B580-B34EA0996726}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B89A6D-376A-0D46-A639-F51E8486BB29}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,43 +25,43 @@
     <t>1030_PRICE</t>
   </si>
   <si>
-    <t>MAX_PIP_UP_1030</t>
+    <t>MAX_PIP_UP__1030</t>
   </si>
   <si>
-    <t>MAX_PIP_UP_1030_PRICE</t>
+    <t>MAX_PIP_UP__1030_PRICE</t>
   </si>
   <si>
-    <t>MAX_PIP_UP_1030_DATETIME</t>
+    <t>MAX_PIP_UP__1030_DATETIME</t>
   </si>
   <si>
-    <t>MAX_PIP_DOWN_1030</t>
+    <t>MAX_PIP_DOWN__1030</t>
   </si>
   <si>
-    <t>MAX_PIP_DOWN_1030_PRICE</t>
+    <t>MAX_PIP_DOWN__1030_PRICE</t>
   </si>
   <si>
-    <t>MAX_PIP_DOWN_1030_DATETIME</t>
+    <t>MAX_PIP_DOWN__1030_DATETIME</t>
   </si>
   <si>
     <t>1045_PRICE</t>
   </si>
   <si>
-    <t>MAX_PIP_UP_1045</t>
+    <t>MAX_PIP_UP__1045</t>
   </si>
   <si>
-    <t>MAX_PIP_UP_1045_PRICE</t>
+    <t>MAX_PIP_UP__1045_PRICE</t>
   </si>
   <si>
-    <t>MAX_PIP_UP_1045_DATETIME</t>
+    <t>MAX_PIP_UP__1045_DATETIME</t>
   </si>
   <si>
-    <t>MAX_PIP_DOWN_1045</t>
+    <t>MAX_PIP_DOWN__1045</t>
   </si>
   <si>
-    <t>MAX_PIP_DOWN_1045_PRICE</t>
+    <t>MAX_PIP_DOWN__1045_PRICE</t>
   </si>
   <si>
-    <t>MAX_PIP_DOWN_1045_DATETIME</t>
+    <t>MAX_PIP_DOWN__1045_DATETIME</t>
   </si>
   <si>
     <t>CURRENT_DAY_FIX_PRICE</t>
@@ -70,22 +70,22 @@
     <t>PRIOR_DAY_FIX_PRICE</t>
   </si>
   <si>
-    <t>MAX_PIP_UP_PRIOR_DAY_FIX</t>
+    <t>MAX_PIP_UP__PRIOR_DAY_FIX</t>
   </si>
   <si>
-    <t>MAX_PIP_UP_PRIOR_DAY_FIX_PRICE</t>
+    <t>MAX_PIP_UP__PDFX_PRICE</t>
   </si>
   <si>
-    <t>MAX_PIP_UP_PRIOR_DAY_FIX_DATETIME</t>
+    <t>MAX_PIP_UP__PDFX_DATETIME</t>
   </si>
   <si>
-    <t>MAX_PIP_DOWN_PRIOR_DAY_FIX</t>
+    <t>MAX_PIP_DOWN__PRIOR_DAY_FIX</t>
   </si>
   <si>
-    <t>MAX_PIP_DOWN_PRIOR_DAY_FIX_PRICE</t>
+    <t>MAX_PIP_DOWN__PDFX_PRICE</t>
   </si>
   <si>
-    <t>MAX_PIP_DOWN_PRIOR_DAY_FIX_DATETIME</t>
+    <t>MAX_PIP_DOWN__PDFX_DATETIME</t>
   </si>
 </sst>
 </file>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/edge_research/dataout/18mpip.xlsx
+++ b/edge_research/dataout/18mpip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viclee/Developer/_gbfx/fx-research/edge_research/dataout/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B89A6D-376A-0D46-A639-F51E8486BB29}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D02D697-21FD-E545-B86E-3A323AC1A7A1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
     <t>PRIOR_DAY_FIX_PRICE</t>
   </si>
   <si>
-    <t>MAX_PIP_UP__PRIOR_DAY_FIX</t>
+    <t>MAX_PIP_UP__PDFX</t>
   </si>
   <si>
     <t>MAX_PIP_UP__PDFX_PRICE</t>
@@ -79,7 +79,7 @@
     <t>MAX_PIP_UP__PDFX_DATETIME</t>
   </si>
   <si>
-    <t>MAX_PIP_DOWN__PRIOR_DAY_FIX</t>
+    <t>MAX_PIP_DOWN__PDFX</t>
   </si>
   <si>
     <t>MAX_PIP_DOWN__PDFX_PRICE</t>
@@ -497,13 +497,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="23" width="18.6640625" customWidth="1"/>
+    <col min="1" max="23" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
